--- a/VersionRecords/Version 5.3.5 20170321/版本Bug和特性计划及评审表v5.3.5.xlsx
+++ b/VersionRecords/Version 5.3.5 20170321/版本Bug和特性计划及评审表v5.3.5.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27809"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26215"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shixinxin/DataCode/GitDoc/Mogo_Doc/VersionRecords/Version 5.3.5 20170321/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andubu/MogoDoc/Mogo_Doc/VersionRecords/Version 5.3.5 20170321/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="35100" yWindow="1200" windowWidth="28800" windowHeight="16460" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="1240" windowWidth="28800" windowHeight="16460"/>
   </bookViews>
   <sheets>
     <sheet name="01 版本X.X.X 新特性|Fix Bug" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <sheet name="05 数据修复" sheetId="8" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'01 版本X.X.X 新特性|Fix Bug'!$A$1:$W$20</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'01 版本X.X.X 新特性|Fix Bug'!$A$1:$W$17</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="1" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="3" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="4" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
@@ -31,9 +31,6 @@
   </definedNames>
   <calcPr calcId="144525" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -42,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="271">
   <si>
     <t>No</t>
   </si>
@@ -342,7 +339,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="微软雅黑"/>
-        <charset val="134"/>
+        <charset val="161"/>
       </rPr>
       <t>rror日志修改</t>
     </r>
@@ -667,17 +664,6 @@
     <t>PM-818</t>
   </si>
   <si>
-    <t>58改版1.1</t>
-    <rPh sb="2" eb="3">
-      <t>gai'b</t>
-    </rPh>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>BS,partner</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
     <t>是</t>
     <rPh sb="0" eb="1">
       <t>shi</t>
@@ -688,65 +674,6 @@
     <t>游侠</t>
     <rPh sb="0" eb="1">
       <t>you'xia</t>
-    </rPh>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>官网业主注册H5</t>
-    <rPh sb="0" eb="1">
-      <t>guan'w</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ye'zhu</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>zhu'ce</t>
-    </rPh>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>renterPc</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>墨菲</t>
-    <rPh sb="0" eb="1">
-      <t>mo'fei</t>
-    </rPh>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>BS防欺诈认证房东姓名身份证号验证</t>
-    <rPh sb="2" eb="3">
-      <t>fang</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>qi'z</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ren'zheng</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>fang'dong</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>xing'm</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>shen'f</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>zheng'hao</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>yan'z</t>
-    </rPh>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>哑铃</t>
-    <rPh sb="0" eb="1">
-      <t>ya'lign</t>
     </rPh>
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
@@ -1435,7 +1362,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <charset val="134"/>
+        <charset val="161"/>
       </rPr>
       <t>"}</t>
     </r>
@@ -1469,7 +1396,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <charset val="134"/>
+        <charset val="161"/>
       </rPr>
       <t>-tasktracker</t>
     </r>
@@ -1495,7 +1422,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <charset val="134"/>
+        <charset val="161"/>
       </rPr>
       <t>"}</t>
     </r>
@@ -1508,6 +1435,60 @@
   <si>
     <t>尹彪有一个分析tomcat日志的定时器也可以关闭了</t>
     <phoneticPr fontId="33" type="noConversion"/>
+  </si>
+  <si>
+    <t>kaapi</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>在线用户监控</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>定时器</t>
+    <rPh sb="0" eb="1">
+      <t>ding'shi'qi</t>
+    </rPh>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>自测</t>
+    <rPh sb="0" eb="1">
+      <t>zi'c</t>
+    </rPh>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>能</t>
+    <rPh sb="0" eb="1">
+      <t>neng</t>
+    </rPh>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>DV-2921</t>
+  </si>
+  <si>
+    <t>每天签约单量统计</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>捷豹</t>
+    <rPh sb="0" eb="1">
+      <t>jie'b</t>
+    </rPh>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付量统计</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>架构</t>
+    <rPh sb="0" eb="1">
+      <t>jia'gou</t>
+    </rPh>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1526,6 +1507,7 @@
       <sz val="11"/>
       <color indexed="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1533,6 +1515,50 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <charset val="161"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="161"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="161"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="华文仿宋"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="华文仿宋"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="华文仿宋"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="华文仿宋"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1540,105 +1566,70 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="华文仿宋"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="华文仿宋"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="华文仿宋"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="华文仿宋"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
+      <charset val="161"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="63"/>
       <name val="微软雅黑"/>
-      <charset val="134"/>
+      <charset val="161"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="微软雅黑"/>
-      <charset val="134"/>
+      <charset val="161"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="0" tint="-0.249977111117893"/>
       <name val="微软雅黑"/>
-      <charset val="134"/>
+      <charset val="161"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="微软雅黑"/>
-      <charset val="134"/>
+      <charset val="161"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="微软雅黑"/>
-      <charset val="134"/>
+      <charset val="161"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1646,12 +1637,12 @@
       <sz val="11"/>
       <color indexed="63"/>
       <name val="Calibri"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1659,11 +1650,13 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1671,6 +1664,7 @@
       <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -2015,7 +2009,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="152">
+  <cellXfs count="150">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2196,9 +2190,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="6" borderId="10" xfId="9" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2214,7 +2205,232 @@
     <xf numFmtId="0" fontId="13" fillId="6" borderId="10" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="10" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="10" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="10" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="6" borderId="10" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="10" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="13">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="10" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="0" xfId="12" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="0" xfId="12" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="13" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="10" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="10" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="10" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="10" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="13" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="10" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="10" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="5" borderId="1" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="6" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="6" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2226,12 +2442,12 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="7" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="7" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2243,234 +2459,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="10" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="10" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="10" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="6" borderId="10" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="10" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="13">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="10" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="0" xfId="12" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="0" xfId="12" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="13" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="10" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="10" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="10" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="10" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="13" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="10" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="10" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="5" borderId="1" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="6" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="6" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="14">
@@ -2489,7 +2477,7 @@
     <cellStyle name="甘特图" xfId="3"/>
     <cellStyle name="个性色4" xfId="11" builtinId="41"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="1">
     <dxf>
       <font>
         <b/>
@@ -2500,11 +2488,9 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf/>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7">
     <tableStyle name="MySqlDefault" count="2">
-      <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
   </tableStyles>
@@ -2845,10 +2831,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X170"/>
+  <dimension ref="A1:X167"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -2948,461 +2934,461 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:24" s="86" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="76">
+    <row r="2" spans="1:24" s="75" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="65">
         <v>1</v>
       </c>
-      <c r="B2" s="76" t="s">
+      <c r="B2" s="65" t="s">
         <v>68</v>
       </c>
-      <c r="C2" s="76" t="s">
+      <c r="C2" s="65" t="s">
         <v>69</v>
       </c>
-      <c r="D2" s="77" t="s">
+      <c r="D2" s="66" t="s">
         <v>70</v>
       </c>
-      <c r="E2" s="78" t="s">
+      <c r="E2" s="67" t="s">
         <v>71</v>
       </c>
-      <c r="F2" s="78" t="s">
+      <c r="F2" s="67" t="s">
         <v>72</v>
       </c>
-      <c r="G2" s="78" t="s">
+      <c r="G2" s="67" t="s">
         <v>73</v>
       </c>
-      <c r="H2" s="79">
+      <c r="H2" s="68">
         <v>42810</v>
       </c>
-      <c r="I2" s="78" t="s">
+      <c r="I2" s="67" t="s">
         <v>73</v>
       </c>
-      <c r="J2" s="79">
+      <c r="J2" s="68">
         <v>42810</v>
       </c>
-      <c r="K2" s="78"/>
-      <c r="L2" s="76" t="s">
+      <c r="K2" s="67"/>
+      <c r="L2" s="65" t="s">
         <v>74</v>
       </c>
-      <c r="M2" s="78" t="s">
+      <c r="M2" s="67" t="s">
         <v>75</v>
       </c>
-      <c r="N2" s="78" t="s">
+      <c r="N2" s="67" t="s">
         <v>76</v>
       </c>
-      <c r="O2" s="78" t="s">
+      <c r="O2" s="67" t="s">
         <v>77</v>
       </c>
-      <c r="P2" s="80" t="s">
+      <c r="P2" s="69" t="s">
         <v>78</v>
       </c>
-      <c r="Q2" s="79">
+      <c r="Q2" s="68">
         <v>42810</v>
       </c>
-      <c r="R2" s="80" t="s">
+      <c r="R2" s="69" t="s">
         <v>79</v>
       </c>
-      <c r="S2" s="81" t="s">
+      <c r="S2" s="70" t="s">
         <v>80</v>
       </c>
       <c r="T2" s="58">
         <v>9903</v>
       </c>
-      <c r="U2" s="82"/>
-      <c r="V2" s="83" t="s">
+      <c r="U2" s="71"/>
+      <c r="V2" s="72" t="s">
         <v>81</v>
       </c>
-      <c r="W2" s="84"/>
-      <c r="X2" s="85"/>
-    </row>
-    <row r="3" spans="1:24" s="86" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="76">
+      <c r="W2" s="73"/>
+      <c r="X2" s="74"/>
+    </row>
+    <row r="3" spans="1:24" s="75" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="65">
         <v>2</v>
       </c>
-      <c r="B3" s="76" t="s">
+      <c r="B3" s="65" t="s">
         <v>68</v>
       </c>
-      <c r="C3" s="76" t="s">
+      <c r="C3" s="65" t="s">
         <v>69</v>
       </c>
-      <c r="D3" s="77" t="s">
+      <c r="D3" s="66" t="s">
         <v>82</v>
       </c>
-      <c r="E3" s="78" t="s">
+      <c r="E3" s="67" t="s">
         <v>83</v>
       </c>
-      <c r="F3" s="78" t="s">
+      <c r="F3" s="67" t="s">
         <v>84</v>
       </c>
-      <c r="G3" s="78" t="s">
+      <c r="G3" s="67" t="s">
         <v>73</v>
       </c>
-      <c r="H3" s="79">
+      <c r="H3" s="68">
         <v>42814</v>
       </c>
-      <c r="I3" s="78" t="s">
+      <c r="I3" s="67" t="s">
         <v>73</v>
       </c>
-      <c r="J3" s="79">
+      <c r="J3" s="68">
         <v>42814</v>
       </c>
-      <c r="K3" s="78"/>
-      <c r="L3" s="80" t="s">
+      <c r="K3" s="67"/>
+      <c r="L3" s="69" t="s">
         <v>85</v>
       </c>
-      <c r="M3" s="78" t="s">
+      <c r="M3" s="67" t="s">
         <v>86</v>
       </c>
-      <c r="N3" s="78" t="s">
+      <c r="N3" s="67" t="s">
         <v>76</v>
       </c>
-      <c r="O3" s="78" t="s">
+      <c r="O3" s="67" t="s">
         <v>87</v>
       </c>
-      <c r="P3" s="80" t="s">
+      <c r="P3" s="69" t="s">
         <v>78</v>
       </c>
-      <c r="Q3" s="79">
+      <c r="Q3" s="68">
         <v>42814</v>
       </c>
-      <c r="R3" s="80" t="s">
+      <c r="R3" s="69" t="s">
         <v>79</v>
       </c>
-      <c r="S3" s="87" t="s">
+      <c r="S3" s="76" t="s">
         <v>88</v>
       </c>
-      <c r="T3" s="82"/>
-      <c r="U3" s="82"/>
-      <c r="V3" s="83"/>
-      <c r="W3" s="84"/>
-      <c r="X3" s="85"/>
-    </row>
-    <row r="4" spans="1:24" s="86" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="76">
+      <c r="T3" s="71"/>
+      <c r="U3" s="71"/>
+      <c r="V3" s="72"/>
+      <c r="W3" s="73"/>
+      <c r="X3" s="74"/>
+    </row>
+    <row r="4" spans="1:24" s="75" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="65">
         <v>3</v>
       </c>
-      <c r="B4" s="76" t="s">
+      <c r="B4" s="65" t="s">
         <v>68</v>
       </c>
-      <c r="C4" s="76" t="s">
+      <c r="C4" s="65" t="s">
         <v>69</v>
       </c>
-      <c r="D4" s="77" t="s">
+      <c r="D4" s="66" t="s">
         <v>89</v>
       </c>
-      <c r="E4" s="78" t="s">
+      <c r="E4" s="67" t="s">
         <v>83</v>
       </c>
-      <c r="F4" s="78" t="s">
+      <c r="F4" s="67" t="s">
         <v>90</v>
       </c>
-      <c r="G4" s="78" t="s">
+      <c r="G4" s="67" t="s">
         <v>73</v>
       </c>
-      <c r="H4" s="79">
+      <c r="H4" s="68">
         <v>42814</v>
       </c>
-      <c r="I4" s="78" t="s">
+      <c r="I4" s="67" t="s">
         <v>73</v>
       </c>
-      <c r="J4" s="79">
+      <c r="J4" s="68">
         <v>42814</v>
       </c>
-      <c r="K4" s="78"/>
-      <c r="L4" s="80" t="s">
+      <c r="K4" s="67"/>
+      <c r="L4" s="69" t="s">
         <v>85</v>
       </c>
-      <c r="M4" s="78" t="s">
+      <c r="M4" s="67" t="s">
         <v>86</v>
       </c>
-      <c r="N4" s="78" t="s">
+      <c r="N4" s="67" t="s">
         <v>76</v>
       </c>
-      <c r="O4" s="78" t="s">
+      <c r="O4" s="67" t="s">
         <v>87</v>
       </c>
-      <c r="P4" s="80" t="s">
+      <c r="P4" s="69" t="s">
         <v>78</v>
       </c>
-      <c r="Q4" s="79">
+      <c r="Q4" s="68">
         <v>42814</v>
       </c>
-      <c r="R4" s="80" t="s">
+      <c r="R4" s="69" t="s">
         <v>79</v>
       </c>
-      <c r="S4" s="87" t="s">
+      <c r="S4" s="76" t="s">
         <v>91</v>
       </c>
-      <c r="T4" s="82"/>
-      <c r="U4" s="82"/>
-      <c r="V4" s="83" t="s">
+      <c r="T4" s="71"/>
+      <c r="U4" s="71"/>
+      <c r="V4" s="72" t="s">
         <v>81</v>
       </c>
-      <c r="W4" s="88"/>
-      <c r="X4" s="85"/>
-    </row>
-    <row r="5" spans="1:24" s="86" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="76">
+      <c r="W4" s="77"/>
+      <c r="X4" s="74"/>
+    </row>
+    <row r="5" spans="1:24" s="75" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="65">
         <v>4</v>
       </c>
-      <c r="B5" s="76" t="s">
+      <c r="B5" s="65" t="s">
         <v>92</v>
       </c>
-      <c r="C5" s="76" t="s">
+      <c r="C5" s="65" t="s">
         <v>69</v>
       </c>
-      <c r="D5" s="77" t="s">
+      <c r="D5" s="66" t="s">
         <v>93</v>
       </c>
-      <c r="E5" s="78" t="s">
+      <c r="E5" s="67" t="s">
         <v>83</v>
       </c>
-      <c r="F5" s="78" t="s">
+      <c r="F5" s="67" t="s">
         <v>94</v>
       </c>
-      <c r="G5" s="78" t="s">
+      <c r="G5" s="67" t="s">
         <v>95</v>
       </c>
-      <c r="H5" s="79">
+      <c r="H5" s="68">
         <v>42814</v>
       </c>
-      <c r="I5" s="78" t="s">
+      <c r="I5" s="67" t="s">
         <v>73</v>
       </c>
-      <c r="J5" s="79">
+      <c r="J5" s="68">
         <v>42814</v>
       </c>
-      <c r="K5" s="78"/>
-      <c r="L5" s="80" t="s">
+      <c r="K5" s="67"/>
+      <c r="L5" s="69" t="s">
         <v>85</v>
       </c>
-      <c r="M5" s="78" t="s">
+      <c r="M5" s="67" t="s">
         <v>86</v>
       </c>
-      <c r="N5" s="78" t="s">
+      <c r="N5" s="67" t="s">
         <v>76</v>
       </c>
-      <c r="O5" s="78" t="s">
+      <c r="O5" s="67" t="s">
         <v>87</v>
       </c>
-      <c r="P5" s="80" t="s">
+      <c r="P5" s="69" t="s">
         <v>78</v>
       </c>
-      <c r="Q5" s="79">
+      <c r="Q5" s="68">
         <v>42814</v>
       </c>
-      <c r="R5" s="80" t="s">
+      <c r="R5" s="69" t="s">
         <v>79</v>
       </c>
-      <c r="S5" s="82" t="s">
+      <c r="S5" s="71" t="s">
         <v>96</v>
       </c>
-      <c r="T5" s="82"/>
-      <c r="U5" s="82"/>
-      <c r="V5" s="83" t="s">
+      <c r="T5" s="71"/>
+      <c r="U5" s="71"/>
+      <c r="V5" s="72" t="s">
         <v>81</v>
       </c>
-      <c r="W5" s="88"/>
-      <c r="X5" s="85"/>
-    </row>
-    <row r="6" spans="1:24" s="86" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="76">
+      <c r="W5" s="77"/>
+      <c r="X5" s="74"/>
+    </row>
+    <row r="6" spans="1:24" s="75" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="65">
         <v>5</v>
       </c>
-      <c r="B6" s="76" t="s">
+      <c r="B6" s="65" t="s">
         <v>68</v>
       </c>
-      <c r="C6" s="76" t="s">
+      <c r="C6" s="65" t="s">
         <v>69</v>
       </c>
-      <c r="D6" s="77" t="s">
+      <c r="D6" s="66" t="s">
         <v>97</v>
       </c>
-      <c r="E6" s="78" t="s">
+      <c r="E6" s="67" t="s">
         <v>83</v>
       </c>
-      <c r="F6" s="78" t="s">
+      <c r="F6" s="67" t="s">
         <v>98</v>
       </c>
-      <c r="G6" s="78" t="s">
+      <c r="G6" s="67" t="s">
         <v>73</v>
       </c>
-      <c r="H6" s="79">
+      <c r="H6" s="68">
         <v>42814</v>
       </c>
-      <c r="I6" s="78" t="s">
+      <c r="I6" s="67" t="s">
         <v>73</v>
       </c>
-      <c r="J6" s="79">
+      <c r="J6" s="68">
         <v>42814</v>
       </c>
-      <c r="K6" s="78"/>
-      <c r="L6" s="76" t="s">
+      <c r="K6" s="67"/>
+      <c r="L6" s="65" t="s">
         <v>99</v>
       </c>
-      <c r="M6" s="78" t="s">
+      <c r="M6" s="67" t="s">
         <v>100</v>
       </c>
-      <c r="N6" s="78" t="s">
+      <c r="N6" s="67" t="s">
         <v>101</v>
       </c>
-      <c r="O6" s="78" t="s">
+      <c r="O6" s="67" t="s">
         <v>102</v>
       </c>
-      <c r="P6" s="80" t="s">
+      <c r="P6" s="69" t="s">
         <v>78</v>
       </c>
-      <c r="Q6" s="79">
+      <c r="Q6" s="68">
         <v>42814</v>
       </c>
-      <c r="R6" s="80" t="s">
+      <c r="R6" s="69" t="s">
         <v>79</v>
       </c>
-      <c r="S6" s="81" t="s">
+      <c r="S6" s="70" t="s">
         <v>103</v>
       </c>
       <c r="T6" s="58"/>
-      <c r="U6" s="82"/>
-      <c r="V6" s="83" t="s">
+      <c r="U6" s="71"/>
+      <c r="V6" s="72" t="s">
         <v>81</v>
       </c>
-      <c r="W6" s="84"/>
-      <c r="X6" s="85"/>
-    </row>
-    <row r="7" spans="1:24" s="86" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="76">
+      <c r="W6" s="73"/>
+      <c r="X6" s="74"/>
+    </row>
+    <row r="7" spans="1:24" s="75" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="65">
         <v>6</v>
       </c>
-      <c r="B7" s="76" t="s">
+      <c r="B7" s="65" t="s">
         <v>68</v>
       </c>
-      <c r="C7" s="76" t="s">
+      <c r="C7" s="65" t="s">
         <v>69</v>
       </c>
-      <c r="D7" s="77" t="s">
+      <c r="D7" s="66" t="s">
         <v>104</v>
       </c>
-      <c r="E7" s="78" t="s">
+      <c r="E7" s="67" t="s">
         <v>83</v>
       </c>
-      <c r="F7" s="78" t="s">
+      <c r="F7" s="67" t="s">
         <v>105</v>
       </c>
-      <c r="G7" s="78" t="s">
+      <c r="G7" s="67" t="s">
         <v>73</v>
       </c>
-      <c r="H7" s="79">
+      <c r="H7" s="68">
         <v>42814</v>
       </c>
-      <c r="I7" s="78" t="s">
+      <c r="I7" s="67" t="s">
         <v>73</v>
       </c>
-      <c r="J7" s="79">
+      <c r="J7" s="68">
         <v>42814</v>
       </c>
-      <c r="K7" s="78"/>
-      <c r="L7" s="76" t="s">
+      <c r="K7" s="67"/>
+      <c r="L7" s="65" t="s">
         <v>106</v>
       </c>
-      <c r="M7" s="78" t="s">
+      <c r="M7" s="67" t="s">
         <v>100</v>
       </c>
-      <c r="N7" s="78" t="s">
+      <c r="N7" s="67" t="s">
         <v>101</v>
       </c>
-      <c r="O7" s="78" t="s">
+      <c r="O7" s="67" t="s">
         <v>107</v>
       </c>
-      <c r="P7" s="80" t="s">
+      <c r="P7" s="69" t="s">
         <v>78</v>
       </c>
-      <c r="Q7" s="79">
+      <c r="Q7" s="68">
         <v>42814</v>
       </c>
-      <c r="R7" s="80" t="s">
+      <c r="R7" s="69" t="s">
         <v>79</v>
       </c>
-      <c r="S7" s="81" t="s">
+      <c r="S7" s="70" t="s">
         <v>103</v>
       </c>
-      <c r="T7" s="82"/>
-      <c r="U7" s="82"/>
-      <c r="V7" s="83"/>
-      <c r="W7" s="84"/>
-      <c r="X7" s="85"/>
-    </row>
-    <row r="8" spans="1:24" s="86" customFormat="1" ht="32" x14ac:dyDescent="0.15">
-      <c r="A8" s="76">
+      <c r="T7" s="71"/>
+      <c r="U7" s="71"/>
+      <c r="V7" s="72"/>
+      <c r="W7" s="73"/>
+      <c r="X7" s="74"/>
+    </row>
+    <row r="8" spans="1:24" s="75" customFormat="1" ht="32" x14ac:dyDescent="0.15">
+      <c r="A8" s="65">
         <v>7</v>
       </c>
-      <c r="B8" s="76" t="s">
+      <c r="B8" s="65" t="s">
         <v>68</v>
       </c>
-      <c r="C8" s="76" t="s">
+      <c r="C8" s="65" t="s">
         <v>108</v>
       </c>
-      <c r="D8" s="77" t="s">
+      <c r="D8" s="66" t="s">
         <v>109</v>
       </c>
-      <c r="E8" s="78" t="s">
+      <c r="E8" s="67" t="s">
         <v>83</v>
       </c>
-      <c r="F8" s="78" t="s">
+      <c r="F8" s="67" t="s">
         <v>110</v>
       </c>
-      <c r="G8" s="78" t="s">
+      <c r="G8" s="67" t="s">
         <v>73</v>
       </c>
-      <c r="H8" s="79">
+      <c r="H8" s="68">
         <v>42814</v>
       </c>
-      <c r="I8" s="78" t="s">
+      <c r="I8" s="67" t="s">
         <v>73</v>
       </c>
-      <c r="J8" s="79">
+      <c r="J8" s="68">
         <v>42814</v>
       </c>
-      <c r="K8" s="78"/>
-      <c r="L8" s="76" t="s">
+      <c r="K8" s="67"/>
+      <c r="L8" s="65" t="s">
         <v>111</v>
       </c>
-      <c r="M8" s="78" t="s">
+      <c r="M8" s="67" t="s">
         <v>100</v>
       </c>
-      <c r="N8" s="78" t="s">
+      <c r="N8" s="67" t="s">
         <v>76</v>
       </c>
-      <c r="O8" s="78" t="s">
+      <c r="O8" s="67" t="s">
         <v>112</v>
       </c>
-      <c r="P8" s="80" t="s">
+      <c r="P8" s="69" t="s">
         <v>78</v>
       </c>
-      <c r="Q8" s="79">
+      <c r="Q8" s="68">
         <v>42814</v>
       </c>
-      <c r="R8" s="80" t="s">
+      <c r="R8" s="69" t="s">
         <v>79</v>
       </c>
       <c r="S8" s="58" t="s">
         <v>113</v>
       </c>
-      <c r="T8" s="82"/>
-      <c r="U8" s="82"/>
-      <c r="V8" s="83"/>
-      <c r="W8" s="88"/>
-      <c r="X8" s="85"/>
+      <c r="T8" s="71"/>
+      <c r="U8" s="71"/>
+      <c r="V8" s="72"/>
+      <c r="W8" s="77"/>
+      <c r="X8" s="74"/>
     </row>
     <row r="9" spans="1:24" s="38" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="76">
+      <c r="A9" s="65">
         <v>8</v>
       </c>
-      <c r="B9" s="89" t="s">
+      <c r="B9" s="78" t="s">
         <v>68</v>
       </c>
-      <c r="C9" s="89" t="s">
+      <c r="C9" s="78" t="s">
         <v>108</v>
       </c>
-      <c r="D9" s="90" t="s">
+      <c r="D9" s="79" t="s">
         <v>114</v>
       </c>
       <c r="E9" s="50" t="s">
@@ -3424,7 +3410,7 @@
         <v>42808</v>
       </c>
       <c r="K9" s="50"/>
-      <c r="L9" s="91" t="s">
+      <c r="L9" s="80" t="s">
         <v>116</v>
       </c>
       <c r="M9" s="50" t="s">
@@ -3436,16 +3422,16 @@
       <c r="O9" s="50" t="s">
         <v>118</v>
       </c>
-      <c r="P9" s="91" t="s">
+      <c r="P9" s="80" t="s">
         <v>119</v>
       </c>
       <c r="Q9" s="51">
         <v>42814</v>
       </c>
-      <c r="R9" s="91" t="s">
+      <c r="R9" s="80" t="s">
         <v>79</v>
       </c>
-      <c r="S9" s="92" t="s">
+      <c r="S9" s="81" t="s">
         <v>113</v>
       </c>
       <c r="T9" s="58"/>
@@ -3453,20 +3439,20 @@
       <c r="V9" s="57" t="s">
         <v>120</v>
       </c>
-      <c r="W9" s="93"/>
-      <c r="X9" s="63"/>
+      <c r="W9" s="82"/>
+      <c r="X9" s="62"/>
     </row>
     <row r="10" spans="1:24" s="38" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="76">
+      <c r="A10" s="65">
         <v>9</v>
       </c>
-      <c r="B10" s="89" t="s">
+      <c r="B10" s="78" t="s">
         <v>68</v>
       </c>
-      <c r="C10" s="89" t="s">
+      <c r="C10" s="78" t="s">
         <v>69</v>
       </c>
-      <c r="D10" s="90" t="s">
+      <c r="D10" s="79" t="s">
         <v>121</v>
       </c>
       <c r="E10" s="50" t="s">
@@ -3488,7 +3474,7 @@
         <v>42811</v>
       </c>
       <c r="K10" s="50"/>
-      <c r="L10" s="91" t="s">
+      <c r="L10" s="80" t="s">
         <v>123</v>
       </c>
       <c r="M10" s="50" t="s">
@@ -3500,13 +3486,13 @@
       <c r="O10" s="50" t="s">
         <v>125</v>
       </c>
-      <c r="P10" s="91" t="s">
+      <c r="P10" s="80" t="s">
         <v>78</v>
       </c>
       <c r="Q10" s="51">
         <v>42811</v>
       </c>
-      <c r="R10" s="91" t="s">
+      <c r="R10" s="80" t="s">
         <v>79</v>
       </c>
       <c r="S10" s="58" t="s">
@@ -3515,20 +3501,20 @@
       <c r="T10" s="58"/>
       <c r="U10" s="48"/>
       <c r="V10" s="57"/>
-      <c r="W10" s="93"/>
-      <c r="X10" s="63"/>
+      <c r="W10" s="82"/>
+      <c r="X10" s="62"/>
     </row>
     <row r="11" spans="1:24" s="38" customFormat="1" ht="16" x14ac:dyDescent="0.15">
-      <c r="A11" s="76">
+      <c r="A11" s="65">
         <v>10</v>
       </c>
-      <c r="B11" s="89" t="s">
+      <c r="B11" s="78" t="s">
         <v>68</v>
       </c>
-      <c r="C11" s="89" t="s">
+      <c r="C11" s="78" t="s">
         <v>69</v>
       </c>
-      <c r="D11" s="90" t="s">
+      <c r="D11" s="79" t="s">
         <v>127</v>
       </c>
       <c r="E11" s="50" t="s">
@@ -3550,7 +3536,7 @@
         <v>42813</v>
       </c>
       <c r="K11" s="50"/>
-      <c r="L11" s="91" t="s">
+      <c r="L11" s="80" t="s">
         <v>129</v>
       </c>
       <c r="M11" s="50" t="s">
@@ -3562,13 +3548,13 @@
       <c r="O11" s="50" t="s">
         <v>130</v>
       </c>
-      <c r="P11" s="91" t="s">
+      <c r="P11" s="80" t="s">
         <v>78</v>
       </c>
       <c r="Q11" s="51">
         <v>42813</v>
       </c>
-      <c r="R11" s="91" t="s">
+      <c r="R11" s="80" t="s">
         <v>79</v>
       </c>
       <c r="S11" s="58" t="s">
@@ -3577,20 +3563,20 @@
       <c r="T11" s="48"/>
       <c r="U11" s="48"/>
       <c r="V11" s="57"/>
-      <c r="W11" s="94"/>
-      <c r="X11" s="63"/>
+      <c r="W11" s="83"/>
+      <c r="X11" s="62"/>
     </row>
     <row r="12" spans="1:24" s="38" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="76">
+      <c r="A12" s="65">
         <v>11</v>
       </c>
-      <c r="B12" s="89" t="s">
+      <c r="B12" s="78" t="s">
         <v>68</v>
       </c>
-      <c r="C12" s="89" t="s">
+      <c r="C12" s="78" t="s">
         <v>69</v>
       </c>
-      <c r="D12" s="90" t="s">
+      <c r="D12" s="79" t="s">
         <v>132</v>
       </c>
       <c r="E12" s="50" t="s">
@@ -3612,7 +3598,7 @@
         <v>42813</v>
       </c>
       <c r="K12" s="50"/>
-      <c r="L12" s="91" t="s">
+      <c r="L12" s="80" t="s">
         <v>134</v>
       </c>
       <c r="M12" s="50" t="s">
@@ -3624,13 +3610,13 @@
       <c r="O12" s="50" t="s">
         <v>135</v>
       </c>
-      <c r="P12" s="91" t="s">
+      <c r="P12" s="80" t="s">
         <v>78</v>
       </c>
       <c r="Q12" s="51">
         <v>42813</v>
       </c>
-      <c r="R12" s="91" t="s">
+      <c r="R12" s="80" t="s">
         <v>79</v>
       </c>
       <c r="S12" s="58" t="s">
@@ -3639,206 +3625,206 @@
       <c r="T12" s="48"/>
       <c r="U12" s="48"/>
       <c r="V12" s="57"/>
-      <c r="W12" s="93"/>
-      <c r="X12" s="63"/>
-    </row>
-    <row r="13" spans="1:24" s="95" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="76">
+      <c r="W12" s="82"/>
+      <c r="X12" s="62"/>
+    </row>
+    <row r="13" spans="1:24" s="84" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="65">
         <v>12</v>
       </c>
-      <c r="B13" s="96" t="s">
+      <c r="B13" s="85" t="s">
         <v>68</v>
       </c>
-      <c r="C13" s="96" t="s">
+      <c r="C13" s="85" t="s">
         <v>69</v>
       </c>
-      <c r="D13" s="96" t="s">
+      <c r="D13" s="85" t="s">
         <v>137</v>
       </c>
-      <c r="E13" s="97" t="s">
+      <c r="E13" s="86" t="s">
         <v>71</v>
       </c>
-      <c r="F13" s="97" t="s">
+      <c r="F13" s="86" t="s">
         <v>138</v>
       </c>
-      <c r="G13" s="97" t="s">
+      <c r="G13" s="86" t="s">
         <v>73</v>
       </c>
-      <c r="H13" s="98">
+      <c r="H13" s="87">
         <v>42814</v>
       </c>
-      <c r="I13" s="97" t="s">
+      <c r="I13" s="86" t="s">
         <v>73</v>
       </c>
-      <c r="J13" s="98">
+      <c r="J13" s="87">
         <v>42814</v>
       </c>
-      <c r="K13" s="97"/>
-      <c r="L13" s="99" t="s">
+      <c r="K13" s="86"/>
+      <c r="L13" s="88" t="s">
         <v>139</v>
       </c>
-      <c r="M13" s="97" t="s">
+      <c r="M13" s="86" t="s">
         <v>140</v>
       </c>
-      <c r="N13" s="97" t="s">
+      <c r="N13" s="86" t="s">
         <v>76</v>
       </c>
-      <c r="O13" s="97" t="s">
+      <c r="O13" s="86" t="s">
         <v>141</v>
       </c>
-      <c r="P13" s="99" t="s">
+      <c r="P13" s="88" t="s">
         <v>78</v>
       </c>
-      <c r="Q13" s="98">
+      <c r="Q13" s="87">
         <v>42814</v>
       </c>
-      <c r="R13" s="99" t="s">
+      <c r="R13" s="88" t="s">
         <v>79</v>
       </c>
-      <c r="S13" s="100"/>
-      <c r="T13" s="100">
+      <c r="S13" s="89"/>
+      <c r="T13" s="89">
         <v>9909</v>
       </c>
-      <c r="U13" s="100"/>
-      <c r="V13" s="101"/>
-      <c r="W13" s="96"/>
-      <c r="X13" s="102"/>
-    </row>
-    <row r="14" spans="1:24" s="95" customFormat="1" ht="48" x14ac:dyDescent="0.15">
-      <c r="A14" s="76">
+      <c r="U13" s="89"/>
+      <c r="V13" s="90"/>
+      <c r="W13" s="85"/>
+      <c r="X13" s="91"/>
+    </row>
+    <row r="14" spans="1:24" s="84" customFormat="1" ht="48" x14ac:dyDescent="0.15">
+      <c r="A14" s="65">
         <v>13</v>
       </c>
-      <c r="B14" s="96" t="s">
+      <c r="B14" s="85" t="s">
         <v>68</v>
       </c>
-      <c r="C14" s="96" t="s">
+      <c r="C14" s="85" t="s">
         <v>69</v>
       </c>
-      <c r="D14" s="96" t="s">
+      <c r="D14" s="85" t="s">
         <v>142</v>
       </c>
-      <c r="E14" s="97" t="s">
+      <c r="E14" s="86" t="s">
         <v>83</v>
       </c>
-      <c r="F14" s="97" t="s">
+      <c r="F14" s="86" t="s">
         <v>143</v>
       </c>
-      <c r="G14" s="97" t="s">
+      <c r="G14" s="86" t="s">
         <v>73</v>
       </c>
-      <c r="H14" s="98">
+      <c r="H14" s="87">
         <v>42814</v>
       </c>
-      <c r="I14" s="97" t="s">
+      <c r="I14" s="86" t="s">
         <v>73</v>
       </c>
-      <c r="J14" s="98">
+      <c r="J14" s="87">
         <v>42814</v>
       </c>
-      <c r="K14" s="97"/>
-      <c r="L14" s="99" t="s">
+      <c r="K14" s="86"/>
+      <c r="L14" s="88" t="s">
         <v>144</v>
       </c>
-      <c r="M14" s="97" t="s">
+      <c r="M14" s="86" t="s">
         <v>140</v>
       </c>
-      <c r="N14" s="97" t="s">
+      <c r="N14" s="86" t="s">
         <v>76</v>
       </c>
-      <c r="O14" s="97" t="s">
+      <c r="O14" s="86" t="s">
         <v>145</v>
       </c>
-      <c r="P14" s="99" t="s">
+      <c r="P14" s="88" t="s">
         <v>78</v>
       </c>
-      <c r="Q14" s="98">
+      <c r="Q14" s="87">
         <v>42814</v>
       </c>
-      <c r="R14" s="99" t="s">
+      <c r="R14" s="88" t="s">
         <v>79</v>
       </c>
       <c r="S14" s="58" t="s">
-        <v>169</v>
-      </c>
-      <c r="T14" s="100"/>
-      <c r="U14" s="100"/>
-      <c r="V14" s="101"/>
-      <c r="W14" s="99"/>
-      <c r="X14" s="102"/>
-    </row>
-    <row r="15" spans="1:24" s="95" customFormat="1" ht="48" x14ac:dyDescent="0.15">
-      <c r="A15" s="76">
+        <v>162</v>
+      </c>
+      <c r="T14" s="89"/>
+      <c r="U14" s="89"/>
+      <c r="V14" s="90"/>
+      <c r="W14" s="88"/>
+      <c r="X14" s="91"/>
+    </row>
+    <row r="15" spans="1:24" s="84" customFormat="1" ht="48" x14ac:dyDescent="0.15">
+      <c r="A15" s="65">
         <v>14</v>
       </c>
-      <c r="B15" s="96" t="s">
+      <c r="B15" s="85" t="s">
         <v>68</v>
       </c>
-      <c r="C15" s="96" t="s">
+      <c r="C15" s="85" t="s">
         <v>69</v>
       </c>
-      <c r="D15" s="96" t="s">
+      <c r="D15" s="85" t="s">
         <v>146</v>
       </c>
-      <c r="E15" s="97" t="s">
+      <c r="E15" s="86" t="s">
         <v>83</v>
       </c>
-      <c r="F15" s="97" t="s">
+      <c r="F15" s="86" t="s">
         <v>143</v>
       </c>
-      <c r="G15" s="97" t="s">
+      <c r="G15" s="86" t="s">
         <v>73</v>
       </c>
-      <c r="H15" s="98">
+      <c r="H15" s="87">
         <v>42814</v>
       </c>
-      <c r="I15" s="98" t="s">
+      <c r="I15" s="87" t="s">
         <v>73</v>
       </c>
-      <c r="J15" s="98">
+      <c r="J15" s="87">
         <v>42814</v>
       </c>
-      <c r="K15" s="103"/>
-      <c r="L15" s="99" t="s">
+      <c r="K15" s="92"/>
+      <c r="L15" s="88" t="s">
         <v>147</v>
       </c>
-      <c r="M15" s="97" t="s">
+      <c r="M15" s="86" t="s">
         <v>140</v>
       </c>
-      <c r="N15" s="97" t="s">
+      <c r="N15" s="86" t="s">
         <v>76</v>
       </c>
-      <c r="O15" s="97" t="s">
+      <c r="O15" s="86" t="s">
         <v>148</v>
       </c>
-      <c r="P15" s="104" t="s">
+      <c r="P15" s="93" t="s">
         <v>78</v>
       </c>
-      <c r="Q15" s="98">
+      <c r="Q15" s="87">
         <v>42814</v>
       </c>
-      <c r="R15" s="104" t="s">
+      <c r="R15" s="93" t="s">
         <v>79</v>
       </c>
       <c r="S15" s="58" t="s">
-        <v>169</v>
-      </c>
-      <c r="T15" s="100"/>
-      <c r="U15" s="100"/>
-      <c r="V15" s="100"/>
-      <c r="W15" s="104"/>
-      <c r="X15" s="102"/>
+        <v>162</v>
+      </c>
+      <c r="T15" s="89"/>
+      <c r="U15" s="89"/>
+      <c r="V15" s="89"/>
+      <c r="W15" s="93"/>
+      <c r="X15" s="91"/>
     </row>
     <row r="16" spans="1:24" s="38" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="76">
+      <c r="A16" s="65">
         <v>15</v>
       </c>
-      <c r="B16" s="89" t="s">
+      <c r="B16" s="78" t="s">
         <v>68</v>
       </c>
-      <c r="C16" s="89" t="s">
+      <c r="C16" s="78" t="s">
         <v>108</v>
       </c>
-      <c r="D16" s="90" t="s">
+      <c r="D16" s="79" t="s">
         <v>149</v>
       </c>
       <c r="E16" s="50" t="s">
@@ -3860,7 +3846,7 @@
         <v>42815</v>
       </c>
       <c r="K16" s="50"/>
-      <c r="L16" s="91" t="s">
+      <c r="L16" s="80" t="s">
         <v>151</v>
       </c>
       <c r="M16" s="50" t="s">
@@ -3872,45 +3858,45 @@
       <c r="O16" s="50" t="s">
         <v>153</v>
       </c>
-      <c r="P16" s="91" t="s">
+      <c r="P16" s="80" t="s">
         <v>78</v>
       </c>
       <c r="Q16" s="51">
         <v>42814</v>
       </c>
-      <c r="R16" s="91" t="s">
+      <c r="R16" s="80" t="s">
         <v>79</v>
       </c>
-      <c r="S16" s="105" t="s">
+      <c r="S16" s="94" t="s">
         <v>154</v>
       </c>
       <c r="T16" s="58"/>
       <c r="U16" s="48"/>
       <c r="V16" s="57"/>
-      <c r="W16" s="93"/>
-      <c r="X16" s="63"/>
-    </row>
-    <row r="17" spans="1:24" s="38" customFormat="1" ht="16" x14ac:dyDescent="0.15">
-      <c r="A17" s="76">
+      <c r="W16" s="82"/>
+      <c r="X16" s="62"/>
+    </row>
+    <row r="17" spans="1:24" s="38" customFormat="1" ht="32" x14ac:dyDescent="0.15">
+      <c r="A17" s="65">
         <v>16</v>
       </c>
-      <c r="B17" s="89" t="s">
+      <c r="B17" s="78" t="s">
         <v>68</v>
       </c>
-      <c r="C17" s="89" t="s">
+      <c r="C17" s="78" t="s">
         <v>108</v>
       </c>
-      <c r="D17" s="90" t="s">
-        <v>155</v>
+      <c r="D17" s="79" t="s">
+        <v>157</v>
       </c>
       <c r="E17" s="50" t="s">
         <v>83</v>
       </c>
       <c r="F17" s="50" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G17" s="50" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="H17" s="51">
         <v>42810</v>
@@ -3918,48 +3904,40 @@
       <c r="I17" s="50" t="s">
         <v>73</v>
       </c>
-      <c r="J17" s="51">
-        <v>42810</v>
-      </c>
+      <c r="J17" s="51"/>
       <c r="K17" s="50"/>
-      <c r="L17" s="91" t="s">
-        <v>158</v>
-      </c>
-      <c r="M17" s="50" t="s">
-        <v>117</v>
-      </c>
-      <c r="N17" s="50" t="s">
-        <v>76</v>
-      </c>
+      <c r="L17" s="80"/>
+      <c r="M17" s="50"/>
+      <c r="N17" s="50"/>
       <c r="O17" s="50"/>
-      <c r="P17" s="91"/>
+      <c r="P17" s="80"/>
       <c r="Q17" s="51"/>
-      <c r="R17" s="91"/>
+      <c r="R17" s="80"/>
       <c r="S17" s="48"/>
       <c r="T17" s="48"/>
       <c r="U17" s="48"/>
       <c r="V17" s="57"/>
-      <c r="W17" s="94"/>
-      <c r="X17" s="63"/>
-    </row>
-    <row r="18" spans="1:24" s="38" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="76">
+      <c r="W17" s="83"/>
+      <c r="X17" s="62"/>
+    </row>
+    <row r="18" spans="1:24" s="38" customFormat="1" ht="32" x14ac:dyDescent="0.15">
+      <c r="A18" s="65">
         <v>17</v>
       </c>
-      <c r="B18" s="89" t="s">
+      <c r="B18" s="78" t="s">
         <v>68</v>
       </c>
-      <c r="C18" s="89" t="s">
+      <c r="C18" s="78" t="s">
         <v>108</v>
       </c>
-      <c r="D18" s="90" t="s">
+      <c r="D18" s="45" t="s">
         <v>159</v>
       </c>
       <c r="E18" s="50" t="s">
         <v>83</v>
       </c>
       <c r="F18" s="50" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G18" s="50" t="s">
         <v>73</v>
@@ -3970,42 +3948,34 @@
       <c r="I18" s="50" t="s">
         <v>73</v>
       </c>
-      <c r="J18" s="51">
-        <v>42810</v>
-      </c>
+      <c r="J18" s="51"/>
       <c r="K18" s="50"/>
-      <c r="L18" s="50" t="s">
-        <v>161</v>
-      </c>
-      <c r="M18" s="50" t="s">
-        <v>117</v>
-      </c>
-      <c r="N18" s="50" t="s">
-        <v>76</v>
-      </c>
+      <c r="L18" s="80"/>
+      <c r="M18" s="50"/>
+      <c r="N18" s="50"/>
       <c r="O18" s="50"/>
-      <c r="P18" s="91"/>
+      <c r="P18" s="80"/>
       <c r="Q18" s="51"/>
-      <c r="R18" s="91"/>
-      <c r="S18" s="48"/>
-      <c r="T18" s="48"/>
-      <c r="U18" s="48"/>
+      <c r="R18" s="80"/>
+      <c r="S18" s="59"/>
+      <c r="T18" s="59"/>
+      <c r="U18" s="59"/>
       <c r="V18" s="57"/>
-      <c r="W18" s="93"/>
-      <c r="X18" s="63"/>
-    </row>
-    <row r="19" spans="1:24" s="38" customFormat="1" ht="32" x14ac:dyDescent="0.15">
-      <c r="A19" s="76">
+      <c r="W18" s="83"/>
+      <c r="X18" s="62"/>
+    </row>
+    <row r="19" spans="1:24" s="38" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+      <c r="A19" s="65">
         <v>18</v>
       </c>
-      <c r="B19" s="89" t="s">
+      <c r="B19" s="78" t="s">
         <v>68</v>
       </c>
-      <c r="C19" s="89" t="s">
+      <c r="C19" s="78" t="s">
         <v>108</v>
       </c>
-      <c r="D19" s="90" t="s">
-        <v>162</v>
+      <c r="D19" s="79" t="s">
+        <v>160</v>
       </c>
       <c r="E19" s="50" t="s">
         <v>83</v>
@@ -4014,7 +3984,7 @@
         <v>122</v>
       </c>
       <c r="G19" s="50" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="H19" s="51">
         <v>42810</v>
@@ -4022,51 +3992,41 @@
       <c r="I19" s="50" t="s">
         <v>73</v>
       </c>
-      <c r="J19" s="51">
-        <v>42810</v>
-      </c>
+      <c r="J19" s="51"/>
       <c r="K19" s="50"/>
-      <c r="L19" s="50" t="s">
-        <v>163</v>
-      </c>
-      <c r="M19" s="50" t="s">
-        <v>117</v>
-      </c>
-      <c r="N19" s="50" t="s">
-        <v>76</v>
-      </c>
-      <c r="O19" s="50"/>
-      <c r="P19" s="91"/>
+      <c r="L19" s="80"/>
+      <c r="M19" s="50"/>
+      <c r="N19" s="50"/>
+      <c r="O19" s="56"/>
+      <c r="P19" s="80"/>
       <c r="Q19" s="51"/>
-      <c r="R19" s="91"/>
+      <c r="R19" s="80"/>
       <c r="S19" s="48"/>
       <c r="T19" s="48"/>
       <c r="U19" s="48"/>
       <c r="V19" s="57"/>
-      <c r="W19" s="94"/>
-      <c r="X19" s="63"/>
-    </row>
-    <row r="20" spans="1:24" s="38" customFormat="1" ht="32" x14ac:dyDescent="0.15">
-      <c r="A20" s="76">
+      <c r="W19" s="83"/>
+      <c r="X19" s="62"/>
+    </row>
+    <row r="20" spans="1:24" s="38" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+      <c r="A20" s="65">
         <v>19</v>
       </c>
-      <c r="B20" s="89" t="s">
+      <c r="B20" s="78" t="s">
         <v>68</v>
       </c>
-      <c r="C20" s="89" t="s">
+      <c r="C20" s="78" t="s">
         <v>108</v>
       </c>
-      <c r="D20" s="90" t="s">
-        <v>164</v>
+      <c r="D20" s="79" t="s">
+        <v>161</v>
       </c>
       <c r="E20" s="50" t="s">
         <v>83</v>
       </c>
-      <c r="F20" s="50" t="s">
-        <v>165</v>
-      </c>
+      <c r="F20" s="50"/>
       <c r="G20" s="50" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="H20" s="51">
         <v>42810</v>
@@ -4076,174 +4036,269 @@
       </c>
       <c r="J20" s="51"/>
       <c r="K20" s="50"/>
-      <c r="L20" s="91"/>
+      <c r="L20" s="80"/>
       <c r="M20" s="50"/>
       <c r="N20" s="50"/>
       <c r="O20" s="50"/>
-      <c r="P20" s="91"/>
+      <c r="P20" s="80"/>
       <c r="Q20" s="51"/>
-      <c r="R20" s="91"/>
+      <c r="R20" s="80"/>
       <c r="S20" s="48"/>
       <c r="T20" s="48"/>
       <c r="U20" s="48"/>
       <c r="V20" s="57"/>
-      <c r="W20" s="94"/>
-      <c r="X20" s="63"/>
-    </row>
-    <row r="21" spans="1:24" s="38" customFormat="1" ht="32" x14ac:dyDescent="0.15">
-      <c r="A21" s="76">
+      <c r="W20" s="83"/>
+      <c r="X20" s="62"/>
+    </row>
+    <row r="21" spans="1:24" s="38" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="65">
         <v>20</v>
       </c>
-      <c r="B21" s="89" t="s">
+      <c r="B21" s="78" t="s">
         <v>68</v>
       </c>
-      <c r="C21" s="89" t="s">
+      <c r="C21" s="78" t="s">
         <v>108</v>
       </c>
-      <c r="D21" s="45" t="s">
-        <v>166</v>
+      <c r="D21" s="79" t="s">
+        <v>114</v>
       </c>
       <c r="E21" s="50" t="s">
         <v>83</v>
       </c>
       <c r="F21" s="50" t="s">
-        <v>165</v>
+        <v>261</v>
       </c>
       <c r="G21" s="50" t="s">
         <v>73</v>
       </c>
       <c r="H21" s="51">
-        <v>42810</v>
+        <v>42808</v>
       </c>
       <c r="I21" s="50" t="s">
         <v>73</v>
       </c>
-      <c r="J21" s="51"/>
+      <c r="J21" s="51">
+        <v>42808</v>
+      </c>
       <c r="K21" s="50"/>
-      <c r="L21" s="91"/>
-      <c r="M21" s="50"/>
-      <c r="N21" s="50"/>
-      <c r="O21" s="50"/>
-      <c r="P21" s="91"/>
-      <c r="Q21" s="51"/>
-      <c r="R21" s="91"/>
-      <c r="S21" s="59"/>
-      <c r="T21" s="59"/>
-      <c r="U21" s="59"/>
-      <c r="V21" s="57"/>
-      <c r="W21" s="94"/>
-      <c r="X21" s="63"/>
+      <c r="L21" s="80" t="s">
+        <v>116</v>
+      </c>
+      <c r="M21" s="50" t="s">
+        <v>117</v>
+      </c>
+      <c r="N21" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="O21" s="50" t="s">
+        <v>118</v>
+      </c>
+      <c r="P21" s="80" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q21" s="51">
+        <v>42814</v>
+      </c>
+      <c r="R21" s="80" t="s">
+        <v>79</v>
+      </c>
+      <c r="S21" s="81" t="s">
+        <v>113</v>
+      </c>
+      <c r="T21" s="58"/>
+      <c r="U21" s="48"/>
+      <c r="V21" s="57" t="s">
+        <v>120</v>
+      </c>
+      <c r="W21" s="82"/>
+      <c r="X21" s="62"/>
     </row>
     <row r="22" spans="1:24" s="38" customFormat="1" ht="16" x14ac:dyDescent="0.15">
-      <c r="A22" s="76">
+      <c r="A22" s="65">
         <v>21</v>
       </c>
-      <c r="B22" s="89" t="s">
+      <c r="B22" s="78" t="s">
         <v>68</v>
       </c>
-      <c r="C22" s="89" t="s">
+      <c r="C22" s="78" t="s">
         <v>108</v>
       </c>
-      <c r="D22" s="90" t="s">
-        <v>167</v>
+      <c r="D22" s="79" t="s">
+        <v>262</v>
       </c>
       <c r="E22" s="50" t="s">
         <v>83</v>
       </c>
       <c r="F22" s="50" t="s">
-        <v>122</v>
+        <v>263</v>
       </c>
       <c r="G22" s="50" t="s">
-        <v>157</v>
+        <v>73</v>
       </c>
       <c r="H22" s="51">
-        <v>42810</v>
+        <v>42808</v>
       </c>
       <c r="I22" s="50" t="s">
         <v>73</v>
       </c>
-      <c r="J22" s="51"/>
+      <c r="J22" s="51">
+        <v>42808</v>
+      </c>
       <c r="K22" s="50"/>
-      <c r="L22" s="91"/>
-      <c r="M22" s="50"/>
-      <c r="N22" s="50"/>
-      <c r="O22" s="56"/>
-      <c r="P22" s="91"/>
-      <c r="Q22" s="51"/>
-      <c r="R22" s="91"/>
-      <c r="S22" s="48"/>
+      <c r="L22" s="80" t="s">
+        <v>156</v>
+      </c>
+      <c r="M22" s="50" t="s">
+        <v>238</v>
+      </c>
+      <c r="N22" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="O22" s="50" t="s">
+        <v>264</v>
+      </c>
+      <c r="P22" s="80" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q22" s="51">
+        <v>42808</v>
+      </c>
+      <c r="R22" s="80" t="s">
+        <v>265</v>
+      </c>
+      <c r="S22" s="81" t="s">
+        <v>266</v>
+      </c>
       <c r="T22" s="48"/>
       <c r="U22" s="48"/>
       <c r="V22" s="57"/>
-      <c r="W22" s="94"/>
-      <c r="X22" s="63"/>
+      <c r="W22" s="83"/>
+      <c r="X22" s="62"/>
     </row>
     <row r="23" spans="1:24" s="38" customFormat="1" ht="16" x14ac:dyDescent="0.15">
-      <c r="A23" s="76">
+      <c r="A23" s="65">
         <v>22</v>
       </c>
-      <c r="B23" s="89" t="s">
+      <c r="B23" s="78" t="s">
         <v>68</v>
       </c>
-      <c r="C23" s="89" t="s">
+      <c r="C23" s="78" t="s">
         <v>108</v>
       </c>
-      <c r="D23" s="90" t="s">
-        <v>168</v>
+      <c r="D23" s="79" t="s">
+        <v>267</v>
       </c>
       <c r="E23" s="50" t="s">
         <v>83</v>
       </c>
-      <c r="F23" s="50"/>
+      <c r="F23" s="50" t="s">
+        <v>263</v>
+      </c>
       <c r="G23" s="50" t="s">
-        <v>157</v>
+        <v>73</v>
       </c>
       <c r="H23" s="51">
-        <v>42810</v>
+        <v>42808</v>
       </c>
       <c r="I23" s="50" t="s">
         <v>73</v>
       </c>
-      <c r="J23" s="51"/>
+      <c r="J23" s="51">
+        <v>42808</v>
+      </c>
       <c r="K23" s="50"/>
-      <c r="L23" s="91"/>
-      <c r="M23" s="50"/>
-      <c r="N23" s="50"/>
-      <c r="O23" s="50"/>
-      <c r="P23" s="91"/>
-      <c r="Q23" s="51"/>
-      <c r="R23" s="91"/>
-      <c r="S23" s="48"/>
+      <c r="L23" s="80" t="s">
+        <v>268</v>
+      </c>
+      <c r="M23" s="50" t="s">
+        <v>100</v>
+      </c>
+      <c r="N23" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="O23" s="50" t="s">
+        <v>264</v>
+      </c>
+      <c r="P23" s="80" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q23" s="51">
+        <v>42808</v>
+      </c>
+      <c r="R23" s="80" t="s">
+        <v>79</v>
+      </c>
+      <c r="S23" s="81" t="s">
+        <v>266</v>
+      </c>
       <c r="T23" s="48"/>
       <c r="U23" s="48"/>
       <c r="V23" s="57"/>
-      <c r="W23" s="94"/>
-      <c r="X23" s="63"/>
-    </row>
-    <row r="24" spans="1:24" ht="16" x14ac:dyDescent="0.15">
-      <c r="A24" s="43"/>
-      <c r="B24" s="43"/>
-      <c r="C24" s="43"/>
-      <c r="D24" s="46"/>
-      <c r="E24" s="50"/>
-      <c r="F24" s="52"/>
-      <c r="G24" s="50"/>
-      <c r="H24" s="51"/>
-      <c r="I24" s="50"/>
-      <c r="J24" s="51"/>
+      <c r="W23" s="83"/>
+      <c r="X23" s="62"/>
+    </row>
+    <row r="24" spans="1:24" s="38" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+      <c r="A24" s="65">
+        <v>23</v>
+      </c>
+      <c r="B24" s="78" t="s">
+        <v>68</v>
+      </c>
+      <c r="C24" s="78" t="s">
+        <v>108</v>
+      </c>
+      <c r="D24" s="79" t="s">
+        <v>269</v>
+      </c>
+      <c r="E24" s="50" t="s">
+        <v>83</v>
+      </c>
+      <c r="F24" s="50" t="s">
+        <v>263</v>
+      </c>
+      <c r="G24" s="50" t="s">
+        <v>73</v>
+      </c>
+      <c r="H24" s="51">
+        <v>42808</v>
+      </c>
+      <c r="I24" s="50" t="s">
+        <v>73</v>
+      </c>
+      <c r="J24" s="51">
+        <v>42808</v>
+      </c>
       <c r="K24" s="50"/>
-      <c r="L24" s="54"/>
-      <c r="M24" s="50"/>
-      <c r="N24" s="50"/>
-      <c r="O24" s="54"/>
-      <c r="P24" s="54"/>
-      <c r="Q24" s="51"/>
-      <c r="R24" s="54"/>
-      <c r="S24" s="60"/>
-      <c r="T24" s="60"/>
-      <c r="U24" s="60"/>
-      <c r="V24" s="60"/>
-      <c r="W24" s="65"/>
+      <c r="L24" s="80" t="s">
+        <v>270</v>
+      </c>
+      <c r="M24" s="50" t="s">
+        <v>86</v>
+      </c>
+      <c r="N24" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="O24" s="50" t="s">
+        <v>264</v>
+      </c>
+      <c r="P24" s="80" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q24" s="51">
+        <v>42808</v>
+      </c>
+      <c r="R24" s="80" t="s">
+        <v>79</v>
+      </c>
+      <c r="S24" s="81" t="s">
+        <v>266</v>
+      </c>
+      <c r="T24" s="48"/>
+      <c r="U24" s="48"/>
+      <c r="V24" s="57"/>
+      <c r="W24" s="83"/>
+      <c r="X24" s="62"/>
     </row>
     <row r="25" spans="1:24" ht="16" x14ac:dyDescent="0.15">
       <c r="A25" s="43"/>
@@ -4264,11 +4319,11 @@
       <c r="P25" s="54"/>
       <c r="Q25" s="51"/>
       <c r="R25" s="54"/>
-      <c r="S25" s="61"/>
-      <c r="T25" s="61"/>
-      <c r="U25" s="61"/>
-      <c r="V25" s="61"/>
-      <c r="W25" s="65"/>
+      <c r="S25" s="60"/>
+      <c r="T25" s="60"/>
+      <c r="U25" s="60"/>
+      <c r="V25" s="60"/>
+      <c r="W25" s="64"/>
     </row>
     <row r="26" spans="1:24" ht="16" x14ac:dyDescent="0.15">
       <c r="A26" s="43"/>
@@ -4282,18 +4337,18 @@
       <c r="I26" s="50"/>
       <c r="J26" s="51"/>
       <c r="K26" s="50"/>
-      <c r="L26" s="50"/>
+      <c r="L26" s="54"/>
       <c r="M26" s="50"/>
       <c r="N26" s="50"/>
       <c r="O26" s="54"/>
       <c r="P26" s="54"/>
       <c r="Q26" s="51"/>
       <c r="R26" s="54"/>
-      <c r="S26" s="61"/>
-      <c r="T26" s="61"/>
-      <c r="U26" s="61"/>
-      <c r="V26" s="66"/>
-      <c r="W26" s="65"/>
+      <c r="S26" s="59"/>
+      <c r="T26" s="59"/>
+      <c r="U26" s="59"/>
+      <c r="V26" s="59"/>
+      <c r="W26" s="54"/>
     </row>
     <row r="27" spans="1:24" ht="16" x14ac:dyDescent="0.15">
       <c r="A27" s="43"/>
@@ -4307,18 +4362,18 @@
       <c r="I27" s="50"/>
       <c r="J27" s="51"/>
       <c r="K27" s="50"/>
-      <c r="L27" s="50"/>
+      <c r="L27" s="54"/>
       <c r="M27" s="50"/>
       <c r="N27" s="50"/>
       <c r="O27" s="54"/>
       <c r="P27" s="54"/>
       <c r="Q27" s="51"/>
       <c r="R27" s="54"/>
-      <c r="S27" s="61"/>
-      <c r="T27" s="61"/>
-      <c r="U27" s="61"/>
-      <c r="V27" s="61"/>
-      <c r="W27" s="65"/>
+      <c r="S27" s="48"/>
+      <c r="T27" s="48"/>
+      <c r="U27" s="48"/>
+      <c r="V27" s="48"/>
+      <c r="W27" s="63"/>
     </row>
     <row r="28" spans="1:24" ht="16" x14ac:dyDescent="0.15">
       <c r="A28" s="43"/>
@@ -4339,11 +4394,11 @@
       <c r="P28" s="54"/>
       <c r="Q28" s="51"/>
       <c r="R28" s="54"/>
-      <c r="S28" s="61"/>
-      <c r="T28" s="61"/>
-      <c r="U28" s="61"/>
-      <c r="V28" s="61"/>
-      <c r="W28" s="65"/>
+      <c r="S28" s="48"/>
+      <c r="T28" s="48"/>
+      <c r="U28" s="48"/>
+      <c r="V28" s="48"/>
+      <c r="W28" s="63"/>
     </row>
     <row r="29" spans="1:24" ht="16" x14ac:dyDescent="0.15">
       <c r="A29" s="43"/>
@@ -4364,11 +4419,11 @@
       <c r="P29" s="54"/>
       <c r="Q29" s="51"/>
       <c r="R29" s="54"/>
-      <c r="S29" s="59"/>
-      <c r="T29" s="59"/>
-      <c r="U29" s="59"/>
-      <c r="V29" s="59"/>
-      <c r="W29" s="54"/>
+      <c r="S29" s="48"/>
+      <c r="T29" s="48"/>
+      <c r="U29" s="48"/>
+      <c r="V29" s="48"/>
+      <c r="W29" s="63"/>
     </row>
     <row r="30" spans="1:24" ht="16" x14ac:dyDescent="0.15">
       <c r="A30" s="43"/>
@@ -4381,7 +4436,7 @@
       <c r="H30" s="51"/>
       <c r="I30" s="50"/>
       <c r="J30" s="51"/>
-      <c r="K30" s="50"/>
+      <c r="K30" s="52"/>
       <c r="L30" s="54"/>
       <c r="M30" s="50"/>
       <c r="N30" s="50"/>
@@ -4389,19 +4444,19 @@
       <c r="P30" s="54"/>
       <c r="Q30" s="51"/>
       <c r="R30" s="54"/>
-      <c r="S30" s="48"/>
-      <c r="T30" s="48"/>
-      <c r="U30" s="48"/>
-      <c r="V30" s="48"/>
+      <c r="S30" s="60"/>
+      <c r="T30" s="60"/>
+      <c r="U30" s="60"/>
+      <c r="V30" s="60"/>
       <c r="W30" s="64"/>
     </row>
     <row r="31" spans="1:24" ht="16" x14ac:dyDescent="0.15">
       <c r="A31" s="43"/>
       <c r="B31" s="43"/>
       <c r="C31" s="43"/>
-      <c r="D31" s="46"/>
+      <c r="D31" s="44"/>
       <c r="E31" s="50"/>
-      <c r="F31" s="52"/>
+      <c r="F31" s="50"/>
       <c r="G31" s="50"/>
       <c r="H31" s="51"/>
       <c r="I31" s="50"/>
@@ -4410,7 +4465,7 @@
       <c r="L31" s="54"/>
       <c r="M31" s="50"/>
       <c r="N31" s="50"/>
-      <c r="O31" s="54"/>
+      <c r="O31" s="50"/>
       <c r="P31" s="54"/>
       <c r="Q31" s="51"/>
       <c r="R31" s="54"/>
@@ -4418,15 +4473,15 @@
       <c r="T31" s="48"/>
       <c r="U31" s="48"/>
       <c r="V31" s="48"/>
-      <c r="W31" s="64"/>
+      <c r="W31" s="61"/>
     </row>
     <row r="32" spans="1:24" ht="16" x14ac:dyDescent="0.15">
       <c r="A32" s="43"/>
       <c r="B32" s="43"/>
       <c r="C32" s="43"/>
-      <c r="D32" s="46"/>
+      <c r="D32" s="44"/>
       <c r="E32" s="50"/>
-      <c r="F32" s="52"/>
+      <c r="F32" s="50"/>
       <c r="G32" s="50"/>
       <c r="H32" s="51"/>
       <c r="I32" s="50"/>
@@ -4435,7 +4490,7 @@
       <c r="L32" s="54"/>
       <c r="M32" s="50"/>
       <c r="N32" s="50"/>
-      <c r="O32" s="54"/>
+      <c r="O32" s="50"/>
       <c r="P32" s="54"/>
       <c r="Q32" s="51"/>
       <c r="R32" s="54"/>
@@ -4443,32 +4498,32 @@
       <c r="T32" s="48"/>
       <c r="U32" s="48"/>
       <c r="V32" s="48"/>
-      <c r="W32" s="64"/>
+      <c r="W32" s="63"/>
     </row>
     <row r="33" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A33" s="43"/>
       <c r="B33" s="43"/>
       <c r="C33" s="43"/>
-      <c r="D33" s="46"/>
+      <c r="D33" s="44"/>
       <c r="E33" s="50"/>
-      <c r="F33" s="52"/>
+      <c r="F33" s="50"/>
       <c r="G33" s="50"/>
       <c r="H33" s="51"/>
       <c r="I33" s="50"/>
       <c r="J33" s="51"/>
-      <c r="K33" s="52"/>
+      <c r="K33" s="50"/>
       <c r="L33" s="54"/>
       <c r="M33" s="50"/>
       <c r="N33" s="50"/>
-      <c r="O33" s="54"/>
+      <c r="O33" s="50"/>
       <c r="P33" s="54"/>
       <c r="Q33" s="51"/>
       <c r="R33" s="54"/>
-      <c r="S33" s="61"/>
-      <c r="T33" s="61"/>
-      <c r="U33" s="61"/>
-      <c r="V33" s="61"/>
-      <c r="W33" s="65"/>
+      <c r="S33" s="48"/>
+      <c r="T33" s="48"/>
+      <c r="U33" s="48"/>
+      <c r="V33" s="48"/>
+      <c r="W33" s="63"/>
     </row>
     <row r="34" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A34" s="43"/>
@@ -4493,7 +4548,7 @@
       <c r="T34" s="48"/>
       <c r="U34" s="48"/>
       <c r="V34" s="48"/>
-      <c r="W34" s="62"/>
+      <c r="W34" s="63"/>
     </row>
     <row r="35" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A35" s="43"/>
@@ -4518,7 +4573,7 @@
       <c r="T35" s="48"/>
       <c r="U35" s="48"/>
       <c r="V35" s="48"/>
-      <c r="W35" s="64"/>
+      <c r="W35" s="63"/>
     </row>
     <row r="36" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A36" s="43"/>
@@ -4543,7 +4598,7 @@
       <c r="T36" s="48"/>
       <c r="U36" s="48"/>
       <c r="V36" s="48"/>
-      <c r="W36" s="64"/>
+      <c r="W36" s="63"/>
     </row>
     <row r="37" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A37" s="43"/>
@@ -4568,7 +4623,7 @@
       <c r="T37" s="48"/>
       <c r="U37" s="48"/>
       <c r="V37" s="48"/>
-      <c r="W37" s="64"/>
+      <c r="W37" s="63"/>
     </row>
     <row r="38" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A38" s="43"/>
@@ -4593,7 +4648,7 @@
       <c r="T38" s="48"/>
       <c r="U38" s="48"/>
       <c r="V38" s="48"/>
-      <c r="W38" s="64"/>
+      <c r="W38" s="63"/>
     </row>
     <row r="39" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A39" s="43"/>
@@ -4618,7 +4673,7 @@
       <c r="T39" s="48"/>
       <c r="U39" s="48"/>
       <c r="V39" s="48"/>
-      <c r="W39" s="64"/>
+      <c r="W39" s="63"/>
     </row>
     <row r="40" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A40" s="43"/>
@@ -4643,7 +4698,7 @@
       <c r="T40" s="48"/>
       <c r="U40" s="48"/>
       <c r="V40" s="48"/>
-      <c r="W40" s="64"/>
+      <c r="W40" s="63"/>
     </row>
     <row r="41" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A41" s="43"/>
@@ -4668,72 +4723,72 @@
       <c r="T41" s="48"/>
       <c r="U41" s="48"/>
       <c r="V41" s="48"/>
-      <c r="W41" s="64"/>
+      <c r="W41" s="63"/>
     </row>
     <row r="42" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A42" s="43"/>
       <c r="B42" s="43"/>
       <c r="C42" s="43"/>
-      <c r="D42" s="44"/>
+      <c r="D42" s="45"/>
       <c r="E42" s="50"/>
       <c r="F42" s="50"/>
       <c r="G42" s="50"/>
       <c r="H42" s="51"/>
-      <c r="I42" s="50"/>
+      <c r="I42" s="51"/>
       <c r="J42" s="51"/>
       <c r="K42" s="50"/>
       <c r="L42" s="54"/>
-      <c r="M42" s="50"/>
+      <c r="M42" s="54"/>
       <c r="N42" s="50"/>
       <c r="O42" s="50"/>
       <c r="P42" s="54"/>
       <c r="Q42" s="51"/>
       <c r="R42" s="54"/>
-      <c r="S42" s="48"/>
-      <c r="T42" s="48"/>
-      <c r="U42" s="48"/>
-      <c r="V42" s="48"/>
-      <c r="W42" s="64"/>
+      <c r="S42" s="59"/>
+      <c r="T42" s="59"/>
+      <c r="U42" s="59"/>
+      <c r="V42" s="59"/>
+      <c r="W42" s="63"/>
     </row>
     <row r="43" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A43" s="43"/>
       <c r="B43" s="43"/>
       <c r="C43" s="43"/>
-      <c r="D43" s="44"/>
+      <c r="D43" s="45"/>
       <c r="E43" s="50"/>
       <c r="F43" s="50"/>
       <c r="G43" s="50"/>
       <c r="H43" s="51"/>
-      <c r="I43" s="50"/>
+      <c r="I43" s="51"/>
       <c r="J43" s="51"/>
       <c r="K43" s="50"/>
       <c r="L43" s="54"/>
-      <c r="M43" s="50"/>
+      <c r="M43" s="54"/>
       <c r="N43" s="50"/>
       <c r="O43" s="50"/>
       <c r="P43" s="54"/>
       <c r="Q43" s="51"/>
       <c r="R43" s="54"/>
-      <c r="S43" s="48"/>
-      <c r="T43" s="48"/>
-      <c r="U43" s="48"/>
-      <c r="V43" s="48"/>
-      <c r="W43" s="64"/>
+      <c r="S43" s="59"/>
+      <c r="T43" s="59"/>
+      <c r="U43" s="59"/>
+      <c r="V43" s="59"/>
+      <c r="W43" s="63"/>
     </row>
     <row r="44" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A44" s="43"/>
       <c r="B44" s="43"/>
       <c r="C44" s="43"/>
-      <c r="D44" s="44"/>
+      <c r="D44" s="47"/>
       <c r="E44" s="50"/>
       <c r="F44" s="50"/>
       <c r="G44" s="50"/>
       <c r="H44" s="51"/>
-      <c r="I44" s="50"/>
+      <c r="I44" s="51"/>
       <c r="J44" s="51"/>
-      <c r="K44" s="50"/>
+      <c r="K44" s="55"/>
       <c r="L44" s="54"/>
-      <c r="M44" s="50"/>
+      <c r="M44" s="54"/>
       <c r="N44" s="50"/>
       <c r="O44" s="50"/>
       <c r="P44" s="54"/>
@@ -4743,20 +4798,20 @@
       <c r="T44" s="48"/>
       <c r="U44" s="48"/>
       <c r="V44" s="48"/>
-      <c r="W44" s="64"/>
+      <c r="W44" s="49"/>
     </row>
     <row r="45" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A45" s="43"/>
       <c r="B45" s="43"/>
       <c r="C45" s="43"/>
-      <c r="D45" s="45"/>
+      <c r="D45" s="47"/>
       <c r="E45" s="50"/>
       <c r="F45" s="50"/>
       <c r="G45" s="50"/>
       <c r="H45" s="51"/>
       <c r="I45" s="51"/>
       <c r="J45" s="51"/>
-      <c r="K45" s="50"/>
+      <c r="K45" s="55"/>
       <c r="L45" s="54"/>
       <c r="M45" s="54"/>
       <c r="N45" s="50"/>
@@ -4764,24 +4819,24 @@
       <c r="P45" s="54"/>
       <c r="Q45" s="51"/>
       <c r="R45" s="54"/>
-      <c r="S45" s="59"/>
-      <c r="T45" s="59"/>
-      <c r="U45" s="59"/>
-      <c r="V45" s="59"/>
-      <c r="W45" s="64"/>
+      <c r="S45" s="48"/>
+      <c r="T45" s="48"/>
+      <c r="U45" s="48"/>
+      <c r="V45" s="48"/>
+      <c r="W45" s="49"/>
     </row>
     <row r="46" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A46" s="43"/>
       <c r="B46" s="43"/>
       <c r="C46" s="43"/>
-      <c r="D46" s="45"/>
+      <c r="D46" s="47"/>
       <c r="E46" s="50"/>
       <c r="F46" s="50"/>
       <c r="G46" s="50"/>
       <c r="H46" s="51"/>
       <c r="I46" s="51"/>
       <c r="J46" s="51"/>
-      <c r="K46" s="50"/>
+      <c r="K46" s="55"/>
       <c r="L46" s="54"/>
       <c r="M46" s="54"/>
       <c r="N46" s="50"/>
@@ -4789,11 +4844,11 @@
       <c r="P46" s="54"/>
       <c r="Q46" s="51"/>
       <c r="R46" s="54"/>
-      <c r="S46" s="59"/>
-      <c r="T46" s="59"/>
-      <c r="U46" s="59"/>
-      <c r="V46" s="59"/>
-      <c r="W46" s="64"/>
+      <c r="S46" s="48"/>
+      <c r="T46" s="48"/>
+      <c r="U46" s="48"/>
+      <c r="V46" s="48"/>
+      <c r="W46" s="49"/>
     </row>
     <row r="47" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A47" s="43"/>
@@ -4896,24 +4951,24 @@
       <c r="W50" s="49"/>
     </row>
     <row r="51" spans="1:23" ht="16" x14ac:dyDescent="0.15">
-      <c r="A51" s="43"/>
-      <c r="B51" s="43"/>
-      <c r="C51" s="43"/>
-      <c r="D51" s="47"/>
-      <c r="E51" s="50"/>
+      <c r="A51" s="48"/>
+      <c r="B51" s="48"/>
+      <c r="C51" s="48"/>
+      <c r="D51" s="49"/>
+      <c r="E51" s="48"/>
       <c r="F51" s="50"/>
       <c r="G51" s="50"/>
-      <c r="H51" s="51"/>
-      <c r="I51" s="51"/>
-      <c r="J51" s="51"/>
+      <c r="H51" s="53"/>
+      <c r="I51" s="48"/>
+      <c r="J51" s="53"/>
       <c r="K51" s="55"/>
-      <c r="L51" s="54"/>
-      <c r="M51" s="54"/>
+      <c r="L51" s="48"/>
+      <c r="M51" s="48"/>
       <c r="N51" s="50"/>
-      <c r="O51" s="50"/>
-      <c r="P51" s="54"/>
-      <c r="Q51" s="51"/>
-      <c r="R51" s="54"/>
+      <c r="O51" s="48"/>
+      <c r="P51" s="48"/>
+      <c r="Q51" s="53"/>
+      <c r="R51" s="49"/>
       <c r="S51" s="48"/>
       <c r="T51" s="48"/>
       <c r="U51" s="48"/>
@@ -4921,24 +4976,24 @@
       <c r="W51" s="49"/>
     </row>
     <row r="52" spans="1:23" ht="16" x14ac:dyDescent="0.15">
-      <c r="A52" s="43"/>
-      <c r="B52" s="43"/>
-      <c r="C52" s="43"/>
-      <c r="D52" s="47"/>
-      <c r="E52" s="50"/>
+      <c r="A52" s="48"/>
+      <c r="B52" s="48"/>
+      <c r="C52" s="48"/>
+      <c r="D52" s="49"/>
+      <c r="E52" s="48"/>
       <c r="F52" s="50"/>
       <c r="G52" s="50"/>
-      <c r="H52" s="51"/>
-      <c r="I52" s="51"/>
-      <c r="J52" s="51"/>
+      <c r="H52" s="53"/>
+      <c r="I52" s="48"/>
+      <c r="J52" s="53"/>
       <c r="K52" s="55"/>
-      <c r="L52" s="54"/>
-      <c r="M52" s="54"/>
+      <c r="L52" s="48"/>
+      <c r="M52" s="48"/>
       <c r="N52" s="50"/>
-      <c r="O52" s="50"/>
-      <c r="P52" s="54"/>
-      <c r="Q52" s="51"/>
-      <c r="R52" s="54"/>
+      <c r="O52" s="48"/>
+      <c r="P52" s="48"/>
+      <c r="Q52" s="53"/>
+      <c r="R52" s="49"/>
       <c r="S52" s="48"/>
       <c r="T52" s="48"/>
       <c r="U52" s="48"/>
@@ -4946,24 +5001,24 @@
       <c r="W52" s="49"/>
     </row>
     <row r="53" spans="1:23" ht="16" x14ac:dyDescent="0.15">
-      <c r="A53" s="43"/>
-      <c r="B53" s="43"/>
-      <c r="C53" s="43"/>
-      <c r="D53" s="47"/>
-      <c r="E53" s="50"/>
+      <c r="A53" s="48"/>
+      <c r="B53" s="48"/>
+      <c r="C53" s="48"/>
+      <c r="D53" s="49"/>
+      <c r="E53" s="48"/>
       <c r="F53" s="50"/>
       <c r="G53" s="50"/>
-      <c r="H53" s="51"/>
-      <c r="I53" s="51"/>
-      <c r="J53" s="51"/>
+      <c r="H53" s="53"/>
+      <c r="I53" s="48"/>
+      <c r="J53" s="53"/>
       <c r="K53" s="55"/>
-      <c r="L53" s="54"/>
-      <c r="M53" s="54"/>
+      <c r="L53" s="48"/>
+      <c r="M53" s="48"/>
       <c r="N53" s="50"/>
-      <c r="O53" s="50"/>
-      <c r="P53" s="54"/>
-      <c r="Q53" s="51"/>
-      <c r="R53" s="54"/>
+      <c r="O53" s="48"/>
+      <c r="P53" s="48"/>
+      <c r="Q53" s="53"/>
+      <c r="R53" s="49"/>
       <c r="S53" s="48"/>
       <c r="T53" s="48"/>
       <c r="U53" s="48"/>
@@ -5302,7 +5357,7 @@
       <c r="D67" s="49"/>
       <c r="E67" s="48"/>
       <c r="F67" s="50"/>
-      <c r="G67" s="50"/>
+      <c r="G67" s="48"/>
       <c r="H67" s="53"/>
       <c r="I67" s="48"/>
       <c r="J67" s="53"/>
@@ -5327,7 +5382,7 @@
       <c r="D68" s="49"/>
       <c r="E68" s="48"/>
       <c r="F68" s="50"/>
-      <c r="G68" s="50"/>
+      <c r="G68" s="48"/>
       <c r="H68" s="53"/>
       <c r="I68" s="48"/>
       <c r="J68" s="53"/>
@@ -5352,7 +5407,7 @@
       <c r="D69" s="49"/>
       <c r="E69" s="48"/>
       <c r="F69" s="50"/>
-      <c r="G69" s="50"/>
+      <c r="G69" s="48"/>
       <c r="H69" s="53"/>
       <c r="I69" s="48"/>
       <c r="J69" s="53"/>
@@ -5451,7 +5506,7 @@
       <c r="C73" s="48"/>
       <c r="D73" s="49"/>
       <c r="E73" s="48"/>
-      <c r="F73" s="50"/>
+      <c r="F73" s="48"/>
       <c r="G73" s="48"/>
       <c r="H73" s="53"/>
       <c r="I73" s="48"/>
@@ -5476,7 +5531,7 @@
       <c r="C74" s="48"/>
       <c r="D74" s="49"/>
       <c r="E74" s="48"/>
-      <c r="F74" s="50"/>
+      <c r="F74" s="48"/>
       <c r="G74" s="48"/>
       <c r="H74" s="53"/>
       <c r="I74" s="48"/>
@@ -5501,7 +5556,7 @@
       <c r="C75" s="48"/>
       <c r="D75" s="49"/>
       <c r="E75" s="48"/>
-      <c r="F75" s="50"/>
+      <c r="F75" s="48"/>
       <c r="G75" s="48"/>
       <c r="H75" s="53"/>
       <c r="I75" s="48"/>
@@ -5545,7 +5600,7 @@
       <c r="V76" s="48"/>
       <c r="W76" s="49"/>
     </row>
-    <row r="77" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A77" s="48"/>
       <c r="B77" s="48"/>
       <c r="C77" s="48"/>
@@ -5559,7 +5614,7 @@
       <c r="K77" s="55"/>
       <c r="L77" s="48"/>
       <c r="M77" s="48"/>
-      <c r="N77" s="50"/>
+      <c r="N77" s="48"/>
       <c r="O77" s="48"/>
       <c r="P77" s="48"/>
       <c r="Q77" s="53"/>
@@ -5570,7 +5625,7 @@
       <c r="V77" s="48"/>
       <c r="W77" s="49"/>
     </row>
-    <row r="78" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A78" s="48"/>
       <c r="B78" s="48"/>
       <c r="C78" s="48"/>
@@ -5584,7 +5639,7 @@
       <c r="K78" s="55"/>
       <c r="L78" s="48"/>
       <c r="M78" s="48"/>
-      <c r="N78" s="50"/>
+      <c r="N78" s="48"/>
       <c r="O78" s="48"/>
       <c r="P78" s="48"/>
       <c r="Q78" s="53"/>
@@ -5595,7 +5650,7 @@
       <c r="V78" s="48"/>
       <c r="W78" s="49"/>
     </row>
-    <row r="79" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A79" s="48"/>
       <c r="B79" s="48"/>
       <c r="C79" s="48"/>
@@ -5609,7 +5664,7 @@
       <c r="K79" s="55"/>
       <c r="L79" s="48"/>
       <c r="M79" s="48"/>
-      <c r="N79" s="50"/>
+      <c r="N79" s="48"/>
       <c r="O79" s="48"/>
       <c r="P79" s="48"/>
       <c r="Q79" s="53"/>
@@ -6964,10 +7019,6 @@
       <c r="P133" s="48"/>
       <c r="Q133" s="53"/>
       <c r="R133" s="49"/>
-      <c r="S133" s="48"/>
-      <c r="T133" s="48"/>
-      <c r="U133" s="48"/>
-      <c r="V133" s="48"/>
       <c r="W133" s="49"/>
     </row>
     <row r="134" spans="1:23" x14ac:dyDescent="0.15">
@@ -6989,10 +7040,6 @@
       <c r="P134" s="48"/>
       <c r="Q134" s="53"/>
       <c r="R134" s="49"/>
-      <c r="S134" s="48"/>
-      <c r="T134" s="48"/>
-      <c r="U134" s="48"/>
-      <c r="V134" s="48"/>
       <c r="W134" s="49"/>
     </row>
     <row r="135" spans="1:23" x14ac:dyDescent="0.15">
@@ -7014,10 +7061,6 @@
       <c r="P135" s="48"/>
       <c r="Q135" s="53"/>
       <c r="R135" s="49"/>
-      <c r="S135" s="48"/>
-      <c r="T135" s="48"/>
-      <c r="U135" s="48"/>
-      <c r="V135" s="48"/>
       <c r="W135" s="49"/>
     </row>
     <row r="136" spans="1:23" x14ac:dyDescent="0.15">
@@ -7692,76 +7735,19 @@
       <c r="R167" s="49"/>
       <c r="W167" s="49"/>
     </row>
-    <row r="168" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A168" s="48"/>
-      <c r="B168" s="48"/>
-      <c r="C168" s="48"/>
-      <c r="D168" s="49"/>
-      <c r="E168" s="48"/>
-      <c r="F168" s="48"/>
-      <c r="G168" s="48"/>
-      <c r="H168" s="53"/>
-      <c r="I168" s="48"/>
-      <c r="J168" s="53"/>
-      <c r="K168" s="55"/>
-      <c r="L168" s="48"/>
-      <c r="M168" s="48"/>
-      <c r="N168" s="48"/>
-      <c r="O168" s="48"/>
-      <c r="P168" s="48"/>
-      <c r="Q168" s="53"/>
-      <c r="R168" s="49"/>
-      <c r="W168" s="49"/>
-    </row>
-    <row r="169" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A169" s="48"/>
-      <c r="B169" s="48"/>
-      <c r="C169" s="48"/>
-      <c r="D169" s="49"/>
-      <c r="E169" s="48"/>
-      <c r="F169" s="48"/>
-      <c r="G169" s="48"/>
-      <c r="H169" s="53"/>
-      <c r="I169" s="48"/>
-      <c r="J169" s="53"/>
-      <c r="K169" s="55"/>
-      <c r="L169" s="48"/>
-      <c r="M169" s="48"/>
-      <c r="N169" s="48"/>
-      <c r="O169" s="48"/>
-      <c r="P169" s="48"/>
-      <c r="Q169" s="53"/>
-      <c r="R169" s="49"/>
-      <c r="W169" s="49"/>
-    </row>
-    <row r="170" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A170" s="48"/>
-      <c r="B170" s="48"/>
-      <c r="C170" s="48"/>
-      <c r="D170" s="49"/>
-      <c r="E170" s="48"/>
-      <c r="F170" s="48"/>
-      <c r="G170" s="48"/>
-      <c r="H170" s="53"/>
-      <c r="I170" s="48"/>
-      <c r="J170" s="53"/>
-      <c r="K170" s="55"/>
-      <c r="L170" s="48"/>
-      <c r="M170" s="48"/>
-      <c r="N170" s="48"/>
-      <c r="O170" s="48"/>
-      <c r="P170" s="48"/>
-      <c r="Q170" s="53"/>
-      <c r="R170" s="49"/>
-      <c r="W170" s="49"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="23" type="noConversion"/>
   <dataValidations count="9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M1:M15 M17:M1048576">
+      <formula1>"架构组,EQ组,捷豹组,马丁组,磐石组,极光组,移动组,野帝组"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M16">
+      <formula1>"架构组,EQ组,捷豹组,马丁组,磐石组,极光组,移动组,野帝组,TP组"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R1:R1048576">
       <formula1>"能,否"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N79">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N76">
       <formula1>"高,中,低"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E1048576">
@@ -7769,9 +7755,6 @@
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P1:P1048576">
       <formula1>"通过,不通过"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M17:M1048576 M1:M15">
-      <formula1>"架构组,EQ组,捷豹组,马丁组,磐石组,极光组,移动组,野帝组"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B1048576">
       <formula1>"重要,不重要"</formula1>
@@ -7781,9 +7764,6 @@
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V1:V1048576 I1:I1048576 G1:G1048576">
       <formula1>"是,否"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M16">
-      <formula1>"架构组,EQ组,捷豹组,马丁组,磐石组,极光组,移动组,野帝组,TP组"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
@@ -7797,6 +7777,10 @@
     <hyperlink ref="S16" r:id="rId8"/>
     <hyperlink ref="S14" r:id="rId9"/>
     <hyperlink ref="S15" r:id="rId10"/>
+    <hyperlink ref="S21" r:id="rId11"/>
+    <hyperlink ref="S22" r:id="rId12"/>
+    <hyperlink ref="S23" r:id="rId13"/>
+    <hyperlink ref="S24" r:id="rId14"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
@@ -7807,7 +7791,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
@@ -7888,215 +7872,215 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="106" t="s">
+      <c r="A2" s="95" t="s">
+        <v>163</v>
+      </c>
+      <c r="B2" s="96" t="s">
+        <v>164</v>
+      </c>
+      <c r="C2" s="96"/>
+      <c r="D2" s="97" t="s">
+        <v>165</v>
+      </c>
+      <c r="E2" s="96" t="s">
+        <v>166</v>
+      </c>
+      <c r="F2" s="98" t="s">
+        <v>167</v>
+      </c>
+      <c r="G2" s="99" t="s">
+        <v>168</v>
+      </c>
+      <c r="H2" s="100" t="s">
+        <v>169</v>
+      </c>
+      <c r="I2" s="101" t="s">
+        <v>81</v>
+      </c>
+      <c r="J2" s="102" t="s">
         <v>170</v>
       </c>
-      <c r="B2" s="107" t="s">
+      <c r="K2" s="103" t="s">
         <v>171</v>
       </c>
-      <c r="C2" s="107"/>
-      <c r="D2" s="108" t="s">
+      <c r="L2" s="102" t="s">
         <v>172</v>
       </c>
-      <c r="E2" s="107" t="s">
+      <c r="M2" s="102" t="s">
         <v>173</v>
       </c>
-      <c r="F2" s="109" t="s">
+      <c r="N2" s="102" t="s">
         <v>174</v>
       </c>
-      <c r="G2" s="110" t="s">
+      <c r="O2" s="96" t="s">
         <v>175</v>
       </c>
-      <c r="H2" s="111" t="s">
+      <c r="P2" s="104" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q2" s="96" t="s">
         <v>176</v>
       </c>
-      <c r="I2" s="112" t="s">
+      <c r="R2" s="96" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="95" t="s">
+        <v>163</v>
+      </c>
+      <c r="B3" s="105" t="s">
+        <v>164</v>
+      </c>
+      <c r="C3" s="105"/>
+      <c r="D3" s="106" t="s">
+        <v>165</v>
+      </c>
+      <c r="E3" s="105" t="s">
+        <v>177</v>
+      </c>
+      <c r="F3" s="107" t="s">
+        <v>167</v>
+      </c>
+      <c r="G3" s="108" t="s">
+        <v>168</v>
+      </c>
+      <c r="H3" s="109" t="s">
+        <v>169</v>
+      </c>
+      <c r="I3" s="110" t="s">
         <v>81</v>
       </c>
-      <c r="J2" s="113" t="s">
-        <v>177</v>
-      </c>
-      <c r="K2" s="114" t="s">
+      <c r="J3" s="111" t="s">
         <v>178</v>
       </c>
-      <c r="L2" s="113" t="s">
+      <c r="K3" s="112"/>
+      <c r="L3" s="111" t="s">
         <v>179</v>
       </c>
-      <c r="M2" s="113" t="s">
+      <c r="M3" s="111" t="s">
         <v>180</v>
       </c>
-      <c r="N2" s="113" t="s">
+      <c r="N3" s="111" t="s">
         <v>181</v>
       </c>
-      <c r="O2" s="107" t="s">
+      <c r="O3" s="105" t="s">
         <v>182</v>
       </c>
-      <c r="P2" s="115" t="s">
+      <c r="P3" s="113" t="s">
         <v>81</v>
       </c>
-      <c r="Q2" s="107" t="s">
+      <c r="Q3" s="105" t="s">
+        <v>176</v>
+      </c>
+      <c r="R3" s="105" t="s">
         <v>183</v>
       </c>
-      <c r="R2" s="107" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="106" t="s">
-        <v>170</v>
-      </c>
-      <c r="B3" s="116" t="s">
-        <v>171</v>
-      </c>
-      <c r="C3" s="116"/>
-      <c r="D3" s="117" t="s">
-        <v>172</v>
-      </c>
-      <c r="E3" s="116" t="s">
-        <v>184</v>
-      </c>
-      <c r="F3" s="118" t="s">
-        <v>174</v>
-      </c>
-      <c r="G3" s="119" t="s">
-        <v>175</v>
-      </c>
-      <c r="H3" s="120" t="s">
-        <v>176</v>
-      </c>
-      <c r="I3" s="121" t="s">
-        <v>81</v>
-      </c>
-      <c r="J3" s="122" t="s">
-        <v>185</v>
-      </c>
-      <c r="K3" s="123"/>
-      <c r="L3" s="122" t="s">
-        <v>186</v>
-      </c>
-      <c r="M3" s="122" t="s">
-        <v>187</v>
-      </c>
-      <c r="N3" s="122" t="s">
-        <v>188</v>
-      </c>
-      <c r="O3" s="116" t="s">
-        <v>189</v>
-      </c>
-      <c r="P3" s="124" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q3" s="116" t="s">
-        <v>183</v>
-      </c>
-      <c r="R3" s="116" t="s">
-        <v>190</v>
-      </c>
     </row>
     <row r="4" spans="1:18" ht="77.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="141" t="s">
-        <v>249</v>
-      </c>
-      <c r="B4" s="142" t="s">
-        <v>171</v>
-      </c>
-      <c r="C4" s="142" t="s">
-        <v>250</v>
-      </c>
-      <c r="D4" s="143" t="s">
-        <v>251</v>
-      </c>
-      <c r="E4" s="142" t="s">
-        <v>252</v>
-      </c>
-      <c r="F4" s="144" t="s">
-        <v>253</v>
-      </c>
-      <c r="G4" s="145" t="s">
-        <v>254</v>
+      <c r="A4" s="130" t="s">
+        <v>242</v>
+      </c>
+      <c r="B4" s="131" t="s">
+        <v>164</v>
+      </c>
+      <c r="C4" s="131" t="s">
+        <v>243</v>
+      </c>
+      <c r="D4" s="132" t="s">
+        <v>244</v>
+      </c>
+      <c r="E4" s="131" t="s">
+        <v>245</v>
+      </c>
+      <c r="F4" s="133" t="s">
+        <v>246</v>
+      </c>
+      <c r="G4" s="134" t="s">
+        <v>247</v>
       </c>
       <c r="H4" s="32" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="I4" s="35" t="s">
         <v>81</v>
       </c>
-      <c r="J4" s="146" t="s">
+      <c r="J4" s="135" t="s">
+        <v>248</v>
+      </c>
+      <c r="K4" s="36" t="s">
+        <v>171</v>
+      </c>
+      <c r="L4" s="136" t="s">
+        <v>249</v>
+      </c>
+      <c r="M4" s="135" t="s">
+        <v>250</v>
+      </c>
+      <c r="N4" s="135" t="s">
+        <v>251</v>
+      </c>
+      <c r="O4" s="137" t="s">
+        <v>252</v>
+      </c>
+      <c r="P4" s="138" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q4" s="137" t="s">
+        <v>253</v>
+      </c>
+      <c r="R4" s="137"/>
+    </row>
+    <row r="5" spans="1:18" ht="87.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="130" t="s">
+        <v>242</v>
+      </c>
+      <c r="B5" s="131" t="s">
+        <v>164</v>
+      </c>
+      <c r="C5" s="131" t="s">
+        <v>254</v>
+      </c>
+      <c r="D5" s="132" t="s">
+        <v>244</v>
+      </c>
+      <c r="E5" s="131" t="s">
+        <v>245</v>
+      </c>
+      <c r="F5" s="133" t="s">
+        <v>246</v>
+      </c>
+      <c r="G5" s="134" t="s">
+        <v>247</v>
+      </c>
+      <c r="H5" s="139" t="s">
         <v>255</v>
-      </c>
-      <c r="K4" s="36" t="s">
-        <v>178</v>
-      </c>
-      <c r="L4" s="147" t="s">
-        <v>256</v>
-      </c>
-      <c r="M4" s="146" t="s">
-        <v>257</v>
-      </c>
-      <c r="N4" s="146" t="s">
-        <v>258</v>
-      </c>
-      <c r="O4" s="148" t="s">
-        <v>259</v>
-      </c>
-      <c r="P4" s="149" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q4" s="148" t="s">
-        <v>260</v>
-      </c>
-      <c r="R4" s="148"/>
-    </row>
-    <row r="5" spans="1:18" ht="87.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="141" t="s">
-        <v>249</v>
-      </c>
-      <c r="B5" s="142" t="s">
-        <v>171</v>
-      </c>
-      <c r="C5" s="142" t="s">
-        <v>261</v>
-      </c>
-      <c r="D5" s="143" t="s">
-        <v>251</v>
-      </c>
-      <c r="E5" s="142" t="s">
-        <v>252</v>
-      </c>
-      <c r="F5" s="144" t="s">
-        <v>253</v>
-      </c>
-      <c r="G5" s="145" t="s">
-        <v>254</v>
-      </c>
-      <c r="H5" s="150" t="s">
-        <v>262</v>
       </c>
       <c r="I5" s="35" t="s">
         <v>81</v>
       </c>
-      <c r="J5" s="146" t="s">
-        <v>263</v>
+      <c r="J5" s="135" t="s">
+        <v>256</v>
       </c>
       <c r="K5" s="36" t="s">
-        <v>178</v>
-      </c>
-      <c r="L5" s="147" t="s">
-        <v>264</v>
-      </c>
-      <c r="M5" s="146" t="s">
-        <v>265</v>
-      </c>
-      <c r="N5" s="146" t="s">
+        <v>171</v>
+      </c>
+      <c r="L5" s="136" t="s">
+        <v>257</v>
+      </c>
+      <c r="M5" s="135" t="s">
         <v>258</v>
       </c>
-      <c r="O5" s="148"/>
-      <c r="P5" s="151" t="s">
-        <v>266</v>
-      </c>
-      <c r="Q5" s="148"/>
-      <c r="R5" s="148" t="s">
-        <v>267</v>
+      <c r="N5" s="135" t="s">
+        <v>251</v>
+      </c>
+      <c r="O5" s="137"/>
+      <c r="P5" s="140" t="s">
+        <v>259</v>
+      </c>
+      <c r="Q5" s="137"/>
+      <c r="R5" s="137" t="s">
+        <v>260</v>
       </c>
     </row>
   </sheetData>
@@ -8126,19 +8110,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="17" x14ac:dyDescent="0.15">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="141" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
+      <c r="B1" s="142"/>
+      <c r="C1" s="142"/>
+      <c r="D1" s="142"/>
+      <c r="E1" s="142"/>
+      <c r="F1" s="142"/>
+      <c r="G1" s="142"/>
+      <c r="H1" s="142"/>
+      <c r="I1" s="142"/>
+      <c r="J1" s="142"/>
+      <c r="K1" s="142"/>
     </row>
     <row r="2" spans="1:11" ht="15" x14ac:dyDescent="0.15">
       <c r="A2" s="15" t="s">
@@ -8178,25 +8162,25 @@
     <row r="3" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="17"/>
       <c r="B3" s="17"/>
-      <c r="C3" s="138" t="s">
-        <v>233</v>
+      <c r="C3" s="127" t="s">
+        <v>226</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="E3" s="19" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="F3" s="24" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="G3" s="24" t="s">
-        <v>237</v>
-      </c>
-      <c r="H3" s="139">
+        <v>230</v>
+      </c>
+      <c r="H3" s="128">
         <v>42811</v>
       </c>
-      <c r="I3" s="139">
+      <c r="I3" s="128">
         <v>42811</v>
       </c>
       <c r="J3" s="27"/>
@@ -8205,60 +8189,60 @@
     <row r="4" spans="1:11" ht="30" x14ac:dyDescent="0.15">
       <c r="A4" s="20"/>
       <c r="B4" s="21"/>
-      <c r="C4" s="138" t="s">
-        <v>238</v>
-      </c>
-      <c r="D4" s="140" t="s">
-        <v>239</v>
-      </c>
-      <c r="E4" s="140" t="s">
-        <v>240</v>
+      <c r="C4" s="127" t="s">
+        <v>231</v>
+      </c>
+      <c r="D4" s="129" t="s">
+        <v>232</v>
+      </c>
+      <c r="E4" s="129" t="s">
+        <v>233</v>
       </c>
       <c r="F4" s="24" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="G4" s="24" t="s">
-        <v>237</v>
-      </c>
-      <c r="H4" s="139">
+        <v>230</v>
+      </c>
+      <c r="H4" s="128">
         <v>42811</v>
       </c>
-      <c r="I4" s="139">
+      <c r="I4" s="128">
         <v>42811</v>
       </c>
       <c r="J4" s="27"/>
       <c r="K4" s="28"/>
     </row>
     <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="69"/>
-      <c r="B5" s="69"/>
-      <c r="C5" s="138" t="s">
-        <v>242</v>
+      <c r="A5" s="143"/>
+      <c r="B5" s="143"/>
+      <c r="C5" s="127" t="s">
+        <v>235</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="F5" s="24" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="G5" s="24" t="s">
-        <v>237</v>
-      </c>
-      <c r="H5" s="139">
+        <v>230</v>
+      </c>
+      <c r="H5" s="128">
         <v>42811</v>
       </c>
-      <c r="I5" s="139">
+      <c r="I5" s="128">
         <v>42811</v>
       </c>
       <c r="J5" s="27"/>
       <c r="K5" s="28"/>
     </row>
     <row r="6" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A6" s="71"/>
-      <c r="B6" s="71"/>
+      <c r="A6" s="144"/>
+      <c r="B6" s="144"/>
       <c r="C6" s="18"/>
       <c r="D6" s="19"/>
       <c r="E6" s="19"/>
@@ -8270,8 +8254,8 @@
       <c r="K6" s="28"/>
     </row>
     <row r="7" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A7" s="71"/>
-      <c r="B7" s="71"/>
+      <c r="A7" s="144"/>
+      <c r="B7" s="144"/>
       <c r="C7" s="18"/>
       <c r="D7" s="19"/>
       <c r="E7" s="19"/>
@@ -8283,8 +8267,8 @@
       <c r="K7" s="28"/>
     </row>
     <row r="8" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A8" s="71"/>
-      <c r="B8" s="71"/>
+      <c r="A8" s="144"/>
+      <c r="B8" s="144"/>
       <c r="C8" s="18"/>
       <c r="D8" s="19"/>
       <c r="E8" s="19"/>
@@ -8296,8 +8280,8 @@
       <c r="K8" s="28"/>
     </row>
     <row r="9" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A9" s="71"/>
-      <c r="B9" s="71"/>
+      <c r="A9" s="144"/>
+      <c r="B9" s="144"/>
       <c r="C9" s="18"/>
       <c r="D9" s="19"/>
       <c r="E9" s="19"/>
@@ -8309,8 +8293,8 @@
       <c r="K9" s="28"/>
     </row>
     <row r="10" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A10" s="70"/>
-      <c r="B10" s="70"/>
+      <c r="A10" s="145"/>
+      <c r="B10" s="145"/>
       <c r="C10" s="18"/>
       <c r="D10" s="19"/>
       <c r="E10" s="19"/>
@@ -8369,36 +8353,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="146" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72"/>
-      <c r="I1" s="72"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="72"/>
-      <c r="L1" s="72"/>
-      <c r="M1" s="73"/>
+      <c r="B1" s="146"/>
+      <c r="C1" s="146"/>
+      <c r="D1" s="146"/>
+      <c r="E1" s="146"/>
+      <c r="F1" s="146"/>
+      <c r="G1" s="146"/>
+      <c r="H1" s="146"/>
+      <c r="I1" s="146"/>
+      <c r="J1" s="146"/>
+      <c r="K1" s="146"/>
+      <c r="L1" s="146"/>
+      <c r="M1" s="147"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="74"/>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
-      <c r="I2" s="74"/>
-      <c r="J2" s="74"/>
-      <c r="K2" s="74"/>
-      <c r="L2" s="74"/>
-      <c r="M2" s="75"/>
+      <c r="A2" s="148"/>
+      <c r="B2" s="148"/>
+      <c r="C2" s="148"/>
+      <c r="D2" s="148"/>
+      <c r="E2" s="148"/>
+      <c r="F2" s="148"/>
+      <c r="G2" s="148"/>
+      <c r="H2" s="148"/>
+      <c r="I2" s="148"/>
+      <c r="J2" s="148"/>
+      <c r="K2" s="148"/>
+      <c r="L2" s="148"/>
+      <c r="M2" s="149"/>
     </row>
     <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
@@ -8442,384 +8426,384 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="16" x14ac:dyDescent="0.15">
-      <c r="A4" s="125">
+      <c r="A4" s="114">
         <v>1</v>
       </c>
-      <c r="B4" s="125" t="s">
+      <c r="B4" s="114" t="s">
+        <v>184</v>
+      </c>
+      <c r="C4" s="114" t="s">
+        <v>185</v>
+      </c>
+      <c r="D4" s="115" t="s">
+        <v>186</v>
+      </c>
+      <c r="E4" s="114" t="s">
+        <v>187</v>
+      </c>
+      <c r="F4" s="114" t="s">
+        <v>188</v>
+      </c>
+      <c r="G4" s="116" t="s">
+        <v>189</v>
+      </c>
+      <c r="H4" s="114" t="s">
+        <v>190</v>
+      </c>
+      <c r="I4" s="114"/>
+      <c r="J4" s="114" t="s">
         <v>191</v>
       </c>
-      <c r="C4" s="125" t="s">
+      <c r="K4" s="114" t="s">
+        <v>191</v>
+      </c>
+      <c r="L4" s="114" t="s">
         <v>192</v>
       </c>
-      <c r="D4" s="126" t="s">
+      <c r="M4" s="114"/>
+    </row>
+    <row r="6" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+      <c r="A6" s="114">
+        <v>3</v>
+      </c>
+      <c r="B6" s="114" t="s">
+        <v>184</v>
+      </c>
+      <c r="C6" s="114" t="s">
+        <v>185</v>
+      </c>
+      <c r="D6" s="117" t="s">
         <v>193</v>
       </c>
-      <c r="E4" s="125" t="s">
+      <c r="E6" s="114" t="s">
         <v>194</v>
       </c>
-      <c r="F4" s="125" t="s">
+      <c r="F6" s="114" t="s">
+        <v>188</v>
+      </c>
+      <c r="G6" s="114" t="s">
         <v>195</v>
       </c>
-      <c r="G4" s="127" t="s">
+      <c r="H6" s="114" t="s">
         <v>196</v>
       </c>
-      <c r="H4" s="125" t="s">
+      <c r="I6" s="114"/>
+      <c r="J6" s="114" t="s">
         <v>197</v>
       </c>
-      <c r="I4" s="125"/>
-      <c r="J4" s="125" t="s">
+      <c r="K6" s="114" t="s">
+        <v>197</v>
+      </c>
+      <c r="L6" s="114" t="s">
+        <v>192</v>
+      </c>
+      <c r="M6" s="114"/>
+    </row>
+    <row r="7" spans="1:13" ht="80" x14ac:dyDescent="0.15">
+      <c r="A7" s="114">
+        <v>4</v>
+      </c>
+      <c r="B7" s="114" t="s">
+        <v>184</v>
+      </c>
+      <c r="C7" s="114" t="s">
+        <v>185</v>
+      </c>
+      <c r="D7" s="114" t="s">
         <v>198</v>
       </c>
-      <c r="K4" s="125" t="s">
-        <v>198</v>
-      </c>
-      <c r="L4" s="125" t="s">
+      <c r="E7" s="114" t="s">
         <v>199</v>
       </c>
-      <c r="M4" s="125"/>
-    </row>
-    <row r="6" spans="1:13" ht="16" x14ac:dyDescent="0.15">
-      <c r="A6" s="125">
-        <v>3</v>
-      </c>
-      <c r="B6" s="125" t="s">
-        <v>191</v>
-      </c>
-      <c r="C6" s="125" t="s">
+      <c r="F7" s="114" t="s">
+        <v>188</v>
+      </c>
+      <c r="G7" s="114" t="s">
+        <v>200</v>
+      </c>
+      <c r="H7" s="116" t="s">
+        <v>201</v>
+      </c>
+      <c r="I7" s="114"/>
+      <c r="J7" s="114" t="s">
+        <v>197</v>
+      </c>
+      <c r="K7" s="114" t="s">
+        <v>197</v>
+      </c>
+      <c r="L7" s="114" t="s">
         <v>192</v>
       </c>
-      <c r="D6" s="128" t="s">
-        <v>200</v>
-      </c>
-      <c r="E6" s="125" t="s">
-        <v>201</v>
-      </c>
-      <c r="F6" s="125" t="s">
-        <v>195</v>
-      </c>
-      <c r="G6" s="125" t="s">
+      <c r="M7" s="114" t="s">
         <v>202</v>
       </c>
-      <c r="H6" s="125" t="s">
+    </row>
+    <row r="8" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+      <c r="A8" s="118"/>
+      <c r="B8" s="114" t="s">
+        <v>117</v>
+      </c>
+      <c r="C8" s="114" t="s">
         <v>203</v>
       </c>
-      <c r="I6" s="125"/>
-      <c r="J6" s="125" t="s">
+      <c r="D8" s="117" t="s">
         <v>204</v>
       </c>
-      <c r="K6" s="125" t="s">
+      <c r="E8" s="114" t="s">
+        <v>187</v>
+      </c>
+      <c r="F8" s="114" t="s">
+        <v>188</v>
+      </c>
+      <c r="G8" s="114" t="s">
+        <v>205</v>
+      </c>
+      <c r="H8" s="114" t="s">
+        <v>206</v>
+      </c>
+      <c r="I8" s="114" t="s">
+        <v>207</v>
+      </c>
+      <c r="J8" s="114" t="s">
+        <v>208</v>
+      </c>
+      <c r="K8" s="114" t="s">
+        <v>208</v>
+      </c>
+      <c r="L8" s="118"/>
+      <c r="M8" s="119"/>
+    </row>
+    <row r="9" spans="1:13" ht="360" x14ac:dyDescent="0.15">
+      <c r="A9" s="118"/>
+      <c r="B9" s="114" t="s">
+        <v>117</v>
+      </c>
+      <c r="C9" s="114" t="s">
+        <v>203</v>
+      </c>
+      <c r="D9" s="117" t="s">
         <v>204</v>
       </c>
-      <c r="L6" s="125" t="s">
-        <v>199</v>
-      </c>
-      <c r="M6" s="125"/>
-    </row>
-    <row r="7" spans="1:13" ht="80" x14ac:dyDescent="0.15">
-      <c r="A7" s="125">
-        <v>4</v>
-      </c>
-      <c r="B7" s="125" t="s">
-        <v>191</v>
-      </c>
-      <c r="C7" s="125" t="s">
-        <v>192</v>
-      </c>
-      <c r="D7" s="125" t="s">
-        <v>205</v>
-      </c>
-      <c r="E7" s="125" t="s">
+      <c r="E9" s="114" t="s">
+        <v>187</v>
+      </c>
+      <c r="F9" s="114" t="s">
+        <v>188</v>
+      </c>
+      <c r="G9" s="120" t="s">
+        <v>209</v>
+      </c>
+      <c r="H9" s="114" t="s">
         <v>206</v>
       </c>
-      <c r="F7" s="125" t="s">
-        <v>195</v>
-      </c>
-      <c r="G7" s="125" t="s">
+      <c r="I9" s="114" t="s">
         <v>207</v>
       </c>
-      <c r="H7" s="127" t="s">
+      <c r="J9" s="114" t="s">
         <v>208</v>
       </c>
-      <c r="I7" s="125"/>
-      <c r="J7" s="125" t="s">
+      <c r="K9" s="114" t="s">
+        <v>208</v>
+      </c>
+      <c r="L9" s="118"/>
+      <c r="M9" s="118"/>
+    </row>
+    <row r="10" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+      <c r="A10" s="118"/>
+      <c r="B10" s="114" t="s">
+        <v>117</v>
+      </c>
+      <c r="C10" s="114" t="s">
+        <v>203</v>
+      </c>
+      <c r="D10" s="117" t="s">
         <v>204</v>
       </c>
-      <c r="K7" s="125" t="s">
+      <c r="E10" s="114" t="s">
+        <v>187</v>
+      </c>
+      <c r="F10" s="114" t="s">
+        <v>188</v>
+      </c>
+      <c r="G10" s="121" t="s">
+        <v>210</v>
+      </c>
+      <c r="H10" s="114" t="s">
+        <v>206</v>
+      </c>
+      <c r="I10" s="114" t="s">
+        <v>207</v>
+      </c>
+      <c r="J10" s="114" t="s">
+        <v>208</v>
+      </c>
+      <c r="K10" s="114" t="s">
+        <v>208</v>
+      </c>
+      <c r="L10" s="118"/>
+      <c r="M10" s="118"/>
+    </row>
+    <row r="11" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+      <c r="A11" s="118"/>
+      <c r="B11" s="114" t="s">
+        <v>117</v>
+      </c>
+      <c r="C11" s="114" t="s">
+        <v>203</v>
+      </c>
+      <c r="D11" s="117" t="s">
         <v>204</v>
       </c>
-      <c r="L7" s="125" t="s">
-        <v>199</v>
-      </c>
-      <c r="M7" s="125" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="16" x14ac:dyDescent="0.15">
-      <c r="A8" s="129"/>
-      <c r="B8" s="125" t="s">
+      <c r="E11" s="114" t="s">
+        <v>187</v>
+      </c>
+      <c r="F11" s="114" t="s">
+        <v>188</v>
+      </c>
+      <c r="G11" s="121" t="s">
+        <v>211</v>
+      </c>
+      <c r="H11" s="114" t="s">
+        <v>212</v>
+      </c>
+      <c r="I11" s="114" t="s">
+        <v>207</v>
+      </c>
+      <c r="J11" s="114" t="s">
+        <v>208</v>
+      </c>
+      <c r="K11" s="114" t="s">
+        <v>208</v>
+      </c>
+      <c r="L11" s="118"/>
+      <c r="M11" s="118"/>
+    </row>
+    <row r="12" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+      <c r="A12" s="118"/>
+      <c r="B12" s="114" t="s">
         <v>117</v>
       </c>
-      <c r="C8" s="125" t="s">
-        <v>210</v>
-      </c>
-      <c r="D8" s="128" t="s">
-        <v>211</v>
-      </c>
-      <c r="E8" s="125" t="s">
-        <v>194</v>
-      </c>
-      <c r="F8" s="125" t="s">
-        <v>195</v>
-      </c>
-      <c r="G8" s="125" t="s">
+      <c r="C12" s="114" t="s">
+        <v>203</v>
+      </c>
+      <c r="D12" s="117" t="s">
+        <v>204</v>
+      </c>
+      <c r="E12" s="114" t="s">
+        <v>187</v>
+      </c>
+      <c r="F12" s="114" t="s">
+        <v>188</v>
+      </c>
+      <c r="G12" s="114" t="s">
+        <v>213</v>
+      </c>
+      <c r="H12" s="114" t="s">
         <v>212</v>
       </c>
-      <c r="H8" s="125" t="s">
-        <v>213</v>
-      </c>
-      <c r="I8" s="125" t="s">
+      <c r="I12" s="114" t="s">
+        <v>207</v>
+      </c>
+      <c r="J12" s="114" t="s">
+        <v>208</v>
+      </c>
+      <c r="K12" s="114" t="s">
+        <v>208</v>
+      </c>
+      <c r="L12" s="118"/>
+      <c r="M12" s="118"/>
+    </row>
+    <row r="13" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+      <c r="A13" s="118"/>
+      <c r="B13" s="114" t="s">
+        <v>117</v>
+      </c>
+      <c r="C13" s="114" t="s">
+        <v>203</v>
+      </c>
+      <c r="D13" s="117" t="s">
+        <v>204</v>
+      </c>
+      <c r="E13" s="114" t="s">
+        <v>187</v>
+      </c>
+      <c r="F13" s="114" t="s">
+        <v>188</v>
+      </c>
+      <c r="G13" s="114" t="s">
         <v>214</v>
       </c>
-      <c r="J8" s="125" t="s">
+      <c r="H13" s="114" t="s">
+        <v>212</v>
+      </c>
+      <c r="I13" s="114" t="s">
+        <v>207</v>
+      </c>
+      <c r="J13" s="114" t="s">
+        <v>208</v>
+      </c>
+      <c r="K13" s="114" t="s">
+        <v>208</v>
+      </c>
+      <c r="L13" s="118"/>
+      <c r="M13" s="118"/>
+    </row>
+    <row r="14" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+      <c r="A14" s="118"/>
+      <c r="B14" s="114" t="s">
+        <v>117</v>
+      </c>
+      <c r="C14" s="114" t="s">
+        <v>203</v>
+      </c>
+      <c r="D14" s="117" t="s">
+        <v>204</v>
+      </c>
+      <c r="E14" s="114" t="s">
+        <v>187</v>
+      </c>
+      <c r="F14" s="114" t="s">
+        <v>188</v>
+      </c>
+      <c r="G14" s="114" t="s">
         <v>215</v>
       </c>
-      <c r="K8" s="125" t="s">
-        <v>215</v>
-      </c>
-      <c r="L8" s="129"/>
-      <c r="M8" s="130"/>
-    </row>
-    <row r="9" spans="1:13" ht="360" x14ac:dyDescent="0.15">
-      <c r="A9" s="129"/>
-      <c r="B9" s="125" t="s">
-        <v>117</v>
-      </c>
-      <c r="C9" s="125" t="s">
-        <v>210</v>
-      </c>
-      <c r="D9" s="128" t="s">
-        <v>211</v>
-      </c>
-      <c r="E9" s="125" t="s">
-        <v>194</v>
-      </c>
-      <c r="F9" s="125" t="s">
-        <v>195</v>
-      </c>
-      <c r="G9" s="131" t="s">
-        <v>216</v>
-      </c>
-      <c r="H9" s="125" t="s">
-        <v>213</v>
-      </c>
-      <c r="I9" s="125" t="s">
-        <v>214</v>
-      </c>
-      <c r="J9" s="125" t="s">
-        <v>215</v>
-      </c>
-      <c r="K9" s="125" t="s">
-        <v>215</v>
-      </c>
-      <c r="L9" s="129"/>
-      <c r="M9" s="129"/>
-    </row>
-    <row r="10" spans="1:13" ht="16" x14ac:dyDescent="0.15">
-      <c r="A10" s="129"/>
-      <c r="B10" s="125" t="s">
-        <v>117</v>
-      </c>
-      <c r="C10" s="125" t="s">
-        <v>210</v>
-      </c>
-      <c r="D10" s="128" t="s">
-        <v>211</v>
-      </c>
-      <c r="E10" s="125" t="s">
-        <v>194</v>
-      </c>
-      <c r="F10" s="125" t="s">
-        <v>195</v>
-      </c>
-      <c r="G10" s="132" t="s">
-        <v>217</v>
-      </c>
-      <c r="H10" s="125" t="s">
-        <v>213</v>
-      </c>
-      <c r="I10" s="125" t="s">
-        <v>214</v>
-      </c>
-      <c r="J10" s="125" t="s">
-        <v>215</v>
-      </c>
-      <c r="K10" s="125" t="s">
-        <v>215</v>
-      </c>
-      <c r="L10" s="129"/>
-      <c r="M10" s="129"/>
-    </row>
-    <row r="11" spans="1:13" ht="16" x14ac:dyDescent="0.15">
-      <c r="A11" s="129"/>
-      <c r="B11" s="125" t="s">
-        <v>117</v>
-      </c>
-      <c r="C11" s="125" t="s">
-        <v>210</v>
-      </c>
-      <c r="D11" s="128" t="s">
-        <v>211</v>
-      </c>
-      <c r="E11" s="125" t="s">
-        <v>194</v>
-      </c>
-      <c r="F11" s="125" t="s">
-        <v>195</v>
-      </c>
-      <c r="G11" s="132" t="s">
-        <v>218</v>
-      </c>
-      <c r="H11" s="125" t="s">
-        <v>219</v>
-      </c>
-      <c r="I11" s="125" t="s">
-        <v>214</v>
-      </c>
-      <c r="J11" s="125" t="s">
-        <v>215</v>
-      </c>
-      <c r="K11" s="125" t="s">
-        <v>215</v>
-      </c>
-      <c r="L11" s="129"/>
-      <c r="M11" s="129"/>
-    </row>
-    <row r="12" spans="1:13" ht="16" x14ac:dyDescent="0.15">
-      <c r="A12" s="129"/>
-      <c r="B12" s="125" t="s">
-        <v>117</v>
-      </c>
-      <c r="C12" s="125" t="s">
-        <v>210</v>
-      </c>
-      <c r="D12" s="128" t="s">
-        <v>211</v>
-      </c>
-      <c r="E12" s="125" t="s">
-        <v>194</v>
-      </c>
-      <c r="F12" s="125" t="s">
-        <v>195</v>
-      </c>
-      <c r="G12" s="125" t="s">
-        <v>220</v>
-      </c>
-      <c r="H12" s="125" t="s">
-        <v>219</v>
-      </c>
-      <c r="I12" s="125" t="s">
-        <v>214</v>
-      </c>
-      <c r="J12" s="125" t="s">
-        <v>215</v>
-      </c>
-      <c r="K12" s="125" t="s">
-        <v>215</v>
-      </c>
-      <c r="L12" s="129"/>
-      <c r="M12" s="129"/>
-    </row>
-    <row r="13" spans="1:13" ht="16" x14ac:dyDescent="0.15">
-      <c r="A13" s="129"/>
-      <c r="B13" s="125" t="s">
-        <v>117</v>
-      </c>
-      <c r="C13" s="125" t="s">
-        <v>210</v>
-      </c>
-      <c r="D13" s="128" t="s">
-        <v>211</v>
-      </c>
-      <c r="E13" s="125" t="s">
-        <v>194</v>
-      </c>
-      <c r="F13" s="125" t="s">
-        <v>195</v>
-      </c>
-      <c r="G13" s="125" t="s">
-        <v>221</v>
-      </c>
-      <c r="H13" s="125" t="s">
-        <v>219</v>
-      </c>
-      <c r="I13" s="125" t="s">
-        <v>214</v>
-      </c>
-      <c r="J13" s="125" t="s">
-        <v>215</v>
-      </c>
-      <c r="K13" s="125" t="s">
-        <v>215</v>
-      </c>
-      <c r="L13" s="129"/>
-      <c r="M13" s="129"/>
-    </row>
-    <row r="14" spans="1:13" ht="16" x14ac:dyDescent="0.15">
-      <c r="A14" s="129"/>
-      <c r="B14" s="125" t="s">
-        <v>117</v>
-      </c>
-      <c r="C14" s="125" t="s">
-        <v>210</v>
-      </c>
-      <c r="D14" s="128" t="s">
-        <v>211</v>
-      </c>
-      <c r="E14" s="125" t="s">
-        <v>194</v>
-      </c>
-      <c r="F14" s="125" t="s">
-        <v>195</v>
-      </c>
-      <c r="G14" s="125" t="s">
-        <v>222</v>
-      </c>
-      <c r="H14" s="125" t="s">
-        <v>219</v>
-      </c>
-      <c r="I14" s="125" t="s">
-        <v>214</v>
-      </c>
-      <c r="J14" s="125" t="s">
-        <v>215</v>
-      </c>
-      <c r="K14" s="125" t="s">
-        <v>215</v>
-      </c>
-      <c r="L14" s="129"/>
-      <c r="M14" s="129"/>
+      <c r="H14" s="114" t="s">
+        <v>212</v>
+      </c>
+      <c r="I14" s="114" t="s">
+        <v>207</v>
+      </c>
+      <c r="J14" s="114" t="s">
+        <v>208</v>
+      </c>
+      <c r="K14" s="114" t="s">
+        <v>208</v>
+      </c>
+      <c r="L14" s="118"/>
+      <c r="M14" s="118"/>
     </row>
     <row r="15" spans="1:13" ht="409" x14ac:dyDescent="0.15">
       <c r="A15" s="9">
         <v>1</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="H15" s="9"/>
       <c r="I15" s="9"/>
@@ -8890,36 +8874,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="146" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72"/>
-      <c r="I1" s="72"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="72"/>
-      <c r="L1" s="72"/>
-      <c r="M1" s="73"/>
+      <c r="B1" s="146"/>
+      <c r="C1" s="146"/>
+      <c r="D1" s="146"/>
+      <c r="E1" s="146"/>
+      <c r="F1" s="146"/>
+      <c r="G1" s="146"/>
+      <c r="H1" s="146"/>
+      <c r="I1" s="146"/>
+      <c r="J1" s="146"/>
+      <c r="K1" s="146"/>
+      <c r="L1" s="146"/>
+      <c r="M1" s="147"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="74"/>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
-      <c r="I2" s="74"/>
-      <c r="J2" s="74"/>
-      <c r="K2" s="74"/>
-      <c r="L2" s="74"/>
-      <c r="M2" s="75"/>
+      <c r="A2" s="148"/>
+      <c r="B2" s="148"/>
+      <c r="C2" s="148"/>
+      <c r="D2" s="148"/>
+      <c r="E2" s="148"/>
+      <c r="F2" s="148"/>
+      <c r="G2" s="148"/>
+      <c r="H2" s="148"/>
+      <c r="I2" s="148"/>
+      <c r="J2" s="148"/>
+      <c r="K2" s="148"/>
+      <c r="L2" s="148"/>
+      <c r="M2" s="149"/>
     </row>
     <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
@@ -8963,401 +8947,401 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="16" x14ac:dyDescent="0.15">
-      <c r="A4" s="125">
+      <c r="A4" s="114">
         <v>2</v>
       </c>
-      <c r="B4" s="125" t="s">
+      <c r="B4" s="114" t="s">
+        <v>184</v>
+      </c>
+      <c r="C4" s="114" t="s">
+        <v>185</v>
+      </c>
+      <c r="D4" s="115" t="s">
+        <v>193</v>
+      </c>
+      <c r="E4" s="114" t="s">
+        <v>194</v>
+      </c>
+      <c r="F4" s="114" t="s">
+        <v>216</v>
+      </c>
+      <c r="G4" s="116" t="s">
+        <v>217</v>
+      </c>
+      <c r="H4" s="114" t="s">
+        <v>190</v>
+      </c>
+      <c r="I4" s="114"/>
+      <c r="J4" s="114" t="s">
         <v>191</v>
       </c>
-      <c r="C4" s="125" t="s">
+      <c r="K4" s="114" t="s">
+        <v>191</v>
+      </c>
+      <c r="L4" s="114" t="s">
         <v>192</v>
       </c>
-      <c r="D4" s="126" t="s">
+      <c r="M4" s="114" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+      <c r="A5" s="114">
+        <v>3</v>
+      </c>
+      <c r="B5" s="114" t="s">
+        <v>184</v>
+      </c>
+      <c r="C5" s="114" t="s">
+        <v>185</v>
+      </c>
+      <c r="D5" s="117" t="s">
+        <v>193</v>
+      </c>
+      <c r="E5" s="114" t="s">
+        <v>194</v>
+      </c>
+      <c r="F5" s="114" t="s">
+        <v>188</v>
+      </c>
+      <c r="G5" s="114" t="s">
+        <v>195</v>
+      </c>
+      <c r="H5" s="114" t="s">
+        <v>196</v>
+      </c>
+      <c r="I5" s="114"/>
+      <c r="J5" s="114" t="s">
+        <v>197</v>
+      </c>
+      <c r="K5" s="114" t="s">
+        <v>197</v>
+      </c>
+      <c r="L5" s="114" t="s">
+        <v>192</v>
+      </c>
+      <c r="M5" s="114"/>
+    </row>
+    <row r="6" spans="1:13" ht="80" x14ac:dyDescent="0.15">
+      <c r="A6" s="114">
+        <v>4</v>
+      </c>
+      <c r="B6" s="114" t="s">
+        <v>184</v>
+      </c>
+      <c r="C6" s="114" t="s">
+        <v>185</v>
+      </c>
+      <c r="D6" s="114" t="s">
+        <v>198</v>
+      </c>
+      <c r="E6" s="114" t="s">
+        <v>199</v>
+      </c>
+      <c r="F6" s="114" t="s">
+        <v>188</v>
+      </c>
+      <c r="G6" s="114" t="s">
         <v>200</v>
       </c>
-      <c r="E4" s="125" t="s">
+      <c r="H6" s="116" t="s">
         <v>201</v>
       </c>
-      <c r="F4" s="125" t="s">
-        <v>223</v>
-      </c>
-      <c r="G4" s="127" t="s">
-        <v>224</v>
-      </c>
-      <c r="H4" s="125" t="s">
+      <c r="I6" s="114"/>
+      <c r="J6" s="114" t="s">
         <v>197</v>
       </c>
-      <c r="I4" s="125"/>
-      <c r="J4" s="125" t="s">
-        <v>198</v>
-      </c>
-      <c r="K4" s="125" t="s">
-        <v>198</v>
-      </c>
-      <c r="L4" s="125" t="s">
-        <v>199</v>
-      </c>
-      <c r="M4" s="125" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="16" x14ac:dyDescent="0.15">
-      <c r="A5" s="125">
-        <v>3</v>
-      </c>
-      <c r="B5" s="125" t="s">
-        <v>191</v>
-      </c>
-      <c r="C5" s="125" t="s">
+      <c r="K6" s="114" t="s">
+        <v>197</v>
+      </c>
+      <c r="L6" s="114" t="s">
         <v>192</v>
       </c>
-      <c r="D5" s="128" t="s">
-        <v>200</v>
-      </c>
-      <c r="E5" s="125" t="s">
-        <v>201</v>
-      </c>
-      <c r="F5" s="125" t="s">
-        <v>195</v>
-      </c>
-      <c r="G5" s="125" t="s">
+      <c r="M6" s="114" t="s">
         <v>202</v>
       </c>
-      <c r="H5" s="125" t="s">
+    </row>
+    <row r="7" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+      <c r="A7" s="118"/>
+      <c r="B7" s="114" t="s">
+        <v>117</v>
+      </c>
+      <c r="C7" s="114" t="s">
         <v>203</v>
       </c>
-      <c r="I5" s="125"/>
-      <c r="J5" s="125" t="s">
+      <c r="D7" s="117" t="s">
         <v>204</v>
       </c>
-      <c r="K5" s="125" t="s">
-        <v>204</v>
-      </c>
-      <c r="L5" s="125" t="s">
-        <v>199</v>
-      </c>
-      <c r="M5" s="125"/>
-    </row>
-    <row r="6" spans="1:13" ht="80" x14ac:dyDescent="0.15">
-      <c r="A6" s="125">
-        <v>4</v>
-      </c>
-      <c r="B6" s="125" t="s">
-        <v>191</v>
-      </c>
-      <c r="C6" s="125" t="s">
-        <v>192</v>
-      </c>
-      <c r="D6" s="125" t="s">
-        <v>205</v>
-      </c>
-      <c r="E6" s="125" t="s">
-        <v>206</v>
-      </c>
-      <c r="F6" s="125" t="s">
-        <v>195</v>
-      </c>
-      <c r="G6" s="125" t="s">
-        <v>207</v>
-      </c>
-      <c r="H6" s="127" t="s">
+      <c r="E7" s="114" t="s">
+        <v>187</v>
+      </c>
+      <c r="F7" s="114" t="s">
+        <v>188</v>
+      </c>
+      <c r="G7" s="121" t="s">
+        <v>211</v>
+      </c>
+      <c r="H7" s="114" t="s">
+        <v>212</v>
+      </c>
+      <c r="I7" s="114" t="s">
+        <v>219</v>
+      </c>
+      <c r="J7" s="114" t="s">
         <v>208</v>
       </c>
-      <c r="I6" s="125"/>
-      <c r="J6" s="125" t="s">
-        <v>204</v>
-      </c>
-      <c r="K6" s="125" t="s">
-        <v>204</v>
-      </c>
-      <c r="L6" s="125" t="s">
-        <v>199</v>
-      </c>
-      <c r="M6" s="125" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="16" x14ac:dyDescent="0.15">
-      <c r="A7" s="129"/>
-      <c r="B7" s="125" t="s">
-        <v>117</v>
-      </c>
-      <c r="C7" s="125" t="s">
-        <v>210</v>
-      </c>
-      <c r="D7" s="128" t="s">
-        <v>211</v>
-      </c>
-      <c r="E7" s="125" t="s">
-        <v>194</v>
-      </c>
-      <c r="F7" s="125" t="s">
-        <v>195</v>
-      </c>
-      <c r="G7" s="132" t="s">
-        <v>218</v>
-      </c>
-      <c r="H7" s="125" t="s">
-        <v>219</v>
-      </c>
-      <c r="I7" s="125" t="s">
-        <v>226</v>
-      </c>
-      <c r="J7" s="125" t="s">
-        <v>215</v>
-      </c>
-      <c r="K7" s="125" t="s">
-        <v>215</v>
+      <c r="K7" s="114" t="s">
+        <v>208</v>
       </c>
       <c r="L7" s="10"/>
       <c r="M7" s="14"/>
     </row>
     <row r="8" spans="1:13" ht="16" x14ac:dyDescent="0.15">
-      <c r="A8" s="129"/>
-      <c r="B8" s="125" t="s">
+      <c r="A8" s="118"/>
+      <c r="B8" s="114" t="s">
         <v>117</v>
       </c>
-      <c r="C8" s="125" t="s">
-        <v>210</v>
-      </c>
-      <c r="D8" s="128" t="s">
-        <v>211</v>
-      </c>
-      <c r="E8" s="125" t="s">
-        <v>194</v>
-      </c>
-      <c r="F8" s="125" t="s">
-        <v>195</v>
-      </c>
-      <c r="G8" s="125" t="s">
+      <c r="C8" s="114" t="s">
+        <v>203</v>
+      </c>
+      <c r="D8" s="117" t="s">
+        <v>204</v>
+      </c>
+      <c r="E8" s="114" t="s">
+        <v>187</v>
+      </c>
+      <c r="F8" s="114" t="s">
+        <v>188</v>
+      </c>
+      <c r="G8" s="114" t="s">
+        <v>213</v>
+      </c>
+      <c r="H8" s="114" t="s">
+        <v>212</v>
+      </c>
+      <c r="I8" s="114" t="s">
+        <v>219</v>
+      </c>
+      <c r="J8" s="114" t="s">
+        <v>208</v>
+      </c>
+      <c r="K8" s="114" t="s">
+        <v>208</v>
+      </c>
+      <c r="L8" s="118"/>
+      <c r="M8" s="119"/>
+    </row>
+    <row r="9" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+      <c r="A9" s="118"/>
+      <c r="B9" s="114" t="s">
+        <v>117</v>
+      </c>
+      <c r="C9" s="114" t="s">
+        <v>203</v>
+      </c>
+      <c r="D9" s="117" t="s">
+        <v>204</v>
+      </c>
+      <c r="E9" s="114" t="s">
+        <v>187</v>
+      </c>
+      <c r="F9" s="114" t="s">
+        <v>188</v>
+      </c>
+      <c r="G9" s="114" t="s">
+        <v>214</v>
+      </c>
+      <c r="H9" s="114" t="s">
+        <v>212</v>
+      </c>
+      <c r="I9" s="114" t="s">
+        <v>219</v>
+      </c>
+      <c r="J9" s="114" t="s">
+        <v>208</v>
+      </c>
+      <c r="K9" s="114" t="s">
+        <v>208</v>
+      </c>
+      <c r="L9" s="118"/>
+      <c r="M9" s="118"/>
+    </row>
+    <row r="10" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+      <c r="A10" s="118"/>
+      <c r="B10" s="114" t="s">
+        <v>117</v>
+      </c>
+      <c r="C10" s="114" t="s">
+        <v>203</v>
+      </c>
+      <c r="D10" s="117" t="s">
+        <v>204</v>
+      </c>
+      <c r="E10" s="114" t="s">
+        <v>187</v>
+      </c>
+      <c r="F10" s="114" t="s">
+        <v>188</v>
+      </c>
+      <c r="G10" s="114" t="s">
+        <v>215</v>
+      </c>
+      <c r="H10" s="114" t="s">
+        <v>212</v>
+      </c>
+      <c r="I10" s="114" t="s">
+        <v>219</v>
+      </c>
+      <c r="J10" s="114" t="s">
+        <v>208</v>
+      </c>
+      <c r="K10" s="114" t="s">
+        <v>208</v>
+      </c>
+      <c r="L10" s="118"/>
+      <c r="M10" s="118"/>
+    </row>
+    <row r="11" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+      <c r="A11" s="118"/>
+      <c r="B11" s="114"/>
+      <c r="C11" s="114"/>
+      <c r="D11" s="114"/>
+      <c r="E11" s="114"/>
+      <c r="F11" s="114"/>
+      <c r="G11" s="114"/>
+      <c r="H11" s="114"/>
+      <c r="I11" s="114"/>
+      <c r="J11" s="114"/>
+      <c r="K11" s="114"/>
+      <c r="L11" s="118"/>
+      <c r="M11" s="118"/>
+    </row>
+    <row r="12" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+      <c r="A12" s="118"/>
+      <c r="B12" s="114" t="s">
+        <v>117</v>
+      </c>
+      <c r="C12" s="114" t="s">
+        <v>203</v>
+      </c>
+      <c r="D12" s="117" t="s">
+        <v>204</v>
+      </c>
+      <c r="E12" s="114" t="s">
+        <v>187</v>
+      </c>
+      <c r="F12" s="114" t="s">
+        <v>188</v>
+      </c>
+      <c r="G12" s="114" t="s">
         <v>220</v>
       </c>
-      <c r="H8" s="125" t="s">
+      <c r="H12" s="114" t="s">
+        <v>206</v>
+      </c>
+      <c r="I12" s="114" t="s">
         <v>219</v>
       </c>
-      <c r="I8" s="125" t="s">
-        <v>226</v>
-      </c>
-      <c r="J8" s="125" t="s">
-        <v>215</v>
-      </c>
-      <c r="K8" s="125" t="s">
-        <v>215</v>
-      </c>
-      <c r="L8" s="129"/>
-      <c r="M8" s="130"/>
-    </row>
-    <row r="9" spans="1:13" ht="16" x14ac:dyDescent="0.15">
-      <c r="A9" s="129"/>
-      <c r="B9" s="125" t="s">
+      <c r="J12" s="114" t="s">
+        <v>208</v>
+      </c>
+      <c r="K12" s="114" t="s">
+        <v>208</v>
+      </c>
+      <c r="L12" s="118"/>
+      <c r="M12" s="118"/>
+    </row>
+    <row r="13" spans="1:13" ht="255" x14ac:dyDescent="0.15">
+      <c r="A13" s="118"/>
+      <c r="B13" s="114" t="s">
         <v>117</v>
       </c>
-      <c r="C9" s="125" t="s">
-        <v>210</v>
-      </c>
-      <c r="D9" s="128" t="s">
-        <v>211</v>
-      </c>
-      <c r="E9" s="125" t="s">
-        <v>194</v>
-      </c>
-      <c r="F9" s="125" t="s">
-        <v>195</v>
-      </c>
-      <c r="G9" s="125" t="s">
+      <c r="C13" s="114" t="s">
+        <v>203</v>
+      </c>
+      <c r="D13" s="117" t="s">
+        <v>204</v>
+      </c>
+      <c r="E13" s="114" t="s">
+        <v>187</v>
+      </c>
+      <c r="F13" s="114" t="s">
+        <v>188</v>
+      </c>
+      <c r="G13" s="120" t="s">
         <v>221</v>
       </c>
-      <c r="H9" s="125" t="s">
+      <c r="H13" s="114" t="s">
+        <v>206</v>
+      </c>
+      <c r="I13" s="114" t="s">
         <v>219</v>
       </c>
-      <c r="I9" s="125" t="s">
-        <v>226</v>
-      </c>
-      <c r="J9" s="125" t="s">
-        <v>215</v>
-      </c>
-      <c r="K9" s="125" t="s">
-        <v>215</v>
-      </c>
-      <c r="L9" s="129"/>
-      <c r="M9" s="129"/>
-    </row>
-    <row r="10" spans="1:13" ht="16" x14ac:dyDescent="0.15">
-      <c r="A10" s="129"/>
-      <c r="B10" s="125" t="s">
+      <c r="J13" s="114" t="s">
+        <v>208</v>
+      </c>
+      <c r="K13" s="114" t="s">
+        <v>208</v>
+      </c>
+      <c r="L13" s="118"/>
+      <c r="M13" s="118"/>
+    </row>
+    <row r="14" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+      <c r="A14" s="118"/>
+      <c r="B14" s="114" t="s">
         <v>117</v>
       </c>
-      <c r="C10" s="125" t="s">
-        <v>210</v>
-      </c>
-      <c r="D10" s="128" t="s">
-        <v>211</v>
-      </c>
-      <c r="E10" s="125" t="s">
-        <v>194</v>
-      </c>
-      <c r="F10" s="125" t="s">
-        <v>195</v>
-      </c>
-      <c r="G10" s="125" t="s">
+      <c r="C14" s="114" t="s">
+        <v>203</v>
+      </c>
+      <c r="D14" s="117" t="s">
+        <v>204</v>
+      </c>
+      <c r="E14" s="114" t="s">
+        <v>187</v>
+      </c>
+      <c r="F14" s="114" t="s">
+        <v>188</v>
+      </c>
+      <c r="G14" s="121" t="s">
         <v>222</v>
       </c>
-      <c r="H10" s="125" t="s">
+      <c r="H14" s="114" t="s">
+        <v>206</v>
+      </c>
+      <c r="I14" s="114" t="s">
         <v>219</v>
       </c>
-      <c r="I10" s="125" t="s">
-        <v>226</v>
-      </c>
-      <c r="J10" s="125" t="s">
-        <v>215</v>
-      </c>
-      <c r="K10" s="125" t="s">
-        <v>215</v>
-      </c>
-      <c r="L10" s="129"/>
-      <c r="M10" s="129"/>
-    </row>
-    <row r="11" spans="1:13" ht="16" x14ac:dyDescent="0.15">
-      <c r="A11" s="129"/>
-      <c r="B11" s="125"/>
-      <c r="C11" s="125"/>
-      <c r="D11" s="125"/>
-      <c r="E11" s="125"/>
-      <c r="F11" s="125"/>
-      <c r="G11" s="125"/>
-      <c r="H11" s="125"/>
-      <c r="I11" s="125"/>
-      <c r="J11" s="125"/>
-      <c r="K11" s="125"/>
-      <c r="L11" s="129"/>
-      <c r="M11" s="129"/>
-    </row>
-    <row r="12" spans="1:13" ht="16" x14ac:dyDescent="0.15">
-      <c r="A12" s="129"/>
-      <c r="B12" s="125" t="s">
-        <v>117</v>
-      </c>
-      <c r="C12" s="125" t="s">
-        <v>210</v>
-      </c>
-      <c r="D12" s="128" t="s">
-        <v>211</v>
-      </c>
-      <c r="E12" s="125" t="s">
-        <v>194</v>
-      </c>
-      <c r="F12" s="125" t="s">
-        <v>195</v>
-      </c>
-      <c r="G12" s="125" t="s">
-        <v>227</v>
-      </c>
-      <c r="H12" s="125" t="s">
-        <v>213</v>
-      </c>
-      <c r="I12" s="125" t="s">
-        <v>226</v>
-      </c>
-      <c r="J12" s="125" t="s">
-        <v>215</v>
-      </c>
-      <c r="K12" s="125" t="s">
-        <v>215</v>
-      </c>
-      <c r="L12" s="129"/>
-      <c r="M12" s="129"/>
-    </row>
-    <row r="13" spans="1:13" ht="255" x14ac:dyDescent="0.15">
-      <c r="A13" s="129"/>
-      <c r="B13" s="125" t="s">
-        <v>117</v>
-      </c>
-      <c r="C13" s="125" t="s">
-        <v>210</v>
-      </c>
-      <c r="D13" s="128" t="s">
-        <v>211</v>
-      </c>
-      <c r="E13" s="125" t="s">
-        <v>194</v>
-      </c>
-      <c r="F13" s="125" t="s">
-        <v>195</v>
-      </c>
-      <c r="G13" s="131" t="s">
-        <v>228</v>
-      </c>
-      <c r="H13" s="125" t="s">
-        <v>213</v>
-      </c>
-      <c r="I13" s="125" t="s">
-        <v>226</v>
-      </c>
-      <c r="J13" s="125" t="s">
-        <v>215</v>
-      </c>
-      <c r="K13" s="125" t="s">
-        <v>215</v>
-      </c>
-      <c r="L13" s="129"/>
-      <c r="M13" s="129"/>
-    </row>
-    <row r="14" spans="1:13" ht="16" x14ac:dyDescent="0.15">
-      <c r="A14" s="129"/>
-      <c r="B14" s="125" t="s">
-        <v>117</v>
-      </c>
-      <c r="C14" s="125" t="s">
-        <v>210</v>
-      </c>
-      <c r="D14" s="128" t="s">
-        <v>211</v>
-      </c>
-      <c r="E14" s="125" t="s">
-        <v>194</v>
-      </c>
-      <c r="F14" s="125" t="s">
-        <v>195</v>
-      </c>
-      <c r="G14" s="132" t="s">
-        <v>229</v>
-      </c>
-      <c r="H14" s="125" t="s">
-        <v>213</v>
-      </c>
-      <c r="I14" s="125" t="s">
-        <v>226</v>
-      </c>
-      <c r="J14" s="125" t="s">
-        <v>215</v>
-      </c>
-      <c r="K14" s="125" t="s">
-        <v>215</v>
-      </c>
-      <c r="L14" s="129"/>
-      <c r="M14" s="129"/>
+      <c r="J14" s="114" t="s">
+        <v>208</v>
+      </c>
+      <c r="K14" s="114" t="s">
+        <v>208</v>
+      </c>
+      <c r="L14" s="118"/>
+      <c r="M14" s="118"/>
     </row>
     <row r="15" spans="1:13" ht="409" x14ac:dyDescent="0.15">
       <c r="A15" s="9">
         <v>1</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="H15" s="9"/>
       <c r="I15" s="9"/>
@@ -9428,36 +9412,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="146" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72"/>
-      <c r="I1" s="72"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="72"/>
-      <c r="L1" s="72"/>
-      <c r="M1" s="73"/>
+      <c r="B1" s="146"/>
+      <c r="C1" s="146"/>
+      <c r="D1" s="146"/>
+      <c r="E1" s="146"/>
+      <c r="F1" s="146"/>
+      <c r="G1" s="146"/>
+      <c r="H1" s="146"/>
+      <c r="I1" s="146"/>
+      <c r="J1" s="146"/>
+      <c r="K1" s="146"/>
+      <c r="L1" s="146"/>
+      <c r="M1" s="147"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="74"/>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
-      <c r="I2" s="74"/>
-      <c r="J2" s="74"/>
-      <c r="K2" s="74"/>
-      <c r="L2" s="74"/>
-      <c r="M2" s="75"/>
+      <c r="A2" s="148"/>
+      <c r="B2" s="148"/>
+      <c r="C2" s="148"/>
+      <c r="D2" s="148"/>
+      <c r="E2" s="148"/>
+      <c r="F2" s="148"/>
+      <c r="G2" s="148"/>
+      <c r="H2" s="148"/>
+      <c r="I2" s="148"/>
+      <c r="J2" s="148"/>
+      <c r="K2" s="148"/>
+      <c r="L2" s="148"/>
+      <c r="M2" s="149"/>
     </row>
     <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
@@ -9501,401 +9485,401 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="16" x14ac:dyDescent="0.15">
-      <c r="A4" s="125">
+      <c r="A4" s="114">
         <v>2</v>
       </c>
-      <c r="B4" s="125" t="s">
+      <c r="B4" s="114" t="s">
+        <v>184</v>
+      </c>
+      <c r="C4" s="114" t="s">
+        <v>185</v>
+      </c>
+      <c r="D4" s="115" t="s">
+        <v>193</v>
+      </c>
+      <c r="E4" s="114" t="s">
+        <v>194</v>
+      </c>
+      <c r="F4" s="114" t="s">
+        <v>216</v>
+      </c>
+      <c r="G4" s="116" t="s">
+        <v>217</v>
+      </c>
+      <c r="H4" s="114" t="s">
+        <v>190</v>
+      </c>
+      <c r="I4" s="114"/>
+      <c r="J4" s="114" t="s">
         <v>191</v>
       </c>
-      <c r="C4" s="125" t="s">
+      <c r="K4" s="114" t="s">
+        <v>191</v>
+      </c>
+      <c r="L4" s="114" t="s">
         <v>192</v>
       </c>
-      <c r="D4" s="126" t="s">
+      <c r="M4" s="114" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+      <c r="A5" s="114">
+        <v>3</v>
+      </c>
+      <c r="B5" s="114" t="s">
+        <v>184</v>
+      </c>
+      <c r="C5" s="114" t="s">
+        <v>185</v>
+      </c>
+      <c r="D5" s="117" t="s">
+        <v>193</v>
+      </c>
+      <c r="E5" s="114" t="s">
+        <v>194</v>
+      </c>
+      <c r="F5" s="114" t="s">
+        <v>188</v>
+      </c>
+      <c r="G5" s="114" t="s">
+        <v>195</v>
+      </c>
+      <c r="H5" s="114" t="s">
+        <v>196</v>
+      </c>
+      <c r="I5" s="114"/>
+      <c r="J5" s="114" t="s">
+        <v>197</v>
+      </c>
+      <c r="K5" s="114" t="s">
+        <v>197</v>
+      </c>
+      <c r="L5" s="114" t="s">
+        <v>192</v>
+      </c>
+      <c r="M5" s="114"/>
+    </row>
+    <row r="6" spans="1:13" ht="80" x14ac:dyDescent="0.15">
+      <c r="A6" s="114">
+        <v>4</v>
+      </c>
+      <c r="B6" s="114" t="s">
+        <v>184</v>
+      </c>
+      <c r="C6" s="114" t="s">
+        <v>185</v>
+      </c>
+      <c r="D6" s="114" t="s">
+        <v>198</v>
+      </c>
+      <c r="E6" s="114" t="s">
+        <v>199</v>
+      </c>
+      <c r="F6" s="114" t="s">
+        <v>188</v>
+      </c>
+      <c r="G6" s="114" t="s">
         <v>200</v>
       </c>
-      <c r="E4" s="125" t="s">
+      <c r="H6" s="116" t="s">
         <v>201</v>
       </c>
-      <c r="F4" s="125" t="s">
-        <v>223</v>
-      </c>
-      <c r="G4" s="127" t="s">
-        <v>224</v>
-      </c>
-      <c r="H4" s="125" t="s">
+      <c r="I6" s="114"/>
+      <c r="J6" s="114" t="s">
         <v>197</v>
       </c>
-      <c r="I4" s="125"/>
-      <c r="J4" s="125" t="s">
-        <v>198</v>
-      </c>
-      <c r="K4" s="125" t="s">
-        <v>198</v>
-      </c>
-      <c r="L4" s="125" t="s">
-        <v>199</v>
-      </c>
-      <c r="M4" s="125" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="16" x14ac:dyDescent="0.15">
-      <c r="A5" s="125">
-        <v>3</v>
-      </c>
-      <c r="B5" s="125" t="s">
-        <v>191</v>
-      </c>
-      <c r="C5" s="125" t="s">
+      <c r="K6" s="114" t="s">
+        <v>197</v>
+      </c>
+      <c r="L6" s="114" t="s">
         <v>192</v>
       </c>
-      <c r="D5" s="128" t="s">
-        <v>200</v>
-      </c>
-      <c r="E5" s="125" t="s">
-        <v>201</v>
-      </c>
-      <c r="F5" s="125" t="s">
-        <v>195</v>
-      </c>
-      <c r="G5" s="125" t="s">
+      <c r="M6" s="114" t="s">
         <v>202</v>
       </c>
-      <c r="H5" s="125" t="s">
+    </row>
+    <row r="7" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+      <c r="A7" s="118"/>
+      <c r="B7" s="122" t="s">
+        <v>117</v>
+      </c>
+      <c r="C7" s="123" t="s">
         <v>203</v>
       </c>
-      <c r="I5" s="125"/>
-      <c r="J5" s="125" t="s">
+      <c r="D7" s="124" t="s">
         <v>204</v>
       </c>
-      <c r="K5" s="125" t="s">
-        <v>204</v>
-      </c>
-      <c r="L5" s="125" t="s">
-        <v>199</v>
-      </c>
-      <c r="M5" s="125"/>
-    </row>
-    <row r="6" spans="1:13" ht="80" x14ac:dyDescent="0.15">
-      <c r="A6" s="125">
-        <v>4</v>
-      </c>
-      <c r="B6" s="125" t="s">
-        <v>191</v>
-      </c>
-      <c r="C6" s="125" t="s">
-        <v>192</v>
-      </c>
-      <c r="D6" s="125" t="s">
-        <v>205</v>
-      </c>
-      <c r="E6" s="125" t="s">
-        <v>206</v>
-      </c>
-      <c r="F6" s="125" t="s">
-        <v>195</v>
-      </c>
-      <c r="G6" s="125" t="s">
-        <v>207</v>
-      </c>
-      <c r="H6" s="127" t="s">
+      <c r="E7" s="123" t="s">
+        <v>187</v>
+      </c>
+      <c r="F7" s="123" t="s">
+        <v>188</v>
+      </c>
+      <c r="G7" s="121" t="s">
+        <v>211</v>
+      </c>
+      <c r="H7" s="122" t="s">
+        <v>212</v>
+      </c>
+      <c r="I7" s="123" t="s">
+        <v>219</v>
+      </c>
+      <c r="J7" s="123" t="s">
         <v>208</v>
       </c>
-      <c r="I6" s="125"/>
-      <c r="J6" s="125" t="s">
-        <v>204</v>
-      </c>
-      <c r="K6" s="125" t="s">
-        <v>204</v>
-      </c>
-      <c r="L6" s="125" t="s">
-        <v>199</v>
-      </c>
-      <c r="M6" s="125" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="16" x14ac:dyDescent="0.15">
-      <c r="A7" s="129"/>
-      <c r="B7" s="133" t="s">
-        <v>117</v>
-      </c>
-      <c r="C7" s="134" t="s">
-        <v>210</v>
-      </c>
-      <c r="D7" s="135" t="s">
-        <v>211</v>
-      </c>
-      <c r="E7" s="134" t="s">
-        <v>194</v>
-      </c>
-      <c r="F7" s="134" t="s">
-        <v>195</v>
-      </c>
-      <c r="G7" s="132" t="s">
-        <v>218</v>
-      </c>
-      <c r="H7" s="133" t="s">
-        <v>219</v>
-      </c>
-      <c r="I7" s="134" t="s">
-        <v>226</v>
-      </c>
-      <c r="J7" s="134" t="s">
-        <v>215</v>
-      </c>
-      <c r="K7" s="134" t="s">
-        <v>215</v>
+      <c r="K7" s="123" t="s">
+        <v>208</v>
       </c>
       <c r="L7" s="10"/>
       <c r="M7" s="14"/>
     </row>
     <row r="8" spans="1:13" ht="16" x14ac:dyDescent="0.15">
-      <c r="A8" s="129"/>
-      <c r="B8" s="136" t="s">
+      <c r="A8" s="118"/>
+      <c r="B8" s="125" t="s">
         <v>117</v>
       </c>
-      <c r="C8" s="137" t="s">
-        <v>210</v>
-      </c>
-      <c r="D8" s="135" t="s">
-        <v>211</v>
-      </c>
-      <c r="E8" s="137" t="s">
-        <v>194</v>
-      </c>
-      <c r="F8" s="137" t="s">
-        <v>195</v>
-      </c>
-      <c r="G8" s="134" t="s">
+      <c r="C8" s="126" t="s">
+        <v>203</v>
+      </c>
+      <c r="D8" s="124" t="s">
+        <v>204</v>
+      </c>
+      <c r="E8" s="126" t="s">
+        <v>187</v>
+      </c>
+      <c r="F8" s="126" t="s">
+        <v>188</v>
+      </c>
+      <c r="G8" s="123" t="s">
+        <v>213</v>
+      </c>
+      <c r="H8" s="126" t="s">
+        <v>212</v>
+      </c>
+      <c r="I8" s="126" t="s">
+        <v>219</v>
+      </c>
+      <c r="J8" s="126" t="s">
+        <v>208</v>
+      </c>
+      <c r="K8" s="126" t="s">
+        <v>208</v>
+      </c>
+      <c r="L8" s="118"/>
+      <c r="M8" s="119"/>
+    </row>
+    <row r="9" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+      <c r="A9" s="118"/>
+      <c r="B9" s="125" t="s">
+        <v>117</v>
+      </c>
+      <c r="C9" s="126" t="s">
+        <v>203</v>
+      </c>
+      <c r="D9" s="124" t="s">
+        <v>204</v>
+      </c>
+      <c r="E9" s="126" t="s">
+        <v>187</v>
+      </c>
+      <c r="F9" s="126" t="s">
+        <v>188</v>
+      </c>
+      <c r="G9" s="126" t="s">
+        <v>214</v>
+      </c>
+      <c r="H9" s="126" t="s">
+        <v>212</v>
+      </c>
+      <c r="I9" s="126" t="s">
+        <v>219</v>
+      </c>
+      <c r="J9" s="126" t="s">
+        <v>208</v>
+      </c>
+      <c r="K9" s="126" t="s">
+        <v>208</v>
+      </c>
+      <c r="L9" s="118"/>
+      <c r="M9" s="118"/>
+    </row>
+    <row r="10" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+      <c r="A10" s="118"/>
+      <c r="B10" s="125" t="s">
+        <v>117</v>
+      </c>
+      <c r="C10" s="126" t="s">
+        <v>203</v>
+      </c>
+      <c r="D10" s="124" t="s">
+        <v>204</v>
+      </c>
+      <c r="E10" s="126" t="s">
+        <v>187</v>
+      </c>
+      <c r="F10" s="126" t="s">
+        <v>188</v>
+      </c>
+      <c r="G10" s="126" t="s">
+        <v>215</v>
+      </c>
+      <c r="H10" s="126" t="s">
+        <v>212</v>
+      </c>
+      <c r="I10" s="126" t="s">
+        <v>219</v>
+      </c>
+      <c r="J10" s="126" t="s">
+        <v>208</v>
+      </c>
+      <c r="K10" s="126" t="s">
+        <v>208</v>
+      </c>
+      <c r="L10" s="118"/>
+      <c r="M10" s="118"/>
+    </row>
+    <row r="11" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+      <c r="A11" s="118"/>
+      <c r="B11" s="125"/>
+      <c r="C11" s="126"/>
+      <c r="D11" s="126"/>
+      <c r="E11" s="126"/>
+      <c r="F11" s="126"/>
+      <c r="G11" s="126"/>
+      <c r="H11" s="126"/>
+      <c r="I11" s="126"/>
+      <c r="J11" s="126"/>
+      <c r="K11" s="126"/>
+      <c r="L11" s="118"/>
+      <c r="M11" s="118"/>
+    </row>
+    <row r="12" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+      <c r="A12" s="118"/>
+      <c r="B12" s="125" t="s">
+        <v>117</v>
+      </c>
+      <c r="C12" s="126" t="s">
+        <v>203</v>
+      </c>
+      <c r="D12" s="124" t="s">
+        <v>204</v>
+      </c>
+      <c r="E12" s="126" t="s">
+        <v>187</v>
+      </c>
+      <c r="F12" s="126" t="s">
+        <v>188</v>
+      </c>
+      <c r="G12" s="126" t="s">
         <v>220</v>
       </c>
-      <c r="H8" s="137" t="s">
+      <c r="H12" s="126" t="s">
+        <v>206</v>
+      </c>
+      <c r="I12" s="126" t="s">
         <v>219</v>
       </c>
-      <c r="I8" s="137" t="s">
-        <v>226</v>
-      </c>
-      <c r="J8" s="137" t="s">
-        <v>215</v>
-      </c>
-      <c r="K8" s="137" t="s">
-        <v>215</v>
-      </c>
-      <c r="L8" s="129"/>
-      <c r="M8" s="130"/>
-    </row>
-    <row r="9" spans="1:13" ht="16" x14ac:dyDescent="0.15">
-      <c r="A9" s="129"/>
-      <c r="B9" s="136" t="s">
+      <c r="J12" s="126" t="s">
+        <v>208</v>
+      </c>
+      <c r="K12" s="126" t="s">
+        <v>208</v>
+      </c>
+      <c r="L12" s="118"/>
+      <c r="M12" s="118"/>
+    </row>
+    <row r="13" spans="1:13" ht="240" x14ac:dyDescent="0.15">
+      <c r="A13" s="118"/>
+      <c r="B13" s="125" t="s">
         <v>117</v>
       </c>
-      <c r="C9" s="137" t="s">
-        <v>210</v>
-      </c>
-      <c r="D9" s="135" t="s">
-        <v>211</v>
-      </c>
-      <c r="E9" s="137" t="s">
-        <v>194</v>
-      </c>
-      <c r="F9" s="137" t="s">
-        <v>195</v>
-      </c>
-      <c r="G9" s="137" t="s">
-        <v>221</v>
-      </c>
-      <c r="H9" s="137" t="s">
+      <c r="C13" s="126" t="s">
+        <v>203</v>
+      </c>
+      <c r="D13" s="124" t="s">
+        <v>204</v>
+      </c>
+      <c r="E13" s="126" t="s">
+        <v>187</v>
+      </c>
+      <c r="F13" s="126" t="s">
+        <v>188</v>
+      </c>
+      <c r="G13" s="120" t="s">
+        <v>223</v>
+      </c>
+      <c r="H13" s="125" t="s">
+        <v>206</v>
+      </c>
+      <c r="I13" s="126" t="s">
         <v>219</v>
       </c>
-      <c r="I9" s="137" t="s">
-        <v>226</v>
-      </c>
-      <c r="J9" s="137" t="s">
-        <v>215</v>
-      </c>
-      <c r="K9" s="137" t="s">
-        <v>215</v>
-      </c>
-      <c r="L9" s="129"/>
-      <c r="M9" s="129"/>
-    </row>
-    <row r="10" spans="1:13" ht="16" x14ac:dyDescent="0.15">
-      <c r="A10" s="129"/>
-      <c r="B10" s="136" t="s">
+      <c r="J13" s="126" t="s">
+        <v>208</v>
+      </c>
+      <c r="K13" s="126" t="s">
+        <v>208</v>
+      </c>
+      <c r="L13" s="118"/>
+      <c r="M13" s="118"/>
+    </row>
+    <row r="14" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+      <c r="A14" s="118"/>
+      <c r="B14" s="125" t="s">
         <v>117</v>
       </c>
-      <c r="C10" s="137" t="s">
-        <v>210</v>
-      </c>
-      <c r="D10" s="135" t="s">
-        <v>211</v>
-      </c>
-      <c r="E10" s="137" t="s">
-        <v>194</v>
-      </c>
-      <c r="F10" s="137" t="s">
-        <v>195</v>
-      </c>
-      <c r="G10" s="137" t="s">
-        <v>222</v>
-      </c>
-      <c r="H10" s="137" t="s">
+      <c r="C14" s="126" t="s">
+        <v>203</v>
+      </c>
+      <c r="D14" s="124" t="s">
+        <v>204</v>
+      </c>
+      <c r="E14" s="126" t="s">
+        <v>187</v>
+      </c>
+      <c r="F14" s="126" t="s">
+        <v>188</v>
+      </c>
+      <c r="G14" s="121" t="s">
+        <v>224</v>
+      </c>
+      <c r="H14" s="125" t="s">
+        <v>206</v>
+      </c>
+      <c r="I14" s="126" t="s">
         <v>219</v>
       </c>
-      <c r="I10" s="137" t="s">
-        <v>226</v>
-      </c>
-      <c r="J10" s="137" t="s">
-        <v>215</v>
-      </c>
-      <c r="K10" s="137" t="s">
-        <v>215</v>
-      </c>
-      <c r="L10" s="129"/>
-      <c r="M10" s="129"/>
-    </row>
-    <row r="11" spans="1:13" ht="16" x14ac:dyDescent="0.15">
-      <c r="A11" s="129"/>
-      <c r="B11" s="136"/>
-      <c r="C11" s="137"/>
-      <c r="D11" s="137"/>
-      <c r="E11" s="137"/>
-      <c r="F11" s="137"/>
-      <c r="G11" s="137"/>
-      <c r="H11" s="137"/>
-      <c r="I11" s="137"/>
-      <c r="J11" s="137"/>
-      <c r="K11" s="137"/>
-      <c r="L11" s="129"/>
-      <c r="M11" s="129"/>
-    </row>
-    <row r="12" spans="1:13" ht="16" x14ac:dyDescent="0.15">
-      <c r="A12" s="129"/>
-      <c r="B12" s="136" t="s">
-        <v>117</v>
-      </c>
-      <c r="C12" s="137" t="s">
-        <v>210</v>
-      </c>
-      <c r="D12" s="135" t="s">
-        <v>211</v>
-      </c>
-      <c r="E12" s="137" t="s">
-        <v>194</v>
-      </c>
-      <c r="F12" s="137" t="s">
-        <v>195</v>
-      </c>
-      <c r="G12" s="137" t="s">
-        <v>227</v>
-      </c>
-      <c r="H12" s="137" t="s">
-        <v>213</v>
-      </c>
-      <c r="I12" s="137" t="s">
-        <v>226</v>
-      </c>
-      <c r="J12" s="137" t="s">
-        <v>215</v>
-      </c>
-      <c r="K12" s="137" t="s">
-        <v>215</v>
-      </c>
-      <c r="L12" s="129"/>
-      <c r="M12" s="129"/>
-    </row>
-    <row r="13" spans="1:13" ht="240" x14ac:dyDescent="0.15">
-      <c r="A13" s="129"/>
-      <c r="B13" s="136" t="s">
-        <v>117</v>
-      </c>
-      <c r="C13" s="137" t="s">
-        <v>210</v>
-      </c>
-      <c r="D13" s="135" t="s">
-        <v>211</v>
-      </c>
-      <c r="E13" s="137" t="s">
-        <v>194</v>
-      </c>
-      <c r="F13" s="137" t="s">
-        <v>195</v>
-      </c>
-      <c r="G13" s="131" t="s">
-        <v>230</v>
-      </c>
-      <c r="H13" s="136" t="s">
-        <v>213</v>
-      </c>
-      <c r="I13" s="137" t="s">
-        <v>226</v>
-      </c>
-      <c r="J13" s="137" t="s">
-        <v>215</v>
-      </c>
-      <c r="K13" s="137" t="s">
-        <v>215</v>
-      </c>
-      <c r="L13" s="129"/>
-      <c r="M13" s="129"/>
-    </row>
-    <row r="14" spans="1:13" ht="16" x14ac:dyDescent="0.15">
-      <c r="A14" s="129"/>
-      <c r="B14" s="136" t="s">
-        <v>117</v>
-      </c>
-      <c r="C14" s="137" t="s">
-        <v>210</v>
-      </c>
-      <c r="D14" s="135" t="s">
-        <v>211</v>
-      </c>
-      <c r="E14" s="137" t="s">
-        <v>194</v>
-      </c>
-      <c r="F14" s="137" t="s">
-        <v>195</v>
-      </c>
-      <c r="G14" s="132" t="s">
-        <v>231</v>
-      </c>
-      <c r="H14" s="136" t="s">
-        <v>213</v>
-      </c>
-      <c r="I14" s="137" t="s">
-        <v>226</v>
-      </c>
-      <c r="J14" s="137" t="s">
-        <v>215</v>
-      </c>
-      <c r="K14" s="137" t="s">
-        <v>215</v>
-      </c>
-      <c r="L14" s="129"/>
-      <c r="M14" s="129"/>
+      <c r="J14" s="126" t="s">
+        <v>208</v>
+      </c>
+      <c r="K14" s="126" t="s">
+        <v>208</v>
+      </c>
+      <c r="L14" s="118"/>
+      <c r="M14" s="118"/>
     </row>
     <row r="15" spans="1:13" ht="409" x14ac:dyDescent="0.15">
       <c r="A15" s="9">
         <v>1</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="H15" s="9"/>
       <c r="I15" s="9"/>
@@ -9968,36 +9952,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="146" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72"/>
-      <c r="I1" s="72"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="72"/>
-      <c r="L1" s="72"/>
-      <c r="M1" s="73"/>
+      <c r="B1" s="146"/>
+      <c r="C1" s="146"/>
+      <c r="D1" s="146"/>
+      <c r="E1" s="146"/>
+      <c r="F1" s="146"/>
+      <c r="G1" s="146"/>
+      <c r="H1" s="146"/>
+      <c r="I1" s="146"/>
+      <c r="J1" s="146"/>
+      <c r="K1" s="146"/>
+      <c r="L1" s="146"/>
+      <c r="M1" s="147"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="74"/>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
-      <c r="I2" s="74"/>
-      <c r="J2" s="74"/>
-      <c r="K2" s="74"/>
-      <c r="L2" s="74"/>
-      <c r="M2" s="75"/>
+      <c r="A2" s="148"/>
+      <c r="B2" s="148"/>
+      <c r="C2" s="148"/>
+      <c r="D2" s="148"/>
+      <c r="E2" s="148"/>
+      <c r="F2" s="148"/>
+      <c r="G2" s="148"/>
+      <c r="H2" s="148"/>
+      <c r="I2" s="148"/>
+      <c r="J2" s="148"/>
+      <c r="K2" s="148"/>
+      <c r="L2" s="148"/>
+      <c r="M2" s="149"/>
     </row>
     <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
@@ -10041,379 +10025,379 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="16" x14ac:dyDescent="0.15">
-      <c r="A4" s="125">
+      <c r="A4" s="114">
         <v>1</v>
       </c>
-      <c r="B4" s="125" t="s">
+      <c r="B4" s="114" t="s">
+        <v>184</v>
+      </c>
+      <c r="C4" s="114" t="s">
+        <v>185</v>
+      </c>
+      <c r="D4" s="115" t="s">
+        <v>186</v>
+      </c>
+      <c r="E4" s="114" t="s">
+        <v>187</v>
+      </c>
+      <c r="F4" s="114" t="s">
+        <v>188</v>
+      </c>
+      <c r="G4" s="116" t="s">
+        <v>189</v>
+      </c>
+      <c r="H4" s="114" t="s">
+        <v>190</v>
+      </c>
+      <c r="I4" s="114"/>
+      <c r="J4" s="114" t="s">
         <v>191</v>
       </c>
-      <c r="C4" s="125" t="s">
+      <c r="K4" s="114" t="s">
+        <v>191</v>
+      </c>
+      <c r="L4" s="114" t="s">
         <v>192</v>
       </c>
-      <c r="D4" s="126" t="s">
+      <c r="M4" s="114" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+      <c r="A6" s="114">
+        <v>3</v>
+      </c>
+      <c r="B6" s="114" t="s">
+        <v>184</v>
+      </c>
+      <c r="C6" s="114" t="s">
+        <v>185</v>
+      </c>
+      <c r="D6" s="117" t="s">
         <v>193</v>
       </c>
-      <c r="E4" s="125" t="s">
+      <c r="E6" s="114" t="s">
         <v>194</v>
       </c>
-      <c r="F4" s="125" t="s">
+      <c r="F6" s="114" t="s">
+        <v>188</v>
+      </c>
+      <c r="G6" s="114" t="s">
         <v>195</v>
       </c>
-      <c r="G4" s="127" t="s">
+      <c r="H6" s="114" t="s">
         <v>196</v>
       </c>
-      <c r="H4" s="125" t="s">
+      <c r="I6" s="114"/>
+      <c r="J6" s="114" t="s">
         <v>197</v>
       </c>
-      <c r="I4" s="125"/>
-      <c r="J4" s="125" t="s">
+      <c r="K6" s="114" t="s">
+        <v>197</v>
+      </c>
+      <c r="L6" s="114" t="s">
+        <v>192</v>
+      </c>
+      <c r="M6" s="114"/>
+    </row>
+    <row r="7" spans="1:13" ht="80" x14ac:dyDescent="0.15">
+      <c r="A7" s="114">
+        <v>4</v>
+      </c>
+      <c r="B7" s="114" t="s">
+        <v>184</v>
+      </c>
+      <c r="C7" s="114" t="s">
+        <v>185</v>
+      </c>
+      <c r="D7" s="114" t="s">
         <v>198</v>
       </c>
-      <c r="K4" s="125" t="s">
-        <v>198</v>
-      </c>
-      <c r="L4" s="125" t="s">
+      <c r="E7" s="114" t="s">
         <v>199</v>
       </c>
-      <c r="M4" s="125" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="16" x14ac:dyDescent="0.15">
-      <c r="A6" s="125">
-        <v>3</v>
-      </c>
-      <c r="B6" s="125" t="s">
-        <v>191</v>
-      </c>
-      <c r="C6" s="125" t="s">
+      <c r="F7" s="114" t="s">
+        <v>188</v>
+      </c>
+      <c r="G7" s="114" t="s">
+        <v>200</v>
+      </c>
+      <c r="H7" s="116" t="s">
+        <v>201</v>
+      </c>
+      <c r="I7" s="114"/>
+      <c r="J7" s="114" t="s">
+        <v>197</v>
+      </c>
+      <c r="K7" s="114" t="s">
+        <v>197</v>
+      </c>
+      <c r="L7" s="114" t="s">
         <v>192</v>
       </c>
-      <c r="D6" s="128" t="s">
-        <v>200</v>
-      </c>
-      <c r="E6" s="125" t="s">
-        <v>201</v>
-      </c>
-      <c r="F6" s="125" t="s">
-        <v>195</v>
-      </c>
-      <c r="G6" s="125" t="s">
+      <c r="M7" s="114" t="s">
         <v>202</v>
       </c>
-      <c r="H6" s="125" t="s">
+    </row>
+    <row r="8" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+      <c r="A8" s="118"/>
+      <c r="B8" s="122" t="s">
+        <v>117</v>
+      </c>
+      <c r="C8" s="123" t="s">
         <v>203</v>
       </c>
-      <c r="I6" s="125"/>
-      <c r="J6" s="125" t="s">
+      <c r="D8" s="124" t="s">
         <v>204</v>
       </c>
-      <c r="K6" s="125" t="s">
+      <c r="E8" s="123" t="s">
+        <v>187</v>
+      </c>
+      <c r="F8" s="123" t="s">
+        <v>188</v>
+      </c>
+      <c r="G8" s="121" t="s">
+        <v>211</v>
+      </c>
+      <c r="H8" s="122" t="s">
+        <v>212</v>
+      </c>
+      <c r="I8" s="123" t="s">
+        <v>219</v>
+      </c>
+      <c r="J8" s="123" t="s">
+        <v>208</v>
+      </c>
+      <c r="K8" s="123" t="s">
+        <v>208</v>
+      </c>
+      <c r="L8" s="118"/>
+      <c r="M8" s="119"/>
+    </row>
+    <row r="9" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+      <c r="A9" s="118"/>
+      <c r="B9" s="125" t="s">
+        <v>117</v>
+      </c>
+      <c r="C9" s="126" t="s">
+        <v>203</v>
+      </c>
+      <c r="D9" s="124" t="s">
         <v>204</v>
       </c>
-      <c r="L6" s="125" t="s">
-        <v>199</v>
-      </c>
-      <c r="M6" s="125"/>
-    </row>
-    <row r="7" spans="1:13" ht="80" x14ac:dyDescent="0.15">
-      <c r="A7" s="125">
-        <v>4</v>
-      </c>
-      <c r="B7" s="125" t="s">
-        <v>191</v>
-      </c>
-      <c r="C7" s="125" t="s">
-        <v>192</v>
-      </c>
-      <c r="D7" s="125" t="s">
-        <v>205</v>
-      </c>
-      <c r="E7" s="125" t="s">
+      <c r="E9" s="126" t="s">
+        <v>187</v>
+      </c>
+      <c r="F9" s="126" t="s">
+        <v>188</v>
+      </c>
+      <c r="G9" s="123" t="s">
+        <v>213</v>
+      </c>
+      <c r="H9" s="126" t="s">
+        <v>212</v>
+      </c>
+      <c r="I9" s="126" t="s">
+        <v>219</v>
+      </c>
+      <c r="J9" s="126" t="s">
+        <v>208</v>
+      </c>
+      <c r="K9" s="126" t="s">
+        <v>208</v>
+      </c>
+      <c r="L9" s="118"/>
+      <c r="M9" s="118"/>
+    </row>
+    <row r="10" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+      <c r="A10" s="118"/>
+      <c r="B10" s="125" t="s">
+        <v>117</v>
+      </c>
+      <c r="C10" s="126" t="s">
+        <v>203</v>
+      </c>
+      <c r="D10" s="124" t="s">
+        <v>204</v>
+      </c>
+      <c r="E10" s="126" t="s">
+        <v>187</v>
+      </c>
+      <c r="F10" s="126" t="s">
+        <v>188</v>
+      </c>
+      <c r="G10" s="126" t="s">
+        <v>214</v>
+      </c>
+      <c r="H10" s="126" t="s">
+        <v>212</v>
+      </c>
+      <c r="I10" s="126" t="s">
+        <v>219</v>
+      </c>
+      <c r="J10" s="126" t="s">
+        <v>208</v>
+      </c>
+      <c r="K10" s="126" t="s">
+        <v>208</v>
+      </c>
+      <c r="L10" s="118"/>
+      <c r="M10" s="118"/>
+    </row>
+    <row r="11" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+      <c r="A11" s="118"/>
+      <c r="B11" s="125" t="s">
+        <v>117</v>
+      </c>
+      <c r="C11" s="126" t="s">
+        <v>203</v>
+      </c>
+      <c r="D11" s="124" t="s">
+        <v>204</v>
+      </c>
+      <c r="E11" s="126" t="s">
+        <v>187</v>
+      </c>
+      <c r="F11" s="126" t="s">
+        <v>188</v>
+      </c>
+      <c r="G11" s="126" t="s">
+        <v>215</v>
+      </c>
+      <c r="H11" s="126" t="s">
+        <v>212</v>
+      </c>
+      <c r="I11" s="126" t="s">
+        <v>219</v>
+      </c>
+      <c r="J11" s="126" t="s">
+        <v>208</v>
+      </c>
+      <c r="K11" s="126" t="s">
+        <v>208</v>
+      </c>
+      <c r="L11" s="118"/>
+      <c r="M11" s="118"/>
+    </row>
+    <row r="12" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+      <c r="A12" s="118"/>
+      <c r="B12" s="125"/>
+      <c r="C12" s="126"/>
+      <c r="D12" s="126"/>
+      <c r="E12" s="126"/>
+      <c r="F12" s="126"/>
+      <c r="G12" s="126"/>
+      <c r="H12" s="126"/>
+      <c r="I12" s="126"/>
+      <c r="J12" s="126"/>
+      <c r="K12" s="126"/>
+      <c r="L12" s="118"/>
+      <c r="M12" s="118"/>
+    </row>
+    <row r="13" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+      <c r="A13" s="118"/>
+      <c r="B13" s="125" t="s">
+        <v>117</v>
+      </c>
+      <c r="C13" s="126" t="s">
+        <v>203</v>
+      </c>
+      <c r="D13" s="124" t="s">
+        <v>204</v>
+      </c>
+      <c r="E13" s="126" t="s">
+        <v>187</v>
+      </c>
+      <c r="F13" s="126" t="s">
+        <v>188</v>
+      </c>
+      <c r="G13" s="126" t="s">
+        <v>220</v>
+      </c>
+      <c r="H13" s="126" t="s">
         <v>206</v>
       </c>
-      <c r="F7" s="125" t="s">
-        <v>195</v>
-      </c>
-      <c r="G7" s="125" t="s">
-        <v>207</v>
-      </c>
-      <c r="H7" s="127" t="s">
+      <c r="I13" s="126" t="s">
+        <v>219</v>
+      </c>
+      <c r="J13" s="126" t="s">
         <v>208</v>
       </c>
-      <c r="I7" s="125"/>
-      <c r="J7" s="125" t="s">
+      <c r="K13" s="126" t="s">
+        <v>208</v>
+      </c>
+      <c r="L13" s="118"/>
+      <c r="M13" s="118"/>
+    </row>
+    <row r="14" spans="1:13" ht="240" x14ac:dyDescent="0.15">
+      <c r="A14" s="118"/>
+      <c r="B14" s="125" t="s">
+        <v>117</v>
+      </c>
+      <c r="C14" s="126" t="s">
+        <v>203</v>
+      </c>
+      <c r="D14" s="124" t="s">
         <v>204</v>
       </c>
-      <c r="K7" s="125" t="s">
+      <c r="E14" s="126" t="s">
+        <v>187</v>
+      </c>
+      <c r="F14" s="126" t="s">
+        <v>188</v>
+      </c>
+      <c r="G14" s="120" t="s">
+        <v>223</v>
+      </c>
+      <c r="H14" s="125" t="s">
+        <v>206</v>
+      </c>
+      <c r="I14" s="126" t="s">
+        <v>219</v>
+      </c>
+      <c r="J14" s="126" t="s">
+        <v>208</v>
+      </c>
+      <c r="K14" s="126" t="s">
+        <v>208</v>
+      </c>
+      <c r="L14" s="118"/>
+      <c r="M14" s="118"/>
+    </row>
+    <row r="15" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+      <c r="A15" s="118"/>
+      <c r="B15" s="125" t="s">
+        <v>117</v>
+      </c>
+      <c r="C15" s="126" t="s">
+        <v>203</v>
+      </c>
+      <c r="D15" s="124" t="s">
         <v>204</v>
       </c>
-      <c r="L7" s="125" t="s">
-        <v>199</v>
-      </c>
-      <c r="M7" s="125" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="16" x14ac:dyDescent="0.15">
-      <c r="A8" s="129"/>
-      <c r="B8" s="133" t="s">
-        <v>117</v>
-      </c>
-      <c r="C8" s="134" t="s">
-        <v>210</v>
-      </c>
-      <c r="D8" s="135" t="s">
-        <v>211</v>
-      </c>
-      <c r="E8" s="134" t="s">
-        <v>194</v>
-      </c>
-      <c r="F8" s="134" t="s">
-        <v>195</v>
-      </c>
-      <c r="G8" s="132" t="s">
-        <v>218</v>
-      </c>
-      <c r="H8" s="133" t="s">
+      <c r="E15" s="126" t="s">
+        <v>187</v>
+      </c>
+      <c r="F15" s="126" t="s">
+        <v>188</v>
+      </c>
+      <c r="G15" s="121" t="s">
+        <v>224</v>
+      </c>
+      <c r="H15" s="125" t="s">
+        <v>206</v>
+      </c>
+      <c r="I15" s="126" t="s">
         <v>219</v>
       </c>
-      <c r="I8" s="134" t="s">
-        <v>226</v>
-      </c>
-      <c r="J8" s="134" t="s">
-        <v>215</v>
-      </c>
-      <c r="K8" s="134" t="s">
-        <v>215</v>
-      </c>
-      <c r="L8" s="129"/>
-      <c r="M8" s="130"/>
-    </row>
-    <row r="9" spans="1:13" ht="16" x14ac:dyDescent="0.15">
-      <c r="A9" s="129"/>
-      <c r="B9" s="136" t="s">
-        <v>117</v>
-      </c>
-      <c r="C9" s="137" t="s">
-        <v>210</v>
-      </c>
-      <c r="D9" s="135" t="s">
-        <v>211</v>
-      </c>
-      <c r="E9" s="137" t="s">
-        <v>194</v>
-      </c>
-      <c r="F9" s="137" t="s">
-        <v>195</v>
-      </c>
-      <c r="G9" s="134" t="s">
-        <v>220</v>
-      </c>
-      <c r="H9" s="137" t="s">
-        <v>219</v>
-      </c>
-      <c r="I9" s="137" t="s">
-        <v>226</v>
-      </c>
-      <c r="J9" s="137" t="s">
-        <v>215</v>
-      </c>
-      <c r="K9" s="137" t="s">
-        <v>215</v>
-      </c>
-      <c r="L9" s="129"/>
-      <c r="M9" s="129"/>
-    </row>
-    <row r="10" spans="1:13" ht="16" x14ac:dyDescent="0.15">
-      <c r="A10" s="129"/>
-      <c r="B10" s="136" t="s">
-        <v>117</v>
-      </c>
-      <c r="C10" s="137" t="s">
-        <v>210</v>
-      </c>
-      <c r="D10" s="135" t="s">
-        <v>211</v>
-      </c>
-      <c r="E10" s="137" t="s">
-        <v>194</v>
-      </c>
-      <c r="F10" s="137" t="s">
-        <v>195</v>
-      </c>
-      <c r="G10" s="137" t="s">
-        <v>221</v>
-      </c>
-      <c r="H10" s="137" t="s">
-        <v>219</v>
-      </c>
-      <c r="I10" s="137" t="s">
-        <v>226</v>
-      </c>
-      <c r="J10" s="137" t="s">
-        <v>215</v>
-      </c>
-      <c r="K10" s="137" t="s">
-        <v>215</v>
-      </c>
-      <c r="L10" s="129"/>
-      <c r="M10" s="129"/>
-    </row>
-    <row r="11" spans="1:13" ht="16" x14ac:dyDescent="0.15">
-      <c r="A11" s="129"/>
-      <c r="B11" s="136" t="s">
-        <v>117</v>
-      </c>
-      <c r="C11" s="137" t="s">
-        <v>210</v>
-      </c>
-      <c r="D11" s="135" t="s">
-        <v>211</v>
-      </c>
-      <c r="E11" s="137" t="s">
-        <v>194</v>
-      </c>
-      <c r="F11" s="137" t="s">
-        <v>195</v>
-      </c>
-      <c r="G11" s="137" t="s">
-        <v>222</v>
-      </c>
-      <c r="H11" s="137" t="s">
-        <v>219</v>
-      </c>
-      <c r="I11" s="137" t="s">
-        <v>226</v>
-      </c>
-      <c r="J11" s="137" t="s">
-        <v>215</v>
-      </c>
-      <c r="K11" s="137" t="s">
-        <v>215</v>
-      </c>
-      <c r="L11" s="129"/>
-      <c r="M11" s="129"/>
-    </row>
-    <row r="12" spans="1:13" ht="16" x14ac:dyDescent="0.15">
-      <c r="A12" s="129"/>
-      <c r="B12" s="136"/>
-      <c r="C12" s="137"/>
-      <c r="D12" s="137"/>
-      <c r="E12" s="137"/>
-      <c r="F12" s="137"/>
-      <c r="G12" s="137"/>
-      <c r="H12" s="137"/>
-      <c r="I12" s="137"/>
-      <c r="J12" s="137"/>
-      <c r="K12" s="137"/>
-      <c r="L12" s="129"/>
-      <c r="M12" s="129"/>
-    </row>
-    <row r="13" spans="1:13" ht="16" x14ac:dyDescent="0.15">
-      <c r="A13" s="129"/>
-      <c r="B13" s="136" t="s">
-        <v>117</v>
-      </c>
-      <c r="C13" s="137" t="s">
-        <v>210</v>
-      </c>
-      <c r="D13" s="135" t="s">
-        <v>211</v>
-      </c>
-      <c r="E13" s="137" t="s">
-        <v>194</v>
-      </c>
-      <c r="F13" s="137" t="s">
-        <v>195</v>
-      </c>
-      <c r="G13" s="137" t="s">
-        <v>227</v>
-      </c>
-      <c r="H13" s="137" t="s">
-        <v>213</v>
-      </c>
-      <c r="I13" s="137" t="s">
-        <v>226</v>
-      </c>
-      <c r="J13" s="137" t="s">
-        <v>215</v>
-      </c>
-      <c r="K13" s="137" t="s">
-        <v>215</v>
-      </c>
-      <c r="L13" s="129"/>
-      <c r="M13" s="129"/>
-    </row>
-    <row r="14" spans="1:13" ht="240" x14ac:dyDescent="0.15">
-      <c r="A14" s="129"/>
-      <c r="B14" s="136" t="s">
-        <v>117</v>
-      </c>
-      <c r="C14" s="137" t="s">
-        <v>210</v>
-      </c>
-      <c r="D14" s="135" t="s">
-        <v>211</v>
-      </c>
-      <c r="E14" s="137" t="s">
-        <v>194</v>
-      </c>
-      <c r="F14" s="137" t="s">
-        <v>195</v>
-      </c>
-      <c r="G14" s="131" t="s">
-        <v>230</v>
-      </c>
-      <c r="H14" s="136" t="s">
-        <v>213</v>
-      </c>
-      <c r="I14" s="137" t="s">
-        <v>226</v>
-      </c>
-      <c r="J14" s="137" t="s">
-        <v>215</v>
-      </c>
-      <c r="K14" s="137" t="s">
-        <v>215</v>
-      </c>
-      <c r="L14" s="129"/>
-      <c r="M14" s="129"/>
-    </row>
-    <row r="15" spans="1:13" ht="16" x14ac:dyDescent="0.15">
-      <c r="A15" s="129"/>
-      <c r="B15" s="136" t="s">
-        <v>117</v>
-      </c>
-      <c r="C15" s="137" t="s">
-        <v>210</v>
-      </c>
-      <c r="D15" s="135" t="s">
-        <v>211</v>
-      </c>
-      <c r="E15" s="137" t="s">
-        <v>194</v>
-      </c>
-      <c r="F15" s="137" t="s">
-        <v>195</v>
-      </c>
-      <c r="G15" s="132" t="s">
-        <v>231</v>
-      </c>
-      <c r="H15" s="136" t="s">
-        <v>213</v>
-      </c>
-      <c r="I15" s="137" t="s">
-        <v>226</v>
-      </c>
-      <c r="J15" s="137" t="s">
-        <v>215</v>
-      </c>
-      <c r="K15" s="137" t="s">
-        <v>215</v>
-      </c>
-      <c r="L15" s="129"/>
-      <c r="M15" s="129"/>
+      <c r="J15" s="126" t="s">
+        <v>208</v>
+      </c>
+      <c r="K15" s="126" t="s">
+        <v>208</v>
+      </c>
+      <c r="L15" s="118"/>
+      <c r="M15" s="118"/>
     </row>
     <row r="16" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A16" s="9"/>

--- a/VersionRecords/Version 5.3.5 20170321/版本Bug和特性计划及评审表v5.3.5.xlsx
+++ b/VersionRecords/Version 5.3.5 20170321/版本Bug和特性计划及评审表v5.3.5.xlsx
@@ -1,18 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26215"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27809"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andubu/MogoDoc/Mogo_Doc/VersionRecords/Version 5.3.5 20170321/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shixinxin/DataCode/GitDoc/Mogo_Doc/VersionRecords/Version 5.3.5 20170321/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="1240" windowWidth="28800" windowHeight="16460"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16460"/>
   </bookViews>
   <sheets>
-    <sheet name="01 版本X.X.X 新特性|Fix Bug" sheetId="1" r:id="rId1"/>
+    <sheet name="01 版本5.3.5 新特性|Fix Bug" sheetId="1" r:id="rId1"/>
     <sheet name="02 定时器" sheetId="2" r:id="rId2"/>
     <sheet name="03 上线执行顺序" sheetId="3" r:id="rId3"/>
     <sheet name="041 配置文件（测试环境）" sheetId="4" r:id="rId4"/>
@@ -22,7 +22,7 @@
     <sheet name="05 数据修复" sheetId="8" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'01 版本X.X.X 新特性|Fix Bug'!$A$1:$W$17</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'01 版本5.3.5 新特性|Fix Bug'!$A$1:$W$16</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="1" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="3" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="4" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
@@ -31,6 +31,9 @@
   </definedNames>
   <calcPr calcId="144525" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -39,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="265">
   <si>
     <t>No</t>
   </si>
@@ -156,10 +159,6 @@
   </si>
   <si>
     <t>执行结果及报错补救方案</t>
-  </si>
-  <si>
-    <t>5.2.0项目上线准备执行方案
-（预发布环境先验证一遍）</t>
   </si>
   <si>
     <t>顺序编号</t>
@@ -339,7 +338,8 @@
       <rPr>
         <sz val="10"/>
         <rFont val="微软雅黑"/>
-        <charset val="161"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t>rror日志修改</t>
     </r>
@@ -664,90 +664,9 @@
     <t>PM-818</t>
   </si>
   <si>
-    <t>是</t>
-    <rPh sb="0" eb="1">
-      <t>shi</t>
-    </rPh>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
     <t>游侠</t>
     <rPh sb="0" eb="1">
       <t>you'xia</t>
-    </rPh>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>蘑菇分详情页面去除400接听率</t>
-    <rPh sb="0" eb="1">
-      <t>mo'g</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>fen</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>xiang'qing'ye'm</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>qu'chu</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>jie'ting</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>lv</t>
-    </rPh>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>partnerPC</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>首页空置统计跳转房源报表</t>
-    <rPh sb="0" eb="1">
-      <t>shou'ye</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>kong'zhi</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>tong'ji</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>tiao'zhuan</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>fang'y</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>bao'b</t>
-    </rPh>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>弹出点击量统计</t>
-    <rPh sb="0" eb="1">
-      <t>tan'c</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>dian'ji</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>liang</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>tong'ji</t>
-    </rPh>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>户型统一</t>
-    <rPh sb="0" eb="1">
-      <t>hu'xing</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>tong'yi</t>
     </rPh>
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
@@ -1362,7 +1281,8 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <charset val="161"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t>"}</t>
     </r>
@@ -1396,7 +1316,8 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <charset val="161"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t>-tasktracker</t>
     </r>
@@ -1422,7 +1343,8 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <charset val="161"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t>"}</t>
     </r>
@@ -1488,6 +1410,11 @@
     <rPh sb="0" eb="1">
       <t>jia'gou</t>
     </rPh>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.3.5项目上线准备执行方案
+（预发布环境先验证一遍）</t>
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
 </sst>
@@ -1515,20 +1442,23 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <charset val="161"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <charset val="161"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <charset val="161"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -1566,35 +1496,41 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <charset val="161"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="63"/>
       <name val="微软雅黑"/>
-      <charset val="161"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="微软雅黑"/>
-      <charset val="161"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="0" tint="-0.249977111117893"/>
       <name val="微软雅黑"/>
-      <charset val="161"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="微软雅黑"/>
-      <charset val="161"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="微软雅黑"/>
-      <charset val="161"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -1803,7 +1739,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -1937,19 +1873,6 @@
       <left style="medium">
         <color auto="1"/>
       </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
       <right style="medium">
         <color auto="1"/>
       </right>
@@ -2009,7 +1932,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="150">
+  <cellXfs count="149">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2178,16 +2101,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="11" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="13" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="6" borderId="10" xfId="9" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2298,31 +2218,31 @@
     <xf numFmtId="0" fontId="25" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2379,7 +2299,7 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
@@ -2490,7 +2410,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7">
-    <tableStyle name="MySqlDefault" count="2">
+    <tableStyle name="MySqlDefault" count="1">
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
   </tableStyles>
@@ -2831,10 +2751,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X167"/>
+  <dimension ref="A1:X163"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -2934,1371 +2854,1297 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:24" s="75" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="65">
+    <row r="2" spans="1:24" s="74" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="64">
         <v>1</v>
       </c>
-      <c r="B2" s="65" t="s">
+      <c r="B2" s="64" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="64" t="s">
         <v>68</v>
       </c>
-      <c r="C2" s="65" t="s">
+      <c r="D2" s="65" t="s">
         <v>69</v>
       </c>
-      <c r="D2" s="66" t="s">
+      <c r="E2" s="66" t="s">
         <v>70</v>
       </c>
-      <c r="E2" s="67" t="s">
+      <c r="F2" s="66" t="s">
         <v>71</v>
       </c>
-      <c r="F2" s="67" t="s">
+      <c r="G2" s="66" t="s">
         <v>72</v>
       </c>
-      <c r="G2" s="67" t="s">
+      <c r="H2" s="67">
+        <v>42810</v>
+      </c>
+      <c r="I2" s="66" t="s">
+        <v>72</v>
+      </c>
+      <c r="J2" s="67">
+        <v>42810</v>
+      </c>
+      <c r="K2" s="66"/>
+      <c r="L2" s="64" t="s">
         <v>73</v>
       </c>
-      <c r="H2" s="68">
+      <c r="M2" s="66" t="s">
+        <v>74</v>
+      </c>
+      <c r="N2" s="66" t="s">
+        <v>75</v>
+      </c>
+      <c r="O2" s="66" t="s">
+        <v>76</v>
+      </c>
+      <c r="P2" s="68" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q2" s="67">
         <v>42810</v>
       </c>
-      <c r="I2" s="67" t="s">
-        <v>73</v>
-      </c>
-      <c r="J2" s="68">
-        <v>42810</v>
-      </c>
-      <c r="K2" s="67"/>
-      <c r="L2" s="65" t="s">
-        <v>74</v>
-      </c>
-      <c r="M2" s="67" t="s">
+      <c r="R2" s="68" t="s">
+        <v>78</v>
+      </c>
+      <c r="S2" s="69" t="s">
+        <v>79</v>
+      </c>
+      <c r="T2" s="57">
+        <v>9903</v>
+      </c>
+      <c r="U2" s="70"/>
+      <c r="V2" s="71" t="s">
+        <v>80</v>
+      </c>
+      <c r="W2" s="72"/>
+      <c r="X2" s="73"/>
+    </row>
+    <row r="3" spans="1:24" s="74" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="64">
+        <v>2</v>
+      </c>
+      <c r="B3" s="64" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" s="64" t="s">
+        <v>68</v>
+      </c>
+      <c r="D3" s="65" t="s">
+        <v>81</v>
+      </c>
+      <c r="E3" s="66" t="s">
+        <v>82</v>
+      </c>
+      <c r="F3" s="66" t="s">
+        <v>83</v>
+      </c>
+      <c r="G3" s="66" t="s">
+        <v>72</v>
+      </c>
+      <c r="H3" s="67">
+        <v>42814</v>
+      </c>
+      <c r="I3" s="66" t="s">
+        <v>72</v>
+      </c>
+      <c r="J3" s="67">
+        <v>42814</v>
+      </c>
+      <c r="K3" s="66"/>
+      <c r="L3" s="68" t="s">
+        <v>84</v>
+      </c>
+      <c r="M3" s="66" t="s">
+        <v>85</v>
+      </c>
+      <c r="N3" s="66" t="s">
         <v>75</v>
       </c>
-      <c r="N2" s="67" t="s">
-        <v>76</v>
-      </c>
-      <c r="O2" s="67" t="s">
+      <c r="O3" s="66" t="s">
+        <v>86</v>
+      </c>
+      <c r="P3" s="68" t="s">
         <v>77</v>
       </c>
-      <c r="P2" s="69" t="s">
+      <c r="Q3" s="67">
+        <v>42814</v>
+      </c>
+      <c r="R3" s="68" t="s">
         <v>78</v>
       </c>
-      <c r="Q2" s="68">
-        <v>42810</v>
-      </c>
-      <c r="R2" s="69" t="s">
-        <v>79</v>
-      </c>
-      <c r="S2" s="70" t="s">
+      <c r="S3" s="75" t="s">
+        <v>87</v>
+      </c>
+      <c r="T3" s="70"/>
+      <c r="U3" s="70"/>
+      <c r="V3" s="71"/>
+      <c r="W3" s="72"/>
+      <c r="X3" s="73"/>
+    </row>
+    <row r="4" spans="1:24" s="74" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="64">
+        <v>3</v>
+      </c>
+      <c r="B4" s="64" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" s="64" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4" s="65" t="s">
+        <v>88</v>
+      </c>
+      <c r="E4" s="66" t="s">
+        <v>82</v>
+      </c>
+      <c r="F4" s="66" t="s">
+        <v>89</v>
+      </c>
+      <c r="G4" s="66" t="s">
+        <v>72</v>
+      </c>
+      <c r="H4" s="67">
+        <v>42814</v>
+      </c>
+      <c r="I4" s="66" t="s">
+        <v>72</v>
+      </c>
+      <c r="J4" s="67">
+        <v>42814</v>
+      </c>
+      <c r="K4" s="66"/>
+      <c r="L4" s="68" t="s">
+        <v>84</v>
+      </c>
+      <c r="M4" s="66" t="s">
+        <v>85</v>
+      </c>
+      <c r="N4" s="66" t="s">
+        <v>75</v>
+      </c>
+      <c r="O4" s="66" t="s">
+        <v>86</v>
+      </c>
+      <c r="P4" s="68" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q4" s="67">
+        <v>42814</v>
+      </c>
+      <c r="R4" s="68" t="s">
+        <v>78</v>
+      </c>
+      <c r="S4" s="75" t="s">
+        <v>90</v>
+      </c>
+      <c r="T4" s="70"/>
+      <c r="U4" s="70"/>
+      <c r="V4" s="71" t="s">
         <v>80</v>
       </c>
-      <c r="T2" s="58">
-        <v>9903</v>
-      </c>
-      <c r="U2" s="71"/>
-      <c r="V2" s="72" t="s">
-        <v>81</v>
-      </c>
-      <c r="W2" s="73"/>
-      <c r="X2" s="74"/>
-    </row>
-    <row r="3" spans="1:24" s="75" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="65">
-        <v>2</v>
-      </c>
-      <c r="B3" s="65" t="s">
+      <c r="W4" s="76"/>
+      <c r="X4" s="73"/>
+    </row>
+    <row r="5" spans="1:24" s="74" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="64">
+        <v>4</v>
+      </c>
+      <c r="B5" s="64" t="s">
+        <v>91</v>
+      </c>
+      <c r="C5" s="64" t="s">
         <v>68</v>
       </c>
-      <c r="C3" s="65" t="s">
-        <v>69</v>
-      </c>
-      <c r="D3" s="66" t="s">
+      <c r="D5" s="65" t="s">
+        <v>92</v>
+      </c>
+      <c r="E5" s="66" t="s">
         <v>82</v>
       </c>
-      <c r="E3" s="67" t="s">
-        <v>83</v>
-      </c>
-      <c r="F3" s="67" t="s">
+      <c r="F5" s="66" t="s">
+        <v>93</v>
+      </c>
+      <c r="G5" s="66" t="s">
+        <v>94</v>
+      </c>
+      <c r="H5" s="67">
+        <v>42814</v>
+      </c>
+      <c r="I5" s="66" t="s">
+        <v>72</v>
+      </c>
+      <c r="J5" s="67">
+        <v>42814</v>
+      </c>
+      <c r="K5" s="66"/>
+      <c r="L5" s="68" t="s">
         <v>84</v>
       </c>
-      <c r="G3" s="67" t="s">
-        <v>73</v>
-      </c>
-      <c r="H3" s="68">
+      <c r="M5" s="66" t="s">
+        <v>85</v>
+      </c>
+      <c r="N5" s="66" t="s">
+        <v>75</v>
+      </c>
+      <c r="O5" s="66" t="s">
+        <v>86</v>
+      </c>
+      <c r="P5" s="68" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q5" s="67">
         <v>42814</v>
       </c>
-      <c r="I3" s="67" t="s">
-        <v>73</v>
-      </c>
-      <c r="J3" s="68">
+      <c r="R5" s="68" t="s">
+        <v>78</v>
+      </c>
+      <c r="S5" s="70" t="s">
+        <v>95</v>
+      </c>
+      <c r="T5" s="70"/>
+      <c r="U5" s="70"/>
+      <c r="V5" s="71" t="s">
+        <v>80</v>
+      </c>
+      <c r="W5" s="76"/>
+      <c r="X5" s="73"/>
+    </row>
+    <row r="6" spans="1:24" s="74" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="64">
+        <v>5</v>
+      </c>
+      <c r="B6" s="64" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" s="64" t="s">
+        <v>68</v>
+      </c>
+      <c r="D6" s="65" t="s">
+        <v>96</v>
+      </c>
+      <c r="E6" s="66" t="s">
+        <v>82</v>
+      </c>
+      <c r="F6" s="66" t="s">
+        <v>97</v>
+      </c>
+      <c r="G6" s="66" t="s">
+        <v>72</v>
+      </c>
+      <c r="H6" s="67">
         <v>42814</v>
       </c>
-      <c r="K3" s="67"/>
-      <c r="L3" s="69" t="s">
-        <v>85</v>
-      </c>
-      <c r="M3" s="67" t="s">
-        <v>86</v>
-      </c>
-      <c r="N3" s="67" t="s">
-        <v>76</v>
-      </c>
-      <c r="O3" s="67" t="s">
-        <v>87</v>
-      </c>
-      <c r="P3" s="69" t="s">
+      <c r="I6" s="66" t="s">
+        <v>72</v>
+      </c>
+      <c r="J6" s="67">
+        <v>42814</v>
+      </c>
+      <c r="K6" s="66"/>
+      <c r="L6" s="64" t="s">
+        <v>98</v>
+      </c>
+      <c r="M6" s="66" t="s">
+        <v>99</v>
+      </c>
+      <c r="N6" s="66" t="s">
+        <v>100</v>
+      </c>
+      <c r="O6" s="66" t="s">
+        <v>101</v>
+      </c>
+      <c r="P6" s="68" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q6" s="67">
+        <v>42814</v>
+      </c>
+      <c r="R6" s="68" t="s">
         <v>78</v>
       </c>
-      <c r="Q3" s="68">
+      <c r="S6" s="69" t="s">
+        <v>102</v>
+      </c>
+      <c r="T6" s="57"/>
+      <c r="U6" s="70"/>
+      <c r="V6" s="71" t="s">
+        <v>80</v>
+      </c>
+      <c r="W6" s="72"/>
+      <c r="X6" s="73"/>
+    </row>
+    <row r="7" spans="1:24" s="74" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="64">
+        <v>6</v>
+      </c>
+      <c r="B7" s="64" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" s="64" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" s="65" t="s">
+        <v>103</v>
+      </c>
+      <c r="E7" s="66" t="s">
+        <v>82</v>
+      </c>
+      <c r="F7" s="66" t="s">
+        <v>104</v>
+      </c>
+      <c r="G7" s="66" t="s">
+        <v>72</v>
+      </c>
+      <c r="H7" s="67">
         <v>42814</v>
       </c>
-      <c r="R3" s="69" t="s">
-        <v>79</v>
-      </c>
-      <c r="S3" s="76" t="s">
-        <v>88</v>
-      </c>
-      <c r="T3" s="71"/>
-      <c r="U3" s="71"/>
-      <c r="V3" s="72"/>
-      <c r="W3" s="73"/>
-      <c r="X3" s="74"/>
-    </row>
-    <row r="4" spans="1:24" s="75" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="65">
-        <v>3</v>
-      </c>
-      <c r="B4" s="65" t="s">
-        <v>68</v>
-      </c>
-      <c r="C4" s="65" t="s">
-        <v>69</v>
-      </c>
-      <c r="D4" s="66" t="s">
-        <v>89</v>
-      </c>
-      <c r="E4" s="67" t="s">
-        <v>83</v>
-      </c>
-      <c r="F4" s="67" t="s">
-        <v>90</v>
-      </c>
-      <c r="G4" s="67" t="s">
-        <v>73</v>
-      </c>
-      <c r="H4" s="68">
+      <c r="I7" s="66" t="s">
+        <v>72</v>
+      </c>
+      <c r="J7" s="67">
         <v>42814</v>
       </c>
-      <c r="I4" s="67" t="s">
-        <v>73</v>
-      </c>
-      <c r="J4" s="68">
+      <c r="K7" s="66"/>
+      <c r="L7" s="64" t="s">
+        <v>105</v>
+      </c>
+      <c r="M7" s="66" t="s">
+        <v>99</v>
+      </c>
+      <c r="N7" s="66" t="s">
+        <v>100</v>
+      </c>
+      <c r="O7" s="66" t="s">
+        <v>106</v>
+      </c>
+      <c r="P7" s="68" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q7" s="67">
         <v>42814</v>
       </c>
-      <c r="K4" s="67"/>
-      <c r="L4" s="69" t="s">
-        <v>85</v>
-      </c>
-      <c r="M4" s="67" t="s">
-        <v>86</v>
-      </c>
-      <c r="N4" s="67" t="s">
-        <v>76</v>
-      </c>
-      <c r="O4" s="67" t="s">
-        <v>87</v>
-      </c>
-      <c r="P4" s="69" t="s">
+      <c r="R7" s="68" t="s">
         <v>78</v>
       </c>
-      <c r="Q4" s="68">
+      <c r="S7" s="69" t="s">
+        <v>102</v>
+      </c>
+      <c r="T7" s="70"/>
+      <c r="U7" s="70"/>
+      <c r="V7" s="71"/>
+      <c r="W7" s="72"/>
+      <c r="X7" s="73"/>
+    </row>
+    <row r="8" spans="1:24" s="74" customFormat="1" ht="32" x14ac:dyDescent="0.15">
+      <c r="A8" s="64">
+        <v>7</v>
+      </c>
+      <c r="B8" s="64" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8" s="64" t="s">
+        <v>107</v>
+      </c>
+      <c r="D8" s="65" t="s">
+        <v>108</v>
+      </c>
+      <c r="E8" s="66" t="s">
+        <v>82</v>
+      </c>
+      <c r="F8" s="66" t="s">
+        <v>109</v>
+      </c>
+      <c r="G8" s="66" t="s">
+        <v>72</v>
+      </c>
+      <c r="H8" s="67">
         <v>42814</v>
       </c>
-      <c r="R4" s="69" t="s">
-        <v>79</v>
-      </c>
-      <c r="S4" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="T4" s="71"/>
-      <c r="U4" s="71"/>
-      <c r="V4" s="72" t="s">
-        <v>81</v>
-      </c>
-      <c r="W4" s="77"/>
-      <c r="X4" s="74"/>
-    </row>
-    <row r="5" spans="1:24" s="75" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="65">
-        <v>4</v>
-      </c>
-      <c r="B5" s="65" t="s">
-        <v>92</v>
-      </c>
-      <c r="C5" s="65" t="s">
-        <v>69</v>
-      </c>
-      <c r="D5" s="66" t="s">
-        <v>93</v>
-      </c>
-      <c r="E5" s="67" t="s">
-        <v>83</v>
-      </c>
-      <c r="F5" s="67" t="s">
-        <v>94</v>
-      </c>
-      <c r="G5" s="67" t="s">
-        <v>95</v>
-      </c>
-      <c r="H5" s="68">
+      <c r="I8" s="66" t="s">
+        <v>72</v>
+      </c>
+      <c r="J8" s="67">
         <v>42814</v>
       </c>
-      <c r="I5" s="67" t="s">
-        <v>73</v>
-      </c>
-      <c r="J5" s="68">
+      <c r="K8" s="66"/>
+      <c r="L8" s="64" t="s">
+        <v>110</v>
+      </c>
+      <c r="M8" s="66" t="s">
+        <v>99</v>
+      </c>
+      <c r="N8" s="66" t="s">
+        <v>75</v>
+      </c>
+      <c r="O8" s="66" t="s">
+        <v>111</v>
+      </c>
+      <c r="P8" s="68" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q8" s="67">
         <v>42814</v>
       </c>
-      <c r="K5" s="67"/>
-      <c r="L5" s="69" t="s">
-        <v>85</v>
-      </c>
-      <c r="M5" s="67" t="s">
-        <v>86</v>
-      </c>
-      <c r="N5" s="67" t="s">
-        <v>76</v>
-      </c>
-      <c r="O5" s="67" t="s">
-        <v>87</v>
-      </c>
-      <c r="P5" s="69" t="s">
+      <c r="R8" s="68" t="s">
         <v>78</v>
       </c>
-      <c r="Q5" s="68">
-        <v>42814</v>
-      </c>
-      <c r="R5" s="69" t="s">
-        <v>79</v>
-      </c>
-      <c r="S5" s="71" t="s">
-        <v>96</v>
-      </c>
-      <c r="T5" s="71"/>
-      <c r="U5" s="71"/>
-      <c r="V5" s="72" t="s">
-        <v>81</v>
-      </c>
-      <c r="W5" s="77"/>
-      <c r="X5" s="74"/>
-    </row>
-    <row r="6" spans="1:24" s="75" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="65">
-        <v>5</v>
-      </c>
-      <c r="B6" s="65" t="s">
-        <v>68</v>
-      </c>
-      <c r="C6" s="65" t="s">
-        <v>69</v>
-      </c>
-      <c r="D6" s="66" t="s">
-        <v>97</v>
-      </c>
-      <c r="E6" s="67" t="s">
-        <v>83</v>
-      </c>
-      <c r="F6" s="67" t="s">
-        <v>98</v>
-      </c>
-      <c r="G6" s="67" t="s">
-        <v>73</v>
-      </c>
-      <c r="H6" s="68">
-        <v>42814</v>
-      </c>
-      <c r="I6" s="67" t="s">
-        <v>73</v>
-      </c>
-      <c r="J6" s="68">
-        <v>42814</v>
-      </c>
-      <c r="K6" s="67"/>
-      <c r="L6" s="65" t="s">
-        <v>99</v>
-      </c>
-      <c r="M6" s="67" t="s">
-        <v>100</v>
-      </c>
-      <c r="N6" s="67" t="s">
-        <v>101</v>
-      </c>
-      <c r="O6" s="67" t="s">
-        <v>102</v>
-      </c>
-      <c r="P6" s="69" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q6" s="68">
-        <v>42814</v>
-      </c>
-      <c r="R6" s="69" t="s">
-        <v>79</v>
-      </c>
-      <c r="S6" s="70" t="s">
-        <v>103</v>
-      </c>
-      <c r="T6" s="58"/>
-      <c r="U6" s="71"/>
-      <c r="V6" s="72" t="s">
-        <v>81</v>
-      </c>
-      <c r="W6" s="73"/>
-      <c r="X6" s="74"/>
-    </row>
-    <row r="7" spans="1:24" s="75" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="65">
-        <v>6</v>
-      </c>
-      <c r="B7" s="65" t="s">
-        <v>68</v>
-      </c>
-      <c r="C7" s="65" t="s">
-        <v>69</v>
-      </c>
-      <c r="D7" s="66" t="s">
-        <v>104</v>
-      </c>
-      <c r="E7" s="67" t="s">
-        <v>83</v>
-      </c>
-      <c r="F7" s="67" t="s">
-        <v>105</v>
-      </c>
-      <c r="G7" s="67" t="s">
-        <v>73</v>
-      </c>
-      <c r="H7" s="68">
-        <v>42814</v>
-      </c>
-      <c r="I7" s="67" t="s">
-        <v>73</v>
-      </c>
-      <c r="J7" s="68">
-        <v>42814</v>
-      </c>
-      <c r="K7" s="67"/>
-      <c r="L7" s="65" t="s">
-        <v>106</v>
-      </c>
-      <c r="M7" s="67" t="s">
-        <v>100</v>
-      </c>
-      <c r="N7" s="67" t="s">
-        <v>101</v>
-      </c>
-      <c r="O7" s="67" t="s">
+      <c r="S8" s="57" t="s">
+        <v>112</v>
+      </c>
+      <c r="T8" s="70"/>
+      <c r="U8" s="70"/>
+      <c r="V8" s="71"/>
+      <c r="W8" s="76"/>
+      <c r="X8" s="73"/>
+    </row>
+    <row r="9" spans="1:24" s="38" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="64">
+        <v>8</v>
+      </c>
+      <c r="B9" s="77" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9" s="77" t="s">
         <v>107</v>
       </c>
-      <c r="P7" s="69" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q7" s="68">
-        <v>42814</v>
-      </c>
-      <c r="R7" s="69" t="s">
-        <v>79</v>
-      </c>
-      <c r="S7" s="70" t="s">
-        <v>103</v>
-      </c>
-      <c r="T7" s="71"/>
-      <c r="U7" s="71"/>
-      <c r="V7" s="72"/>
-      <c r="W7" s="73"/>
-      <c r="X7" s="74"/>
-    </row>
-    <row r="8" spans="1:24" s="75" customFormat="1" ht="32" x14ac:dyDescent="0.15">
-      <c r="A8" s="65">
-        <v>7</v>
-      </c>
-      <c r="B8" s="65" t="s">
-        <v>68</v>
-      </c>
-      <c r="C8" s="65" t="s">
-        <v>108</v>
-      </c>
-      <c r="D8" s="66" t="s">
-        <v>109</v>
-      </c>
-      <c r="E8" s="67" t="s">
-        <v>83</v>
-      </c>
-      <c r="F8" s="67" t="s">
-        <v>110</v>
-      </c>
-      <c r="G8" s="67" t="s">
-        <v>73</v>
-      </c>
-      <c r="H8" s="68">
-        <v>42814</v>
-      </c>
-      <c r="I8" s="67" t="s">
-        <v>73</v>
-      </c>
-      <c r="J8" s="68">
-        <v>42814</v>
-      </c>
-      <c r="K8" s="67"/>
-      <c r="L8" s="65" t="s">
-        <v>111</v>
-      </c>
-      <c r="M8" s="67" t="s">
-        <v>100</v>
-      </c>
-      <c r="N8" s="67" t="s">
-        <v>76</v>
-      </c>
-      <c r="O8" s="67" t="s">
-        <v>112</v>
-      </c>
-      <c r="P8" s="69" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q8" s="68">
-        <v>42814</v>
-      </c>
-      <c r="R8" s="69" t="s">
-        <v>79</v>
-      </c>
-      <c r="S8" s="58" t="s">
+      <c r="D9" s="78" t="s">
         <v>113</v>
       </c>
-      <c r="T8" s="71"/>
-      <c r="U8" s="71"/>
-      <c r="V8" s="72"/>
-      <c r="W8" s="77"/>
-      <c r="X8" s="74"/>
-    </row>
-    <row r="9" spans="1:24" s="38" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="65">
-        <v>8</v>
-      </c>
-      <c r="B9" s="78" t="s">
-        <v>68</v>
-      </c>
-      <c r="C9" s="78" t="s">
-        <v>108</v>
-      </c>
-      <c r="D9" s="79" t="s">
+      <c r="E9" s="50" t="s">
+        <v>82</v>
+      </c>
+      <c r="F9" s="50" t="s">
         <v>114</v>
       </c>
-      <c r="E9" s="50" t="s">
-        <v>83</v>
-      </c>
-      <c r="F9" s="50" t="s">
-        <v>115</v>
-      </c>
       <c r="G9" s="50" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H9" s="51">
         <v>42808</v>
       </c>
       <c r="I9" s="50" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J9" s="51">
         <v>42808</v>
       </c>
       <c r="K9" s="50"/>
-      <c r="L9" s="80" t="s">
+      <c r="L9" s="79" t="s">
+        <v>115</v>
+      </c>
+      <c r="M9" s="50" t="s">
         <v>116</v>
       </c>
-      <c r="M9" s="50" t="s">
+      <c r="N9" s="50" t="s">
+        <v>75</v>
+      </c>
+      <c r="O9" s="50" t="s">
         <v>117</v>
       </c>
-      <c r="N9" s="50" t="s">
-        <v>76</v>
-      </c>
-      <c r="O9" s="50" t="s">
+      <c r="P9" s="79" t="s">
         <v>118</v>
-      </c>
-      <c r="P9" s="80" t="s">
-        <v>119</v>
       </c>
       <c r="Q9" s="51">
         <v>42814</v>
       </c>
-      <c r="R9" s="80" t="s">
-        <v>79</v>
-      </c>
-      <c r="S9" s="81" t="s">
-        <v>113</v>
-      </c>
-      <c r="T9" s="58"/>
+      <c r="R9" s="79" t="s">
+        <v>78</v>
+      </c>
+      <c r="S9" s="80" t="s">
+        <v>112</v>
+      </c>
+      <c r="T9" s="57"/>
       <c r="U9" s="48"/>
-      <c r="V9" s="57" t="s">
+      <c r="V9" s="56" t="s">
+        <v>119</v>
+      </c>
+      <c r="W9" s="81"/>
+      <c r="X9" s="61"/>
+    </row>
+    <row r="10" spans="1:24" s="38" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="64">
+        <v>9</v>
+      </c>
+      <c r="B10" s="77" t="s">
+        <v>67</v>
+      </c>
+      <c r="C10" s="77" t="s">
+        <v>68</v>
+      </c>
+      <c r="D10" s="78" t="s">
         <v>120</v>
       </c>
-      <c r="W9" s="82"/>
-      <c r="X9" s="62"/>
-    </row>
-    <row r="10" spans="1:24" s="38" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="65">
-        <v>9</v>
-      </c>
-      <c r="B10" s="78" t="s">
-        <v>68</v>
-      </c>
-      <c r="C10" s="78" t="s">
-        <v>69</v>
-      </c>
-      <c r="D10" s="79" t="s">
+      <c r="E10" s="50" t="s">
+        <v>82</v>
+      </c>
+      <c r="F10" s="50" t="s">
         <v>121</v>
       </c>
-      <c r="E10" s="50" t="s">
-        <v>83</v>
-      </c>
-      <c r="F10" s="50" t="s">
-        <v>122</v>
-      </c>
       <c r="G10" s="50" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H10" s="51">
         <v>42811</v>
       </c>
       <c r="I10" s="50" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J10" s="51">
         <v>42811</v>
       </c>
       <c r="K10" s="50"/>
-      <c r="L10" s="80" t="s">
+      <c r="L10" s="79" t="s">
+        <v>122</v>
+      </c>
+      <c r="M10" s="50" t="s">
         <v>123</v>
       </c>
-      <c r="M10" s="50" t="s">
+      <c r="N10" s="50" t="s">
+        <v>75</v>
+      </c>
+      <c r="O10" s="50" t="s">
         <v>124</v>
       </c>
-      <c r="N10" s="50" t="s">
-        <v>76</v>
-      </c>
-      <c r="O10" s="50" t="s">
-        <v>125</v>
-      </c>
-      <c r="P10" s="80" t="s">
-        <v>78</v>
+      <c r="P10" s="79" t="s">
+        <v>77</v>
       </c>
       <c r="Q10" s="51">
         <v>42811</v>
       </c>
-      <c r="R10" s="80" t="s">
-        <v>79</v>
-      </c>
-      <c r="S10" s="58" t="s">
+      <c r="R10" s="79" t="s">
+        <v>78</v>
+      </c>
+      <c r="S10" s="57" t="s">
+        <v>125</v>
+      </c>
+      <c r="T10" s="57"/>
+      <c r="U10" s="48"/>
+      <c r="V10" s="56"/>
+      <c r="W10" s="81"/>
+      <c r="X10" s="61"/>
+    </row>
+    <row r="11" spans="1:24" s="38" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+      <c r="A11" s="64">
+        <v>10</v>
+      </c>
+      <c r="B11" s="77" t="s">
+        <v>67</v>
+      </c>
+      <c r="C11" s="77" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11" s="78" t="s">
         <v>126</v>
       </c>
-      <c r="T10" s="58"/>
-      <c r="U10" s="48"/>
-      <c r="V10" s="57"/>
-      <c r="W10" s="82"/>
-      <c r="X10" s="62"/>
-    </row>
-    <row r="11" spans="1:24" s="38" customFormat="1" ht="16" x14ac:dyDescent="0.15">
-      <c r="A11" s="65">
-        <v>10</v>
-      </c>
-      <c r="B11" s="78" t="s">
-        <v>68</v>
-      </c>
-      <c r="C11" s="78" t="s">
-        <v>69</v>
-      </c>
-      <c r="D11" s="79" t="s">
+      <c r="E11" s="50" t="s">
+        <v>82</v>
+      </c>
+      <c r="F11" s="50" t="s">
         <v>127</v>
       </c>
-      <c r="E11" s="50" t="s">
-        <v>83</v>
-      </c>
-      <c r="F11" s="50" t="s">
-        <v>128</v>
-      </c>
       <c r="G11" s="50" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H11" s="51">
         <v>42813</v>
       </c>
       <c r="I11" s="50" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J11" s="51">
         <v>42813</v>
       </c>
       <c r="K11" s="50"/>
-      <c r="L11" s="80" t="s">
+      <c r="L11" s="79" t="s">
+        <v>128</v>
+      </c>
+      <c r="M11" s="50" t="s">
+        <v>123</v>
+      </c>
+      <c r="N11" s="50" t="s">
+        <v>75</v>
+      </c>
+      <c r="O11" s="50" t="s">
         <v>129</v>
       </c>
-      <c r="M11" s="50" t="s">
-        <v>124</v>
-      </c>
-      <c r="N11" s="50" t="s">
-        <v>76</v>
-      </c>
-      <c r="O11" s="50" t="s">
-        <v>130</v>
-      </c>
-      <c r="P11" s="80" t="s">
-        <v>78</v>
+      <c r="P11" s="79" t="s">
+        <v>77</v>
       </c>
       <c r="Q11" s="51">
         <v>42813</v>
       </c>
-      <c r="R11" s="80" t="s">
-        <v>79</v>
-      </c>
-      <c r="S11" s="58" t="s">
-        <v>131</v>
+      <c r="R11" s="79" t="s">
+        <v>78</v>
+      </c>
+      <c r="S11" s="57" t="s">
+        <v>130</v>
       </c>
       <c r="T11" s="48"/>
       <c r="U11" s="48"/>
-      <c r="V11" s="57"/>
-      <c r="W11" s="83"/>
-      <c r="X11" s="62"/>
+      <c r="V11" s="56"/>
+      <c r="W11" s="82"/>
+      <c r="X11" s="61"/>
     </row>
     <row r="12" spans="1:24" s="38" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="65">
+      <c r="A12" s="64">
         <v>11</v>
       </c>
-      <c r="B12" s="78" t="s">
+      <c r="B12" s="77" t="s">
+        <v>67</v>
+      </c>
+      <c r="C12" s="77" t="s">
         <v>68</v>
       </c>
-      <c r="C12" s="78" t="s">
-        <v>69</v>
-      </c>
-      <c r="D12" s="79" t="s">
+      <c r="D12" s="78" t="s">
+        <v>131</v>
+      </c>
+      <c r="E12" s="50" t="s">
+        <v>82</v>
+      </c>
+      <c r="F12" s="50" t="s">
         <v>132</v>
       </c>
-      <c r="E12" s="50" t="s">
-        <v>83</v>
-      </c>
-      <c r="F12" s="50" t="s">
-        <v>133</v>
-      </c>
       <c r="G12" s="50" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H12" s="51">
         <v>42813</v>
       </c>
       <c r="I12" s="50" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J12" s="51">
         <v>42813</v>
       </c>
       <c r="K12" s="50"/>
-      <c r="L12" s="80" t="s">
+      <c r="L12" s="79" t="s">
+        <v>133</v>
+      </c>
+      <c r="M12" s="50" t="s">
+        <v>123</v>
+      </c>
+      <c r="N12" s="50" t="s">
+        <v>75</v>
+      </c>
+      <c r="O12" s="50" t="s">
         <v>134</v>
       </c>
-      <c r="M12" s="50" t="s">
-        <v>124</v>
-      </c>
-      <c r="N12" s="50" t="s">
-        <v>76</v>
-      </c>
-      <c r="O12" s="50" t="s">
-        <v>135</v>
-      </c>
-      <c r="P12" s="80" t="s">
-        <v>78</v>
+      <c r="P12" s="79" t="s">
+        <v>77</v>
       </c>
       <c r="Q12" s="51">
         <v>42813</v>
       </c>
-      <c r="R12" s="80" t="s">
-        <v>79</v>
-      </c>
-      <c r="S12" s="58" t="s">
-        <v>136</v>
+      <c r="R12" s="79" t="s">
+        <v>78</v>
+      </c>
+      <c r="S12" s="57" t="s">
+        <v>135</v>
       </c>
       <c r="T12" s="48"/>
       <c r="U12" s="48"/>
-      <c r="V12" s="57"/>
-      <c r="W12" s="82"/>
-      <c r="X12" s="62"/>
-    </row>
-    <row r="13" spans="1:24" s="84" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="65">
+      <c r="V12" s="56"/>
+      <c r="W12" s="81"/>
+      <c r="X12" s="61"/>
+    </row>
+    <row r="13" spans="1:24" s="83" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="64">
         <v>12</v>
       </c>
-      <c r="B13" s="85" t="s">
+      <c r="B13" s="84" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13" s="84" t="s">
         <v>68</v>
       </c>
-      <c r="C13" s="85" t="s">
-        <v>69</v>
-      </c>
-      <c r="D13" s="85" t="s">
+      <c r="D13" s="84" t="s">
+        <v>136</v>
+      </c>
+      <c r="E13" s="85" t="s">
+        <v>70</v>
+      </c>
+      <c r="F13" s="85" t="s">
         <v>137</v>
       </c>
-      <c r="E13" s="86" t="s">
-        <v>71</v>
-      </c>
-      <c r="F13" s="86" t="s">
+      <c r="G13" s="85" t="s">
+        <v>72</v>
+      </c>
+      <c r="H13" s="86">
+        <v>42814</v>
+      </c>
+      <c r="I13" s="85" t="s">
+        <v>72</v>
+      </c>
+      <c r="J13" s="86">
+        <v>42814</v>
+      </c>
+      <c r="K13" s="85"/>
+      <c r="L13" s="87" t="s">
         <v>138</v>
       </c>
-      <c r="G13" s="86" t="s">
-        <v>73</v>
-      </c>
-      <c r="H13" s="87">
+      <c r="M13" s="85" t="s">
+        <v>139</v>
+      </c>
+      <c r="N13" s="85" t="s">
+        <v>75</v>
+      </c>
+      <c r="O13" s="85" t="s">
+        <v>140</v>
+      </c>
+      <c r="P13" s="87" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q13" s="86">
         <v>42814</v>
       </c>
-      <c r="I13" s="86" t="s">
-        <v>73</v>
-      </c>
-      <c r="J13" s="87">
+      <c r="R13" s="87" t="s">
+        <v>78</v>
+      </c>
+      <c r="S13" s="88"/>
+      <c r="T13" s="88">
+        <v>9909</v>
+      </c>
+      <c r="U13" s="88"/>
+      <c r="V13" s="89"/>
+      <c r="W13" s="84"/>
+      <c r="X13" s="90"/>
+    </row>
+    <row r="14" spans="1:24" s="83" customFormat="1" ht="48" x14ac:dyDescent="0.15">
+      <c r="A14" s="64">
+        <v>13</v>
+      </c>
+      <c r="B14" s="84" t="s">
+        <v>67</v>
+      </c>
+      <c r="C14" s="84" t="s">
+        <v>68</v>
+      </c>
+      <c r="D14" s="84" t="s">
+        <v>141</v>
+      </c>
+      <c r="E14" s="85" t="s">
+        <v>82</v>
+      </c>
+      <c r="F14" s="85" t="s">
+        <v>142</v>
+      </c>
+      <c r="G14" s="85" t="s">
+        <v>72</v>
+      </c>
+      <c r="H14" s="86">
         <v>42814</v>
       </c>
-      <c r="K13" s="86"/>
-      <c r="L13" s="88" t="s">
+      <c r="I14" s="85" t="s">
+        <v>72</v>
+      </c>
+      <c r="J14" s="86">
+        <v>42814</v>
+      </c>
+      <c r="K14" s="85"/>
+      <c r="L14" s="87" t="s">
+        <v>143</v>
+      </c>
+      <c r="M14" s="85" t="s">
         <v>139</v>
       </c>
-      <c r="M13" s="86" t="s">
-        <v>140</v>
-      </c>
-      <c r="N13" s="86" t="s">
-        <v>76</v>
-      </c>
-      <c r="O13" s="86" t="s">
-        <v>141</v>
-      </c>
-      <c r="P13" s="88" t="s">
+      <c r="N14" s="85" t="s">
+        <v>75</v>
+      </c>
+      <c r="O14" s="85" t="s">
+        <v>144</v>
+      </c>
+      <c r="P14" s="87" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q14" s="86">
+        <v>42814</v>
+      </c>
+      <c r="R14" s="87" t="s">
         <v>78</v>
       </c>
-      <c r="Q13" s="87">
+      <c r="S14" s="57" t="s">
+        <v>155</v>
+      </c>
+      <c r="T14" s="88"/>
+      <c r="U14" s="88"/>
+      <c r="V14" s="89"/>
+      <c r="W14" s="87"/>
+      <c r="X14" s="90"/>
+    </row>
+    <row r="15" spans="1:24" s="83" customFormat="1" ht="48" x14ac:dyDescent="0.15">
+      <c r="A15" s="64">
+        <v>14</v>
+      </c>
+      <c r="B15" s="84" t="s">
+        <v>67</v>
+      </c>
+      <c r="C15" s="84" t="s">
+        <v>68</v>
+      </c>
+      <c r="D15" s="84" t="s">
+        <v>145</v>
+      </c>
+      <c r="E15" s="85" t="s">
+        <v>82</v>
+      </c>
+      <c r="F15" s="85" t="s">
+        <v>142</v>
+      </c>
+      <c r="G15" s="85" t="s">
+        <v>72</v>
+      </c>
+      <c r="H15" s="86">
         <v>42814</v>
       </c>
-      <c r="R13" s="88" t="s">
-        <v>79</v>
-      </c>
-      <c r="S13" s="89"/>
-      <c r="T13" s="89">
-        <v>9909</v>
-      </c>
-      <c r="U13" s="89"/>
-      <c r="V13" s="90"/>
-      <c r="W13" s="85"/>
-      <c r="X13" s="91"/>
-    </row>
-    <row r="14" spans="1:24" s="84" customFormat="1" ht="48" x14ac:dyDescent="0.15">
-      <c r="A14" s="65">
-        <v>13</v>
-      </c>
-      <c r="B14" s="85" t="s">
-        <v>68</v>
-      </c>
-      <c r="C14" s="85" t="s">
-        <v>69</v>
-      </c>
-      <c r="D14" s="85" t="s">
-        <v>142</v>
-      </c>
-      <c r="E14" s="86" t="s">
-        <v>83</v>
-      </c>
-      <c r="F14" s="86" t="s">
-        <v>143</v>
-      </c>
-      <c r="G14" s="86" t="s">
-        <v>73</v>
-      </c>
-      <c r="H14" s="87">
+      <c r="I15" s="86" t="s">
+        <v>72</v>
+      </c>
+      <c r="J15" s="86">
         <v>42814</v>
       </c>
-      <c r="I14" s="86" t="s">
-        <v>73</v>
-      </c>
-      <c r="J14" s="87">
+      <c r="K15" s="91"/>
+      <c r="L15" s="87" t="s">
+        <v>146</v>
+      </c>
+      <c r="M15" s="85" t="s">
+        <v>139</v>
+      </c>
+      <c r="N15" s="85" t="s">
+        <v>75</v>
+      </c>
+      <c r="O15" s="85" t="s">
+        <v>147</v>
+      </c>
+      <c r="P15" s="92" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q15" s="86">
         <v>42814</v>
       </c>
-      <c r="K14" s="86"/>
-      <c r="L14" s="88" t="s">
-        <v>144</v>
-      </c>
-      <c r="M14" s="86" t="s">
-        <v>140</v>
-      </c>
-      <c r="N14" s="86" t="s">
-        <v>76</v>
-      </c>
-      <c r="O14" s="86" t="s">
-        <v>145</v>
-      </c>
-      <c r="P14" s="88" t="s">
+      <c r="R15" s="92" t="s">
         <v>78</v>
       </c>
-      <c r="Q14" s="87">
-        <v>42814</v>
-      </c>
-      <c r="R14" s="88" t="s">
-        <v>79</v>
-      </c>
-      <c r="S14" s="58" t="s">
-        <v>162</v>
-      </c>
-      <c r="T14" s="89"/>
-      <c r="U14" s="89"/>
-      <c r="V14" s="90"/>
-      <c r="W14" s="88"/>
-      <c r="X14" s="91"/>
-    </row>
-    <row r="15" spans="1:24" s="84" customFormat="1" ht="48" x14ac:dyDescent="0.15">
-      <c r="A15" s="65">
-        <v>14</v>
-      </c>
-      <c r="B15" s="85" t="s">
-        <v>68</v>
-      </c>
-      <c r="C15" s="85" t="s">
-        <v>69</v>
-      </c>
-      <c r="D15" s="85" t="s">
-        <v>146</v>
-      </c>
-      <c r="E15" s="86" t="s">
-        <v>83</v>
-      </c>
-      <c r="F15" s="86" t="s">
-        <v>143</v>
-      </c>
-      <c r="G15" s="86" t="s">
-        <v>73</v>
-      </c>
-      <c r="H15" s="87">
-        <v>42814</v>
-      </c>
-      <c r="I15" s="87" t="s">
-        <v>73</v>
-      </c>
-      <c r="J15" s="87">
-        <v>42814</v>
-      </c>
-      <c r="K15" s="92"/>
-      <c r="L15" s="88" t="s">
-        <v>147</v>
-      </c>
-      <c r="M15" s="86" t="s">
-        <v>140</v>
-      </c>
-      <c r="N15" s="86" t="s">
-        <v>76</v>
-      </c>
-      <c r="O15" s="86" t="s">
+      <c r="S15" s="57" t="s">
+        <v>155</v>
+      </c>
+      <c r="T15" s="88"/>
+      <c r="U15" s="88"/>
+      <c r="V15" s="88"/>
+      <c r="W15" s="92"/>
+      <c r="X15" s="90"/>
+    </row>
+    <row r="16" spans="1:24" s="38" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="64">
+        <v>15</v>
+      </c>
+      <c r="B16" s="77" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16" s="77" t="s">
+        <v>107</v>
+      </c>
+      <c r="D16" s="78" t="s">
         <v>148</v>
       </c>
-      <c r="P15" s="93" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q15" s="87">
-        <v>42814</v>
-      </c>
-      <c r="R15" s="93" t="s">
-        <v>79</v>
-      </c>
-      <c r="S15" s="58" t="s">
-        <v>162</v>
-      </c>
-      <c r="T15" s="89"/>
-      <c r="U15" s="89"/>
-      <c r="V15" s="89"/>
-      <c r="W15" s="93"/>
-      <c r="X15" s="91"/>
-    </row>
-    <row r="16" spans="1:24" s="38" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="65">
-        <v>15</v>
-      </c>
-      <c r="B16" s="78" t="s">
-        <v>68</v>
-      </c>
-      <c r="C16" s="78" t="s">
-        <v>108</v>
-      </c>
-      <c r="D16" s="79" t="s">
+      <c r="E16" s="50" t="s">
+        <v>82</v>
+      </c>
+      <c r="F16" s="50" t="s">
         <v>149</v>
       </c>
-      <c r="E16" s="50" t="s">
-        <v>83</v>
-      </c>
-      <c r="F16" s="50" t="s">
-        <v>150</v>
-      </c>
       <c r="G16" s="50" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H16" s="51">
         <v>42815</v>
       </c>
       <c r="I16" s="50" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J16" s="51">
         <v>42815</v>
       </c>
       <c r="K16" s="50"/>
-      <c r="L16" s="80" t="s">
+      <c r="L16" s="79" t="s">
+        <v>150</v>
+      </c>
+      <c r="M16" s="50" t="s">
         <v>151</v>
       </c>
-      <c r="M16" s="50" t="s">
+      <c r="N16" s="50" t="s">
+        <v>75</v>
+      </c>
+      <c r="O16" s="50" t="s">
         <v>152</v>
       </c>
-      <c r="N16" s="50" t="s">
-        <v>76</v>
-      </c>
-      <c r="O16" s="50" t="s">
-        <v>153</v>
-      </c>
-      <c r="P16" s="80" t="s">
-        <v>78</v>
+      <c r="P16" s="79" t="s">
+        <v>77</v>
       </c>
       <c r="Q16" s="51">
         <v>42814</v>
       </c>
-      <c r="R16" s="80" t="s">
-        <v>79</v>
-      </c>
-      <c r="S16" s="94" t="s">
+      <c r="R16" s="79" t="s">
+        <v>78</v>
+      </c>
+      <c r="S16" s="93" t="s">
+        <v>153</v>
+      </c>
+      <c r="T16" s="57"/>
+      <c r="U16" s="48"/>
+      <c r="V16" s="56"/>
+      <c r="W16" s="81"/>
+      <c r="X16" s="61"/>
+    </row>
+    <row r="17" spans="1:24" s="38" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="64">
+        <v>16</v>
+      </c>
+      <c r="B17" s="77" t="s">
+        <v>67</v>
+      </c>
+      <c r="C17" s="77" t="s">
+        <v>107</v>
+      </c>
+      <c r="D17" s="78" t="s">
+        <v>113</v>
+      </c>
+      <c r="E17" s="50" t="s">
+        <v>82</v>
+      </c>
+      <c r="F17" s="50" t="s">
+        <v>254</v>
+      </c>
+      <c r="G17" s="50" t="s">
+        <v>72</v>
+      </c>
+      <c r="H17" s="51">
+        <v>42808</v>
+      </c>
+      <c r="I17" s="50" t="s">
+        <v>72</v>
+      </c>
+      <c r="J17" s="51">
+        <v>42808</v>
+      </c>
+      <c r="K17" s="50"/>
+      <c r="L17" s="79" t="s">
+        <v>115</v>
+      </c>
+      <c r="M17" s="50" t="s">
+        <v>116</v>
+      </c>
+      <c r="N17" s="50" t="s">
+        <v>75</v>
+      </c>
+      <c r="O17" s="50" t="s">
+        <v>117</v>
+      </c>
+      <c r="P17" s="79" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q17" s="51">
+        <v>42814</v>
+      </c>
+      <c r="R17" s="79" t="s">
+        <v>78</v>
+      </c>
+      <c r="S17" s="80" t="s">
+        <v>112</v>
+      </c>
+      <c r="T17" s="57"/>
+      <c r="U17" s="48"/>
+      <c r="V17" s="56" t="s">
+        <v>119</v>
+      </c>
+      <c r="W17" s="81"/>
+      <c r="X17" s="61"/>
+    </row>
+    <row r="18" spans="1:24" s="38" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+      <c r="A18" s="64">
+        <v>17</v>
+      </c>
+      <c r="B18" s="77" t="s">
+        <v>67</v>
+      </c>
+      <c r="C18" s="77" t="s">
+        <v>107</v>
+      </c>
+      <c r="D18" s="78" t="s">
+        <v>255</v>
+      </c>
+      <c r="E18" s="50" t="s">
+        <v>82</v>
+      </c>
+      <c r="F18" s="50" t="s">
+        <v>256</v>
+      </c>
+      <c r="G18" s="50" t="s">
+        <v>72</v>
+      </c>
+      <c r="H18" s="51">
+        <v>42808</v>
+      </c>
+      <c r="I18" s="50" t="s">
+        <v>72</v>
+      </c>
+      <c r="J18" s="51">
+        <v>42808</v>
+      </c>
+      <c r="K18" s="50"/>
+      <c r="L18" s="79" t="s">
         <v>154</v>
       </c>
-      <c r="T16" s="58"/>
-      <c r="U16" s="48"/>
-      <c r="V16" s="57"/>
-      <c r="W16" s="82"/>
-      <c r="X16" s="62"/>
-    </row>
-    <row r="17" spans="1:24" s="38" customFormat="1" ht="32" x14ac:dyDescent="0.15">
-      <c r="A17" s="65">
-        <v>16</v>
-      </c>
-      <c r="B17" s="78" t="s">
-        <v>68</v>
-      </c>
-      <c r="C17" s="78" t="s">
-        <v>108</v>
-      </c>
-      <c r="D17" s="79" t="s">
-        <v>157</v>
-      </c>
-      <c r="E17" s="50" t="s">
-        <v>83</v>
-      </c>
-      <c r="F17" s="50" t="s">
-        <v>158</v>
-      </c>
-      <c r="G17" s="50" t="s">
-        <v>155</v>
-      </c>
-      <c r="H17" s="51">
-        <v>42810</v>
-      </c>
-      <c r="I17" s="50" t="s">
-        <v>73</v>
-      </c>
-      <c r="J17" s="51"/>
-      <c r="K17" s="50"/>
-      <c r="L17" s="80"/>
-      <c r="M17" s="50"/>
-      <c r="N17" s="50"/>
-      <c r="O17" s="50"/>
-      <c r="P17" s="80"/>
-      <c r="Q17" s="51"/>
-      <c r="R17" s="80"/>
-      <c r="S17" s="48"/>
-      <c r="T17" s="48"/>
-      <c r="U17" s="48"/>
-      <c r="V17" s="57"/>
-      <c r="W17" s="83"/>
-      <c r="X17" s="62"/>
-    </row>
-    <row r="18" spans="1:24" s="38" customFormat="1" ht="32" x14ac:dyDescent="0.15">
-      <c r="A18" s="65">
-        <v>17</v>
-      </c>
-      <c r="B18" s="78" t="s">
-        <v>68</v>
-      </c>
-      <c r="C18" s="78" t="s">
-        <v>108</v>
-      </c>
-      <c r="D18" s="45" t="s">
-        <v>159</v>
-      </c>
-      <c r="E18" s="50" t="s">
-        <v>83</v>
-      </c>
-      <c r="F18" s="50" t="s">
-        <v>158</v>
-      </c>
-      <c r="G18" s="50" t="s">
-        <v>73</v>
-      </c>
-      <c r="H18" s="51">
-        <v>42810</v>
-      </c>
-      <c r="I18" s="50" t="s">
-        <v>73</v>
-      </c>
-      <c r="J18" s="51"/>
-      <c r="K18" s="50"/>
-      <c r="L18" s="80"/>
-      <c r="M18" s="50"/>
-      <c r="N18" s="50"/>
-      <c r="O18" s="50"/>
-      <c r="P18" s="80"/>
-      <c r="Q18" s="51"/>
-      <c r="R18" s="80"/>
-      <c r="S18" s="59"/>
-      <c r="T18" s="59"/>
-      <c r="U18" s="59"/>
-      <c r="V18" s="57"/>
-      <c r="W18" s="83"/>
-      <c r="X18" s="62"/>
+      <c r="M18" s="50" t="s">
+        <v>231</v>
+      </c>
+      <c r="N18" s="50" t="s">
+        <v>75</v>
+      </c>
+      <c r="O18" s="50" t="s">
+        <v>257</v>
+      </c>
+      <c r="P18" s="79" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q18" s="51">
+        <v>42808</v>
+      </c>
+      <c r="R18" s="79" t="s">
+        <v>258</v>
+      </c>
+      <c r="S18" s="80" t="s">
+        <v>259</v>
+      </c>
+      <c r="T18" s="48"/>
+      <c r="U18" s="48"/>
+      <c r="V18" s="56"/>
+      <c r="W18" s="82"/>
+      <c r="X18" s="61"/>
     </row>
     <row r="19" spans="1:24" s="38" customFormat="1" ht="16" x14ac:dyDescent="0.15">
-      <c r="A19" s="65">
+      <c r="A19" s="64">
         <v>18</v>
       </c>
-      <c r="B19" s="78" t="s">
-        <v>68</v>
-      </c>
-      <c r="C19" s="78" t="s">
-        <v>108</v>
-      </c>
-      <c r="D19" s="79" t="s">
-        <v>160</v>
+      <c r="B19" s="77" t="s">
+        <v>67</v>
+      </c>
+      <c r="C19" s="77" t="s">
+        <v>107</v>
+      </c>
+      <c r="D19" s="78" t="s">
+        <v>260</v>
       </c>
       <c r="E19" s="50" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F19" s="50" t="s">
-        <v>122</v>
+        <v>256</v>
       </c>
       <c r="G19" s="50" t="s">
-        <v>155</v>
+        <v>72</v>
       </c>
       <c r="H19" s="51">
-        <v>42810</v>
+        <v>42808</v>
       </c>
       <c r="I19" s="50" t="s">
-        <v>73</v>
-      </c>
-      <c r="J19" s="51"/>
+        <v>72</v>
+      </c>
+      <c r="J19" s="51">
+        <v>42808</v>
+      </c>
       <c r="K19" s="50"/>
-      <c r="L19" s="80"/>
-      <c r="M19" s="50"/>
-      <c r="N19" s="50"/>
-      <c r="O19" s="56"/>
-      <c r="P19" s="80"/>
-      <c r="Q19" s="51"/>
-      <c r="R19" s="80"/>
-      <c r="S19" s="48"/>
+      <c r="L19" s="79" t="s">
+        <v>261</v>
+      </c>
+      <c r="M19" s="50" t="s">
+        <v>99</v>
+      </c>
+      <c r="N19" s="50" t="s">
+        <v>75</v>
+      </c>
+      <c r="O19" s="50" t="s">
+        <v>257</v>
+      </c>
+      <c r="P19" s="79" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q19" s="51">
+        <v>42808</v>
+      </c>
+      <c r="R19" s="79" t="s">
+        <v>78</v>
+      </c>
+      <c r="S19" s="80" t="s">
+        <v>259</v>
+      </c>
       <c r="T19" s="48"/>
       <c r="U19" s="48"/>
-      <c r="V19" s="57"/>
-      <c r="W19" s="83"/>
-      <c r="X19" s="62"/>
+      <c r="V19" s="56"/>
+      <c r="W19" s="82"/>
+      <c r="X19" s="61"/>
     </row>
     <row r="20" spans="1:24" s="38" customFormat="1" ht="16" x14ac:dyDescent="0.15">
-      <c r="A20" s="65">
+      <c r="A20" s="64">
         <v>19</v>
       </c>
-      <c r="B20" s="78" t="s">
-        <v>68</v>
-      </c>
-      <c r="C20" s="78" t="s">
-        <v>108</v>
-      </c>
-      <c r="D20" s="79" t="s">
-        <v>161</v>
+      <c r="B20" s="77" t="s">
+        <v>67</v>
+      </c>
+      <c r="C20" s="77" t="s">
+        <v>107</v>
+      </c>
+      <c r="D20" s="78" t="s">
+        <v>262</v>
       </c>
       <c r="E20" s="50" t="s">
-        <v>83</v>
-      </c>
-      <c r="F20" s="50"/>
+        <v>82</v>
+      </c>
+      <c r="F20" s="50" t="s">
+        <v>256</v>
+      </c>
       <c r="G20" s="50" t="s">
-        <v>155</v>
+        <v>72</v>
       </c>
       <c r="H20" s="51">
-        <v>42810</v>
+        <v>42808</v>
       </c>
       <c r="I20" s="50" t="s">
-        <v>73</v>
-      </c>
-      <c r="J20" s="51"/>
+        <v>72</v>
+      </c>
+      <c r="J20" s="51">
+        <v>42808</v>
+      </c>
       <c r="K20" s="50"/>
-      <c r="L20" s="80"/>
-      <c r="M20" s="50"/>
-      <c r="N20" s="50"/>
-      <c r="O20" s="50"/>
-      <c r="P20" s="80"/>
-      <c r="Q20" s="51"/>
-      <c r="R20" s="80"/>
-      <c r="S20" s="48"/>
+      <c r="L20" s="79" t="s">
+        <v>263</v>
+      </c>
+      <c r="M20" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="N20" s="50" t="s">
+        <v>75</v>
+      </c>
+      <c r="O20" s="50" t="s">
+        <v>257</v>
+      </c>
+      <c r="P20" s="79" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q20" s="51">
+        <v>42808</v>
+      </c>
+      <c r="R20" s="79" t="s">
+        <v>78</v>
+      </c>
+      <c r="S20" s="80" t="s">
+        <v>259</v>
+      </c>
       <c r="T20" s="48"/>
       <c r="U20" s="48"/>
-      <c r="V20" s="57"/>
-      <c r="W20" s="83"/>
-      <c r="X20" s="62"/>
-    </row>
-    <row r="21" spans="1:24" s="38" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="65">
-        <v>20</v>
-      </c>
-      <c r="B21" s="78" t="s">
-        <v>68</v>
-      </c>
-      <c r="C21" s="78" t="s">
-        <v>108</v>
-      </c>
-      <c r="D21" s="79" t="s">
-        <v>114</v>
-      </c>
-      <c r="E21" s="50" t="s">
-        <v>83</v>
-      </c>
-      <c r="F21" s="50" t="s">
-        <v>261</v>
-      </c>
-      <c r="G21" s="50" t="s">
-        <v>73</v>
-      </c>
-      <c r="H21" s="51">
-        <v>42808</v>
-      </c>
-      <c r="I21" s="50" t="s">
-        <v>73</v>
-      </c>
-      <c r="J21" s="51">
-        <v>42808</v>
-      </c>
+      <c r="V20" s="56"/>
+      <c r="W20" s="82"/>
+      <c r="X20" s="61"/>
+    </row>
+    <row r="21" spans="1:24" ht="16" x14ac:dyDescent="0.15">
+      <c r="A21" s="43"/>
+      <c r="B21" s="43"/>
+      <c r="C21" s="43"/>
+      <c r="D21" s="46"/>
+      <c r="E21" s="50"/>
+      <c r="F21" s="52"/>
+      <c r="G21" s="50"/>
+      <c r="H21" s="51"/>
+      <c r="I21" s="50"/>
+      <c r="J21" s="51"/>
       <c r="K21" s="50"/>
-      <c r="L21" s="80" t="s">
-        <v>116</v>
-      </c>
-      <c r="M21" s="50" t="s">
-        <v>117</v>
-      </c>
-      <c r="N21" s="50" t="s">
-        <v>76</v>
-      </c>
-      <c r="O21" s="50" t="s">
-        <v>118</v>
-      </c>
-      <c r="P21" s="80" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q21" s="51">
-        <v>42814</v>
-      </c>
-      <c r="R21" s="80" t="s">
-        <v>79</v>
-      </c>
-      <c r="S21" s="81" t="s">
-        <v>113</v>
-      </c>
-      <c r="T21" s="58"/>
-      <c r="U21" s="48"/>
-      <c r="V21" s="57" t="s">
-        <v>120</v>
-      </c>
-      <c r="W21" s="82"/>
-      <c r="X21" s="62"/>
-    </row>
-    <row r="22" spans="1:24" s="38" customFormat="1" ht="16" x14ac:dyDescent="0.15">
-      <c r="A22" s="65">
-        <v>21</v>
-      </c>
-      <c r="B22" s="78" t="s">
-        <v>68</v>
-      </c>
-      <c r="C22" s="78" t="s">
-        <v>108</v>
-      </c>
-      <c r="D22" s="79" t="s">
-        <v>262</v>
-      </c>
-      <c r="E22" s="50" t="s">
-        <v>83</v>
-      </c>
-      <c r="F22" s="50" t="s">
-        <v>263</v>
-      </c>
-      <c r="G22" s="50" t="s">
-        <v>73</v>
-      </c>
-      <c r="H22" s="51">
-        <v>42808</v>
-      </c>
-      <c r="I22" s="50" t="s">
-        <v>73</v>
-      </c>
-      <c r="J22" s="51">
-        <v>42808</v>
-      </c>
+      <c r="L21" s="54"/>
+      <c r="M21" s="50"/>
+      <c r="N21" s="50"/>
+      <c r="O21" s="54"/>
+      <c r="P21" s="54"/>
+      <c r="Q21" s="51"/>
+      <c r="R21" s="54"/>
+      <c r="S21" s="59"/>
+      <c r="T21" s="59"/>
+      <c r="U21" s="59"/>
+      <c r="V21" s="59"/>
+      <c r="W21" s="63"/>
+    </row>
+    <row r="22" spans="1:24" ht="16" x14ac:dyDescent="0.15">
+      <c r="A22" s="43"/>
+      <c r="B22" s="43"/>
+      <c r="C22" s="43"/>
+      <c r="D22" s="46"/>
+      <c r="E22" s="50"/>
+      <c r="F22" s="52"/>
+      <c r="G22" s="50"/>
+      <c r="H22" s="51"/>
+      <c r="I22" s="50"/>
+      <c r="J22" s="51"/>
       <c r="K22" s="50"/>
-      <c r="L22" s="80" t="s">
-        <v>156</v>
-      </c>
-      <c r="M22" s="50" t="s">
-        <v>238</v>
-      </c>
-      <c r="N22" s="50" t="s">
-        <v>76</v>
-      </c>
-      <c r="O22" s="50" t="s">
-        <v>264</v>
-      </c>
-      <c r="P22" s="80" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q22" s="51">
-        <v>42808</v>
-      </c>
-      <c r="R22" s="80" t="s">
-        <v>265</v>
-      </c>
-      <c r="S22" s="81" t="s">
-        <v>266</v>
-      </c>
-      <c r="T22" s="48"/>
-      <c r="U22" s="48"/>
-      <c r="V22" s="57"/>
-      <c r="W22" s="83"/>
-      <c r="X22" s="62"/>
-    </row>
-    <row r="23" spans="1:24" s="38" customFormat="1" ht="16" x14ac:dyDescent="0.15">
-      <c r="A23" s="65">
-        <v>22</v>
-      </c>
-      <c r="B23" s="78" t="s">
-        <v>68</v>
-      </c>
-      <c r="C23" s="78" t="s">
-        <v>108</v>
-      </c>
-      <c r="D23" s="79" t="s">
-        <v>267</v>
-      </c>
-      <c r="E23" s="50" t="s">
-        <v>83</v>
-      </c>
-      <c r="F23" s="50" t="s">
-        <v>263</v>
-      </c>
-      <c r="G23" s="50" t="s">
-        <v>73</v>
-      </c>
-      <c r="H23" s="51">
-        <v>42808</v>
-      </c>
-      <c r="I23" s="50" t="s">
-        <v>73</v>
-      </c>
-      <c r="J23" s="51">
-        <v>42808</v>
-      </c>
+      <c r="L22" s="54"/>
+      <c r="M22" s="50"/>
+      <c r="N22" s="50"/>
+      <c r="O22" s="54"/>
+      <c r="P22" s="54"/>
+      <c r="Q22" s="51"/>
+      <c r="R22" s="54"/>
+      <c r="S22" s="58"/>
+      <c r="T22" s="58"/>
+      <c r="U22" s="58"/>
+      <c r="V22" s="58"/>
+      <c r="W22" s="54"/>
+    </row>
+    <row r="23" spans="1:24" ht="16" x14ac:dyDescent="0.15">
+      <c r="A23" s="43"/>
+      <c r="B23" s="43"/>
+      <c r="C23" s="43"/>
+      <c r="D23" s="46"/>
+      <c r="E23" s="50"/>
+      <c r="F23" s="52"/>
+      <c r="G23" s="50"/>
+      <c r="H23" s="51"/>
+      <c r="I23" s="50"/>
+      <c r="J23" s="51"/>
       <c r="K23" s="50"/>
-      <c r="L23" s="80" t="s">
-        <v>268</v>
-      </c>
-      <c r="M23" s="50" t="s">
-        <v>100</v>
-      </c>
-      <c r="N23" s="50" t="s">
-        <v>76</v>
-      </c>
-      <c r="O23" s="50" t="s">
-        <v>264</v>
-      </c>
-      <c r="P23" s="80" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q23" s="51">
-        <v>42808</v>
-      </c>
-      <c r="R23" s="80" t="s">
-        <v>79</v>
-      </c>
-      <c r="S23" s="81" t="s">
-        <v>266</v>
-      </c>
+      <c r="L23" s="54"/>
+      <c r="M23" s="50"/>
+      <c r="N23" s="50"/>
+      <c r="O23" s="54"/>
+      <c r="P23" s="54"/>
+      <c r="Q23" s="51"/>
+      <c r="R23" s="54"/>
+      <c r="S23" s="48"/>
       <c r="T23" s="48"/>
       <c r="U23" s="48"/>
-      <c r="V23" s="57"/>
-      <c r="W23" s="83"/>
-      <c r="X23" s="62"/>
-    </row>
-    <row r="24" spans="1:24" s="38" customFormat="1" ht="16" x14ac:dyDescent="0.15">
-      <c r="A24" s="65">
-        <v>23</v>
-      </c>
-      <c r="B24" s="78" t="s">
-        <v>68</v>
-      </c>
-      <c r="C24" s="78" t="s">
-        <v>108</v>
-      </c>
-      <c r="D24" s="79" t="s">
-        <v>269</v>
-      </c>
-      <c r="E24" s="50" t="s">
-        <v>83</v>
-      </c>
-      <c r="F24" s="50" t="s">
-        <v>263</v>
-      </c>
-      <c r="G24" s="50" t="s">
-        <v>73</v>
-      </c>
-      <c r="H24" s="51">
-        <v>42808</v>
-      </c>
-      <c r="I24" s="50" t="s">
-        <v>73</v>
-      </c>
-      <c r="J24" s="51">
-        <v>42808</v>
-      </c>
+      <c r="V23" s="48"/>
+      <c r="W23" s="62"/>
+    </row>
+    <row r="24" spans="1:24" ht="16" x14ac:dyDescent="0.15">
+      <c r="A24" s="43"/>
+      <c r="B24" s="43"/>
+      <c r="C24" s="43"/>
+      <c r="D24" s="46"/>
+      <c r="E24" s="50"/>
+      <c r="F24" s="52"/>
+      <c r="G24" s="50"/>
+      <c r="H24" s="51"/>
+      <c r="I24" s="50"/>
+      <c r="J24" s="51"/>
       <c r="K24" s="50"/>
-      <c r="L24" s="80" t="s">
-        <v>270</v>
-      </c>
-      <c r="M24" s="50" t="s">
-        <v>86</v>
-      </c>
-      <c r="N24" s="50" t="s">
-        <v>76</v>
-      </c>
-      <c r="O24" s="50" t="s">
-        <v>264</v>
-      </c>
-      <c r="P24" s="80" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q24" s="51">
-        <v>42808</v>
-      </c>
-      <c r="R24" s="80" t="s">
-        <v>79</v>
-      </c>
-      <c r="S24" s="81" t="s">
-        <v>266</v>
-      </c>
+      <c r="L24" s="54"/>
+      <c r="M24" s="50"/>
+      <c r="N24" s="50"/>
+      <c r="O24" s="54"/>
+      <c r="P24" s="54"/>
+      <c r="Q24" s="51"/>
+      <c r="R24" s="54"/>
+      <c r="S24" s="48"/>
       <c r="T24" s="48"/>
       <c r="U24" s="48"/>
-      <c r="V24" s="57"/>
-      <c r="W24" s="83"/>
-      <c r="X24" s="62"/>
+      <c r="V24" s="48"/>
+      <c r="W24" s="62"/>
     </row>
     <row r="25" spans="1:24" ht="16" x14ac:dyDescent="0.15">
       <c r="A25" s="43"/>
@@ -4319,11 +4165,11 @@
       <c r="P25" s="54"/>
       <c r="Q25" s="51"/>
       <c r="R25" s="54"/>
-      <c r="S25" s="60"/>
-      <c r="T25" s="60"/>
-      <c r="U25" s="60"/>
-      <c r="V25" s="60"/>
-      <c r="W25" s="64"/>
+      <c r="S25" s="48"/>
+      <c r="T25" s="48"/>
+      <c r="U25" s="48"/>
+      <c r="V25" s="48"/>
+      <c r="W25" s="62"/>
     </row>
     <row r="26" spans="1:24" ht="16" x14ac:dyDescent="0.15">
       <c r="A26" s="43"/>
@@ -4336,7 +4182,7 @@
       <c r="H26" s="51"/>
       <c r="I26" s="50"/>
       <c r="J26" s="51"/>
-      <c r="K26" s="50"/>
+      <c r="K26" s="52"/>
       <c r="L26" s="54"/>
       <c r="M26" s="50"/>
       <c r="N26" s="50"/>
@@ -4348,15 +4194,15 @@
       <c r="T26" s="59"/>
       <c r="U26" s="59"/>
       <c r="V26" s="59"/>
-      <c r="W26" s="54"/>
+      <c r="W26" s="63"/>
     </row>
     <row r="27" spans="1:24" ht="16" x14ac:dyDescent="0.15">
       <c r="A27" s="43"/>
       <c r="B27" s="43"/>
       <c r="C27" s="43"/>
-      <c r="D27" s="46"/>
+      <c r="D27" s="44"/>
       <c r="E27" s="50"/>
-      <c r="F27" s="52"/>
+      <c r="F27" s="50"/>
       <c r="G27" s="50"/>
       <c r="H27" s="51"/>
       <c r="I27" s="50"/>
@@ -4365,7 +4211,7 @@
       <c r="L27" s="54"/>
       <c r="M27" s="50"/>
       <c r="N27" s="50"/>
-      <c r="O27" s="54"/>
+      <c r="O27" s="50"/>
       <c r="P27" s="54"/>
       <c r="Q27" s="51"/>
       <c r="R27" s="54"/>
@@ -4373,15 +4219,15 @@
       <c r="T27" s="48"/>
       <c r="U27" s="48"/>
       <c r="V27" s="48"/>
-      <c r="W27" s="63"/>
+      <c r="W27" s="60"/>
     </row>
     <row r="28" spans="1:24" ht="16" x14ac:dyDescent="0.15">
       <c r="A28" s="43"/>
       <c r="B28" s="43"/>
       <c r="C28" s="43"/>
-      <c r="D28" s="46"/>
+      <c r="D28" s="44"/>
       <c r="E28" s="50"/>
-      <c r="F28" s="52"/>
+      <c r="F28" s="50"/>
       <c r="G28" s="50"/>
       <c r="H28" s="51"/>
       <c r="I28" s="50"/>
@@ -4390,7 +4236,7 @@
       <c r="L28" s="54"/>
       <c r="M28" s="50"/>
       <c r="N28" s="50"/>
-      <c r="O28" s="54"/>
+      <c r="O28" s="50"/>
       <c r="P28" s="54"/>
       <c r="Q28" s="51"/>
       <c r="R28" s="54"/>
@@ -4398,15 +4244,15 @@
       <c r="T28" s="48"/>
       <c r="U28" s="48"/>
       <c r="V28" s="48"/>
-      <c r="W28" s="63"/>
+      <c r="W28" s="62"/>
     </row>
     <row r="29" spans="1:24" ht="16" x14ac:dyDescent="0.15">
       <c r="A29" s="43"/>
       <c r="B29" s="43"/>
       <c r="C29" s="43"/>
-      <c r="D29" s="46"/>
+      <c r="D29" s="44"/>
       <c r="E29" s="50"/>
-      <c r="F29" s="52"/>
+      <c r="F29" s="50"/>
       <c r="G29" s="50"/>
       <c r="H29" s="51"/>
       <c r="I29" s="50"/>
@@ -4415,7 +4261,7 @@
       <c r="L29" s="54"/>
       <c r="M29" s="50"/>
       <c r="N29" s="50"/>
-      <c r="O29" s="54"/>
+      <c r="O29" s="50"/>
       <c r="P29" s="54"/>
       <c r="Q29" s="51"/>
       <c r="R29" s="54"/>
@@ -4423,32 +4269,32 @@
       <c r="T29" s="48"/>
       <c r="U29" s="48"/>
       <c r="V29" s="48"/>
-      <c r="W29" s="63"/>
+      <c r="W29" s="62"/>
     </row>
     <row r="30" spans="1:24" ht="16" x14ac:dyDescent="0.15">
       <c r="A30" s="43"/>
       <c r="B30" s="43"/>
       <c r="C30" s="43"/>
-      <c r="D30" s="46"/>
+      <c r="D30" s="44"/>
       <c r="E30" s="50"/>
-      <c r="F30" s="52"/>
+      <c r="F30" s="50"/>
       <c r="G30" s="50"/>
       <c r="H30" s="51"/>
       <c r="I30" s="50"/>
       <c r="J30" s="51"/>
-      <c r="K30" s="52"/>
+      <c r="K30" s="50"/>
       <c r="L30" s="54"/>
       <c r="M30" s="50"/>
       <c r="N30" s="50"/>
-      <c r="O30" s="54"/>
+      <c r="O30" s="50"/>
       <c r="P30" s="54"/>
       <c r="Q30" s="51"/>
       <c r="R30" s="54"/>
-      <c r="S30" s="60"/>
-      <c r="T30" s="60"/>
-      <c r="U30" s="60"/>
-      <c r="V30" s="60"/>
-      <c r="W30" s="64"/>
+      <c r="S30" s="48"/>
+      <c r="T30" s="48"/>
+      <c r="U30" s="48"/>
+      <c r="V30" s="48"/>
+      <c r="W30" s="62"/>
     </row>
     <row r="31" spans="1:24" ht="16" x14ac:dyDescent="0.15">
       <c r="A31" s="43"/>
@@ -4473,7 +4319,7 @@
       <c r="T31" s="48"/>
       <c r="U31" s="48"/>
       <c r="V31" s="48"/>
-      <c r="W31" s="61"/>
+      <c r="W31" s="62"/>
     </row>
     <row r="32" spans="1:24" ht="16" x14ac:dyDescent="0.15">
       <c r="A32" s="43"/>
@@ -4498,7 +4344,7 @@
       <c r="T32" s="48"/>
       <c r="U32" s="48"/>
       <c r="V32" s="48"/>
-      <c r="W32" s="63"/>
+      <c r="W32" s="62"/>
     </row>
     <row r="33" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A33" s="43"/>
@@ -4523,7 +4369,7 @@
       <c r="T33" s="48"/>
       <c r="U33" s="48"/>
       <c r="V33" s="48"/>
-      <c r="W33" s="63"/>
+      <c r="W33" s="62"/>
     </row>
     <row r="34" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A34" s="43"/>
@@ -4548,7 +4394,7 @@
       <c r="T34" s="48"/>
       <c r="U34" s="48"/>
       <c r="V34" s="48"/>
-      <c r="W34" s="63"/>
+      <c r="W34" s="62"/>
     </row>
     <row r="35" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A35" s="43"/>
@@ -4573,7 +4419,7 @@
       <c r="T35" s="48"/>
       <c r="U35" s="48"/>
       <c r="V35" s="48"/>
-      <c r="W35" s="63"/>
+      <c r="W35" s="62"/>
     </row>
     <row r="36" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A36" s="43"/>
@@ -4598,7 +4444,7 @@
       <c r="T36" s="48"/>
       <c r="U36" s="48"/>
       <c r="V36" s="48"/>
-      <c r="W36" s="63"/>
+      <c r="W36" s="62"/>
     </row>
     <row r="37" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A37" s="43"/>
@@ -4623,72 +4469,72 @@
       <c r="T37" s="48"/>
       <c r="U37" s="48"/>
       <c r="V37" s="48"/>
-      <c r="W37" s="63"/>
+      <c r="W37" s="62"/>
     </row>
     <row r="38" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A38" s="43"/>
       <c r="B38" s="43"/>
       <c r="C38" s="43"/>
-      <c r="D38" s="44"/>
+      <c r="D38" s="45"/>
       <c r="E38" s="50"/>
       <c r="F38" s="50"/>
       <c r="G38" s="50"/>
       <c r="H38" s="51"/>
-      <c r="I38" s="50"/>
+      <c r="I38" s="51"/>
       <c r="J38" s="51"/>
       <c r="K38" s="50"/>
       <c r="L38" s="54"/>
-      <c r="M38" s="50"/>
+      <c r="M38" s="54"/>
       <c r="N38" s="50"/>
       <c r="O38" s="50"/>
       <c r="P38" s="54"/>
       <c r="Q38" s="51"/>
       <c r="R38" s="54"/>
-      <c r="S38" s="48"/>
-      <c r="T38" s="48"/>
-      <c r="U38" s="48"/>
-      <c r="V38" s="48"/>
-      <c r="W38" s="63"/>
+      <c r="S38" s="58"/>
+      <c r="T38" s="58"/>
+      <c r="U38" s="58"/>
+      <c r="V38" s="58"/>
+      <c r="W38" s="62"/>
     </row>
     <row r="39" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A39" s="43"/>
       <c r="B39" s="43"/>
       <c r="C39" s="43"/>
-      <c r="D39" s="44"/>
+      <c r="D39" s="45"/>
       <c r="E39" s="50"/>
       <c r="F39" s="50"/>
       <c r="G39" s="50"/>
       <c r="H39" s="51"/>
-      <c r="I39" s="50"/>
+      <c r="I39" s="51"/>
       <c r="J39" s="51"/>
       <c r="K39" s="50"/>
       <c r="L39" s="54"/>
-      <c r="M39" s="50"/>
+      <c r="M39" s="54"/>
       <c r="N39" s="50"/>
       <c r="O39" s="50"/>
       <c r="P39" s="54"/>
       <c r="Q39" s="51"/>
       <c r="R39" s="54"/>
-      <c r="S39" s="48"/>
-      <c r="T39" s="48"/>
-      <c r="U39" s="48"/>
-      <c r="V39" s="48"/>
-      <c r="W39" s="63"/>
+      <c r="S39" s="58"/>
+      <c r="T39" s="58"/>
+      <c r="U39" s="58"/>
+      <c r="V39" s="58"/>
+      <c r="W39" s="62"/>
     </row>
     <row r="40" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A40" s="43"/>
       <c r="B40" s="43"/>
       <c r="C40" s="43"/>
-      <c r="D40" s="44"/>
+      <c r="D40" s="47"/>
       <c r="E40" s="50"/>
       <c r="F40" s="50"/>
       <c r="G40" s="50"/>
       <c r="H40" s="51"/>
-      <c r="I40" s="50"/>
+      <c r="I40" s="51"/>
       <c r="J40" s="51"/>
-      <c r="K40" s="50"/>
+      <c r="K40" s="55"/>
       <c r="L40" s="54"/>
-      <c r="M40" s="50"/>
+      <c r="M40" s="54"/>
       <c r="N40" s="50"/>
       <c r="O40" s="50"/>
       <c r="P40" s="54"/>
@@ -4698,22 +4544,22 @@
       <c r="T40" s="48"/>
       <c r="U40" s="48"/>
       <c r="V40" s="48"/>
-      <c r="W40" s="63"/>
+      <c r="W40" s="49"/>
     </row>
     <row r="41" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A41" s="43"/>
       <c r="B41" s="43"/>
       <c r="C41" s="43"/>
-      <c r="D41" s="44"/>
+      <c r="D41" s="47"/>
       <c r="E41" s="50"/>
       <c r="F41" s="50"/>
       <c r="G41" s="50"/>
       <c r="H41" s="51"/>
-      <c r="I41" s="50"/>
+      <c r="I41" s="51"/>
       <c r="J41" s="51"/>
-      <c r="K41" s="50"/>
+      <c r="K41" s="55"/>
       <c r="L41" s="54"/>
-      <c r="M41" s="50"/>
+      <c r="M41" s="54"/>
       <c r="N41" s="50"/>
       <c r="O41" s="50"/>
       <c r="P41" s="54"/>
@@ -4723,20 +4569,20 @@
       <c r="T41" s="48"/>
       <c r="U41" s="48"/>
       <c r="V41" s="48"/>
-      <c r="W41" s="63"/>
+      <c r="W41" s="49"/>
     </row>
     <row r="42" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A42" s="43"/>
       <c r="B42" s="43"/>
       <c r="C42" s="43"/>
-      <c r="D42" s="45"/>
+      <c r="D42" s="47"/>
       <c r="E42" s="50"/>
       <c r="F42" s="50"/>
       <c r="G42" s="50"/>
       <c r="H42" s="51"/>
       <c r="I42" s="51"/>
       <c r="J42" s="51"/>
-      <c r="K42" s="50"/>
+      <c r="K42" s="55"/>
       <c r="L42" s="54"/>
       <c r="M42" s="54"/>
       <c r="N42" s="50"/>
@@ -4744,24 +4590,24 @@
       <c r="P42" s="54"/>
       <c r="Q42" s="51"/>
       <c r="R42" s="54"/>
-      <c r="S42" s="59"/>
-      <c r="T42" s="59"/>
-      <c r="U42" s="59"/>
-      <c r="V42" s="59"/>
-      <c r="W42" s="63"/>
+      <c r="S42" s="48"/>
+      <c r="T42" s="48"/>
+      <c r="U42" s="48"/>
+      <c r="V42" s="48"/>
+      <c r="W42" s="49"/>
     </row>
     <row r="43" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A43" s="43"/>
       <c r="B43" s="43"/>
       <c r="C43" s="43"/>
-      <c r="D43" s="45"/>
+      <c r="D43" s="47"/>
       <c r="E43" s="50"/>
       <c r="F43" s="50"/>
       <c r="G43" s="50"/>
       <c r="H43" s="51"/>
       <c r="I43" s="51"/>
       <c r="J43" s="51"/>
-      <c r="K43" s="50"/>
+      <c r="K43" s="55"/>
       <c r="L43" s="54"/>
       <c r="M43" s="54"/>
       <c r="N43" s="50"/>
@@ -4769,11 +4615,11 @@
       <c r="P43" s="54"/>
       <c r="Q43" s="51"/>
       <c r="R43" s="54"/>
-      <c r="S43" s="59"/>
-      <c r="T43" s="59"/>
-      <c r="U43" s="59"/>
-      <c r="V43" s="59"/>
-      <c r="W43" s="63"/>
+      <c r="S43" s="48"/>
+      <c r="T43" s="48"/>
+      <c r="U43" s="48"/>
+      <c r="V43" s="48"/>
+      <c r="W43" s="49"/>
     </row>
     <row r="44" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A44" s="43"/>
@@ -4851,24 +4697,24 @@
       <c r="W46" s="49"/>
     </row>
     <row r="47" spans="1:23" ht="16" x14ac:dyDescent="0.15">
-      <c r="A47" s="43"/>
-      <c r="B47" s="43"/>
-      <c r="C47" s="43"/>
-      <c r="D47" s="47"/>
-      <c r="E47" s="50"/>
+      <c r="A47" s="48"/>
+      <c r="B47" s="48"/>
+      <c r="C47" s="48"/>
+      <c r="D47" s="49"/>
+      <c r="E47" s="48"/>
       <c r="F47" s="50"/>
       <c r="G47" s="50"/>
-      <c r="H47" s="51"/>
-      <c r="I47" s="51"/>
-      <c r="J47" s="51"/>
+      <c r="H47" s="53"/>
+      <c r="I47" s="48"/>
+      <c r="J47" s="53"/>
       <c r="K47" s="55"/>
-      <c r="L47" s="54"/>
-      <c r="M47" s="54"/>
+      <c r="L47" s="48"/>
+      <c r="M47" s="48"/>
       <c r="N47" s="50"/>
-      <c r="O47" s="50"/>
-      <c r="P47" s="54"/>
-      <c r="Q47" s="51"/>
-      <c r="R47" s="54"/>
+      <c r="O47" s="48"/>
+      <c r="P47" s="48"/>
+      <c r="Q47" s="53"/>
+      <c r="R47" s="49"/>
       <c r="S47" s="48"/>
       <c r="T47" s="48"/>
       <c r="U47" s="48"/>
@@ -4876,24 +4722,24 @@
       <c r="W47" s="49"/>
     </row>
     <row r="48" spans="1:23" ht="16" x14ac:dyDescent="0.15">
-      <c r="A48" s="43"/>
-      <c r="B48" s="43"/>
-      <c r="C48" s="43"/>
-      <c r="D48" s="47"/>
-      <c r="E48" s="50"/>
+      <c r="A48" s="48"/>
+      <c r="B48" s="48"/>
+      <c r="C48" s="48"/>
+      <c r="D48" s="49"/>
+      <c r="E48" s="48"/>
       <c r="F48" s="50"/>
       <c r="G48" s="50"/>
-      <c r="H48" s="51"/>
-      <c r="I48" s="51"/>
-      <c r="J48" s="51"/>
+      <c r="H48" s="53"/>
+      <c r="I48" s="48"/>
+      <c r="J48" s="53"/>
       <c r="K48" s="55"/>
-      <c r="L48" s="54"/>
-      <c r="M48" s="54"/>
+      <c r="L48" s="48"/>
+      <c r="M48" s="48"/>
       <c r="N48" s="50"/>
-      <c r="O48" s="50"/>
-      <c r="P48" s="54"/>
-      <c r="Q48" s="51"/>
-      <c r="R48" s="54"/>
+      <c r="O48" s="48"/>
+      <c r="P48" s="48"/>
+      <c r="Q48" s="53"/>
+      <c r="R48" s="49"/>
       <c r="S48" s="48"/>
       <c r="T48" s="48"/>
       <c r="U48" s="48"/>
@@ -4901,24 +4747,24 @@
       <c r="W48" s="49"/>
     </row>
     <row r="49" spans="1:23" ht="16" x14ac:dyDescent="0.15">
-      <c r="A49" s="43"/>
-      <c r="B49" s="43"/>
-      <c r="C49" s="43"/>
-      <c r="D49" s="47"/>
-      <c r="E49" s="50"/>
+      <c r="A49" s="48"/>
+      <c r="B49" s="48"/>
+      <c r="C49" s="48"/>
+      <c r="D49" s="49"/>
+      <c r="E49" s="48"/>
       <c r="F49" s="50"/>
       <c r="G49" s="50"/>
-      <c r="H49" s="51"/>
-      <c r="I49" s="51"/>
-      <c r="J49" s="51"/>
+      <c r="H49" s="53"/>
+      <c r="I49" s="48"/>
+      <c r="J49" s="53"/>
       <c r="K49" s="55"/>
-      <c r="L49" s="54"/>
-      <c r="M49" s="54"/>
+      <c r="L49" s="48"/>
+      <c r="M49" s="48"/>
       <c r="N49" s="50"/>
-      <c r="O49" s="50"/>
-      <c r="P49" s="54"/>
-      <c r="Q49" s="51"/>
-      <c r="R49" s="54"/>
+      <c r="O49" s="48"/>
+      <c r="P49" s="48"/>
+      <c r="Q49" s="53"/>
+      <c r="R49" s="49"/>
       <c r="S49" s="48"/>
       <c r="T49" s="48"/>
       <c r="U49" s="48"/>
@@ -4926,24 +4772,24 @@
       <c r="W49" s="49"/>
     </row>
     <row r="50" spans="1:23" ht="16" x14ac:dyDescent="0.15">
-      <c r="A50" s="43"/>
-      <c r="B50" s="43"/>
-      <c r="C50" s="43"/>
-      <c r="D50" s="47"/>
-      <c r="E50" s="50"/>
+      <c r="A50" s="48"/>
+      <c r="B50" s="48"/>
+      <c r="C50" s="48"/>
+      <c r="D50" s="49"/>
+      <c r="E50" s="48"/>
       <c r="F50" s="50"/>
       <c r="G50" s="50"/>
-      <c r="H50" s="51"/>
-      <c r="I50" s="51"/>
-      <c r="J50" s="51"/>
+      <c r="H50" s="53"/>
+      <c r="I50" s="48"/>
+      <c r="J50" s="53"/>
       <c r="K50" s="55"/>
-      <c r="L50" s="54"/>
-      <c r="M50" s="54"/>
+      <c r="L50" s="48"/>
+      <c r="M50" s="48"/>
       <c r="N50" s="50"/>
-      <c r="O50" s="50"/>
-      <c r="P50" s="54"/>
-      <c r="Q50" s="51"/>
-      <c r="R50" s="54"/>
+      <c r="O50" s="48"/>
+      <c r="P50" s="48"/>
+      <c r="Q50" s="53"/>
+      <c r="R50" s="49"/>
       <c r="S50" s="48"/>
       <c r="T50" s="48"/>
       <c r="U50" s="48"/>
@@ -5257,7 +5103,7 @@
       <c r="D63" s="49"/>
       <c r="E63" s="48"/>
       <c r="F63" s="50"/>
-      <c r="G63" s="50"/>
+      <c r="G63" s="48"/>
       <c r="H63" s="53"/>
       <c r="I63" s="48"/>
       <c r="J63" s="53"/>
@@ -5282,7 +5128,7 @@
       <c r="D64" s="49"/>
       <c r="E64" s="48"/>
       <c r="F64" s="50"/>
-      <c r="G64" s="50"/>
+      <c r="G64" s="48"/>
       <c r="H64" s="53"/>
       <c r="I64" s="48"/>
       <c r="J64" s="53"/>
@@ -5307,7 +5153,7 @@
       <c r="D65" s="49"/>
       <c r="E65" s="48"/>
       <c r="F65" s="50"/>
-      <c r="G65" s="50"/>
+      <c r="G65" s="48"/>
       <c r="H65" s="53"/>
       <c r="I65" s="48"/>
       <c r="J65" s="53"/>
@@ -5332,7 +5178,7 @@
       <c r="D66" s="49"/>
       <c r="E66" s="48"/>
       <c r="F66" s="50"/>
-      <c r="G66" s="50"/>
+      <c r="G66" s="48"/>
       <c r="H66" s="53"/>
       <c r="I66" s="48"/>
       <c r="J66" s="53"/>
@@ -5406,7 +5252,7 @@
       <c r="C69" s="48"/>
       <c r="D69" s="49"/>
       <c r="E69" s="48"/>
-      <c r="F69" s="50"/>
+      <c r="F69" s="48"/>
       <c r="G69" s="48"/>
       <c r="H69" s="53"/>
       <c r="I69" s="48"/>
@@ -5431,7 +5277,7 @@
       <c r="C70" s="48"/>
       <c r="D70" s="49"/>
       <c r="E70" s="48"/>
-      <c r="F70" s="50"/>
+      <c r="F70" s="48"/>
       <c r="G70" s="48"/>
       <c r="H70" s="53"/>
       <c r="I70" s="48"/>
@@ -5456,7 +5302,7 @@
       <c r="C71" s="48"/>
       <c r="D71" s="49"/>
       <c r="E71" s="48"/>
-      <c r="F71" s="50"/>
+      <c r="F71" s="48"/>
       <c r="G71" s="48"/>
       <c r="H71" s="53"/>
       <c r="I71" s="48"/>
@@ -5481,7 +5327,7 @@
       <c r="C72" s="48"/>
       <c r="D72" s="49"/>
       <c r="E72" s="48"/>
-      <c r="F72" s="50"/>
+      <c r="F72" s="48"/>
       <c r="G72" s="48"/>
       <c r="H72" s="53"/>
       <c r="I72" s="48"/>
@@ -5500,7 +5346,7 @@
       <c r="V72" s="48"/>
       <c r="W72" s="49"/>
     </row>
-    <row r="73" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A73" s="48"/>
       <c r="B73" s="48"/>
       <c r="C73" s="48"/>
@@ -5514,7 +5360,7 @@
       <c r="K73" s="55"/>
       <c r="L73" s="48"/>
       <c r="M73" s="48"/>
-      <c r="N73" s="50"/>
+      <c r="N73" s="48"/>
       <c r="O73" s="48"/>
       <c r="P73" s="48"/>
       <c r="Q73" s="53"/>
@@ -5525,7 +5371,7 @@
       <c r="V73" s="48"/>
       <c r="W73" s="49"/>
     </row>
-    <row r="74" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A74" s="48"/>
       <c r="B74" s="48"/>
       <c r="C74" s="48"/>
@@ -5539,7 +5385,7 @@
       <c r="K74" s="55"/>
       <c r="L74" s="48"/>
       <c r="M74" s="48"/>
-      <c r="N74" s="50"/>
+      <c r="N74" s="48"/>
       <c r="O74" s="48"/>
       <c r="P74" s="48"/>
       <c r="Q74" s="53"/>
@@ -5550,7 +5396,7 @@
       <c r="V74" s="48"/>
       <c r="W74" s="49"/>
     </row>
-    <row r="75" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A75" s="48"/>
       <c r="B75" s="48"/>
       <c r="C75" s="48"/>
@@ -5564,7 +5410,7 @@
       <c r="K75" s="55"/>
       <c r="L75" s="48"/>
       <c r="M75" s="48"/>
-      <c r="N75" s="50"/>
+      <c r="N75" s="48"/>
       <c r="O75" s="48"/>
       <c r="P75" s="48"/>
       <c r="Q75" s="53"/>
@@ -5575,7 +5421,7 @@
       <c r="V75" s="48"/>
       <c r="W75" s="49"/>
     </row>
-    <row r="76" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A76" s="48"/>
       <c r="B76" s="48"/>
       <c r="C76" s="48"/>
@@ -5589,7 +5435,7 @@
       <c r="K76" s="55"/>
       <c r="L76" s="48"/>
       <c r="M76" s="48"/>
-      <c r="N76" s="50"/>
+      <c r="N76" s="48"/>
       <c r="O76" s="48"/>
       <c r="P76" s="48"/>
       <c r="Q76" s="53"/>
@@ -6919,10 +6765,6 @@
       <c r="P129" s="48"/>
       <c r="Q129" s="53"/>
       <c r="R129" s="49"/>
-      <c r="S129" s="48"/>
-      <c r="T129" s="48"/>
-      <c r="U129" s="48"/>
-      <c r="V129" s="48"/>
       <c r="W129" s="49"/>
     </row>
     <row r="130" spans="1:23" x14ac:dyDescent="0.15">
@@ -6944,10 +6786,6 @@
       <c r="P130" s="48"/>
       <c r="Q130" s="53"/>
       <c r="R130" s="49"/>
-      <c r="S130" s="48"/>
-      <c r="T130" s="48"/>
-      <c r="U130" s="48"/>
-      <c r="V130" s="48"/>
       <c r="W130" s="49"/>
     </row>
     <row r="131" spans="1:23" x14ac:dyDescent="0.15">
@@ -6969,10 +6807,6 @@
       <c r="P131" s="48"/>
       <c r="Q131" s="53"/>
       <c r="R131" s="49"/>
-      <c r="S131" s="48"/>
-      <c r="T131" s="48"/>
-      <c r="U131" s="48"/>
-      <c r="V131" s="48"/>
       <c r="W131" s="49"/>
     </row>
     <row r="132" spans="1:23" x14ac:dyDescent="0.15">
@@ -6994,10 +6828,6 @@
       <c r="P132" s="48"/>
       <c r="Q132" s="53"/>
       <c r="R132" s="49"/>
-      <c r="S132" s="48"/>
-      <c r="T132" s="48"/>
-      <c r="U132" s="48"/>
-      <c r="V132" s="48"/>
       <c r="W132" s="49"/>
     </row>
     <row r="133" spans="1:23" x14ac:dyDescent="0.15">
@@ -7651,90 +7481,6 @@
       <c r="R163" s="49"/>
       <c r="W163" s="49"/>
     </row>
-    <row r="164" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A164" s="48"/>
-      <c r="B164" s="48"/>
-      <c r="C164" s="48"/>
-      <c r="D164" s="49"/>
-      <c r="E164" s="48"/>
-      <c r="F164" s="48"/>
-      <c r="G164" s="48"/>
-      <c r="H164" s="53"/>
-      <c r="I164" s="48"/>
-      <c r="J164" s="53"/>
-      <c r="K164" s="55"/>
-      <c r="L164" s="48"/>
-      <c r="M164" s="48"/>
-      <c r="N164" s="48"/>
-      <c r="O164" s="48"/>
-      <c r="P164" s="48"/>
-      <c r="Q164" s="53"/>
-      <c r="R164" s="49"/>
-      <c r="W164" s="49"/>
-    </row>
-    <row r="165" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A165" s="48"/>
-      <c r="B165" s="48"/>
-      <c r="C165" s="48"/>
-      <c r="D165" s="49"/>
-      <c r="E165" s="48"/>
-      <c r="F165" s="48"/>
-      <c r="G165" s="48"/>
-      <c r="H165" s="53"/>
-      <c r="I165" s="48"/>
-      <c r="J165" s="53"/>
-      <c r="K165" s="55"/>
-      <c r="L165" s="48"/>
-      <c r="M165" s="48"/>
-      <c r="N165" s="48"/>
-      <c r="O165" s="48"/>
-      <c r="P165" s="48"/>
-      <c r="Q165" s="53"/>
-      <c r="R165" s="49"/>
-      <c r="W165" s="49"/>
-    </row>
-    <row r="166" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A166" s="48"/>
-      <c r="B166" s="48"/>
-      <c r="C166" s="48"/>
-      <c r="D166" s="49"/>
-      <c r="E166" s="48"/>
-      <c r="F166" s="48"/>
-      <c r="G166" s="48"/>
-      <c r="H166" s="53"/>
-      <c r="I166" s="48"/>
-      <c r="J166" s="53"/>
-      <c r="K166" s="55"/>
-      <c r="L166" s="48"/>
-      <c r="M166" s="48"/>
-      <c r="N166" s="48"/>
-      <c r="O166" s="48"/>
-      <c r="P166" s="48"/>
-      <c r="Q166" s="53"/>
-      <c r="R166" s="49"/>
-      <c r="W166" s="49"/>
-    </row>
-    <row r="167" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A167" s="48"/>
-      <c r="B167" s="48"/>
-      <c r="C167" s="48"/>
-      <c r="D167" s="49"/>
-      <c r="E167" s="48"/>
-      <c r="F167" s="48"/>
-      <c r="G167" s="48"/>
-      <c r="H167" s="53"/>
-      <c r="I167" s="48"/>
-      <c r="J167" s="53"/>
-      <c r="K167" s="55"/>
-      <c r="L167" s="48"/>
-      <c r="M167" s="48"/>
-      <c r="N167" s="48"/>
-      <c r="O167" s="48"/>
-      <c r="P167" s="48"/>
-      <c r="Q167" s="53"/>
-      <c r="R167" s="49"/>
-      <c r="W167" s="49"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="23" type="noConversion"/>
   <dataValidations count="9">
@@ -7747,7 +7493,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R1:R1048576">
       <formula1>"能,否"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N76">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N72">
       <formula1>"高,中,低"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E1048576">
@@ -7762,7 +7508,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576">
       <formula1>"紧急,不紧急"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V1:V1048576 I1:I1048576 G1:G1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G1048576 I1:I1048576 V1:V1048576">
       <formula1>"是,否"</formula1>
     </dataValidation>
   </dataValidations>
@@ -7777,10 +7523,10 @@
     <hyperlink ref="S16" r:id="rId8"/>
     <hyperlink ref="S14" r:id="rId9"/>
     <hyperlink ref="S15" r:id="rId10"/>
-    <hyperlink ref="S21" r:id="rId11"/>
-    <hyperlink ref="S22" r:id="rId12"/>
-    <hyperlink ref="S23" r:id="rId13"/>
-    <hyperlink ref="S24" r:id="rId14"/>
+    <hyperlink ref="S17" r:id="rId11"/>
+    <hyperlink ref="S18" r:id="rId12"/>
+    <hyperlink ref="S19" r:id="rId13"/>
+    <hyperlink ref="S20" r:id="rId14"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
@@ -7872,215 +7618,215 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="95" t="s">
+      <c r="A2" s="94" t="s">
+        <v>156</v>
+      </c>
+      <c r="B2" s="95" t="s">
+        <v>157</v>
+      </c>
+      <c r="C2" s="95"/>
+      <c r="D2" s="96" t="s">
+        <v>158</v>
+      </c>
+      <c r="E2" s="95" t="s">
+        <v>159</v>
+      </c>
+      <c r="F2" s="97" t="s">
+        <v>160</v>
+      </c>
+      <c r="G2" s="98" t="s">
+        <v>161</v>
+      </c>
+      <c r="H2" s="99" t="s">
+        <v>162</v>
+      </c>
+      <c r="I2" s="100" t="s">
+        <v>80</v>
+      </c>
+      <c r="J2" s="101" t="s">
         <v>163</v>
       </c>
-      <c r="B2" s="96" t="s">
+      <c r="K2" s="102" t="s">
         <v>164</v>
       </c>
-      <c r="C2" s="96"/>
-      <c r="D2" s="97" t="s">
+      <c r="L2" s="101" t="s">
         <v>165</v>
       </c>
-      <c r="E2" s="96" t="s">
+      <c r="M2" s="101" t="s">
         <v>166</v>
       </c>
-      <c r="F2" s="98" t="s">
+      <c r="N2" s="101" t="s">
         <v>167</v>
       </c>
-      <c r="G2" s="99" t="s">
+      <c r="O2" s="95" t="s">
         <v>168</v>
       </c>
-      <c r="H2" s="100" t="s">
+      <c r="P2" s="103" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q2" s="95" t="s">
         <v>169</v>
       </c>
-      <c r="I2" s="101" t="s">
-        <v>81</v>
-      </c>
-      <c r="J2" s="102" t="s">
+      <c r="R2" s="95" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="94" t="s">
+        <v>156</v>
+      </c>
+      <c r="B3" s="104" t="s">
+        <v>157</v>
+      </c>
+      <c r="C3" s="104"/>
+      <c r="D3" s="105" t="s">
+        <v>158</v>
+      </c>
+      <c r="E3" s="104" t="s">
         <v>170</v>
       </c>
-      <c r="K2" s="103" t="s">
+      <c r="F3" s="106" t="s">
+        <v>160</v>
+      </c>
+      <c r="G3" s="107" t="s">
+        <v>161</v>
+      </c>
+      <c r="H3" s="108" t="s">
+        <v>162</v>
+      </c>
+      <c r="I3" s="109" t="s">
+        <v>80</v>
+      </c>
+      <c r="J3" s="110" t="s">
         <v>171</v>
       </c>
-      <c r="L2" s="102" t="s">
+      <c r="K3" s="111"/>
+      <c r="L3" s="110" t="s">
         <v>172</v>
       </c>
-      <c r="M2" s="102" t="s">
+      <c r="M3" s="110" t="s">
         <v>173</v>
       </c>
-      <c r="N2" s="102" t="s">
+      <c r="N3" s="110" t="s">
         <v>174</v>
       </c>
-      <c r="O2" s="96" t="s">
+      <c r="O3" s="104" t="s">
         <v>175</v>
       </c>
-      <c r="P2" s="104" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q2" s="96" t="s">
+      <c r="P3" s="112" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q3" s="104" t="s">
+        <v>169</v>
+      </c>
+      <c r="R3" s="104" t="s">
         <v>176</v>
       </c>
-      <c r="R2" s="96" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="95" t="s">
-        <v>163</v>
-      </c>
-      <c r="B3" s="105" t="s">
+    </row>
+    <row r="4" spans="1:18" ht="77.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="129" t="s">
+        <v>235</v>
+      </c>
+      <c r="B4" s="130" t="s">
+        <v>157</v>
+      </c>
+      <c r="C4" s="130" t="s">
+        <v>236</v>
+      </c>
+      <c r="D4" s="131" t="s">
+        <v>237</v>
+      </c>
+      <c r="E4" s="130" t="s">
+        <v>238</v>
+      </c>
+      <c r="F4" s="132" t="s">
+        <v>239</v>
+      </c>
+      <c r="G4" s="133" t="s">
+        <v>240</v>
+      </c>
+      <c r="H4" s="32" t="s">
+        <v>162</v>
+      </c>
+      <c r="I4" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="J4" s="134" t="s">
+        <v>241</v>
+      </c>
+      <c r="K4" s="36" t="s">
         <v>164</v>
       </c>
-      <c r="C3" s="105"/>
-      <c r="D3" s="106" t="s">
-        <v>165</v>
-      </c>
-      <c r="E3" s="105" t="s">
-        <v>177</v>
-      </c>
-      <c r="F3" s="107" t="s">
-        <v>167</v>
-      </c>
-      <c r="G3" s="108" t="s">
-        <v>168</v>
-      </c>
-      <c r="H3" s="109" t="s">
-        <v>169</v>
-      </c>
-      <c r="I3" s="110" t="s">
-        <v>81</v>
-      </c>
-      <c r="J3" s="111" t="s">
-        <v>178</v>
-      </c>
-      <c r="K3" s="112"/>
-      <c r="L3" s="111" t="s">
-        <v>179</v>
-      </c>
-      <c r="M3" s="111" t="s">
-        <v>180</v>
-      </c>
-      <c r="N3" s="111" t="s">
-        <v>181</v>
-      </c>
-      <c r="O3" s="105" t="s">
-        <v>182</v>
-      </c>
-      <c r="P3" s="113" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q3" s="105" t="s">
-        <v>176</v>
-      </c>
-      <c r="R3" s="105" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" ht="77.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="130" t="s">
+      <c r="L4" s="135" t="s">
         <v>242</v>
       </c>
-      <c r="B4" s="131" t="s">
+      <c r="M4" s="134" t="s">
+        <v>243</v>
+      </c>
+      <c r="N4" s="134" t="s">
+        <v>244</v>
+      </c>
+      <c r="O4" s="136" t="s">
+        <v>245</v>
+      </c>
+      <c r="P4" s="137" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q4" s="136" t="s">
+        <v>246</v>
+      </c>
+      <c r="R4" s="136"/>
+    </row>
+    <row r="5" spans="1:18" ht="87.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="129" t="s">
+        <v>235</v>
+      </c>
+      <c r="B5" s="130" t="s">
+        <v>157</v>
+      </c>
+      <c r="C5" s="130" t="s">
+        <v>247</v>
+      </c>
+      <c r="D5" s="131" t="s">
+        <v>237</v>
+      </c>
+      <c r="E5" s="130" t="s">
+        <v>238</v>
+      </c>
+      <c r="F5" s="132" t="s">
+        <v>239</v>
+      </c>
+      <c r="G5" s="133" t="s">
+        <v>240</v>
+      </c>
+      <c r="H5" s="138" t="s">
+        <v>248</v>
+      </c>
+      <c r="I5" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="J5" s="134" t="s">
+        <v>249</v>
+      </c>
+      <c r="K5" s="36" t="s">
         <v>164</v>
       </c>
-      <c r="C4" s="131" t="s">
-        <v>243</v>
-      </c>
-      <c r="D4" s="132" t="s">
+      <c r="L5" s="135" t="s">
+        <v>250</v>
+      </c>
+      <c r="M5" s="134" t="s">
+        <v>251</v>
+      </c>
+      <c r="N5" s="134" t="s">
         <v>244</v>
       </c>
-      <c r="E4" s="131" t="s">
-        <v>245</v>
-      </c>
-      <c r="F4" s="133" t="s">
-        <v>246</v>
-      </c>
-      <c r="G4" s="134" t="s">
-        <v>247</v>
-      </c>
-      <c r="H4" s="32" t="s">
-        <v>169</v>
-      </c>
-      <c r="I4" s="35" t="s">
-        <v>81</v>
-      </c>
-      <c r="J4" s="135" t="s">
-        <v>248</v>
-      </c>
-      <c r="K4" s="36" t="s">
-        <v>171</v>
-      </c>
-      <c r="L4" s="136" t="s">
-        <v>249</v>
-      </c>
-      <c r="M4" s="135" t="s">
-        <v>250</v>
-      </c>
-      <c r="N4" s="135" t="s">
-        <v>251</v>
-      </c>
-      <c r="O4" s="137" t="s">
+      <c r="O5" s="136"/>
+      <c r="P5" s="139" t="s">
         <v>252</v>
       </c>
-      <c r="P4" s="138" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q4" s="137" t="s">
+      <c r="Q5" s="136"/>
+      <c r="R5" s="136" t="s">
         <v>253</v>
-      </c>
-      <c r="R4" s="137"/>
-    </row>
-    <row r="5" spans="1:18" ht="87.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="130" t="s">
-        <v>242</v>
-      </c>
-      <c r="B5" s="131" t="s">
-        <v>164</v>
-      </c>
-      <c r="C5" s="131" t="s">
-        <v>254</v>
-      </c>
-      <c r="D5" s="132" t="s">
-        <v>244</v>
-      </c>
-      <c r="E5" s="131" t="s">
-        <v>245</v>
-      </c>
-      <c r="F5" s="133" t="s">
-        <v>246</v>
-      </c>
-      <c r="G5" s="134" t="s">
-        <v>247</v>
-      </c>
-      <c r="H5" s="139" t="s">
-        <v>255</v>
-      </c>
-      <c r="I5" s="35" t="s">
-        <v>81</v>
-      </c>
-      <c r="J5" s="135" t="s">
-        <v>256</v>
-      </c>
-      <c r="K5" s="36" t="s">
-        <v>171</v>
-      </c>
-      <c r="L5" s="136" t="s">
-        <v>257</v>
-      </c>
-      <c r="M5" s="135" t="s">
-        <v>258</v>
-      </c>
-      <c r="N5" s="135" t="s">
-        <v>251</v>
-      </c>
-      <c r="O5" s="137"/>
-      <c r="P5" s="140" t="s">
-        <v>259</v>
-      </c>
-      <c r="Q5" s="137"/>
-      <c r="R5" s="137" t="s">
-        <v>260</v>
       </c>
     </row>
   </sheetData>
@@ -8094,7 +7840,7 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -8110,50 +7856,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="17" x14ac:dyDescent="0.15">
-      <c r="A1" s="141" t="s">
-        <v>39</v>
-      </c>
-      <c r="B1" s="142"/>
-      <c r="C1" s="142"/>
-      <c r="D1" s="142"/>
-      <c r="E1" s="142"/>
-      <c r="F1" s="142"/>
-      <c r="G1" s="142"/>
-      <c r="H1" s="142"/>
-      <c r="I1" s="142"/>
-      <c r="J1" s="142"/>
-      <c r="K1" s="142"/>
+      <c r="A1" s="140" t="s">
+        <v>264</v>
+      </c>
+      <c r="B1" s="141"/>
+      <c r="C1" s="141"/>
+      <c r="D1" s="141"/>
+      <c r="E1" s="141"/>
+      <c r="F1" s="141"/>
+      <c r="G1" s="141"/>
+      <c r="H1" s="141"/>
+      <c r="I1" s="141"/>
+      <c r="J1" s="141"/>
+      <c r="K1" s="141"/>
     </row>
     <row r="2" spans="1:11" ht="15" x14ac:dyDescent="0.15">
       <c r="A2" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="C2" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="D2" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="E2" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="F2" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="G2" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="H2" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="H2" s="15" t="s">
+      <c r="I2" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="I2" s="15" t="s">
+      <c r="J2" s="15" t="s">
         <v>48</v>
-      </c>
-      <c r="J2" s="15" t="s">
-        <v>49</v>
       </c>
       <c r="K2" s="16" t="s">
         <v>22</v>
@@ -8162,25 +7908,25 @@
     <row r="3" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="17"/>
       <c r="B3" s="17"/>
-      <c r="C3" s="127" t="s">
-        <v>226</v>
+      <c r="C3" s="126" t="s">
+        <v>219</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="E3" s="19" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="F3" s="24" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="G3" s="24" t="s">
-        <v>230</v>
-      </c>
-      <c r="H3" s="128">
+        <v>223</v>
+      </c>
+      <c r="H3" s="127">
         <v>42811</v>
       </c>
-      <c r="I3" s="128">
+      <c r="I3" s="127">
         <v>42811</v>
       </c>
       <c r="J3" s="27"/>
@@ -8189,60 +7935,60 @@
     <row r="4" spans="1:11" ht="30" x14ac:dyDescent="0.15">
       <c r="A4" s="20"/>
       <c r="B4" s="21"/>
-      <c r="C4" s="127" t="s">
-        <v>231</v>
-      </c>
-      <c r="D4" s="129" t="s">
-        <v>232</v>
-      </c>
-      <c r="E4" s="129" t="s">
-        <v>233</v>
+      <c r="C4" s="126" t="s">
+        <v>224</v>
+      </c>
+      <c r="D4" s="128" t="s">
+        <v>225</v>
+      </c>
+      <c r="E4" s="128" t="s">
+        <v>226</v>
       </c>
       <c r="F4" s="24" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="G4" s="24" t="s">
-        <v>230</v>
-      </c>
-      <c r="H4" s="128">
+        <v>223</v>
+      </c>
+      <c r="H4" s="127">
         <v>42811</v>
       </c>
-      <c r="I4" s="128">
+      <c r="I4" s="127">
         <v>42811</v>
       </c>
       <c r="J4" s="27"/>
       <c r="K4" s="28"/>
     </row>
     <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="143"/>
-      <c r="B5" s="143"/>
-      <c r="C5" s="127" t="s">
-        <v>235</v>
+      <c r="A5" s="142"/>
+      <c r="B5" s="142"/>
+      <c r="C5" s="126" t="s">
+        <v>228</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="F5" s="24" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="G5" s="24" t="s">
-        <v>230</v>
-      </c>
-      <c r="H5" s="128">
+        <v>223</v>
+      </c>
+      <c r="H5" s="127">
         <v>42811</v>
       </c>
-      <c r="I5" s="128">
+      <c r="I5" s="127">
         <v>42811</v>
       </c>
       <c r="J5" s="27"/>
       <c r="K5" s="28"/>
     </row>
     <row r="6" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A6" s="144"/>
-      <c r="B6" s="144"/>
+      <c r="A6" s="143"/>
+      <c r="B6" s="143"/>
       <c r="C6" s="18"/>
       <c r="D6" s="19"/>
       <c r="E6" s="19"/>
@@ -8254,8 +8000,8 @@
       <c r="K6" s="28"/>
     </row>
     <row r="7" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A7" s="144"/>
-      <c r="B7" s="144"/>
+      <c r="A7" s="143"/>
+      <c r="B7" s="143"/>
       <c r="C7" s="18"/>
       <c r="D7" s="19"/>
       <c r="E7" s="19"/>
@@ -8267,8 +8013,8 @@
       <c r="K7" s="28"/>
     </row>
     <row r="8" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A8" s="144"/>
-      <c r="B8" s="144"/>
+      <c r="A8" s="143"/>
+      <c r="B8" s="143"/>
       <c r="C8" s="18"/>
       <c r="D8" s="19"/>
       <c r="E8" s="19"/>
@@ -8280,8 +8026,8 @@
       <c r="K8" s="28"/>
     </row>
     <row r="9" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A9" s="144"/>
-      <c r="B9" s="144"/>
+      <c r="A9" s="143"/>
+      <c r="B9" s="143"/>
       <c r="C9" s="18"/>
       <c r="D9" s="19"/>
       <c r="E9" s="19"/>
@@ -8293,8 +8039,8 @@
       <c r="K9" s="28"/>
     </row>
     <row r="10" spans="1:11" ht="15" x14ac:dyDescent="0.15">
-      <c r="A10" s="145"/>
-      <c r="B10" s="145"/>
+      <c r="A10" s="144"/>
+      <c r="B10" s="144"/>
       <c r="C10" s="18"/>
       <c r="D10" s="19"/>
       <c r="E10" s="19"/>
@@ -8331,10 +8077,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:M15"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="39.5" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -8353,479 +8099,495 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="146" t="s">
-        <v>50</v>
-      </c>
-      <c r="B1" s="146"/>
-      <c r="C1" s="146"/>
-      <c r="D1" s="146"/>
-      <c r="E1" s="146"/>
-      <c r="F1" s="146"/>
-      <c r="G1" s="146"/>
-      <c r="H1" s="146"/>
-      <c r="I1" s="146"/>
-      <c r="J1" s="146"/>
-      <c r="K1" s="146"/>
-      <c r="L1" s="146"/>
-      <c r="M1" s="147"/>
+      <c r="A1" s="145" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="145"/>
+      <c r="C1" s="145"/>
+      <c r="D1" s="145"/>
+      <c r="E1" s="145"/>
+      <c r="F1" s="145"/>
+      <c r="G1" s="145"/>
+      <c r="H1" s="145"/>
+      <c r="I1" s="145"/>
+      <c r="J1" s="145"/>
+      <c r="K1" s="145"/>
+      <c r="L1" s="145"/>
+      <c r="M1" s="146"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="148"/>
-      <c r="B2" s="148"/>
-      <c r="C2" s="148"/>
-      <c r="D2" s="148"/>
-      <c r="E2" s="148"/>
-      <c r="F2" s="148"/>
-      <c r="G2" s="148"/>
-      <c r="H2" s="148"/>
-      <c r="I2" s="148"/>
-      <c r="J2" s="148"/>
-      <c r="K2" s="148"/>
-      <c r="L2" s="148"/>
-      <c r="M2" s="149"/>
+      <c r="A2" s="147"/>
+      <c r="B2" s="147"/>
+      <c r="C2" s="147"/>
+      <c r="D2" s="147"/>
+      <c r="E2" s="147"/>
+      <c r="F2" s="147"/>
+      <c r="G2" s="147"/>
+      <c r="H2" s="147"/>
+      <c r="I2" s="147"/>
+      <c r="J2" s="147"/>
+      <c r="K2" s="147"/>
+      <c r="L2" s="147"/>
+      <c r="M2" s="148"/>
     </row>
     <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>26</v>
       </c>
       <c r="C3" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="E3" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="F3" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="G3" s="8" t="s">
         <v>55</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>56</v>
       </c>
       <c r="H3" s="8" t="s">
         <v>27</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J3" s="8" t="s">
         <v>29</v>
       </c>
       <c r="K3" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" s="8" t="s">
         <v>58</v>
-      </c>
-      <c r="L3" s="8" t="s">
-        <v>59</v>
       </c>
       <c r="M3" s="13" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="16" x14ac:dyDescent="0.15">
-      <c r="A4" s="114">
+      <c r="A4" s="113">
         <v>1</v>
       </c>
-      <c r="B4" s="114" t="s">
+      <c r="B4" s="113" t="s">
+        <v>177</v>
+      </c>
+      <c r="C4" s="113" t="s">
+        <v>178</v>
+      </c>
+      <c r="D4" s="114" t="s">
+        <v>179</v>
+      </c>
+      <c r="E4" s="113" t="s">
+        <v>180</v>
+      </c>
+      <c r="F4" s="113" t="s">
+        <v>181</v>
+      </c>
+      <c r="G4" s="115" t="s">
+        <v>182</v>
+      </c>
+      <c r="H4" s="113" t="s">
+        <v>183</v>
+      </c>
+      <c r="I4" s="113"/>
+      <c r="J4" s="113" t="s">
         <v>184</v>
       </c>
-      <c r="C4" s="114" t="s">
+      <c r="K4" s="113" t="s">
+        <v>184</v>
+      </c>
+      <c r="L4" s="113" t="s">
         <v>185</v>
       </c>
-      <c r="D4" s="115" t="s">
+      <c r="M4" s="113"/>
+    </row>
+    <row r="5" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+      <c r="A5" s="113">
+        <v>2</v>
+      </c>
+      <c r="B5" s="113" t="s">
+        <v>177</v>
+      </c>
+      <c r="C5" s="113" t="s">
+        <v>178</v>
+      </c>
+      <c r="D5" s="116" t="s">
         <v>186</v>
       </c>
-      <c r="E4" s="114" t="s">
+      <c r="E5" s="113" t="s">
         <v>187</v>
       </c>
-      <c r="F4" s="114" t="s">
+      <c r="F5" s="113" t="s">
+        <v>181</v>
+      </c>
+      <c r="G5" s="113" t="s">
         <v>188</v>
       </c>
-      <c r="G4" s="116" t="s">
+      <c r="H5" s="113" t="s">
         <v>189</v>
       </c>
-      <c r="H4" s="114" t="s">
+      <c r="I5" s="113"/>
+      <c r="J5" s="113" t="s">
         <v>190</v>
       </c>
-      <c r="I4" s="114"/>
-      <c r="J4" s="114" t="s">
+      <c r="K5" s="113" t="s">
+        <v>190</v>
+      </c>
+      <c r="L5" s="113" t="s">
+        <v>185</v>
+      </c>
+      <c r="M5" s="113"/>
+    </row>
+    <row r="6" spans="1:13" ht="80" x14ac:dyDescent="0.15">
+      <c r="A6" s="113">
+        <v>3</v>
+      </c>
+      <c r="B6" s="113" t="s">
+        <v>177</v>
+      </c>
+      <c r="C6" s="113" t="s">
+        <v>178</v>
+      </c>
+      <c r="D6" s="113" t="s">
         <v>191</v>
       </c>
-      <c r="K4" s="114" t="s">
-        <v>191</v>
-      </c>
-      <c r="L4" s="114" t="s">
+      <c r="E6" s="113" t="s">
         <v>192</v>
       </c>
-      <c r="M4" s="114"/>
-    </row>
-    <row r="6" spans="1:13" ht="16" x14ac:dyDescent="0.15">
-      <c r="A6" s="114">
-        <v>3</v>
-      </c>
-      <c r="B6" s="114" t="s">
-        <v>184</v>
-      </c>
-      <c r="C6" s="114" t="s">
+      <c r="F6" s="113" t="s">
+        <v>181</v>
+      </c>
+      <c r="G6" s="113" t="s">
+        <v>193</v>
+      </c>
+      <c r="H6" s="115" t="s">
+        <v>194</v>
+      </c>
+      <c r="I6" s="113"/>
+      <c r="J6" s="113" t="s">
+        <v>190</v>
+      </c>
+      <c r="K6" s="113" t="s">
+        <v>190</v>
+      </c>
+      <c r="L6" s="113" t="s">
         <v>185</v>
       </c>
-      <c r="D6" s="117" t="s">
-        <v>193</v>
-      </c>
-      <c r="E6" s="114" t="s">
-        <v>194</v>
-      </c>
-      <c r="F6" s="114" t="s">
-        <v>188</v>
-      </c>
-      <c r="G6" s="114" t="s">
+      <c r="M6" s="113" t="s">
         <v>195</v>
       </c>
-      <c r="H6" s="114" t="s">
+    </row>
+    <row r="7" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+      <c r="A7" s="113">
+        <v>4</v>
+      </c>
+      <c r="B7" s="113" t="s">
+        <v>116</v>
+      </c>
+      <c r="C7" s="113" t="s">
         <v>196</v>
       </c>
-      <c r="I6" s="114"/>
-      <c r="J6" s="114" t="s">
+      <c r="D7" s="116" t="s">
         <v>197</v>
       </c>
-      <c r="K6" s="114" t="s">
+      <c r="E7" s="113" t="s">
+        <v>180</v>
+      </c>
+      <c r="F7" s="113" t="s">
+        <v>181</v>
+      </c>
+      <c r="G7" s="113" t="s">
+        <v>198</v>
+      </c>
+      <c r="H7" s="113" t="s">
+        <v>199</v>
+      </c>
+      <c r="I7" s="113" t="s">
+        <v>200</v>
+      </c>
+      <c r="J7" s="113" t="s">
+        <v>201</v>
+      </c>
+      <c r="K7" s="113" t="s">
+        <v>201</v>
+      </c>
+      <c r="L7" s="117"/>
+      <c r="M7" s="118"/>
+    </row>
+    <row r="8" spans="1:13" ht="360" x14ac:dyDescent="0.15">
+      <c r="A8" s="113">
+        <v>5</v>
+      </c>
+      <c r="B8" s="113" t="s">
+        <v>116</v>
+      </c>
+      <c r="C8" s="113" t="s">
+        <v>196</v>
+      </c>
+      <c r="D8" s="116" t="s">
         <v>197</v>
       </c>
-      <c r="L6" s="114" t="s">
-        <v>192</v>
-      </c>
-      <c r="M6" s="114"/>
-    </row>
-    <row r="7" spans="1:13" ht="80" x14ac:dyDescent="0.15">
-      <c r="A7" s="114">
-        <v>4</v>
-      </c>
-      <c r="B7" s="114" t="s">
-        <v>184</v>
-      </c>
-      <c r="C7" s="114" t="s">
-        <v>185</v>
-      </c>
-      <c r="D7" s="114" t="s">
-        <v>198</v>
-      </c>
-      <c r="E7" s="114" t="s">
+      <c r="E8" s="113" t="s">
+        <v>180</v>
+      </c>
+      <c r="F8" s="113" t="s">
+        <v>181</v>
+      </c>
+      <c r="G8" s="119" t="s">
+        <v>202</v>
+      </c>
+      <c r="H8" s="113" t="s">
         <v>199</v>
       </c>
-      <c r="F7" s="114" t="s">
-        <v>188</v>
-      </c>
-      <c r="G7" s="114" t="s">
+      <c r="I8" s="113" t="s">
         <v>200</v>
       </c>
-      <c r="H7" s="116" t="s">
+      <c r="J8" s="113" t="s">
         <v>201</v>
       </c>
-      <c r="I7" s="114"/>
-      <c r="J7" s="114" t="s">
+      <c r="K8" s="113" t="s">
+        <v>201</v>
+      </c>
+      <c r="L8" s="117"/>
+      <c r="M8" s="117"/>
+    </row>
+    <row r="9" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+      <c r="A9" s="113">
+        <v>6</v>
+      </c>
+      <c r="B9" s="113" t="s">
+        <v>116</v>
+      </c>
+      <c r="C9" s="113" t="s">
+        <v>196</v>
+      </c>
+      <c r="D9" s="116" t="s">
         <v>197</v>
       </c>
-      <c r="K7" s="114" t="s">
+      <c r="E9" s="113" t="s">
+        <v>180</v>
+      </c>
+      <c r="F9" s="113" t="s">
+        <v>181</v>
+      </c>
+      <c r="G9" s="120" t="s">
+        <v>203</v>
+      </c>
+      <c r="H9" s="113" t="s">
+        <v>199</v>
+      </c>
+      <c r="I9" s="113" t="s">
+        <v>200</v>
+      </c>
+      <c r="J9" s="113" t="s">
+        <v>201</v>
+      </c>
+      <c r="K9" s="113" t="s">
+        <v>201</v>
+      </c>
+      <c r="L9" s="117"/>
+      <c r="M9" s="117"/>
+    </row>
+    <row r="10" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+      <c r="A10" s="113">
+        <v>7</v>
+      </c>
+      <c r="B10" s="113" t="s">
+        <v>116</v>
+      </c>
+      <c r="C10" s="113" t="s">
+        <v>196</v>
+      </c>
+      <c r="D10" s="116" t="s">
         <v>197</v>
       </c>
-      <c r="L7" s="114" t="s">
-        <v>192</v>
-      </c>
-      <c r="M7" s="114" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="16" x14ac:dyDescent="0.15">
-      <c r="A8" s="118"/>
-      <c r="B8" s="114" t="s">
-        <v>117</v>
-      </c>
-      <c r="C8" s="114" t="s">
-        <v>203</v>
-      </c>
-      <c r="D8" s="117" t="s">
+      <c r="E10" s="113" t="s">
+        <v>180</v>
+      </c>
+      <c r="F10" s="113" t="s">
+        <v>181</v>
+      </c>
+      <c r="G10" s="120" t="s">
         <v>204</v>
       </c>
-      <c r="E8" s="114" t="s">
+      <c r="H10" s="113" t="s">
+        <v>205</v>
+      </c>
+      <c r="I10" s="113" t="s">
+        <v>200</v>
+      </c>
+      <c r="J10" s="113" t="s">
+        <v>201</v>
+      </c>
+      <c r="K10" s="113" t="s">
+        <v>201</v>
+      </c>
+      <c r="L10" s="117"/>
+      <c r="M10" s="117"/>
+    </row>
+    <row r="11" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+      <c r="A11" s="113">
+        <v>8</v>
+      </c>
+      <c r="B11" s="113" t="s">
+        <v>116</v>
+      </c>
+      <c r="C11" s="113" t="s">
+        <v>196</v>
+      </c>
+      <c r="D11" s="116" t="s">
+        <v>197</v>
+      </c>
+      <c r="E11" s="113" t="s">
+        <v>180</v>
+      </c>
+      <c r="F11" s="113" t="s">
+        <v>181</v>
+      </c>
+      <c r="G11" s="113" t="s">
+        <v>206</v>
+      </c>
+      <c r="H11" s="113" t="s">
+        <v>205</v>
+      </c>
+      <c r="I11" s="113" t="s">
+        <v>200</v>
+      </c>
+      <c r="J11" s="113" t="s">
+        <v>201</v>
+      </c>
+      <c r="K11" s="113" t="s">
+        <v>201</v>
+      </c>
+      <c r="L11" s="117"/>
+      <c r="M11" s="117"/>
+    </row>
+    <row r="12" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+      <c r="A12" s="113">
+        <v>9</v>
+      </c>
+      <c r="B12" s="113" t="s">
+        <v>116</v>
+      </c>
+      <c r="C12" s="113" t="s">
+        <v>196</v>
+      </c>
+      <c r="D12" s="116" t="s">
+        <v>197</v>
+      </c>
+      <c r="E12" s="113" t="s">
+        <v>180</v>
+      </c>
+      <c r="F12" s="113" t="s">
+        <v>181</v>
+      </c>
+      <c r="G12" s="113" t="s">
+        <v>207</v>
+      </c>
+      <c r="H12" s="113" t="s">
+        <v>205</v>
+      </c>
+      <c r="I12" s="113" t="s">
+        <v>200</v>
+      </c>
+      <c r="J12" s="113" t="s">
+        <v>201</v>
+      </c>
+      <c r="K12" s="113" t="s">
+        <v>201</v>
+      </c>
+      <c r="L12" s="117"/>
+      <c r="M12" s="117"/>
+    </row>
+    <row r="13" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+      <c r="A13" s="113">
+        <v>10</v>
+      </c>
+      <c r="B13" s="113" t="s">
+        <v>116</v>
+      </c>
+      <c r="C13" s="113" t="s">
+        <v>196</v>
+      </c>
+      <c r="D13" s="116" t="s">
+        <v>197</v>
+      </c>
+      <c r="E13" s="113" t="s">
+        <v>180</v>
+      </c>
+      <c r="F13" s="113" t="s">
+        <v>181</v>
+      </c>
+      <c r="G13" s="113" t="s">
+        <v>208</v>
+      </c>
+      <c r="H13" s="113" t="s">
+        <v>205</v>
+      </c>
+      <c r="I13" s="113" t="s">
+        <v>200</v>
+      </c>
+      <c r="J13" s="113" t="s">
+        <v>201</v>
+      </c>
+      <c r="K13" s="113" t="s">
+        <v>201</v>
+      </c>
+      <c r="L13" s="117"/>
+      <c r="M13" s="117"/>
+    </row>
+    <row r="14" spans="1:13" ht="409" x14ac:dyDescent="0.15">
+      <c r="A14" s="113">
+        <v>11</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="E14" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="F8" s="114" t="s">
-        <v>188</v>
-      </c>
-      <c r="G8" s="114" t="s">
-        <v>205</v>
-      </c>
-      <c r="H8" s="114" t="s">
-        <v>206</v>
-      </c>
-      <c r="I8" s="114" t="s">
-        <v>207</v>
-      </c>
-      <c r="J8" s="114" t="s">
-        <v>208</v>
-      </c>
-      <c r="K8" s="114" t="s">
-        <v>208</v>
-      </c>
-      <c r="L8" s="118"/>
-      <c r="M8" s="119"/>
-    </row>
-    <row r="9" spans="1:13" ht="360" x14ac:dyDescent="0.15">
-      <c r="A9" s="118"/>
-      <c r="B9" s="114" t="s">
-        <v>117</v>
-      </c>
-      <c r="C9" s="114" t="s">
-        <v>203</v>
-      </c>
-      <c r="D9" s="117" t="s">
-        <v>204</v>
-      </c>
-      <c r="E9" s="114" t="s">
-        <v>187</v>
-      </c>
-      <c r="F9" s="114" t="s">
-        <v>188</v>
-      </c>
-      <c r="G9" s="120" t="s">
-        <v>209</v>
-      </c>
-      <c r="H9" s="114" t="s">
-        <v>206</v>
-      </c>
-      <c r="I9" s="114" t="s">
-        <v>207</v>
-      </c>
-      <c r="J9" s="114" t="s">
-        <v>208</v>
-      </c>
-      <c r="K9" s="114" t="s">
-        <v>208</v>
-      </c>
-      <c r="L9" s="118"/>
-      <c r="M9" s="118"/>
-    </row>
-    <row r="10" spans="1:13" ht="16" x14ac:dyDescent="0.15">
-      <c r="A10" s="118"/>
-      <c r="B10" s="114" t="s">
-        <v>117</v>
-      </c>
-      <c r="C10" s="114" t="s">
-        <v>203</v>
-      </c>
-      <c r="D10" s="117" t="s">
-        <v>204</v>
-      </c>
-      <c r="E10" s="114" t="s">
-        <v>187</v>
-      </c>
-      <c r="F10" s="114" t="s">
-        <v>188</v>
-      </c>
-      <c r="G10" s="121" t="s">
-        <v>210</v>
-      </c>
-      <c r="H10" s="114" t="s">
-        <v>206</v>
-      </c>
-      <c r="I10" s="114" t="s">
-        <v>207</v>
-      </c>
-      <c r="J10" s="114" t="s">
-        <v>208</v>
-      </c>
-      <c r="K10" s="114" t="s">
-        <v>208</v>
-      </c>
-      <c r="L10" s="118"/>
-      <c r="M10" s="118"/>
-    </row>
-    <row r="11" spans="1:13" ht="16" x14ac:dyDescent="0.15">
-      <c r="A11" s="118"/>
-      <c r="B11" s="114" t="s">
-        <v>117</v>
-      </c>
-      <c r="C11" s="114" t="s">
-        <v>203</v>
-      </c>
-      <c r="D11" s="117" t="s">
-        <v>204</v>
-      </c>
-      <c r="E11" s="114" t="s">
-        <v>187</v>
-      </c>
-      <c r="F11" s="114" t="s">
-        <v>188</v>
-      </c>
-      <c r="G11" s="121" t="s">
-        <v>211</v>
-      </c>
-      <c r="H11" s="114" t="s">
-        <v>212</v>
-      </c>
-      <c r="I11" s="114" t="s">
-        <v>207</v>
-      </c>
-      <c r="J11" s="114" t="s">
-        <v>208</v>
-      </c>
-      <c r="K11" s="114" t="s">
-        <v>208</v>
-      </c>
-      <c r="L11" s="118"/>
-      <c r="M11" s="118"/>
-    </row>
-    <row r="12" spans="1:13" ht="16" x14ac:dyDescent="0.15">
-      <c r="A12" s="118"/>
-      <c r="B12" s="114" t="s">
-        <v>117</v>
-      </c>
-      <c r="C12" s="114" t="s">
-        <v>203</v>
-      </c>
-      <c r="D12" s="117" t="s">
-        <v>204</v>
-      </c>
-      <c r="E12" s="114" t="s">
-        <v>187</v>
-      </c>
-      <c r="F12" s="114" t="s">
-        <v>188</v>
-      </c>
-      <c r="G12" s="114" t="s">
-        <v>213</v>
-      </c>
-      <c r="H12" s="114" t="s">
-        <v>212</v>
-      </c>
-      <c r="I12" s="114" t="s">
-        <v>207</v>
-      </c>
-      <c r="J12" s="114" t="s">
-        <v>208</v>
-      </c>
-      <c r="K12" s="114" t="s">
-        <v>208</v>
-      </c>
-      <c r="L12" s="118"/>
-      <c r="M12" s="118"/>
-    </row>
-    <row r="13" spans="1:13" ht="16" x14ac:dyDescent="0.15">
-      <c r="A13" s="118"/>
-      <c r="B13" s="114" t="s">
-        <v>117</v>
-      </c>
-      <c r="C13" s="114" t="s">
-        <v>203</v>
-      </c>
-      <c r="D13" s="117" t="s">
-        <v>204</v>
-      </c>
-      <c r="E13" s="114" t="s">
-        <v>187</v>
-      </c>
-      <c r="F13" s="114" t="s">
-        <v>188</v>
-      </c>
-      <c r="G13" s="114" t="s">
-        <v>214</v>
-      </c>
-      <c r="H13" s="114" t="s">
-        <v>212</v>
-      </c>
-      <c r="I13" s="114" t="s">
-        <v>207</v>
-      </c>
-      <c r="J13" s="114" t="s">
-        <v>208</v>
-      </c>
-      <c r="K13" s="114" t="s">
-        <v>208</v>
-      </c>
-      <c r="L13" s="118"/>
-      <c r="M13" s="118"/>
-    </row>
-    <row r="14" spans="1:13" ht="16" x14ac:dyDescent="0.15">
-      <c r="A14" s="118"/>
-      <c r="B14" s="114" t="s">
-        <v>117</v>
-      </c>
-      <c r="C14" s="114" t="s">
-        <v>203</v>
-      </c>
-      <c r="D14" s="117" t="s">
-        <v>204</v>
-      </c>
-      <c r="E14" s="114" t="s">
-        <v>187</v>
-      </c>
-      <c r="F14" s="114" t="s">
-        <v>188</v>
-      </c>
-      <c r="G14" s="114" t="s">
-        <v>215</v>
-      </c>
-      <c r="H14" s="114" t="s">
-        <v>212</v>
-      </c>
-      <c r="I14" s="114" t="s">
-        <v>207</v>
-      </c>
-      <c r="J14" s="114" t="s">
-        <v>208</v>
-      </c>
-      <c r="K14" s="114" t="s">
-        <v>208</v>
-      </c>
-      <c r="L14" s="118"/>
-      <c r="M14" s="118"/>
-    </row>
-    <row r="15" spans="1:13" ht="409" x14ac:dyDescent="0.15">
-      <c r="A15" s="9">
-        <v>1</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>238</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>239</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="F15" s="9" t="s">
-        <v>188</v>
-      </c>
-      <c r="G15" s="12" t="s">
-        <v>240</v>
-      </c>
+      <c r="F14" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>233</v>
+      </c>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="12"/>
+    </row>
+    <row r="15" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+      <c r="A15" s="113">
+        <v>12</v>
+      </c>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
       <c r="H15" s="9"/>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c r="L15" s="9"/>
-      <c r="M15" s="12"/>
-    </row>
-    <row r="16" spans="1:13" ht="16" x14ac:dyDescent="0.15">
-      <c r="A16" s="9"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="9"/>
+      <c r="M15" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -8833,16 +8595,16 @@
   </mergeCells>
   <phoneticPr fontId="23" type="noConversion"/>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I16">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I15">
       <formula1>"开发环境、测试环境、生产环境"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I8:I15">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7:I14">
       <formula1>"生产环境,测试环境,开发环境"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4 F6:F16">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F15">
       <formula1>"新增,修改,删除"</formula1>
     </dataValidation>
-    <dataValidation type="list" imeMode="on" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4 I6:I7">
+    <dataValidation type="list" imeMode="on" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:I6">
       <formula1>"开发环境、测试环境、生产环境"</formula1>
     </dataValidation>
   </dataValidations>
@@ -8852,10 +8614,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="39.5" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -8874,514 +8636,495 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="146" t="s">
-        <v>50</v>
-      </c>
-      <c r="B1" s="146"/>
-      <c r="C1" s="146"/>
-      <c r="D1" s="146"/>
-      <c r="E1" s="146"/>
-      <c r="F1" s="146"/>
-      <c r="G1" s="146"/>
-      <c r="H1" s="146"/>
-      <c r="I1" s="146"/>
-      <c r="J1" s="146"/>
-      <c r="K1" s="146"/>
-      <c r="L1" s="146"/>
-      <c r="M1" s="147"/>
+      <c r="A1" s="145" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="145"/>
+      <c r="C1" s="145"/>
+      <c r="D1" s="145"/>
+      <c r="E1" s="145"/>
+      <c r="F1" s="145"/>
+      <c r="G1" s="145"/>
+      <c r="H1" s="145"/>
+      <c r="I1" s="145"/>
+      <c r="J1" s="145"/>
+      <c r="K1" s="145"/>
+      <c r="L1" s="145"/>
+      <c r="M1" s="146"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="148"/>
-      <c r="B2" s="148"/>
-      <c r="C2" s="148"/>
-      <c r="D2" s="148"/>
-      <c r="E2" s="148"/>
-      <c r="F2" s="148"/>
-      <c r="G2" s="148"/>
-      <c r="H2" s="148"/>
-      <c r="I2" s="148"/>
-      <c r="J2" s="148"/>
-      <c r="K2" s="148"/>
-      <c r="L2" s="148"/>
-      <c r="M2" s="149"/>
+      <c r="A2" s="147"/>
+      <c r="B2" s="147"/>
+      <c r="C2" s="147"/>
+      <c r="D2" s="147"/>
+      <c r="E2" s="147"/>
+      <c r="F2" s="147"/>
+      <c r="G2" s="147"/>
+      <c r="H2" s="147"/>
+      <c r="I2" s="147"/>
+      <c r="J2" s="147"/>
+      <c r="K2" s="147"/>
+      <c r="L2" s="147"/>
+      <c r="M2" s="148"/>
     </row>
     <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>26</v>
       </c>
       <c r="C3" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="E3" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="F3" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="G3" s="8" t="s">
         <v>55</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>56</v>
       </c>
       <c r="H3" s="8" t="s">
         <v>27</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J3" s="8" t="s">
         <v>29</v>
       </c>
       <c r="K3" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" s="8" t="s">
         <v>58</v>
-      </c>
-      <c r="L3" s="8" t="s">
-        <v>59</v>
       </c>
       <c r="M3" s="13" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="16" x14ac:dyDescent="0.15">
-      <c r="A4" s="114">
+      <c r="A4" s="113">
         <v>2</v>
       </c>
-      <c r="B4" s="114" t="s">
+      <c r="B4" s="113" t="s">
+        <v>177</v>
+      </c>
+      <c r="C4" s="113" t="s">
+        <v>178</v>
+      </c>
+      <c r="D4" s="114" t="s">
+        <v>186</v>
+      </c>
+      <c r="E4" s="113" t="s">
+        <v>187</v>
+      </c>
+      <c r="F4" s="113" t="s">
+        <v>209</v>
+      </c>
+      <c r="G4" s="115" t="s">
+        <v>210</v>
+      </c>
+      <c r="H4" s="113" t="s">
+        <v>183</v>
+      </c>
+      <c r="I4" s="113"/>
+      <c r="J4" s="113" t="s">
         <v>184</v>
       </c>
-      <c r="C4" s="114" t="s">
+      <c r="K4" s="113" t="s">
+        <v>184</v>
+      </c>
+      <c r="L4" s="113" t="s">
         <v>185</v>
       </c>
-      <c r="D4" s="115" t="s">
+      <c r="M4" s="113" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+      <c r="A5" s="113">
+        <v>3</v>
+      </c>
+      <c r="B5" s="113" t="s">
+        <v>177</v>
+      </c>
+      <c r="C5" s="113" t="s">
+        <v>178</v>
+      </c>
+      <c r="D5" s="116" t="s">
+        <v>186</v>
+      </c>
+      <c r="E5" s="113" t="s">
+        <v>187</v>
+      </c>
+      <c r="F5" s="113" t="s">
+        <v>181</v>
+      </c>
+      <c r="G5" s="113" t="s">
+        <v>188</v>
+      </c>
+      <c r="H5" s="113" t="s">
+        <v>189</v>
+      </c>
+      <c r="I5" s="113"/>
+      <c r="J5" s="113" t="s">
+        <v>190</v>
+      </c>
+      <c r="K5" s="113" t="s">
+        <v>190</v>
+      </c>
+      <c r="L5" s="113" t="s">
+        <v>185</v>
+      </c>
+      <c r="M5" s="113"/>
+    </row>
+    <row r="6" spans="1:13" ht="80" x14ac:dyDescent="0.15">
+      <c r="A6" s="113">
+        <v>4</v>
+      </c>
+      <c r="B6" s="113" t="s">
+        <v>177</v>
+      </c>
+      <c r="C6" s="113" t="s">
+        <v>178</v>
+      </c>
+      <c r="D6" s="113" t="s">
+        <v>191</v>
+      </c>
+      <c r="E6" s="113" t="s">
+        <v>192</v>
+      </c>
+      <c r="F6" s="113" t="s">
+        <v>181</v>
+      </c>
+      <c r="G6" s="113" t="s">
         <v>193</v>
       </c>
-      <c r="E4" s="114" t="s">
+      <c r="H6" s="115" t="s">
         <v>194</v>
       </c>
-      <c r="F4" s="114" t="s">
-        <v>216</v>
-      </c>
-      <c r="G4" s="116" t="s">
-        <v>217</v>
-      </c>
-      <c r="H4" s="114" t="s">
+      <c r="I6" s="113"/>
+      <c r="J6" s="113" t="s">
         <v>190</v>
       </c>
-      <c r="I4" s="114"/>
-      <c r="J4" s="114" t="s">
-        <v>191</v>
-      </c>
-      <c r="K4" s="114" t="s">
-        <v>191</v>
-      </c>
-      <c r="L4" s="114" t="s">
-        <v>192</v>
-      </c>
-      <c r="M4" s="114" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="16" x14ac:dyDescent="0.15">
-      <c r="A5" s="114">
-        <v>3</v>
-      </c>
-      <c r="B5" s="114" t="s">
-        <v>184</v>
-      </c>
-      <c r="C5" s="114" t="s">
+      <c r="K6" s="113" t="s">
+        <v>190</v>
+      </c>
+      <c r="L6" s="113" t="s">
         <v>185</v>
       </c>
-      <c r="D5" s="117" t="s">
-        <v>193</v>
-      </c>
-      <c r="E5" s="114" t="s">
-        <v>194</v>
-      </c>
-      <c r="F5" s="114" t="s">
-        <v>188</v>
-      </c>
-      <c r="G5" s="114" t="s">
+      <c r="M6" s="113" t="s">
         <v>195</v>
       </c>
-      <c r="H5" s="114" t="s">
+    </row>
+    <row r="7" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+      <c r="A7" s="113">
+        <v>5</v>
+      </c>
+      <c r="B7" s="113" t="s">
+        <v>116</v>
+      </c>
+      <c r="C7" s="113" t="s">
         <v>196</v>
       </c>
-      <c r="I5" s="114"/>
-      <c r="J5" s="114" t="s">
+      <c r="D7" s="116" t="s">
         <v>197</v>
       </c>
-      <c r="K5" s="114" t="s">
-        <v>197</v>
-      </c>
-      <c r="L5" s="114" t="s">
-        <v>192</v>
-      </c>
-      <c r="M5" s="114"/>
-    </row>
-    <row r="6" spans="1:13" ht="80" x14ac:dyDescent="0.15">
-      <c r="A6" s="114">
-        <v>4</v>
-      </c>
-      <c r="B6" s="114" t="s">
-        <v>184</v>
-      </c>
-      <c r="C6" s="114" t="s">
-        <v>185</v>
-      </c>
-      <c r="D6" s="114" t="s">
-        <v>198</v>
-      </c>
-      <c r="E6" s="114" t="s">
-        <v>199</v>
-      </c>
-      <c r="F6" s="114" t="s">
-        <v>188</v>
-      </c>
-      <c r="G6" s="114" t="s">
-        <v>200</v>
-      </c>
-      <c r="H6" s="116" t="s">
+      <c r="E7" s="113" t="s">
+        <v>180</v>
+      </c>
+      <c r="F7" s="113" t="s">
+        <v>181</v>
+      </c>
+      <c r="G7" s="120" t="s">
+        <v>204</v>
+      </c>
+      <c r="H7" s="113" t="s">
+        <v>205</v>
+      </c>
+      <c r="I7" s="113" t="s">
+        <v>212</v>
+      </c>
+      <c r="J7" s="113" t="s">
         <v>201</v>
       </c>
-      <c r="I6" s="114"/>
-      <c r="J6" s="114" t="s">
-        <v>197</v>
-      </c>
-      <c r="K6" s="114" t="s">
-        <v>197</v>
-      </c>
-      <c r="L6" s="114" t="s">
-        <v>192</v>
-      </c>
-      <c r="M6" s="114" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="16" x14ac:dyDescent="0.15">
-      <c r="A7" s="118"/>
-      <c r="B7" s="114" t="s">
-        <v>117</v>
-      </c>
-      <c r="C7" s="114" t="s">
-        <v>203</v>
-      </c>
-      <c r="D7" s="117" t="s">
-        <v>204</v>
-      </c>
-      <c r="E7" s="114" t="s">
-        <v>187</v>
-      </c>
-      <c r="F7" s="114" t="s">
-        <v>188</v>
-      </c>
-      <c r="G7" s="121" t="s">
-        <v>211</v>
-      </c>
-      <c r="H7" s="114" t="s">
-        <v>212</v>
-      </c>
-      <c r="I7" s="114" t="s">
-        <v>219</v>
-      </c>
-      <c r="J7" s="114" t="s">
-        <v>208</v>
-      </c>
-      <c r="K7" s="114" t="s">
-        <v>208</v>
+      <c r="K7" s="113" t="s">
+        <v>201</v>
       </c>
       <c r="L7" s="10"/>
       <c r="M7" s="14"/>
     </row>
     <row r="8" spans="1:13" ht="16" x14ac:dyDescent="0.15">
-      <c r="A8" s="118"/>
-      <c r="B8" s="114" t="s">
-        <v>117</v>
-      </c>
-      <c r="C8" s="114" t="s">
-        <v>203</v>
-      </c>
-      <c r="D8" s="117" t="s">
-        <v>204</v>
-      </c>
-      <c r="E8" s="114" t="s">
+      <c r="A8" s="113">
+        <v>6</v>
+      </c>
+      <c r="B8" s="113" t="s">
+        <v>116</v>
+      </c>
+      <c r="C8" s="113" t="s">
+        <v>196</v>
+      </c>
+      <c r="D8" s="116" t="s">
+        <v>197</v>
+      </c>
+      <c r="E8" s="113" t="s">
+        <v>180</v>
+      </c>
+      <c r="F8" s="113" t="s">
+        <v>181</v>
+      </c>
+      <c r="G8" s="113" t="s">
+        <v>206</v>
+      </c>
+      <c r="H8" s="113" t="s">
+        <v>205</v>
+      </c>
+      <c r="I8" s="113" t="s">
+        <v>212</v>
+      </c>
+      <c r="J8" s="113" t="s">
+        <v>201</v>
+      </c>
+      <c r="K8" s="113" t="s">
+        <v>201</v>
+      </c>
+      <c r="L8" s="117"/>
+      <c r="M8" s="118"/>
+    </row>
+    <row r="9" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+      <c r="A9" s="113">
+        <v>7</v>
+      </c>
+      <c r="B9" s="113" t="s">
+        <v>116</v>
+      </c>
+      <c r="C9" s="113" t="s">
+        <v>196</v>
+      </c>
+      <c r="D9" s="116" t="s">
+        <v>197</v>
+      </c>
+      <c r="E9" s="113" t="s">
+        <v>180</v>
+      </c>
+      <c r="F9" s="113" t="s">
+        <v>181</v>
+      </c>
+      <c r="G9" s="113" t="s">
+        <v>207</v>
+      </c>
+      <c r="H9" s="113" t="s">
+        <v>205</v>
+      </c>
+      <c r="I9" s="113" t="s">
+        <v>212</v>
+      </c>
+      <c r="J9" s="113" t="s">
+        <v>201</v>
+      </c>
+      <c r="K9" s="113" t="s">
+        <v>201</v>
+      </c>
+      <c r="L9" s="117"/>
+      <c r="M9" s="117"/>
+    </row>
+    <row r="10" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+      <c r="A10" s="113">
+        <v>8</v>
+      </c>
+      <c r="B10" s="113" t="s">
+        <v>116</v>
+      </c>
+      <c r="C10" s="113" t="s">
+        <v>196</v>
+      </c>
+      <c r="D10" s="116" t="s">
+        <v>197</v>
+      </c>
+      <c r="E10" s="113" t="s">
+        <v>180</v>
+      </c>
+      <c r="F10" s="113" t="s">
+        <v>181</v>
+      </c>
+      <c r="G10" s="113" t="s">
+        <v>208</v>
+      </c>
+      <c r="H10" s="113" t="s">
+        <v>205</v>
+      </c>
+      <c r="I10" s="113" t="s">
+        <v>212</v>
+      </c>
+      <c r="J10" s="113" t="s">
+        <v>201</v>
+      </c>
+      <c r="K10" s="113" t="s">
+        <v>201</v>
+      </c>
+      <c r="L10" s="117"/>
+      <c r="M10" s="117"/>
+    </row>
+    <row r="11" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+      <c r="A11" s="113">
+        <v>9</v>
+      </c>
+      <c r="B11" s="113" t="s">
+        <v>116</v>
+      </c>
+      <c r="C11" s="113" t="s">
+        <v>196</v>
+      </c>
+      <c r="D11" s="116" t="s">
+        <v>197</v>
+      </c>
+      <c r="E11" s="113" t="s">
+        <v>180</v>
+      </c>
+      <c r="F11" s="113" t="s">
+        <v>181</v>
+      </c>
+      <c r="G11" s="113" t="s">
+        <v>213</v>
+      </c>
+      <c r="H11" s="113" t="s">
+        <v>199</v>
+      </c>
+      <c r="I11" s="113" t="s">
+        <v>212</v>
+      </c>
+      <c r="J11" s="113" t="s">
+        <v>201</v>
+      </c>
+      <c r="K11" s="113" t="s">
+        <v>201</v>
+      </c>
+      <c r="L11" s="117"/>
+      <c r="M11" s="117"/>
+    </row>
+    <row r="12" spans="1:13" ht="255" x14ac:dyDescent="0.15">
+      <c r="A12" s="113">
+        <v>10</v>
+      </c>
+      <c r="B12" s="113" t="s">
+        <v>116</v>
+      </c>
+      <c r="C12" s="113" t="s">
+        <v>196</v>
+      </c>
+      <c r="D12" s="116" t="s">
+        <v>197</v>
+      </c>
+      <c r="E12" s="113" t="s">
+        <v>180</v>
+      </c>
+      <c r="F12" s="113" t="s">
+        <v>181</v>
+      </c>
+      <c r="G12" s="119" t="s">
+        <v>214</v>
+      </c>
+      <c r="H12" s="113" t="s">
+        <v>199</v>
+      </c>
+      <c r="I12" s="113" t="s">
+        <v>212</v>
+      </c>
+      <c r="J12" s="113" t="s">
+        <v>201</v>
+      </c>
+      <c r="K12" s="113" t="s">
+        <v>201</v>
+      </c>
+      <c r="L12" s="117"/>
+      <c r="M12" s="117"/>
+    </row>
+    <row r="13" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+      <c r="A13" s="113">
+        <v>11</v>
+      </c>
+      <c r="B13" s="113" t="s">
+        <v>116</v>
+      </c>
+      <c r="C13" s="113" t="s">
+        <v>196</v>
+      </c>
+      <c r="D13" s="116" t="s">
+        <v>197</v>
+      </c>
+      <c r="E13" s="113" t="s">
+        <v>180</v>
+      </c>
+      <c r="F13" s="113" t="s">
+        <v>181</v>
+      </c>
+      <c r="G13" s="120" t="s">
+        <v>215</v>
+      </c>
+      <c r="H13" s="113" t="s">
+        <v>199</v>
+      </c>
+      <c r="I13" s="113" t="s">
+        <v>212</v>
+      </c>
+      <c r="J13" s="113" t="s">
+        <v>201</v>
+      </c>
+      <c r="K13" s="113" t="s">
+        <v>201</v>
+      </c>
+      <c r="L13" s="117"/>
+      <c r="M13" s="117"/>
+    </row>
+    <row r="14" spans="1:13" ht="409" x14ac:dyDescent="0.15">
+      <c r="A14" s="113">
+        <v>12</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="E14" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="F8" s="114" t="s">
-        <v>188</v>
-      </c>
-      <c r="G8" s="114" t="s">
-        <v>213</v>
-      </c>
-      <c r="H8" s="114" t="s">
-        <v>212</v>
-      </c>
-      <c r="I8" s="114" t="s">
-        <v>219</v>
-      </c>
-      <c r="J8" s="114" t="s">
-        <v>208</v>
-      </c>
-      <c r="K8" s="114" t="s">
-        <v>208</v>
-      </c>
-      <c r="L8" s="118"/>
-      <c r="M8" s="119"/>
-    </row>
-    <row r="9" spans="1:13" ht="16" x14ac:dyDescent="0.15">
-      <c r="A9" s="118"/>
-      <c r="B9" s="114" t="s">
-        <v>117</v>
-      </c>
-      <c r="C9" s="114" t="s">
-        <v>203</v>
-      </c>
-      <c r="D9" s="117" t="s">
-        <v>204</v>
-      </c>
-      <c r="E9" s="114" t="s">
-        <v>187</v>
-      </c>
-      <c r="F9" s="114" t="s">
-        <v>188</v>
-      </c>
-      <c r="G9" s="114" t="s">
-        <v>214</v>
-      </c>
-      <c r="H9" s="114" t="s">
-        <v>212</v>
-      </c>
-      <c r="I9" s="114" t="s">
-        <v>219</v>
-      </c>
-      <c r="J9" s="114" t="s">
-        <v>208</v>
-      </c>
-      <c r="K9" s="114" t="s">
-        <v>208</v>
-      </c>
-      <c r="L9" s="118"/>
-      <c r="M9" s="118"/>
-    </row>
-    <row r="10" spans="1:13" ht="16" x14ac:dyDescent="0.15">
-      <c r="A10" s="118"/>
-      <c r="B10" s="114" t="s">
-        <v>117</v>
-      </c>
-      <c r="C10" s="114" t="s">
-        <v>203</v>
-      </c>
-      <c r="D10" s="117" t="s">
-        <v>204</v>
-      </c>
-      <c r="E10" s="114" t="s">
-        <v>187</v>
-      </c>
-      <c r="F10" s="114" t="s">
-        <v>188</v>
-      </c>
-      <c r="G10" s="114" t="s">
-        <v>215</v>
-      </c>
-      <c r="H10" s="114" t="s">
-        <v>212</v>
-      </c>
-      <c r="I10" s="114" t="s">
-        <v>219</v>
-      </c>
-      <c r="J10" s="114" t="s">
-        <v>208</v>
-      </c>
-      <c r="K10" s="114" t="s">
-        <v>208</v>
-      </c>
-      <c r="L10" s="118"/>
-      <c r="M10" s="118"/>
-    </row>
-    <row r="11" spans="1:13" ht="16" x14ac:dyDescent="0.15">
-      <c r="A11" s="118"/>
-      <c r="B11" s="114"/>
-      <c r="C11" s="114"/>
-      <c r="D11" s="114"/>
-      <c r="E11" s="114"/>
-      <c r="F11" s="114"/>
-      <c r="G11" s="114"/>
-      <c r="H11" s="114"/>
-      <c r="I11" s="114"/>
-      <c r="J11" s="114"/>
-      <c r="K11" s="114"/>
-      <c r="L11" s="118"/>
-      <c r="M11" s="118"/>
-    </row>
-    <row r="12" spans="1:13" ht="16" x14ac:dyDescent="0.15">
-      <c r="A12" s="118"/>
-      <c r="B12" s="114" t="s">
-        <v>117</v>
-      </c>
-      <c r="C12" s="114" t="s">
-        <v>203</v>
-      </c>
-      <c r="D12" s="117" t="s">
-        <v>204</v>
-      </c>
-      <c r="E12" s="114" t="s">
-        <v>187</v>
-      </c>
-      <c r="F12" s="114" t="s">
-        <v>188</v>
-      </c>
-      <c r="G12" s="114" t="s">
-        <v>220</v>
-      </c>
-      <c r="H12" s="114" t="s">
-        <v>206</v>
-      </c>
-      <c r="I12" s="114" t="s">
-        <v>219</v>
-      </c>
-      <c r="J12" s="114" t="s">
-        <v>208</v>
-      </c>
-      <c r="K12" s="114" t="s">
-        <v>208</v>
-      </c>
-      <c r="L12" s="118"/>
-      <c r="M12" s="118"/>
-    </row>
-    <row r="13" spans="1:13" ht="255" x14ac:dyDescent="0.15">
-      <c r="A13" s="118"/>
-      <c r="B13" s="114" t="s">
-        <v>117</v>
-      </c>
-      <c r="C13" s="114" t="s">
-        <v>203</v>
-      </c>
-      <c r="D13" s="117" t="s">
-        <v>204</v>
-      </c>
-      <c r="E13" s="114" t="s">
-        <v>187</v>
-      </c>
-      <c r="F13" s="114" t="s">
-        <v>188</v>
-      </c>
-      <c r="G13" s="120" t="s">
-        <v>221</v>
-      </c>
-      <c r="H13" s="114" t="s">
-        <v>206</v>
-      </c>
-      <c r="I13" s="114" t="s">
-        <v>219</v>
-      </c>
-      <c r="J13" s="114" t="s">
-        <v>208</v>
-      </c>
-      <c r="K13" s="114" t="s">
-        <v>208</v>
-      </c>
-      <c r="L13" s="118"/>
-      <c r="M13" s="118"/>
-    </row>
-    <row r="14" spans="1:13" ht="16" x14ac:dyDescent="0.15">
-      <c r="A14" s="118"/>
-      <c r="B14" s="114" t="s">
-        <v>117</v>
-      </c>
-      <c r="C14" s="114" t="s">
-        <v>203</v>
-      </c>
-      <c r="D14" s="117" t="s">
-        <v>204</v>
-      </c>
-      <c r="E14" s="114" t="s">
-        <v>187</v>
-      </c>
-      <c r="F14" s="114" t="s">
-        <v>188</v>
-      </c>
-      <c r="G14" s="121" t="s">
-        <v>222</v>
-      </c>
-      <c r="H14" s="114" t="s">
-        <v>206</v>
-      </c>
-      <c r="I14" s="114" t="s">
-        <v>219</v>
-      </c>
-      <c r="J14" s="114" t="s">
-        <v>208</v>
-      </c>
-      <c r="K14" s="114" t="s">
-        <v>208</v>
-      </c>
-      <c r="L14" s="118"/>
-      <c r="M14" s="118"/>
-    </row>
-    <row r="15" spans="1:13" ht="409" x14ac:dyDescent="0.15">
-      <c r="A15" s="9">
-        <v>1</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>238</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>239</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="F15" s="9" t="s">
-        <v>188</v>
-      </c>
-      <c r="G15" s="12" t="s">
-        <v>241</v>
-      </c>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="12"/>
-    </row>
-    <row r="16" spans="1:13" ht="16" x14ac:dyDescent="0.15">
-      <c r="A16" s="9"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="9"/>
+      <c r="F14" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:M2"/>
   </mergeCells>
   <phoneticPr fontId="23" type="noConversion"/>
-  <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I16">
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4 I7:I14">
+      <formula1>"生产环境,测试环境,开发环境"</formula1>
+    </dataValidation>
+    <dataValidation type="list" imeMode="on" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I5:I6">
       <formula1>"开发环境、测试环境、生产环境"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4 I7:I10 I12:I15">
-      <formula1>"生产环境,测试环境,开发环境"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F16">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F14">
       <formula1>"新增,修改,删除"</formula1>
-    </dataValidation>
-    <dataValidation type="list" imeMode="on" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I5:I6 I11">
-      <formula1>"开发环境、测试环境、生产环境"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9390,10 +9133,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="39.5" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -9412,510 +9155,491 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="146" t="s">
-        <v>50</v>
-      </c>
-      <c r="B1" s="146"/>
-      <c r="C1" s="146"/>
-      <c r="D1" s="146"/>
-      <c r="E1" s="146"/>
-      <c r="F1" s="146"/>
-      <c r="G1" s="146"/>
-      <c r="H1" s="146"/>
-      <c r="I1" s="146"/>
-      <c r="J1" s="146"/>
-      <c r="K1" s="146"/>
-      <c r="L1" s="146"/>
-      <c r="M1" s="147"/>
+      <c r="A1" s="145" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="145"/>
+      <c r="C1" s="145"/>
+      <c r="D1" s="145"/>
+      <c r="E1" s="145"/>
+      <c r="F1" s="145"/>
+      <c r="G1" s="145"/>
+      <c r="H1" s="145"/>
+      <c r="I1" s="145"/>
+      <c r="J1" s="145"/>
+      <c r="K1" s="145"/>
+      <c r="L1" s="145"/>
+      <c r="M1" s="146"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="148"/>
-      <c r="B2" s="148"/>
-      <c r="C2" s="148"/>
-      <c r="D2" s="148"/>
-      <c r="E2" s="148"/>
-      <c r="F2" s="148"/>
-      <c r="G2" s="148"/>
-      <c r="H2" s="148"/>
-      <c r="I2" s="148"/>
-      <c r="J2" s="148"/>
-      <c r="K2" s="148"/>
-      <c r="L2" s="148"/>
-      <c r="M2" s="149"/>
+      <c r="A2" s="147"/>
+      <c r="B2" s="147"/>
+      <c r="C2" s="147"/>
+      <c r="D2" s="147"/>
+      <c r="E2" s="147"/>
+      <c r="F2" s="147"/>
+      <c r="G2" s="147"/>
+      <c r="H2" s="147"/>
+      <c r="I2" s="147"/>
+      <c r="J2" s="147"/>
+      <c r="K2" s="147"/>
+      <c r="L2" s="147"/>
+      <c r="M2" s="148"/>
     </row>
     <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>26</v>
       </c>
       <c r="C3" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="E3" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="F3" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="G3" s="8" t="s">
         <v>55</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>56</v>
       </c>
       <c r="H3" s="8" t="s">
         <v>27</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J3" s="8" t="s">
         <v>29</v>
       </c>
       <c r="K3" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" s="8" t="s">
         <v>58</v>
-      </c>
-      <c r="L3" s="8" t="s">
-        <v>59</v>
       </c>
       <c r="M3" s="13" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="16" x14ac:dyDescent="0.15">
-      <c r="A4" s="114">
+      <c r="A4" s="113">
         <v>2</v>
       </c>
-      <c r="B4" s="114" t="s">
+      <c r="B4" s="113" t="s">
+        <v>177</v>
+      </c>
+      <c r="C4" s="113" t="s">
+        <v>178</v>
+      </c>
+      <c r="D4" s="114" t="s">
+        <v>186</v>
+      </c>
+      <c r="E4" s="113" t="s">
+        <v>187</v>
+      </c>
+      <c r="F4" s="113" t="s">
+        <v>209</v>
+      </c>
+      <c r="G4" s="115" t="s">
+        <v>210</v>
+      </c>
+      <c r="H4" s="113" t="s">
+        <v>183</v>
+      </c>
+      <c r="I4" s="113"/>
+      <c r="J4" s="113" t="s">
         <v>184</v>
       </c>
-      <c r="C4" s="114" t="s">
+      <c r="K4" s="113" t="s">
+        <v>184</v>
+      </c>
+      <c r="L4" s="113" t="s">
         <v>185</v>
       </c>
-      <c r="D4" s="115" t="s">
+      <c r="M4" s="113" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+      <c r="A5" s="113">
+        <v>3</v>
+      </c>
+      <c r="B5" s="113" t="s">
+        <v>177</v>
+      </c>
+      <c r="C5" s="113" t="s">
+        <v>178</v>
+      </c>
+      <c r="D5" s="116" t="s">
+        <v>186</v>
+      </c>
+      <c r="E5" s="113" t="s">
+        <v>187</v>
+      </c>
+      <c r="F5" s="113" t="s">
+        <v>181</v>
+      </c>
+      <c r="G5" s="113" t="s">
+        <v>188</v>
+      </c>
+      <c r="H5" s="113" t="s">
+        <v>189</v>
+      </c>
+      <c r="I5" s="113"/>
+      <c r="J5" s="113" t="s">
+        <v>190</v>
+      </c>
+      <c r="K5" s="113" t="s">
+        <v>190</v>
+      </c>
+      <c r="L5" s="113" t="s">
+        <v>185</v>
+      </c>
+      <c r="M5" s="113"/>
+    </row>
+    <row r="6" spans="1:13" ht="80" x14ac:dyDescent="0.15">
+      <c r="A6" s="113">
+        <v>4</v>
+      </c>
+      <c r="B6" s="113" t="s">
+        <v>177</v>
+      </c>
+      <c r="C6" s="113" t="s">
+        <v>178</v>
+      </c>
+      <c r="D6" s="113" t="s">
+        <v>191</v>
+      </c>
+      <c r="E6" s="113" t="s">
+        <v>192</v>
+      </c>
+      <c r="F6" s="113" t="s">
+        <v>181</v>
+      </c>
+      <c r="G6" s="113" t="s">
         <v>193</v>
       </c>
-      <c r="E4" s="114" t="s">
+      <c r="H6" s="115" t="s">
         <v>194</v>
       </c>
-      <c r="F4" s="114" t="s">
-        <v>216</v>
-      </c>
-      <c r="G4" s="116" t="s">
-        <v>217</v>
-      </c>
-      <c r="H4" s="114" t="s">
+      <c r="I6" s="113"/>
+      <c r="J6" s="113" t="s">
         <v>190</v>
       </c>
-      <c r="I4" s="114"/>
-      <c r="J4" s="114" t="s">
-        <v>191</v>
-      </c>
-      <c r="K4" s="114" t="s">
-        <v>191</v>
-      </c>
-      <c r="L4" s="114" t="s">
-        <v>192</v>
-      </c>
-      <c r="M4" s="114" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="16" x14ac:dyDescent="0.15">
-      <c r="A5" s="114">
-        <v>3</v>
-      </c>
-      <c r="B5" s="114" t="s">
-        <v>184</v>
-      </c>
-      <c r="C5" s="114" t="s">
+      <c r="K6" s="113" t="s">
+        <v>190</v>
+      </c>
+      <c r="L6" s="113" t="s">
         <v>185</v>
       </c>
-      <c r="D5" s="117" t="s">
-        <v>193</v>
-      </c>
-      <c r="E5" s="114" t="s">
-        <v>194</v>
-      </c>
-      <c r="F5" s="114" t="s">
-        <v>188</v>
-      </c>
-      <c r="G5" s="114" t="s">
+      <c r="M6" s="113" t="s">
         <v>195</v>
       </c>
-      <c r="H5" s="114" t="s">
+    </row>
+    <row r="7" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+      <c r="A7" s="113">
+        <v>5</v>
+      </c>
+      <c r="B7" s="121" t="s">
+        <v>116</v>
+      </c>
+      <c r="C7" s="122" t="s">
         <v>196</v>
       </c>
-      <c r="I5" s="114"/>
-      <c r="J5" s="114" t="s">
+      <c r="D7" s="123" t="s">
         <v>197</v>
       </c>
-      <c r="K5" s="114" t="s">
-        <v>197</v>
-      </c>
-      <c r="L5" s="114" t="s">
-        <v>192</v>
-      </c>
-      <c r="M5" s="114"/>
-    </row>
-    <row r="6" spans="1:13" ht="80" x14ac:dyDescent="0.15">
-      <c r="A6" s="114">
-        <v>4</v>
-      </c>
-      <c r="B6" s="114" t="s">
-        <v>184</v>
-      </c>
-      <c r="C6" s="114" t="s">
-        <v>185</v>
-      </c>
-      <c r="D6" s="114" t="s">
-        <v>198</v>
-      </c>
-      <c r="E6" s="114" t="s">
-        <v>199</v>
-      </c>
-      <c r="F6" s="114" t="s">
-        <v>188</v>
-      </c>
-      <c r="G6" s="114" t="s">
-        <v>200</v>
-      </c>
-      <c r="H6" s="116" t="s">
+      <c r="E7" s="122" t="s">
+        <v>180</v>
+      </c>
+      <c r="F7" s="122" t="s">
+        <v>181</v>
+      </c>
+      <c r="G7" s="120" t="s">
+        <v>204</v>
+      </c>
+      <c r="H7" s="121" t="s">
+        <v>205</v>
+      </c>
+      <c r="I7" s="122" t="s">
+        <v>212</v>
+      </c>
+      <c r="J7" s="122" t="s">
         <v>201</v>
       </c>
-      <c r="I6" s="114"/>
-      <c r="J6" s="114" t="s">
-        <v>197</v>
-      </c>
-      <c r="K6" s="114" t="s">
-        <v>197</v>
-      </c>
-      <c r="L6" s="114" t="s">
-        <v>192</v>
-      </c>
-      <c r="M6" s="114" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="16" x14ac:dyDescent="0.15">
-      <c r="A7" s="118"/>
-      <c r="B7" s="122" t="s">
-        <v>117</v>
-      </c>
-      <c r="C7" s="123" t="s">
-        <v>203</v>
-      </c>
-      <c r="D7" s="124" t="s">
-        <v>204</v>
-      </c>
-      <c r="E7" s="123" t="s">
-        <v>187</v>
-      </c>
-      <c r="F7" s="123" t="s">
-        <v>188</v>
-      </c>
-      <c r="G7" s="121" t="s">
-        <v>211</v>
-      </c>
-      <c r="H7" s="122" t="s">
-        <v>212</v>
-      </c>
-      <c r="I7" s="123" t="s">
-        <v>219</v>
-      </c>
-      <c r="J7" s="123" t="s">
-        <v>208</v>
-      </c>
-      <c r="K7" s="123" t="s">
-        <v>208</v>
+      <c r="K7" s="122" t="s">
+        <v>201</v>
       </c>
       <c r="L7" s="10"/>
       <c r="M7" s="14"/>
     </row>
     <row r="8" spans="1:13" ht="16" x14ac:dyDescent="0.15">
-      <c r="A8" s="118"/>
-      <c r="B8" s="125" t="s">
-        <v>117</v>
-      </c>
-      <c r="C8" s="126" t="s">
-        <v>203</v>
-      </c>
-      <c r="D8" s="124" t="s">
-        <v>204</v>
-      </c>
-      <c r="E8" s="126" t="s">
+      <c r="A8" s="113">
+        <v>6</v>
+      </c>
+      <c r="B8" s="124" t="s">
+        <v>116</v>
+      </c>
+      <c r="C8" s="125" t="s">
+        <v>196</v>
+      </c>
+      <c r="D8" s="123" t="s">
+        <v>197</v>
+      </c>
+      <c r="E8" s="125" t="s">
+        <v>180</v>
+      </c>
+      <c r="F8" s="125" t="s">
+        <v>181</v>
+      </c>
+      <c r="G8" s="122" t="s">
+        <v>206</v>
+      </c>
+      <c r="H8" s="125" t="s">
+        <v>205</v>
+      </c>
+      <c r="I8" s="125" t="s">
+        <v>212</v>
+      </c>
+      <c r="J8" s="125" t="s">
+        <v>201</v>
+      </c>
+      <c r="K8" s="125" t="s">
+        <v>201</v>
+      </c>
+      <c r="L8" s="117"/>
+      <c r="M8" s="118"/>
+    </row>
+    <row r="9" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+      <c r="A9" s="113">
+        <v>7</v>
+      </c>
+      <c r="B9" s="124" t="s">
+        <v>116</v>
+      </c>
+      <c r="C9" s="125" t="s">
+        <v>196</v>
+      </c>
+      <c r="D9" s="123" t="s">
+        <v>197</v>
+      </c>
+      <c r="E9" s="125" t="s">
+        <v>180</v>
+      </c>
+      <c r="F9" s="125" t="s">
+        <v>181</v>
+      </c>
+      <c r="G9" s="125" t="s">
+        <v>207</v>
+      </c>
+      <c r="H9" s="125" t="s">
+        <v>205</v>
+      </c>
+      <c r="I9" s="125" t="s">
+        <v>212</v>
+      </c>
+      <c r="J9" s="125" t="s">
+        <v>201</v>
+      </c>
+      <c r="K9" s="125" t="s">
+        <v>201</v>
+      </c>
+      <c r="L9" s="117"/>
+      <c r="M9" s="117"/>
+    </row>
+    <row r="10" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+      <c r="A10" s="113">
+        <v>8</v>
+      </c>
+      <c r="B10" s="124" t="s">
+        <v>116</v>
+      </c>
+      <c r="C10" s="125" t="s">
+        <v>196</v>
+      </c>
+      <c r="D10" s="123" t="s">
+        <v>197</v>
+      </c>
+      <c r="E10" s="125" t="s">
+        <v>180</v>
+      </c>
+      <c r="F10" s="125" t="s">
+        <v>181</v>
+      </c>
+      <c r="G10" s="125" t="s">
+        <v>208</v>
+      </c>
+      <c r="H10" s="125" t="s">
+        <v>205</v>
+      </c>
+      <c r="I10" s="125" t="s">
+        <v>212</v>
+      </c>
+      <c r="J10" s="125" t="s">
+        <v>201</v>
+      </c>
+      <c r="K10" s="125" t="s">
+        <v>201</v>
+      </c>
+      <c r="L10" s="117"/>
+      <c r="M10" s="117"/>
+    </row>
+    <row r="11" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+      <c r="A11" s="113">
+        <v>9</v>
+      </c>
+      <c r="B11" s="124" t="s">
+        <v>116</v>
+      </c>
+      <c r="C11" s="125" t="s">
+        <v>196</v>
+      </c>
+      <c r="D11" s="123" t="s">
+        <v>197</v>
+      </c>
+      <c r="E11" s="125" t="s">
+        <v>180</v>
+      </c>
+      <c r="F11" s="125" t="s">
+        <v>181</v>
+      </c>
+      <c r="G11" s="125" t="s">
+        <v>213</v>
+      </c>
+      <c r="H11" s="125" t="s">
+        <v>199</v>
+      </c>
+      <c r="I11" s="125" t="s">
+        <v>212</v>
+      </c>
+      <c r="J11" s="125" t="s">
+        <v>201</v>
+      </c>
+      <c r="K11" s="125" t="s">
+        <v>201</v>
+      </c>
+      <c r="L11" s="117"/>
+      <c r="M11" s="117"/>
+    </row>
+    <row r="12" spans="1:13" ht="240" x14ac:dyDescent="0.15">
+      <c r="A12" s="113">
+        <v>10</v>
+      </c>
+      <c r="B12" s="124" t="s">
+        <v>116</v>
+      </c>
+      <c r="C12" s="125" t="s">
+        <v>196</v>
+      </c>
+      <c r="D12" s="123" t="s">
+        <v>197</v>
+      </c>
+      <c r="E12" s="125" t="s">
+        <v>180</v>
+      </c>
+      <c r="F12" s="125" t="s">
+        <v>181</v>
+      </c>
+      <c r="G12" s="119" t="s">
+        <v>216</v>
+      </c>
+      <c r="H12" s="124" t="s">
+        <v>199</v>
+      </c>
+      <c r="I12" s="125" t="s">
+        <v>212</v>
+      </c>
+      <c r="J12" s="125" t="s">
+        <v>201</v>
+      </c>
+      <c r="K12" s="125" t="s">
+        <v>201</v>
+      </c>
+      <c r="L12" s="117"/>
+      <c r="M12" s="117"/>
+    </row>
+    <row r="13" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+      <c r="A13" s="113">
+        <v>11</v>
+      </c>
+      <c r="B13" s="124" t="s">
+        <v>116</v>
+      </c>
+      <c r="C13" s="125" t="s">
+        <v>196</v>
+      </c>
+      <c r="D13" s="123" t="s">
+        <v>197</v>
+      </c>
+      <c r="E13" s="125" t="s">
+        <v>180</v>
+      </c>
+      <c r="F13" s="125" t="s">
+        <v>181</v>
+      </c>
+      <c r="G13" s="120" t="s">
+        <v>217</v>
+      </c>
+      <c r="H13" s="124" t="s">
+        <v>199</v>
+      </c>
+      <c r="I13" s="125" t="s">
+        <v>212</v>
+      </c>
+      <c r="J13" s="125" t="s">
+        <v>201</v>
+      </c>
+      <c r="K13" s="125" t="s">
+        <v>201</v>
+      </c>
+      <c r="L13" s="117"/>
+      <c r="M13" s="117"/>
+    </row>
+    <row r="14" spans="1:13" ht="409" x14ac:dyDescent="0.15">
+      <c r="A14" s="113">
+        <v>12</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="E14" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="F8" s="126" t="s">
-        <v>188</v>
-      </c>
-      <c r="G8" s="123" t="s">
-        <v>213</v>
-      </c>
-      <c r="H8" s="126" t="s">
-        <v>212</v>
-      </c>
-      <c r="I8" s="126" t="s">
-        <v>219</v>
-      </c>
-      <c r="J8" s="126" t="s">
-        <v>208</v>
-      </c>
-      <c r="K8" s="126" t="s">
-        <v>208</v>
-      </c>
-      <c r="L8" s="118"/>
-      <c r="M8" s="119"/>
-    </row>
-    <row r="9" spans="1:13" ht="16" x14ac:dyDescent="0.15">
-      <c r="A9" s="118"/>
-      <c r="B9" s="125" t="s">
-        <v>117</v>
-      </c>
-      <c r="C9" s="126" t="s">
-        <v>203</v>
-      </c>
-      <c r="D9" s="124" t="s">
-        <v>204</v>
-      </c>
-      <c r="E9" s="126" t="s">
-        <v>187</v>
-      </c>
-      <c r="F9" s="126" t="s">
-        <v>188</v>
-      </c>
-      <c r="G9" s="126" t="s">
-        <v>214</v>
-      </c>
-      <c r="H9" s="126" t="s">
-        <v>212</v>
-      </c>
-      <c r="I9" s="126" t="s">
-        <v>219</v>
-      </c>
-      <c r="J9" s="126" t="s">
-        <v>208</v>
-      </c>
-      <c r="K9" s="126" t="s">
-        <v>208</v>
-      </c>
-      <c r="L9" s="118"/>
-      <c r="M9" s="118"/>
-    </row>
-    <row r="10" spans="1:13" ht="16" x14ac:dyDescent="0.15">
-      <c r="A10" s="118"/>
-      <c r="B10" s="125" t="s">
-        <v>117</v>
-      </c>
-      <c r="C10" s="126" t="s">
-        <v>203</v>
-      </c>
-      <c r="D10" s="124" t="s">
-        <v>204</v>
-      </c>
-      <c r="E10" s="126" t="s">
-        <v>187</v>
-      </c>
-      <c r="F10" s="126" t="s">
-        <v>188</v>
-      </c>
-      <c r="G10" s="126" t="s">
-        <v>215</v>
-      </c>
-      <c r="H10" s="126" t="s">
-        <v>212</v>
-      </c>
-      <c r="I10" s="126" t="s">
-        <v>219</v>
-      </c>
-      <c r="J10" s="126" t="s">
-        <v>208</v>
-      </c>
-      <c r="K10" s="126" t="s">
-        <v>208</v>
-      </c>
-      <c r="L10" s="118"/>
-      <c r="M10" s="118"/>
-    </row>
-    <row r="11" spans="1:13" ht="16" x14ac:dyDescent="0.15">
-      <c r="A11" s="118"/>
-      <c r="B11" s="125"/>
-      <c r="C11" s="126"/>
-      <c r="D11" s="126"/>
-      <c r="E11" s="126"/>
-      <c r="F11" s="126"/>
-      <c r="G11" s="126"/>
-      <c r="H11" s="126"/>
-      <c r="I11" s="126"/>
-      <c r="J11" s="126"/>
-      <c r="K11" s="126"/>
-      <c r="L11" s="118"/>
-      <c r="M11" s="118"/>
-    </row>
-    <row r="12" spans="1:13" ht="16" x14ac:dyDescent="0.15">
-      <c r="A12" s="118"/>
-      <c r="B12" s="125" t="s">
-        <v>117</v>
-      </c>
-      <c r="C12" s="126" t="s">
-        <v>203</v>
-      </c>
-      <c r="D12" s="124" t="s">
-        <v>204</v>
-      </c>
-      <c r="E12" s="126" t="s">
-        <v>187</v>
-      </c>
-      <c r="F12" s="126" t="s">
-        <v>188</v>
-      </c>
-      <c r="G12" s="126" t="s">
-        <v>220</v>
-      </c>
-      <c r="H12" s="126" t="s">
-        <v>206</v>
-      </c>
-      <c r="I12" s="126" t="s">
-        <v>219</v>
-      </c>
-      <c r="J12" s="126" t="s">
-        <v>208</v>
-      </c>
-      <c r="K12" s="126" t="s">
-        <v>208</v>
-      </c>
-      <c r="L12" s="118"/>
-      <c r="M12" s="118"/>
-    </row>
-    <row r="13" spans="1:13" ht="240" x14ac:dyDescent="0.15">
-      <c r="A13" s="118"/>
-      <c r="B13" s="125" t="s">
-        <v>117</v>
-      </c>
-      <c r="C13" s="126" t="s">
-        <v>203</v>
-      </c>
-      <c r="D13" s="124" t="s">
-        <v>204</v>
-      </c>
-      <c r="E13" s="126" t="s">
-        <v>187</v>
-      </c>
-      <c r="F13" s="126" t="s">
-        <v>188</v>
-      </c>
-      <c r="G13" s="120" t="s">
-        <v>223</v>
-      </c>
-      <c r="H13" s="125" t="s">
-        <v>206</v>
-      </c>
-      <c r="I13" s="126" t="s">
-        <v>219</v>
-      </c>
-      <c r="J13" s="126" t="s">
-        <v>208</v>
-      </c>
-      <c r="K13" s="126" t="s">
-        <v>208</v>
-      </c>
-      <c r="L13" s="118"/>
-      <c r="M13" s="118"/>
-    </row>
-    <row r="14" spans="1:13" ht="16" x14ac:dyDescent="0.15">
-      <c r="A14" s="118"/>
-      <c r="B14" s="125" t="s">
-        <v>117</v>
-      </c>
-      <c r="C14" s="126" t="s">
-        <v>203</v>
-      </c>
-      <c r="D14" s="124" t="s">
-        <v>204</v>
-      </c>
-      <c r="E14" s="126" t="s">
-        <v>187</v>
-      </c>
-      <c r="F14" s="126" t="s">
-        <v>188</v>
-      </c>
-      <c r="G14" s="121" t="s">
-        <v>224</v>
-      </c>
-      <c r="H14" s="125" t="s">
-        <v>206</v>
-      </c>
-      <c r="I14" s="126" t="s">
-        <v>219</v>
-      </c>
-      <c r="J14" s="126" t="s">
-        <v>208</v>
-      </c>
-      <c r="K14" s="126" t="s">
-        <v>208</v>
-      </c>
-      <c r="L14" s="118"/>
-      <c r="M14" s="118"/>
-    </row>
-    <row r="15" spans="1:13" ht="409" x14ac:dyDescent="0.15">
-      <c r="A15" s="9">
-        <v>1</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>238</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>239</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="F15" s="9" t="s">
-        <v>188</v>
-      </c>
-      <c r="G15" s="12" t="s">
-        <v>241</v>
-      </c>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="12"/>
-    </row>
-    <row r="16" spans="1:13" ht="16" x14ac:dyDescent="0.15">
-      <c r="A16" s="9"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="9"/>
+      <c r="F14" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:M2"/>
   </mergeCells>
   <phoneticPr fontId="23" type="noConversion"/>
-  <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I16">
-      <formula1>"开发环境、测试环境、生产环境"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4 I15">
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4 I14">
       <formula1>"生产环境,测试环境,开发环境"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F6 F15:F16">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F6 F14">
       <formula1>"新增,修改,删除"</formula1>
     </dataValidation>
     <dataValidation type="list" imeMode="on" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I5:I6">
@@ -9928,10 +9652,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD15"/>
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="39.5" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -9952,478 +9676,464 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="146" t="s">
-        <v>50</v>
-      </c>
-      <c r="B1" s="146"/>
-      <c r="C1" s="146"/>
-      <c r="D1" s="146"/>
-      <c r="E1" s="146"/>
-      <c r="F1" s="146"/>
-      <c r="G1" s="146"/>
-      <c r="H1" s="146"/>
-      <c r="I1" s="146"/>
-      <c r="J1" s="146"/>
-      <c r="K1" s="146"/>
-      <c r="L1" s="146"/>
-      <c r="M1" s="147"/>
+      <c r="A1" s="145" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="145"/>
+      <c r="C1" s="145"/>
+      <c r="D1" s="145"/>
+      <c r="E1" s="145"/>
+      <c r="F1" s="145"/>
+      <c r="G1" s="145"/>
+      <c r="H1" s="145"/>
+      <c r="I1" s="145"/>
+      <c r="J1" s="145"/>
+      <c r="K1" s="145"/>
+      <c r="L1" s="145"/>
+      <c r="M1" s="146"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="148"/>
-      <c r="B2" s="148"/>
-      <c r="C2" s="148"/>
-      <c r="D2" s="148"/>
-      <c r="E2" s="148"/>
-      <c r="F2" s="148"/>
-      <c r="G2" s="148"/>
-      <c r="H2" s="148"/>
-      <c r="I2" s="148"/>
-      <c r="J2" s="148"/>
-      <c r="K2" s="148"/>
-      <c r="L2" s="148"/>
-      <c r="M2" s="149"/>
+      <c r="A2" s="147"/>
+      <c r="B2" s="147"/>
+      <c r="C2" s="147"/>
+      <c r="D2" s="147"/>
+      <c r="E2" s="147"/>
+      <c r="F2" s="147"/>
+      <c r="G2" s="147"/>
+      <c r="H2" s="147"/>
+      <c r="I2" s="147"/>
+      <c r="J2" s="147"/>
+      <c r="K2" s="147"/>
+      <c r="L2" s="147"/>
+      <c r="M2" s="148"/>
     </row>
     <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>26</v>
       </c>
       <c r="C3" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="E3" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="F3" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="G3" s="8" t="s">
         <v>55</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>56</v>
       </c>
       <c r="H3" s="8" t="s">
         <v>27</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J3" s="8" t="s">
         <v>29</v>
       </c>
       <c r="K3" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" s="8" t="s">
         <v>58</v>
-      </c>
-      <c r="L3" s="8" t="s">
-        <v>59</v>
       </c>
       <c r="M3" s="13" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="16" x14ac:dyDescent="0.15">
-      <c r="A4" s="114">
+      <c r="A4" s="113">
         <v>1</v>
       </c>
-      <c r="B4" s="114" t="s">
+      <c r="B4" s="113" t="s">
+        <v>177</v>
+      </c>
+      <c r="C4" s="113" t="s">
+        <v>178</v>
+      </c>
+      <c r="D4" s="114" t="s">
+        <v>179</v>
+      </c>
+      <c r="E4" s="113" t="s">
+        <v>180</v>
+      </c>
+      <c r="F4" s="113" t="s">
+        <v>181</v>
+      </c>
+      <c r="G4" s="115" t="s">
+        <v>182</v>
+      </c>
+      <c r="H4" s="113" t="s">
+        <v>183</v>
+      </c>
+      <c r="I4" s="113"/>
+      <c r="J4" s="113" t="s">
         <v>184</v>
       </c>
-      <c r="C4" s="114" t="s">
+      <c r="K4" s="113" t="s">
+        <v>184</v>
+      </c>
+      <c r="L4" s="113" t="s">
         <v>185</v>
       </c>
-      <c r="D4" s="115" t="s">
+      <c r="M4" s="113" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+      <c r="A5" s="113">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+      <c r="A6" s="113">
+        <v>3</v>
+      </c>
+      <c r="B6" s="113" t="s">
+        <v>177</v>
+      </c>
+      <c r="C6" s="113" t="s">
+        <v>178</v>
+      </c>
+      <c r="D6" s="116" t="s">
         <v>186</v>
       </c>
-      <c r="E4" s="114" t="s">
+      <c r="E6" s="113" t="s">
         <v>187</v>
       </c>
-      <c r="F4" s="114" t="s">
+      <c r="F6" s="113" t="s">
+        <v>181</v>
+      </c>
+      <c r="G6" s="113" t="s">
         <v>188</v>
       </c>
-      <c r="G4" s="116" t="s">
+      <c r="H6" s="113" t="s">
         <v>189</v>
       </c>
-      <c r="H4" s="114" t="s">
+      <c r="I6" s="113"/>
+      <c r="J6" s="113" t="s">
         <v>190</v>
       </c>
-      <c r="I4" s="114"/>
-      <c r="J4" s="114" t="s">
+      <c r="K6" s="113" t="s">
+        <v>190</v>
+      </c>
+      <c r="L6" s="113" t="s">
+        <v>185</v>
+      </c>
+      <c r="M6" s="113"/>
+    </row>
+    <row r="7" spans="1:13" ht="80" x14ac:dyDescent="0.15">
+      <c r="A7" s="113">
+        <v>4</v>
+      </c>
+      <c r="B7" s="113" t="s">
+        <v>177</v>
+      </c>
+      <c r="C7" s="113" t="s">
+        <v>178</v>
+      </c>
+      <c r="D7" s="113" t="s">
         <v>191</v>
       </c>
-      <c r="K4" s="114" t="s">
-        <v>191</v>
-      </c>
-      <c r="L4" s="114" t="s">
+      <c r="E7" s="113" t="s">
         <v>192</v>
       </c>
-      <c r="M4" s="114" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="16" x14ac:dyDescent="0.15">
-      <c r="A6" s="114">
-        <v>3</v>
-      </c>
-      <c r="B6" s="114" t="s">
-        <v>184</v>
-      </c>
-      <c r="C6" s="114" t="s">
+      <c r="F7" s="113" t="s">
+        <v>181</v>
+      </c>
+      <c r="G7" s="113" t="s">
+        <v>193</v>
+      </c>
+      <c r="H7" s="115" t="s">
+        <v>194</v>
+      </c>
+      <c r="I7" s="113"/>
+      <c r="J7" s="113" t="s">
+        <v>190</v>
+      </c>
+      <c r="K7" s="113" t="s">
+        <v>190</v>
+      </c>
+      <c r="L7" s="113" t="s">
         <v>185</v>
       </c>
-      <c r="D6" s="117" t="s">
-        <v>193</v>
-      </c>
-      <c r="E6" s="114" t="s">
-        <v>194</v>
-      </c>
-      <c r="F6" s="114" t="s">
-        <v>188</v>
-      </c>
-      <c r="G6" s="114" t="s">
+      <c r="M7" s="113" t="s">
         <v>195</v>
       </c>
-      <c r="H6" s="114" t="s">
+    </row>
+    <row r="8" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+      <c r="A8" s="113">
+        <v>5</v>
+      </c>
+      <c r="B8" s="121" t="s">
+        <v>116</v>
+      </c>
+      <c r="C8" s="122" t="s">
         <v>196</v>
       </c>
-      <c r="I6" s="114"/>
-      <c r="J6" s="114" t="s">
+      <c r="D8" s="123" t="s">
         <v>197</v>
       </c>
-      <c r="K6" s="114" t="s">
+      <c r="E8" s="122" t="s">
+        <v>180</v>
+      </c>
+      <c r="F8" s="122" t="s">
+        <v>181</v>
+      </c>
+      <c r="G8" s="120" t="s">
+        <v>204</v>
+      </c>
+      <c r="H8" s="121" t="s">
+        <v>205</v>
+      </c>
+      <c r="I8" s="122" t="s">
+        <v>212</v>
+      </c>
+      <c r="J8" s="122" t="s">
+        <v>201</v>
+      </c>
+      <c r="K8" s="122" t="s">
+        <v>201</v>
+      </c>
+      <c r="L8" s="117"/>
+      <c r="M8" s="118"/>
+    </row>
+    <row r="9" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+      <c r="A9" s="113">
+        <v>6</v>
+      </c>
+      <c r="B9" s="124" t="s">
+        <v>116</v>
+      </c>
+      <c r="C9" s="125" t="s">
+        <v>196</v>
+      </c>
+      <c r="D9" s="123" t="s">
         <v>197</v>
       </c>
-      <c r="L6" s="114" t="s">
-        <v>192</v>
-      </c>
-      <c r="M6" s="114"/>
-    </row>
-    <row r="7" spans="1:13" ht="80" x14ac:dyDescent="0.15">
-      <c r="A7" s="114">
-        <v>4</v>
-      </c>
-      <c r="B7" s="114" t="s">
-        <v>184</v>
-      </c>
-      <c r="C7" s="114" t="s">
-        <v>185</v>
-      </c>
-      <c r="D7" s="114" t="s">
-        <v>198</v>
-      </c>
-      <c r="E7" s="114" t="s">
+      <c r="E9" s="125" t="s">
+        <v>180</v>
+      </c>
+      <c r="F9" s="125" t="s">
+        <v>181</v>
+      </c>
+      <c r="G9" s="122" t="s">
+        <v>206</v>
+      </c>
+      <c r="H9" s="125" t="s">
+        <v>205</v>
+      </c>
+      <c r="I9" s="125" t="s">
+        <v>212</v>
+      </c>
+      <c r="J9" s="125" t="s">
+        <v>201</v>
+      </c>
+      <c r="K9" s="125" t="s">
+        <v>201</v>
+      </c>
+      <c r="L9" s="117"/>
+      <c r="M9" s="117"/>
+    </row>
+    <row r="10" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+      <c r="A10" s="113">
+        <v>7</v>
+      </c>
+      <c r="B10" s="124" t="s">
+        <v>116</v>
+      </c>
+      <c r="C10" s="125" t="s">
+        <v>196</v>
+      </c>
+      <c r="D10" s="123" t="s">
+        <v>197</v>
+      </c>
+      <c r="E10" s="125" t="s">
+        <v>180</v>
+      </c>
+      <c r="F10" s="125" t="s">
+        <v>181</v>
+      </c>
+      <c r="G10" s="125" t="s">
+        <v>207</v>
+      </c>
+      <c r="H10" s="125" t="s">
+        <v>205</v>
+      </c>
+      <c r="I10" s="125" t="s">
+        <v>212</v>
+      </c>
+      <c r="J10" s="125" t="s">
+        <v>201</v>
+      </c>
+      <c r="K10" s="125" t="s">
+        <v>201</v>
+      </c>
+      <c r="L10" s="117"/>
+      <c r="M10" s="117"/>
+    </row>
+    <row r="11" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+      <c r="A11" s="113">
+        <v>8</v>
+      </c>
+      <c r="B11" s="124" t="s">
+        <v>116</v>
+      </c>
+      <c r="C11" s="125" t="s">
+        <v>196</v>
+      </c>
+      <c r="D11" s="123" t="s">
+        <v>197</v>
+      </c>
+      <c r="E11" s="125" t="s">
+        <v>180</v>
+      </c>
+      <c r="F11" s="125" t="s">
+        <v>181</v>
+      </c>
+      <c r="G11" s="125" t="s">
+        <v>208</v>
+      </c>
+      <c r="H11" s="125" t="s">
+        <v>205</v>
+      </c>
+      <c r="I11" s="125" t="s">
+        <v>212</v>
+      </c>
+      <c r="J11" s="125" t="s">
+        <v>201</v>
+      </c>
+      <c r="K11" s="125" t="s">
+        <v>201</v>
+      </c>
+      <c r="L11" s="117"/>
+      <c r="M11" s="117"/>
+    </row>
+    <row r="12" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+      <c r="A12" s="113">
+        <v>9</v>
+      </c>
+      <c r="B12" s="124" t="s">
+        <v>116</v>
+      </c>
+      <c r="C12" s="125" t="s">
+        <v>196</v>
+      </c>
+      <c r="D12" s="123" t="s">
+        <v>197</v>
+      </c>
+      <c r="E12" s="125" t="s">
+        <v>180</v>
+      </c>
+      <c r="F12" s="125" t="s">
+        <v>181</v>
+      </c>
+      <c r="G12" s="125" t="s">
+        <v>213</v>
+      </c>
+      <c r="H12" s="125" t="s">
         <v>199</v>
       </c>
-      <c r="F7" s="114" t="s">
-        <v>188</v>
-      </c>
-      <c r="G7" s="114" t="s">
-        <v>200</v>
-      </c>
-      <c r="H7" s="116" t="s">
+      <c r="I12" s="125" t="s">
+        <v>212</v>
+      </c>
+      <c r="J12" s="125" t="s">
         <v>201</v>
       </c>
-      <c r="I7" s="114"/>
-      <c r="J7" s="114" t="s">
+      <c r="K12" s="125" t="s">
+        <v>201</v>
+      </c>
+      <c r="L12" s="117"/>
+      <c r="M12" s="117"/>
+    </row>
+    <row r="13" spans="1:13" ht="240" x14ac:dyDescent="0.15">
+      <c r="A13" s="113">
+        <v>10</v>
+      </c>
+      <c r="B13" s="124" t="s">
+        <v>116</v>
+      </c>
+      <c r="C13" s="125" t="s">
+        <v>196</v>
+      </c>
+      <c r="D13" s="123" t="s">
         <v>197</v>
       </c>
-      <c r="K7" s="114" t="s">
+      <c r="E13" s="125" t="s">
+        <v>180</v>
+      </c>
+      <c r="F13" s="125" t="s">
+        <v>181</v>
+      </c>
+      <c r="G13" s="119" t="s">
+        <v>216</v>
+      </c>
+      <c r="H13" s="124" t="s">
+        <v>199</v>
+      </c>
+      <c r="I13" s="125" t="s">
+        <v>212</v>
+      </c>
+      <c r="J13" s="125" t="s">
+        <v>201</v>
+      </c>
+      <c r="K13" s="125" t="s">
+        <v>201</v>
+      </c>
+      <c r="L13" s="117"/>
+      <c r="M13" s="117"/>
+    </row>
+    <row r="14" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+      <c r="A14" s="113">
+        <v>11</v>
+      </c>
+      <c r="B14" s="124" t="s">
+        <v>116</v>
+      </c>
+      <c r="C14" s="125" t="s">
+        <v>196</v>
+      </c>
+      <c r="D14" s="123" t="s">
         <v>197</v>
       </c>
-      <c r="L7" s="114" t="s">
-        <v>192</v>
-      </c>
-      <c r="M7" s="114" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="16" x14ac:dyDescent="0.15">
-      <c r="A8" s="118"/>
-      <c r="B8" s="122" t="s">
-        <v>117</v>
-      </c>
-      <c r="C8" s="123" t="s">
-        <v>203</v>
-      </c>
-      <c r="D8" s="124" t="s">
-        <v>204</v>
-      </c>
-      <c r="E8" s="123" t="s">
-        <v>187</v>
-      </c>
-      <c r="F8" s="123" t="s">
-        <v>188</v>
-      </c>
-      <c r="G8" s="121" t="s">
-        <v>211</v>
-      </c>
-      <c r="H8" s="122" t="s">
+      <c r="E14" s="125" t="s">
+        <v>180</v>
+      </c>
+      <c r="F14" s="125" t="s">
+        <v>181</v>
+      </c>
+      <c r="G14" s="120" t="s">
+        <v>217</v>
+      </c>
+      <c r="H14" s="124" t="s">
+        <v>199</v>
+      </c>
+      <c r="I14" s="125" t="s">
         <v>212</v>
       </c>
-      <c r="I8" s="123" t="s">
-        <v>219</v>
-      </c>
-      <c r="J8" s="123" t="s">
-        <v>208</v>
-      </c>
-      <c r="K8" s="123" t="s">
-        <v>208</v>
-      </c>
-      <c r="L8" s="118"/>
-      <c r="M8" s="119"/>
-    </row>
-    <row r="9" spans="1:13" ht="16" x14ac:dyDescent="0.15">
-      <c r="A9" s="118"/>
-      <c r="B9" s="125" t="s">
-        <v>117</v>
-      </c>
-      <c r="C9" s="126" t="s">
-        <v>203</v>
-      </c>
-      <c r="D9" s="124" t="s">
-        <v>204</v>
-      </c>
-      <c r="E9" s="126" t="s">
-        <v>187</v>
-      </c>
-      <c r="F9" s="126" t="s">
-        <v>188</v>
-      </c>
-      <c r="G9" s="123" t="s">
-        <v>213</v>
-      </c>
-      <c r="H9" s="126" t="s">
-        <v>212</v>
-      </c>
-      <c r="I9" s="126" t="s">
-        <v>219</v>
-      </c>
-      <c r="J9" s="126" t="s">
-        <v>208</v>
-      </c>
-      <c r="K9" s="126" t="s">
-        <v>208</v>
-      </c>
-      <c r="L9" s="118"/>
-      <c r="M9" s="118"/>
-    </row>
-    <row r="10" spans="1:13" ht="16" x14ac:dyDescent="0.15">
-      <c r="A10" s="118"/>
-      <c r="B10" s="125" t="s">
-        <v>117</v>
-      </c>
-      <c r="C10" s="126" t="s">
-        <v>203</v>
-      </c>
-      <c r="D10" s="124" t="s">
-        <v>204</v>
-      </c>
-      <c r="E10" s="126" t="s">
-        <v>187</v>
-      </c>
-      <c r="F10" s="126" t="s">
-        <v>188</v>
-      </c>
-      <c r="G10" s="126" t="s">
-        <v>214</v>
-      </c>
-      <c r="H10" s="126" t="s">
-        <v>212</v>
-      </c>
-      <c r="I10" s="126" t="s">
-        <v>219</v>
-      </c>
-      <c r="J10" s="126" t="s">
-        <v>208</v>
-      </c>
-      <c r="K10" s="126" t="s">
-        <v>208</v>
-      </c>
-      <c r="L10" s="118"/>
-      <c r="M10" s="118"/>
-    </row>
-    <row r="11" spans="1:13" ht="16" x14ac:dyDescent="0.15">
-      <c r="A11" s="118"/>
-      <c r="B11" s="125" t="s">
-        <v>117</v>
-      </c>
-      <c r="C11" s="126" t="s">
-        <v>203</v>
-      </c>
-      <c r="D11" s="124" t="s">
-        <v>204</v>
-      </c>
-      <c r="E11" s="126" t="s">
-        <v>187</v>
-      </c>
-      <c r="F11" s="126" t="s">
-        <v>188</v>
-      </c>
-      <c r="G11" s="126" t="s">
-        <v>215</v>
-      </c>
-      <c r="H11" s="126" t="s">
-        <v>212</v>
-      </c>
-      <c r="I11" s="126" t="s">
-        <v>219</v>
-      </c>
-      <c r="J11" s="126" t="s">
-        <v>208</v>
-      </c>
-      <c r="K11" s="126" t="s">
-        <v>208</v>
-      </c>
-      <c r="L11" s="118"/>
-      <c r="M11" s="118"/>
-    </row>
-    <row r="12" spans="1:13" ht="16" x14ac:dyDescent="0.15">
-      <c r="A12" s="118"/>
-      <c r="B12" s="125"/>
-      <c r="C12" s="126"/>
-      <c r="D12" s="126"/>
-      <c r="E12" s="126"/>
-      <c r="F12" s="126"/>
-      <c r="G12" s="126"/>
-      <c r="H12" s="126"/>
-      <c r="I12" s="126"/>
-      <c r="J12" s="126"/>
-      <c r="K12" s="126"/>
-      <c r="L12" s="118"/>
-      <c r="M12" s="118"/>
-    </row>
-    <row r="13" spans="1:13" ht="16" x14ac:dyDescent="0.15">
-      <c r="A13" s="118"/>
-      <c r="B13" s="125" t="s">
-        <v>117</v>
-      </c>
-      <c r="C13" s="126" t="s">
-        <v>203</v>
-      </c>
-      <c r="D13" s="124" t="s">
-        <v>204</v>
-      </c>
-      <c r="E13" s="126" t="s">
-        <v>187</v>
-      </c>
-      <c r="F13" s="126" t="s">
-        <v>188</v>
-      </c>
-      <c r="G13" s="126" t="s">
-        <v>220</v>
-      </c>
-      <c r="H13" s="126" t="s">
-        <v>206</v>
-      </c>
-      <c r="I13" s="126" t="s">
-        <v>219</v>
-      </c>
-      <c r="J13" s="126" t="s">
-        <v>208</v>
-      </c>
-      <c r="K13" s="126" t="s">
-        <v>208</v>
-      </c>
-      <c r="L13" s="118"/>
-      <c r="M13" s="118"/>
-    </row>
-    <row r="14" spans="1:13" ht="240" x14ac:dyDescent="0.15">
-      <c r="A14" s="118"/>
-      <c r="B14" s="125" t="s">
-        <v>117</v>
-      </c>
-      <c r="C14" s="126" t="s">
-        <v>203</v>
-      </c>
-      <c r="D14" s="124" t="s">
-        <v>204</v>
-      </c>
-      <c r="E14" s="126" t="s">
-        <v>187</v>
-      </c>
-      <c r="F14" s="126" t="s">
-        <v>188</v>
-      </c>
-      <c r="G14" s="120" t="s">
-        <v>223</v>
-      </c>
-      <c r="H14" s="125" t="s">
-        <v>206</v>
-      </c>
-      <c r="I14" s="126" t="s">
-        <v>219</v>
-      </c>
-      <c r="J14" s="126" t="s">
-        <v>208</v>
-      </c>
-      <c r="K14" s="126" t="s">
-        <v>208</v>
-      </c>
-      <c r="L14" s="118"/>
-      <c r="M14" s="118"/>
-    </row>
-    <row r="15" spans="1:13" ht="16" x14ac:dyDescent="0.15">
-      <c r="A15" s="118"/>
-      <c r="B15" s="125" t="s">
-        <v>117</v>
-      </c>
-      <c r="C15" s="126" t="s">
-        <v>203</v>
-      </c>
-      <c r="D15" s="124" t="s">
-        <v>204</v>
-      </c>
-      <c r="E15" s="126" t="s">
-        <v>187</v>
-      </c>
-      <c r="F15" s="126" t="s">
-        <v>188</v>
-      </c>
-      <c r="G15" s="121" t="s">
-        <v>224</v>
-      </c>
-      <c r="H15" s="125" t="s">
-        <v>206</v>
-      </c>
-      <c r="I15" s="126" t="s">
-        <v>219</v>
-      </c>
-      <c r="J15" s="126" t="s">
-        <v>208</v>
-      </c>
-      <c r="K15" s="126" t="s">
-        <v>208</v>
-      </c>
-      <c r="L15" s="118"/>
-      <c r="M15" s="118"/>
-    </row>
-    <row r="16" spans="1:13" ht="16" x14ac:dyDescent="0.15">
-      <c r="A16" s="9"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="9"/>
+      <c r="J14" s="125" t="s">
+        <v>201</v>
+      </c>
+      <c r="K14" s="125" t="s">
+        <v>201</v>
+      </c>
+      <c r="L14" s="117"/>
+      <c r="M14" s="117"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:M2"/>
   </mergeCells>
   <phoneticPr fontId="23" type="noConversion"/>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I16">
-      <formula1>"开发环境、测试环境、生产环境"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F16 F4 F6:F7">
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4 F6:F7">
       <formula1>"新增,修改,删除"</formula1>
     </dataValidation>
     <dataValidation type="list" imeMode="on" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4 I6:I7">
@@ -10455,28 +10165,28 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>66</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">

--- a/VersionRecords/Version 5.3.5 20170321/版本Bug和特性计划及评审表v5.3.5.xlsx
+++ b/VersionRecords/Version 5.3.5 20170321/版本Bug和特性计划及评审表v5.3.5.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27809"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shixinxin/DataCode/GitDoc/Mogo_Doc/VersionRecords/Version 5.3.5 20170321/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\doc\versionrecords\version 5.3.5 20170321\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16460"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="16455" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="01 版本5.3.5 新特性|Fix Bug" sheetId="1" r:id="rId1"/>
@@ -31,9 +31,6 @@
   </definedNames>
   <calcPr calcId="144525" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -42,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="905" uniqueCount="280">
   <si>
     <t>No</t>
   </si>
@@ -1415,6 +1412,65 @@
   <si>
     <t>5.3.5项目上线准备执行方案
 （预发布环境先验证一遍）</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>捷豹组</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>捷豹组</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>contract</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>partner-pc、partner、papp、renter、renterembed、rentertp、renterpc、bs、tasktracker</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>partner-pc、partner、papp、renter、renterembed、rentertp、renterpc、bs、tasktracker</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>/data/contract_template</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>systemconfig.properties</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  ’/data/contract_template ’目录下所有.vm文件，进行修改 ： font-size:12px; 替换为 font-size:24px; 一个文件影响一处。</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同模板</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发环境、测试环境、生产环境</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>王辉</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>王辉</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>袁冰秋</t>
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
 </sst>
@@ -2395,7 +2451,7 @@
     <cellStyle name="常规 9" xfId="1"/>
     <cellStyle name="超链接" xfId="13" builtinId="8"/>
     <cellStyle name="甘特图" xfId="3"/>
-    <cellStyle name="个性色4" xfId="11" builtinId="41"/>
+    <cellStyle name="着色 4" xfId="11" builtinId="41"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -2417,6 +2473,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2753,37 +2812,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X163"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="6.83203125" style="39" customWidth="1"/>
-    <col min="2" max="3" width="9.83203125" style="39" customWidth="1"/>
-    <col min="4" max="4" width="20.33203125" style="40" customWidth="1"/>
+    <col min="1" max="1" width="6.875" style="39" customWidth="1"/>
+    <col min="2" max="3" width="9.875" style="39" customWidth="1"/>
+    <col min="4" max="4" width="20.375" style="40" customWidth="1"/>
     <col min="5" max="5" width="15" style="39" customWidth="1"/>
-    <col min="6" max="6" width="18.1640625" style="39" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" style="39" customWidth="1"/>
-    <col min="8" max="8" width="12.1640625" style="40" customWidth="1"/>
-    <col min="9" max="9" width="9.6640625" style="39" customWidth="1"/>
-    <col min="10" max="10" width="12.33203125" style="40" customWidth="1"/>
-    <col min="11" max="11" width="10.1640625" style="40" customWidth="1"/>
-    <col min="12" max="12" width="19.1640625" style="39" customWidth="1"/>
-    <col min="13" max="13" width="15.83203125" style="39" customWidth="1"/>
-    <col min="14" max="15" width="11.33203125" style="39" customWidth="1"/>
+    <col min="6" max="6" width="18.125" style="39" customWidth="1"/>
+    <col min="7" max="7" width="9.625" style="39" customWidth="1"/>
+    <col min="8" max="8" width="12.125" style="40" customWidth="1"/>
+    <col min="9" max="9" width="9.625" style="39" customWidth="1"/>
+    <col min="10" max="10" width="12.375" style="40" customWidth="1"/>
+    <col min="11" max="11" width="10.125" style="40" customWidth="1"/>
+    <col min="12" max="12" width="19.125" style="39" customWidth="1"/>
+    <col min="13" max="13" width="15.875" style="39" customWidth="1"/>
+    <col min="14" max="15" width="11.375" style="39" customWidth="1"/>
     <col min="16" max="16" width="10" style="40" customWidth="1"/>
     <col min="17" max="17" width="12.5" style="40" customWidth="1"/>
-    <col min="18" max="18" width="7.6640625" style="40" customWidth="1"/>
+    <col min="18" max="18" width="7.625" style="40" customWidth="1"/>
     <col min="19" max="20" width="12" style="41" customWidth="1"/>
     <col min="21" max="21" width="17" style="41" customWidth="1"/>
-    <col min="22" max="22" width="14.1640625" style="41" customWidth="1"/>
-    <col min="23" max="23" width="41.83203125" style="40" customWidth="1"/>
-    <col min="24" max="24" width="8.83203125" customWidth="1"/>
+    <col min="22" max="22" width="14.125" style="41" customWidth="1"/>
+    <col min="23" max="23" width="41.875" style="40" customWidth="1"/>
+    <col min="24" max="24" width="8.875" customWidth="1"/>
     <col min="25" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="37" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:24" s="37" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A1" s="42" t="s">
         <v>0</v>
       </c>
@@ -3236,7 +3295,7 @@
       <c r="W7" s="72"/>
       <c r="X7" s="73"/>
     </row>
-    <row r="8" spans="1:24" s="74" customFormat="1" ht="32" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:24" s="74" customFormat="1" ht="33" x14ac:dyDescent="0.15">
       <c r="A8" s="64">
         <v>7</v>
       </c>
@@ -3424,7 +3483,7 @@
       <c r="W10" s="81"/>
       <c r="X10" s="61"/>
     </row>
-    <row r="11" spans="1:24" s="38" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:24" s="38" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A11" s="64">
         <v>10</v>
       </c>
@@ -3610,7 +3669,7 @@
       <c r="W13" s="84"/>
       <c r="X13" s="90"/>
     </row>
-    <row r="14" spans="1:24" s="83" customFormat="1" ht="48" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:24" s="83" customFormat="1" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A14" s="64">
         <v>13</v>
       </c>
@@ -3672,7 +3731,7 @@
       <c r="W14" s="87"/>
       <c r="X14" s="90"/>
     </row>
-    <row r="15" spans="1:24" s="83" customFormat="1" ht="48" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:24" s="83" customFormat="1" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A15" s="64">
         <v>14</v>
       </c>
@@ -3860,7 +3919,7 @@
       <c r="W17" s="81"/>
       <c r="X17" s="61"/>
     </row>
-    <row r="18" spans="1:24" s="38" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:24" s="38" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A18" s="64">
         <v>17</v>
       </c>
@@ -3922,7 +3981,7 @@
       <c r="W18" s="82"/>
       <c r="X18" s="61"/>
     </row>
-    <row r="19" spans="1:24" s="38" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:24" s="38" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A19" s="64">
         <v>18</v>
       </c>
@@ -3984,7 +4043,7 @@
       <c r="W19" s="82"/>
       <c r="X19" s="61"/>
     </row>
-    <row r="20" spans="1:24" s="38" customFormat="1" ht="16" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:24" s="38" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A20" s="64">
         <v>19</v>
       </c>
@@ -4046,7 +4105,7 @@
       <c r="W20" s="82"/>
       <c r="X20" s="61"/>
     </row>
-    <row r="21" spans="1:24" ht="16" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:24" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A21" s="43"/>
       <c r="B21" s="43"/>
       <c r="C21" s="43"/>
@@ -4071,7 +4130,7 @@
       <c r="V21" s="59"/>
       <c r="W21" s="63"/>
     </row>
-    <row r="22" spans="1:24" ht="16" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:24" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A22" s="43"/>
       <c r="B22" s="43"/>
       <c r="C22" s="43"/>
@@ -4096,7 +4155,7 @@
       <c r="V22" s="58"/>
       <c r="W22" s="54"/>
     </row>
-    <row r="23" spans="1:24" ht="16" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:24" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A23" s="43"/>
       <c r="B23" s="43"/>
       <c r="C23" s="43"/>
@@ -4121,7 +4180,7 @@
       <c r="V23" s="48"/>
       <c r="W23" s="62"/>
     </row>
-    <row r="24" spans="1:24" ht="16" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:24" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A24" s="43"/>
       <c r="B24" s="43"/>
       <c r="C24" s="43"/>
@@ -4146,7 +4205,7 @@
       <c r="V24" s="48"/>
       <c r="W24" s="62"/>
     </row>
-    <row r="25" spans="1:24" ht="16" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:24" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A25" s="43"/>
       <c r="B25" s="43"/>
       <c r="C25" s="43"/>
@@ -4171,7 +4230,7 @@
       <c r="V25" s="48"/>
       <c r="W25" s="62"/>
     </row>
-    <row r="26" spans="1:24" ht="16" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:24" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A26" s="43"/>
       <c r="B26" s="43"/>
       <c r="C26" s="43"/>
@@ -4196,7 +4255,7 @@
       <c r="V26" s="59"/>
       <c r="W26" s="63"/>
     </row>
-    <row r="27" spans="1:24" ht="16" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:24" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A27" s="43"/>
       <c r="B27" s="43"/>
       <c r="C27" s="43"/>
@@ -4221,7 +4280,7 @@
       <c r="V27" s="48"/>
       <c r="W27" s="60"/>
     </row>
-    <row r="28" spans="1:24" ht="16" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:24" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A28" s="43"/>
       <c r="B28" s="43"/>
       <c r="C28" s="43"/>
@@ -4246,7 +4305,7 @@
       <c r="V28" s="48"/>
       <c r="W28" s="62"/>
     </row>
-    <row r="29" spans="1:24" ht="16" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:24" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A29" s="43"/>
       <c r="B29" s="43"/>
       <c r="C29" s="43"/>
@@ -4271,7 +4330,7 @@
       <c r="V29" s="48"/>
       <c r="W29" s="62"/>
     </row>
-    <row r="30" spans="1:24" ht="16" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:24" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A30" s="43"/>
       <c r="B30" s="43"/>
       <c r="C30" s="43"/>
@@ -4296,7 +4355,7 @@
       <c r="V30" s="48"/>
       <c r="W30" s="62"/>
     </row>
-    <row r="31" spans="1:24" ht="16" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:24" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A31" s="43"/>
       <c r="B31" s="43"/>
       <c r="C31" s="43"/>
@@ -4321,7 +4380,7 @@
       <c r="V31" s="48"/>
       <c r="W31" s="62"/>
     </row>
-    <row r="32" spans="1:24" ht="16" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:24" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A32" s="43"/>
       <c r="B32" s="43"/>
       <c r="C32" s="43"/>
@@ -4346,7 +4405,7 @@
       <c r="V32" s="48"/>
       <c r="W32" s="62"/>
     </row>
-    <row r="33" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A33" s="43"/>
       <c r="B33" s="43"/>
       <c r="C33" s="43"/>
@@ -4371,7 +4430,7 @@
       <c r="V33" s="48"/>
       <c r="W33" s="62"/>
     </row>
-    <row r="34" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A34" s="43"/>
       <c r="B34" s="43"/>
       <c r="C34" s="43"/>
@@ -4396,7 +4455,7 @@
       <c r="V34" s="48"/>
       <c r="W34" s="62"/>
     </row>
-    <row r="35" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A35" s="43"/>
       <c r="B35" s="43"/>
       <c r="C35" s="43"/>
@@ -4421,7 +4480,7 @@
       <c r="V35" s="48"/>
       <c r="W35" s="62"/>
     </row>
-    <row r="36" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A36" s="43"/>
       <c r="B36" s="43"/>
       <c r="C36" s="43"/>
@@ -4446,7 +4505,7 @@
       <c r="V36" s="48"/>
       <c r="W36" s="62"/>
     </row>
-    <row r="37" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A37" s="43"/>
       <c r="B37" s="43"/>
       <c r="C37" s="43"/>
@@ -4471,7 +4530,7 @@
       <c r="V37" s="48"/>
       <c r="W37" s="62"/>
     </row>
-    <row r="38" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A38" s="43"/>
       <c r="B38" s="43"/>
       <c r="C38" s="43"/>
@@ -4496,7 +4555,7 @@
       <c r="V38" s="58"/>
       <c r="W38" s="62"/>
     </row>
-    <row r="39" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A39" s="43"/>
       <c r="B39" s="43"/>
       <c r="C39" s="43"/>
@@ -4521,7 +4580,7 @@
       <c r="V39" s="58"/>
       <c r="W39" s="62"/>
     </row>
-    <row r="40" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A40" s="43"/>
       <c r="B40" s="43"/>
       <c r="C40" s="43"/>
@@ -4546,7 +4605,7 @@
       <c r="V40" s="48"/>
       <c r="W40" s="49"/>
     </row>
-    <row r="41" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A41" s="43"/>
       <c r="B41" s="43"/>
       <c r="C41" s="43"/>
@@ -4571,7 +4630,7 @@
       <c r="V41" s="48"/>
       <c r="W41" s="49"/>
     </row>
-    <row r="42" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A42" s="43"/>
       <c r="B42" s="43"/>
       <c r="C42" s="43"/>
@@ -4596,7 +4655,7 @@
       <c r="V42" s="48"/>
       <c r="W42" s="49"/>
     </row>
-    <row r="43" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A43" s="43"/>
       <c r="B43" s="43"/>
       <c r="C43" s="43"/>
@@ -4621,7 +4680,7 @@
       <c r="V43" s="48"/>
       <c r="W43" s="49"/>
     </row>
-    <row r="44" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A44" s="43"/>
       <c r="B44" s="43"/>
       <c r="C44" s="43"/>
@@ -4646,7 +4705,7 @@
       <c r="V44" s="48"/>
       <c r="W44" s="49"/>
     </row>
-    <row r="45" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A45" s="43"/>
       <c r="B45" s="43"/>
       <c r="C45" s="43"/>
@@ -4671,7 +4730,7 @@
       <c r="V45" s="48"/>
       <c r="W45" s="49"/>
     </row>
-    <row r="46" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A46" s="43"/>
       <c r="B46" s="43"/>
       <c r="C46" s="43"/>
@@ -4696,7 +4755,7 @@
       <c r="V46" s="48"/>
       <c r="W46" s="49"/>
     </row>
-    <row r="47" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A47" s="48"/>
       <c r="B47" s="48"/>
       <c r="C47" s="48"/>
@@ -4721,7 +4780,7 @@
       <c r="V47" s="48"/>
       <c r="W47" s="49"/>
     </row>
-    <row r="48" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A48" s="48"/>
       <c r="B48" s="48"/>
       <c r="C48" s="48"/>
@@ -4746,7 +4805,7 @@
       <c r="V48" s="48"/>
       <c r="W48" s="49"/>
     </row>
-    <row r="49" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A49" s="48"/>
       <c r="B49" s="48"/>
       <c r="C49" s="48"/>
@@ -4771,7 +4830,7 @@
       <c r="V49" s="48"/>
       <c r="W49" s="49"/>
     </row>
-    <row r="50" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A50" s="48"/>
       <c r="B50" s="48"/>
       <c r="C50" s="48"/>
@@ -4796,7 +4855,7 @@
       <c r="V50" s="48"/>
       <c r="W50" s="49"/>
     </row>
-    <row r="51" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A51" s="48"/>
       <c r="B51" s="48"/>
       <c r="C51" s="48"/>
@@ -4821,7 +4880,7 @@
       <c r="V51" s="48"/>
       <c r="W51" s="49"/>
     </row>
-    <row r="52" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A52" s="48"/>
       <c r="B52" s="48"/>
       <c r="C52" s="48"/>
@@ -4846,7 +4905,7 @@
       <c r="V52" s="48"/>
       <c r="W52" s="49"/>
     </row>
-    <row r="53" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A53" s="48"/>
       <c r="B53" s="48"/>
       <c r="C53" s="48"/>
@@ -4871,7 +4930,7 @@
       <c r="V53" s="48"/>
       <c r="W53" s="49"/>
     </row>
-    <row r="54" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A54" s="48"/>
       <c r="B54" s="48"/>
       <c r="C54" s="48"/>
@@ -4896,7 +4955,7 @@
       <c r="V54" s="48"/>
       <c r="W54" s="49"/>
     </row>
-    <row r="55" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A55" s="48"/>
       <c r="B55" s="48"/>
       <c r="C55" s="48"/>
@@ -4921,7 +4980,7 @@
       <c r="V55" s="48"/>
       <c r="W55" s="49"/>
     </row>
-    <row r="56" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A56" s="48"/>
       <c r="B56" s="48"/>
       <c r="C56" s="48"/>
@@ -4946,7 +5005,7 @@
       <c r="V56" s="48"/>
       <c r="W56" s="49"/>
     </row>
-    <row r="57" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A57" s="48"/>
       <c r="B57" s="48"/>
       <c r="C57" s="48"/>
@@ -4971,7 +5030,7 @@
       <c r="V57" s="48"/>
       <c r="W57" s="49"/>
     </row>
-    <row r="58" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A58" s="48"/>
       <c r="B58" s="48"/>
       <c r="C58" s="48"/>
@@ -4996,7 +5055,7 @@
       <c r="V58" s="48"/>
       <c r="W58" s="49"/>
     </row>
-    <row r="59" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A59" s="48"/>
       <c r="B59" s="48"/>
       <c r="C59" s="48"/>
@@ -5021,7 +5080,7 @@
       <c r="V59" s="48"/>
       <c r="W59" s="49"/>
     </row>
-    <row r="60" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A60" s="48"/>
       <c r="B60" s="48"/>
       <c r="C60" s="48"/>
@@ -5046,7 +5105,7 @@
       <c r="V60" s="48"/>
       <c r="W60" s="49"/>
     </row>
-    <row r="61" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A61" s="48"/>
       <c r="B61" s="48"/>
       <c r="C61" s="48"/>
@@ -5071,7 +5130,7 @@
       <c r="V61" s="48"/>
       <c r="W61" s="49"/>
     </row>
-    <row r="62" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A62" s="48"/>
       <c r="B62" s="48"/>
       <c r="C62" s="48"/>
@@ -5096,7 +5155,7 @@
       <c r="V62" s="48"/>
       <c r="W62" s="49"/>
     </row>
-    <row r="63" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A63" s="48"/>
       <c r="B63" s="48"/>
       <c r="C63" s="48"/>
@@ -5121,7 +5180,7 @@
       <c r="V63" s="48"/>
       <c r="W63" s="49"/>
     </row>
-    <row r="64" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A64" s="48"/>
       <c r="B64" s="48"/>
       <c r="C64" s="48"/>
@@ -5146,7 +5205,7 @@
       <c r="V64" s="48"/>
       <c r="W64" s="49"/>
     </row>
-    <row r="65" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A65" s="48"/>
       <c r="B65" s="48"/>
       <c r="C65" s="48"/>
@@ -5171,7 +5230,7 @@
       <c r="V65" s="48"/>
       <c r="W65" s="49"/>
     </row>
-    <row r="66" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A66" s="48"/>
       <c r="B66" s="48"/>
       <c r="C66" s="48"/>
@@ -5196,7 +5255,7 @@
       <c r="V66" s="48"/>
       <c r="W66" s="49"/>
     </row>
-    <row r="67" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A67" s="48"/>
       <c r="B67" s="48"/>
       <c r="C67" s="48"/>
@@ -5221,7 +5280,7 @@
       <c r="V67" s="48"/>
       <c r="W67" s="49"/>
     </row>
-    <row r="68" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A68" s="48"/>
       <c r="B68" s="48"/>
       <c r="C68" s="48"/>
@@ -5246,7 +5305,7 @@
       <c r="V68" s="48"/>
       <c r="W68" s="49"/>
     </row>
-    <row r="69" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A69" s="48"/>
       <c r="B69" s="48"/>
       <c r="C69" s="48"/>
@@ -5271,7 +5330,7 @@
       <c r="V69" s="48"/>
       <c r="W69" s="49"/>
     </row>
-    <row r="70" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A70" s="48"/>
       <c r="B70" s="48"/>
       <c r="C70" s="48"/>
@@ -5296,7 +5355,7 @@
       <c r="V70" s="48"/>
       <c r="W70" s="49"/>
     </row>
-    <row r="71" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A71" s="48"/>
       <c r="B71" s="48"/>
       <c r="C71" s="48"/>
@@ -5321,7 +5380,7 @@
       <c r="V71" s="48"/>
       <c r="W71" s="49"/>
     </row>
-    <row r="72" spans="1:23" ht="16" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A72" s="48"/>
       <c r="B72" s="48"/>
       <c r="C72" s="48"/>
@@ -7541,24 +7600,24 @@
       <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="26.1640625" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="26.125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="2" width="8" customWidth="1"/>
-    <col min="3" max="3" width="21.6640625" customWidth="1"/>
-    <col min="4" max="4" width="6.33203125" customWidth="1"/>
-    <col min="5" max="5" width="18.6640625" customWidth="1"/>
-    <col min="6" max="7" width="7.1640625" customWidth="1"/>
+    <col min="3" max="3" width="21.625" customWidth="1"/>
+    <col min="4" max="4" width="6.375" customWidth="1"/>
+    <col min="5" max="5" width="18.625" customWidth="1"/>
+    <col min="6" max="7" width="7.125" customWidth="1"/>
     <col min="8" max="8" width="8" customWidth="1"/>
-    <col min="9" max="9" width="7.1640625" customWidth="1"/>
-    <col min="10" max="10" width="44.33203125" customWidth="1"/>
+    <col min="9" max="9" width="7.125" customWidth="1"/>
+    <col min="10" max="10" width="44.375" customWidth="1"/>
     <col min="11" max="11" width="25.5" customWidth="1"/>
     <col min="12" max="12" width="23.5" customWidth="1"/>
-    <col min="13" max="13" width="54.83203125" customWidth="1"/>
+    <col min="13" max="13" width="54.875" customWidth="1"/>
     <col min="14" max="14" width="8" customWidth="1"/>
-    <col min="15" max="15" width="15.1640625" customWidth="1"/>
-    <col min="16" max="16" width="14.33203125" customWidth="1"/>
-    <col min="17" max="17" width="31.1640625" customWidth="1"/>
-    <col min="18" max="18" width="4.6640625" customWidth="1"/>
+    <col min="15" max="15" width="15.125" customWidth="1"/>
+    <col min="16" max="16" width="14.375" customWidth="1"/>
+    <col min="17" max="17" width="31.125" customWidth="1"/>
+    <col min="18" max="18" width="4.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="36" customHeight="1" x14ac:dyDescent="0.15">
@@ -7843,19 +7902,19 @@
       <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="12.1640625" customWidth="1"/>
-    <col min="3" max="3" width="15.1640625" customWidth="1"/>
-    <col min="4" max="4" width="23.1640625" customWidth="1"/>
-    <col min="5" max="5" width="25.6640625" customWidth="1"/>
-    <col min="6" max="6" width="19.6640625" customWidth="1"/>
-    <col min="7" max="7" width="11.33203125" customWidth="1"/>
-    <col min="8" max="8" width="12.33203125" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" customWidth="1"/>
+    <col min="2" max="2" width="12.125" customWidth="1"/>
+    <col min="3" max="3" width="15.125" customWidth="1"/>
+    <col min="4" max="4" width="23.125" customWidth="1"/>
+    <col min="5" max="5" width="25.625" customWidth="1"/>
+    <col min="6" max="6" width="19.625" customWidth="1"/>
+    <col min="7" max="7" width="11.375" customWidth="1"/>
+    <col min="8" max="8" width="12.375" customWidth="1"/>
+    <col min="9" max="9" width="10.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="17" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A1" s="140" t="s">
         <v>264</v>
       </c>
@@ -7870,7 +7929,7 @@
       <c r="J1" s="141"/>
       <c r="K1" s="141"/>
     </row>
-    <row r="2" spans="1:11" ht="15" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A2" s="15" t="s">
         <v>39</v>
       </c>
@@ -7905,7 +7964,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="17"/>
       <c r="B3" s="17"/>
       <c r="C3" s="126" t="s">
@@ -7932,7 +7991,7 @@
       <c r="J3" s="27"/>
       <c r="K3" s="28"/>
     </row>
-    <row r="4" spans="1:11" ht="30" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11" ht="34.5" x14ac:dyDescent="0.15">
       <c r="A4" s="20"/>
       <c r="B4" s="21"/>
       <c r="C4" s="126" t="s">
@@ -7986,7 +8045,7 @@
       <c r="J5" s="27"/>
       <c r="K5" s="28"/>
     </row>
-    <row r="6" spans="1:11" ht="15" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A6" s="143"/>
       <c r="B6" s="143"/>
       <c r="C6" s="18"/>
@@ -7999,7 +8058,7 @@
       <c r="J6" s="27"/>
       <c r="K6" s="28"/>
     </row>
-    <row r="7" spans="1:11" ht="15" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A7" s="143"/>
       <c r="B7" s="143"/>
       <c r="C7" s="18"/>
@@ -8012,7 +8071,7 @@
       <c r="J7" s="27"/>
       <c r="K7" s="28"/>
     </row>
-    <row r="8" spans="1:11" ht="15" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A8" s="143"/>
       <c r="B8" s="143"/>
       <c r="C8" s="18"/>
@@ -8025,7 +8084,7 @@
       <c r="J8" s="27"/>
       <c r="K8" s="28"/>
     </row>
-    <row r="9" spans="1:11" ht="15" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A9" s="143"/>
       <c r="B9" s="143"/>
       <c r="C9" s="18"/>
@@ -8038,7 +8097,7 @@
       <c r="J9" s="27"/>
       <c r="K9" s="28"/>
     </row>
-    <row r="10" spans="1:11" ht="15" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A10" s="144"/>
       <c r="B10" s="144"/>
       <c r="C10" s="18"/>
@@ -8051,7 +8110,7 @@
       <c r="J10" s="27"/>
       <c r="K10" s="28"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A11" s="22"/>
       <c r="B11" s="22"/>
       <c r="C11" s="18"/>
@@ -8079,23 +8138,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M15"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="39.5" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="4.83203125" customWidth="1"/>
-    <col min="2" max="3" width="6.33203125" customWidth="1"/>
+    <col min="1" max="1" width="4.875" customWidth="1"/>
+    <col min="2" max="3" width="6.375" customWidth="1"/>
     <col min="4" max="4" width="11.5" customWidth="1"/>
-    <col min="5" max="5" width="32.83203125" customWidth="1"/>
-    <col min="6" max="6" width="4.83203125" customWidth="1"/>
-    <col min="7" max="7" width="57.1640625" customWidth="1"/>
-    <col min="8" max="8" width="16.83203125" customWidth="1"/>
+    <col min="5" max="5" width="32.875" customWidth="1"/>
+    <col min="6" max="6" width="4.875" customWidth="1"/>
+    <col min="7" max="7" width="57.125" customWidth="1"/>
+    <col min="8" max="8" width="16.875" customWidth="1"/>
     <col min="9" max="9" width="8" customWidth="1"/>
-    <col min="10" max="11" width="6.33203125" customWidth="1"/>
+    <col min="10" max="11" width="6.375" customWidth="1"/>
     <col min="12" max="12" width="8" customWidth="1"/>
-    <col min="13" max="13" width="32.83203125" customWidth="1"/>
+    <col min="13" max="13" width="32.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
@@ -8130,7 +8189,7 @@
       <c r="L2" s="147"/>
       <c r="M2" s="148"/>
     </row>
-    <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
         <v>50</v>
       </c>
@@ -8171,7 +8230,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A4" s="113">
         <v>1</v>
       </c>
@@ -8182,7 +8241,7 @@
         <v>178</v>
       </c>
       <c r="D4" s="114" t="s">
-        <v>179</v>
+        <v>268</v>
       </c>
       <c r="E4" s="113" t="s">
         <v>180</v>
@@ -8208,7 +8267,7 @@
       </c>
       <c r="M4" s="113"/>
     </row>
-    <row r="5" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A5" s="113">
         <v>2</v>
       </c>
@@ -8245,12 +8304,12 @@
       </c>
       <c r="M5" s="113"/>
     </row>
-    <row r="6" spans="1:13" ht="80" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13" ht="82.5" x14ac:dyDescent="0.15">
       <c r="A6" s="113">
         <v>3</v>
       </c>
       <c r="B6" s="113" t="s">
-        <v>177</v>
+        <v>265</v>
       </c>
       <c r="C6" s="113" t="s">
         <v>178</v>
@@ -8284,7 +8343,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A7" s="113">
         <v>4</v>
       </c>
@@ -8321,7 +8380,7 @@
       <c r="L7" s="117"/>
       <c r="M7" s="118"/>
     </row>
-    <row r="8" spans="1:13" ht="360" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13" ht="342" x14ac:dyDescent="0.15">
       <c r="A8" s="113">
         <v>5</v>
       </c>
@@ -8358,7 +8417,7 @@
       <c r="L8" s="117"/>
       <c r="M8" s="117"/>
     </row>
-    <row r="9" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A9" s="113">
         <v>6</v>
       </c>
@@ -8395,7 +8454,7 @@
       <c r="L9" s="117"/>
       <c r="M9" s="117"/>
     </row>
-    <row r="10" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A10" s="113">
         <v>7</v>
       </c>
@@ -8432,7 +8491,7 @@
       <c r="L10" s="117"/>
       <c r="M10" s="117"/>
     </row>
-    <row r="11" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A11" s="113">
         <v>8</v>
       </c>
@@ -8469,7 +8528,7 @@
       <c r="L11" s="117"/>
       <c r="M11" s="117"/>
     </row>
-    <row r="12" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A12" s="113">
         <v>9</v>
       </c>
@@ -8506,7 +8565,7 @@
       <c r="L12" s="117"/>
       <c r="M12" s="117"/>
     </row>
-    <row r="13" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A13" s="113">
         <v>10</v>
       </c>
@@ -8543,7 +8602,7 @@
       <c r="L13" s="117"/>
       <c r="M13" s="117"/>
     </row>
-    <row r="14" spans="1:13" ht="409" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:13" ht="409.5" x14ac:dyDescent="0.15">
       <c r="A14" s="113">
         <v>11</v>
       </c>
@@ -8557,10 +8616,10 @@
         <v>232</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>187</v>
+        <v>271</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>181</v>
+        <v>272</v>
       </c>
       <c r="G14" s="12" t="s">
         <v>233</v>
@@ -8572,21 +8631,43 @@
       <c r="L14" s="9"/>
       <c r="M14" s="12"/>
     </row>
-    <row r="15" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A15" s="113">
         <v>12</v>
       </c>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="9"/>
+      <c r="B15" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>274</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="I15" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="J15" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="K15" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="L15" s="9" t="s">
+        <v>279</v>
+      </c>
       <c r="M15" s="9"/>
     </row>
   </sheetData>
@@ -8620,19 +8701,19 @@
       <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="39.5" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="4.83203125" customWidth="1"/>
-    <col min="2" max="3" width="6.33203125" customWidth="1"/>
+    <col min="1" max="1" width="4.875" customWidth="1"/>
+    <col min="2" max="3" width="6.375" customWidth="1"/>
     <col min="4" max="4" width="11.5" customWidth="1"/>
-    <col min="5" max="5" width="32.83203125" customWidth="1"/>
-    <col min="6" max="6" width="4.83203125" customWidth="1"/>
-    <col min="7" max="7" width="57.1640625" customWidth="1"/>
-    <col min="8" max="8" width="16.83203125" customWidth="1"/>
+    <col min="5" max="5" width="32.875" customWidth="1"/>
+    <col min="6" max="6" width="4.875" customWidth="1"/>
+    <col min="7" max="7" width="57.125" customWidth="1"/>
+    <col min="8" max="8" width="16.875" customWidth="1"/>
     <col min="9" max="9" width="8" customWidth="1"/>
-    <col min="10" max="11" width="6.33203125" customWidth="1"/>
+    <col min="10" max="11" width="6.375" customWidth="1"/>
     <col min="12" max="12" width="8" customWidth="1"/>
-    <col min="13" max="13" width="32.83203125" customWidth="1"/>
+    <col min="13" max="13" width="32.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
@@ -8667,7 +8748,7 @@
       <c r="L2" s="147"/>
       <c r="M2" s="148"/>
     </row>
-    <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
         <v>50</v>
       </c>
@@ -8708,7 +8789,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A4" s="113">
         <v>2</v>
       </c>
@@ -8747,7 +8828,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A5" s="113">
         <v>3</v>
       </c>
@@ -8784,7 +8865,7 @@
       </c>
       <c r="M5" s="113"/>
     </row>
-    <row r="6" spans="1:13" ht="80" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13" ht="82.5" x14ac:dyDescent="0.15">
       <c r="A6" s="113">
         <v>4</v>
       </c>
@@ -8823,7 +8904,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A7" s="113">
         <v>5</v>
       </c>
@@ -8860,7 +8941,7 @@
       <c r="L7" s="10"/>
       <c r="M7" s="14"/>
     </row>
-    <row r="8" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A8" s="113">
         <v>6</v>
       </c>
@@ -8897,7 +8978,7 @@
       <c r="L8" s="117"/>
       <c r="M8" s="118"/>
     </row>
-    <row r="9" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A9" s="113">
         <v>7</v>
       </c>
@@ -8934,7 +9015,7 @@
       <c r="L9" s="117"/>
       <c r="M9" s="117"/>
     </row>
-    <row r="10" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A10" s="113">
         <v>8</v>
       </c>
@@ -8971,7 +9052,7 @@
       <c r="L10" s="117"/>
       <c r="M10" s="117"/>
     </row>
-    <row r="11" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A11" s="113">
         <v>9</v>
       </c>
@@ -9008,7 +9089,7 @@
       <c r="L11" s="117"/>
       <c r="M11" s="117"/>
     </row>
-    <row r="12" spans="1:13" ht="255" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13" ht="270.75" x14ac:dyDescent="0.15">
       <c r="A12" s="113">
         <v>10</v>
       </c>
@@ -9045,7 +9126,7 @@
       <c r="L12" s="117"/>
       <c r="M12" s="117"/>
     </row>
-    <row r="13" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A13" s="113">
         <v>11</v>
       </c>
@@ -9082,7 +9163,7 @@
       <c r="L13" s="117"/>
       <c r="M13" s="117"/>
     </row>
-    <row r="14" spans="1:13" ht="409" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:13" ht="409.5" x14ac:dyDescent="0.15">
       <c r="A14" s="113">
         <v>12</v>
       </c>
@@ -9139,19 +9220,19 @@
       <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="39.5" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="4.83203125" customWidth="1"/>
-    <col min="2" max="3" width="6.33203125" customWidth="1"/>
+    <col min="1" max="1" width="4.875" customWidth="1"/>
+    <col min="2" max="3" width="6.375" customWidth="1"/>
     <col min="4" max="4" width="11.5" customWidth="1"/>
-    <col min="5" max="5" width="32.83203125" customWidth="1"/>
-    <col min="6" max="6" width="4.83203125" customWidth="1"/>
-    <col min="7" max="7" width="57.1640625" customWidth="1"/>
-    <col min="8" max="8" width="16.83203125" customWidth="1"/>
+    <col min="5" max="5" width="32.875" customWidth="1"/>
+    <col min="6" max="6" width="4.875" customWidth="1"/>
+    <col min="7" max="7" width="57.125" customWidth="1"/>
+    <col min="8" max="8" width="16.875" customWidth="1"/>
     <col min="9" max="9" width="8" customWidth="1"/>
-    <col min="10" max="11" width="6.33203125" customWidth="1"/>
+    <col min="10" max="11" width="6.375" customWidth="1"/>
     <col min="12" max="12" width="8" customWidth="1"/>
-    <col min="13" max="13" width="32.83203125" customWidth="1"/>
+    <col min="13" max="13" width="32.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
@@ -9186,7 +9267,7 @@
       <c r="L2" s="147"/>
       <c r="M2" s="148"/>
     </row>
-    <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
         <v>50</v>
       </c>
@@ -9227,7 +9308,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A4" s="113">
         <v>2</v>
       </c>
@@ -9266,7 +9347,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A5" s="113">
         <v>3</v>
       </c>
@@ -9303,7 +9384,7 @@
       </c>
       <c r="M5" s="113"/>
     </row>
-    <row r="6" spans="1:13" ht="80" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13" ht="82.5" x14ac:dyDescent="0.15">
       <c r="A6" s="113">
         <v>4</v>
       </c>
@@ -9342,7 +9423,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A7" s="113">
         <v>5</v>
       </c>
@@ -9379,7 +9460,7 @@
       <c r="L7" s="10"/>
       <c r="M7" s="14"/>
     </row>
-    <row r="8" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A8" s="113">
         <v>6</v>
       </c>
@@ -9416,7 +9497,7 @@
       <c r="L8" s="117"/>
       <c r="M8" s="118"/>
     </row>
-    <row r="9" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A9" s="113">
         <v>7</v>
       </c>
@@ -9453,7 +9534,7 @@
       <c r="L9" s="117"/>
       <c r="M9" s="117"/>
     </row>
-    <row r="10" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A10" s="113">
         <v>8</v>
       </c>
@@ -9490,7 +9571,7 @@
       <c r="L10" s="117"/>
       <c r="M10" s="117"/>
     </row>
-    <row r="11" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A11" s="113">
         <v>9</v>
       </c>
@@ -9527,7 +9608,7 @@
       <c r="L11" s="117"/>
       <c r="M11" s="117"/>
     </row>
-    <row r="12" spans="1:13" ht="240" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13" ht="256.5" x14ac:dyDescent="0.15">
       <c r="A12" s="113">
         <v>10</v>
       </c>
@@ -9564,7 +9645,7 @@
       <c r="L12" s="117"/>
       <c r="M12" s="117"/>
     </row>
-    <row r="13" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A13" s="113">
         <v>11</v>
       </c>
@@ -9601,7 +9682,7 @@
       <c r="L13" s="117"/>
       <c r="M13" s="117"/>
     </row>
-    <row r="14" spans="1:13" ht="409" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:13" ht="409.5" x14ac:dyDescent="0.15">
       <c r="A14" s="113">
         <v>12</v>
       </c>
@@ -9658,21 +9739,21 @@
       <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="39.5" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="4.83203125" customWidth="1"/>
-    <col min="2" max="2" width="10.1640625" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" customWidth="1"/>
-    <col min="4" max="4" width="19.6640625" customWidth="1"/>
-    <col min="5" max="5" width="19.33203125" customWidth="1"/>
-    <col min="6" max="6" width="7.83203125" customWidth="1"/>
-    <col min="7" max="7" width="57.1640625" customWidth="1"/>
-    <col min="8" max="8" width="16.83203125" customWidth="1"/>
+    <col min="1" max="1" width="4.875" customWidth="1"/>
+    <col min="2" max="2" width="10.125" customWidth="1"/>
+    <col min="3" max="3" width="10.625" customWidth="1"/>
+    <col min="4" max="4" width="19.625" customWidth="1"/>
+    <col min="5" max="5" width="19.375" customWidth="1"/>
+    <col min="6" max="6" width="7.875" customWidth="1"/>
+    <col min="7" max="7" width="57.125" customWidth="1"/>
+    <col min="8" max="8" width="16.875" customWidth="1"/>
     <col min="9" max="9" width="8" customWidth="1"/>
-    <col min="10" max="10" width="7.83203125" customWidth="1"/>
+    <col min="10" max="10" width="7.875" customWidth="1"/>
     <col min="11" max="11" width="7.5" customWidth="1"/>
     <col min="12" max="12" width="8" customWidth="1"/>
-    <col min="13" max="13" width="32.83203125" customWidth="1"/>
+    <col min="13" max="13" width="32.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
@@ -9707,7 +9788,7 @@
       <c r="L2" s="147"/>
       <c r="M2" s="148"/>
     </row>
-    <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
         <v>50</v>
       </c>
@@ -9748,7 +9829,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A4" s="113">
         <v>1</v>
       </c>
@@ -9787,12 +9868,12 @@
         <v>218</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A5" s="113">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A6" s="113">
         <v>3</v>
       </c>
@@ -9829,7 +9910,7 @@
       </c>
       <c r="M6" s="113"/>
     </row>
-    <row r="7" spans="1:13" ht="80" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" ht="82.5" x14ac:dyDescent="0.15">
       <c r="A7" s="113">
         <v>4</v>
       </c>
@@ -9868,7 +9949,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A8" s="113">
         <v>5</v>
       </c>
@@ -9905,7 +9986,7 @@
       <c r="L8" s="117"/>
       <c r="M8" s="118"/>
     </row>
-    <row r="9" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A9" s="113">
         <v>6</v>
       </c>
@@ -9942,7 +10023,7 @@
       <c r="L9" s="117"/>
       <c r="M9" s="117"/>
     </row>
-    <row r="10" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A10" s="113">
         <v>7</v>
       </c>
@@ -9979,7 +10060,7 @@
       <c r="L10" s="117"/>
       <c r="M10" s="117"/>
     </row>
-    <row r="11" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A11" s="113">
         <v>8</v>
       </c>
@@ -10016,7 +10097,7 @@
       <c r="L11" s="117"/>
       <c r="M11" s="117"/>
     </row>
-    <row r="12" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A12" s="113">
         <v>9</v>
       </c>
@@ -10053,7 +10134,7 @@
       <c r="L12" s="117"/>
       <c r="M12" s="117"/>
     </row>
-    <row r="13" spans="1:13" ht="240" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:13" ht="256.5" x14ac:dyDescent="0.15">
       <c r="A13" s="113">
         <v>10</v>
       </c>
@@ -10090,7 +10171,7 @@
       <c r="L13" s="117"/>
       <c r="M13" s="117"/>
     </row>
-    <row r="14" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A14" s="113">
         <v>11</v>
       </c>
@@ -10152,15 +10233,15 @@
       <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="43.1640625" customWidth="1"/>
+    <col min="2" max="2" width="43.125" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
-    <col min="6" max="6" width="20.6640625" customWidth="1"/>
-    <col min="7" max="7" width="42.1640625" customWidth="1"/>
-    <col min="8" max="8" width="15.1640625" customWidth="1"/>
+    <col min="6" max="6" width="20.625" customWidth="1"/>
+    <col min="7" max="7" width="42.125" customWidth="1"/>
+    <col min="8" max="8" width="15.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">

--- a/VersionRecords/Version 5.3.5 20170321/版本Bug和特性计划及评审表v5.3.5.xlsx
+++ b/VersionRecords/Version 5.3.5 20170321/版本Bug和特性计划及评审表v5.3.5.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27809"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\doc\versionrecords\version 5.3.5 20170321\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shixinxin/DataCode/GitDoc/Mogo_Doc/VersionRecords/Version 5.3.5 20170321/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="16455" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16460" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="01 版本5.3.5 新特性|Fix Bug" sheetId="1" r:id="rId1"/>
@@ -31,6 +31,9 @@
   </definedNames>
   <calcPr calcId="144525" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -39,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="905" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="916" uniqueCount="287">
   <si>
     <t>No</t>
   </si>
@@ -1471,6 +1474,61 @@
   </si>
   <si>
     <t>袁冰秋</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>EQ</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>renterembed、renterpc</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>sysconfig.properties</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>sysconfig.sms_send_num = 100 sysconfig.sms_black_num = 105</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据产品要求加大短信数量</t>
+    <rPh sb="0" eb="1">
+      <t>gen'ju</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>chan'pin</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>yao'qiu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>jia</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>duan'xin</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>shu'liang</t>
+    </rPh>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>朱彤</t>
+    <rPh sb="0" eb="1">
+      <t>zhu'tong</t>
+    </rPh>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>史欣欣</t>
+    <rPh sb="0" eb="1">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>xin'xin</t>
+    </rPh>
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
 </sst>
@@ -1988,7 +2046,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="149">
+  <cellXfs count="150">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2435,6 +2493,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="14">
@@ -2451,7 +2512,7 @@
     <cellStyle name="常规 9" xfId="1"/>
     <cellStyle name="超链接" xfId="13" builtinId="8"/>
     <cellStyle name="甘特图" xfId="3"/>
-    <cellStyle name="着色 4" xfId="11" builtinId="41"/>
+    <cellStyle name="个性色4" xfId="11" builtinId="41"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -2816,33 +2877,33 @@
       <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="6.875" style="39" customWidth="1"/>
-    <col min="2" max="3" width="9.875" style="39" customWidth="1"/>
-    <col min="4" max="4" width="20.375" style="40" customWidth="1"/>
+    <col min="1" max="1" width="6.83203125" style="39" customWidth="1"/>
+    <col min="2" max="3" width="9.83203125" style="39" customWidth="1"/>
+    <col min="4" max="4" width="20.33203125" style="40" customWidth="1"/>
     <col min="5" max="5" width="15" style="39" customWidth="1"/>
-    <col min="6" max="6" width="18.125" style="39" customWidth="1"/>
-    <col min="7" max="7" width="9.625" style="39" customWidth="1"/>
-    <col min="8" max="8" width="12.125" style="40" customWidth="1"/>
-    <col min="9" max="9" width="9.625" style="39" customWidth="1"/>
-    <col min="10" max="10" width="12.375" style="40" customWidth="1"/>
-    <col min="11" max="11" width="10.125" style="40" customWidth="1"/>
-    <col min="12" max="12" width="19.125" style="39" customWidth="1"/>
-    <col min="13" max="13" width="15.875" style="39" customWidth="1"/>
-    <col min="14" max="15" width="11.375" style="39" customWidth="1"/>
+    <col min="6" max="6" width="18.1640625" style="39" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" style="39" customWidth="1"/>
+    <col min="8" max="8" width="12.1640625" style="40" customWidth="1"/>
+    <col min="9" max="9" width="9.6640625" style="39" customWidth="1"/>
+    <col min="10" max="10" width="12.33203125" style="40" customWidth="1"/>
+    <col min="11" max="11" width="10.1640625" style="40" customWidth="1"/>
+    <col min="12" max="12" width="19.1640625" style="39" customWidth="1"/>
+    <col min="13" max="13" width="15.83203125" style="39" customWidth="1"/>
+    <col min="14" max="15" width="11.33203125" style="39" customWidth="1"/>
     <col min="16" max="16" width="10" style="40" customWidth="1"/>
     <col min="17" max="17" width="12.5" style="40" customWidth="1"/>
-    <col min="18" max="18" width="7.625" style="40" customWidth="1"/>
+    <col min="18" max="18" width="7.6640625" style="40" customWidth="1"/>
     <col min="19" max="20" width="12" style="41" customWidth="1"/>
     <col min="21" max="21" width="17" style="41" customWidth="1"/>
-    <col min="22" max="22" width="14.125" style="41" customWidth="1"/>
-    <col min="23" max="23" width="41.875" style="40" customWidth="1"/>
-    <col min="24" max="24" width="8.875" customWidth="1"/>
+    <col min="22" max="22" width="14.1640625" style="41" customWidth="1"/>
+    <col min="23" max="23" width="41.83203125" style="40" customWidth="1"/>
+    <col min="24" max="24" width="8.83203125" customWidth="1"/>
     <col min="25" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="37" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:24" s="37" customFormat="1" ht="28" x14ac:dyDescent="0.15">
       <c r="A1" s="42" t="s">
         <v>0</v>
       </c>
@@ -3295,7 +3356,7 @@
       <c r="W7" s="72"/>
       <c r="X7" s="73"/>
     </row>
-    <row r="8" spans="1:24" s="74" customFormat="1" ht="33" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:24" s="74" customFormat="1" ht="32" x14ac:dyDescent="0.15">
       <c r="A8" s="64">
         <v>7</v>
       </c>
@@ -3483,7 +3544,7 @@
       <c r="W10" s="81"/>
       <c r="X10" s="61"/>
     </row>
-    <row r="11" spans="1:24" s="38" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:24" s="38" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A11" s="64">
         <v>10</v>
       </c>
@@ -3669,7 +3730,7 @@
       <c r="W13" s="84"/>
       <c r="X13" s="90"/>
     </row>
-    <row r="14" spans="1:24" s="83" customFormat="1" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:24" s="83" customFormat="1" ht="48" x14ac:dyDescent="0.15">
       <c r="A14" s="64">
         <v>13</v>
       </c>
@@ -3731,7 +3792,7 @@
       <c r="W14" s="87"/>
       <c r="X14" s="90"/>
     </row>
-    <row r="15" spans="1:24" s="83" customFormat="1" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:24" s="83" customFormat="1" ht="48" x14ac:dyDescent="0.15">
       <c r="A15" s="64">
         <v>14</v>
       </c>
@@ -3919,7 +3980,7 @@
       <c r="W17" s="81"/>
       <c r="X17" s="61"/>
     </row>
-    <row r="18" spans="1:24" s="38" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:24" s="38" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A18" s="64">
         <v>17</v>
       </c>
@@ -3981,7 +4042,7 @@
       <c r="W18" s="82"/>
       <c r="X18" s="61"/>
     </row>
-    <row r="19" spans="1:24" s="38" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:24" s="38" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A19" s="64">
         <v>18</v>
       </c>
@@ -4043,7 +4104,7 @@
       <c r="W19" s="82"/>
       <c r="X19" s="61"/>
     </row>
-    <row r="20" spans="1:24" s="38" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:24" s="38" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A20" s="64">
         <v>19</v>
       </c>
@@ -4105,7 +4166,7 @@
       <c r="W20" s="82"/>
       <c r="X20" s="61"/>
     </row>
-    <row r="21" spans="1:24" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:24" ht="16" x14ac:dyDescent="0.15">
       <c r="A21" s="43"/>
       <c r="B21" s="43"/>
       <c r="C21" s="43"/>
@@ -4130,7 +4191,7 @@
       <c r="V21" s="59"/>
       <c r="W21" s="63"/>
     </row>
-    <row r="22" spans="1:24" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:24" ht="16" x14ac:dyDescent="0.15">
       <c r="A22" s="43"/>
       <c r="B22" s="43"/>
       <c r="C22" s="43"/>
@@ -4155,7 +4216,7 @@
       <c r="V22" s="58"/>
       <c r="W22" s="54"/>
     </row>
-    <row r="23" spans="1:24" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:24" ht="16" x14ac:dyDescent="0.15">
       <c r="A23" s="43"/>
       <c r="B23" s="43"/>
       <c r="C23" s="43"/>
@@ -4180,7 +4241,7 @@
       <c r="V23" s="48"/>
       <c r="W23" s="62"/>
     </row>
-    <row r="24" spans="1:24" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:24" ht="16" x14ac:dyDescent="0.15">
       <c r="A24" s="43"/>
       <c r="B24" s="43"/>
       <c r="C24" s="43"/>
@@ -4205,7 +4266,7 @@
       <c r="V24" s="48"/>
       <c r="W24" s="62"/>
     </row>
-    <row r="25" spans="1:24" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:24" ht="16" x14ac:dyDescent="0.15">
       <c r="A25" s="43"/>
       <c r="B25" s="43"/>
       <c r="C25" s="43"/>
@@ -4230,7 +4291,7 @@
       <c r="V25" s="48"/>
       <c r="W25" s="62"/>
     </row>
-    <row r="26" spans="1:24" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:24" ht="16" x14ac:dyDescent="0.15">
       <c r="A26" s="43"/>
       <c r="B26" s="43"/>
       <c r="C26" s="43"/>
@@ -4255,7 +4316,7 @@
       <c r="V26" s="59"/>
       <c r="W26" s="63"/>
     </row>
-    <row r="27" spans="1:24" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:24" ht="16" x14ac:dyDescent="0.15">
       <c r="A27" s="43"/>
       <c r="B27" s="43"/>
       <c r="C27" s="43"/>
@@ -4280,7 +4341,7 @@
       <c r="V27" s="48"/>
       <c r="W27" s="60"/>
     </row>
-    <row r="28" spans="1:24" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:24" ht="16" x14ac:dyDescent="0.15">
       <c r="A28" s="43"/>
       <c r="B28" s="43"/>
       <c r="C28" s="43"/>
@@ -4305,7 +4366,7 @@
       <c r="V28" s="48"/>
       <c r="W28" s="62"/>
     </row>
-    <row r="29" spans="1:24" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:24" ht="16" x14ac:dyDescent="0.15">
       <c r="A29" s="43"/>
       <c r="B29" s="43"/>
       <c r="C29" s="43"/>
@@ -4330,7 +4391,7 @@
       <c r="V29" s="48"/>
       <c r="W29" s="62"/>
     </row>
-    <row r="30" spans="1:24" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:24" ht="16" x14ac:dyDescent="0.15">
       <c r="A30" s="43"/>
       <c r="B30" s="43"/>
       <c r="C30" s="43"/>
@@ -4355,7 +4416,7 @@
       <c r="V30" s="48"/>
       <c r="W30" s="62"/>
     </row>
-    <row r="31" spans="1:24" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:24" ht="16" x14ac:dyDescent="0.15">
       <c r="A31" s="43"/>
       <c r="B31" s="43"/>
       <c r="C31" s="43"/>
@@ -4380,7 +4441,7 @@
       <c r="V31" s="48"/>
       <c r="W31" s="62"/>
     </row>
-    <row r="32" spans="1:24" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:24" ht="16" x14ac:dyDescent="0.15">
       <c r="A32" s="43"/>
       <c r="B32" s="43"/>
       <c r="C32" s="43"/>
@@ -4405,7 +4466,7 @@
       <c r="V32" s="48"/>
       <c r="W32" s="62"/>
     </row>
-    <row r="33" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A33" s="43"/>
       <c r="B33" s="43"/>
       <c r="C33" s="43"/>
@@ -4430,7 +4491,7 @@
       <c r="V33" s="48"/>
       <c r="W33" s="62"/>
     </row>
-    <row r="34" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A34" s="43"/>
       <c r="B34" s="43"/>
       <c r="C34" s="43"/>
@@ -4455,7 +4516,7 @@
       <c r="V34" s="48"/>
       <c r="W34" s="62"/>
     </row>
-    <row r="35" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A35" s="43"/>
       <c r="B35" s="43"/>
       <c r="C35" s="43"/>
@@ -4480,7 +4541,7 @@
       <c r="V35" s="48"/>
       <c r="W35" s="62"/>
     </row>
-    <row r="36" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A36" s="43"/>
       <c r="B36" s="43"/>
       <c r="C36" s="43"/>
@@ -4505,7 +4566,7 @@
       <c r="V36" s="48"/>
       <c r="W36" s="62"/>
     </row>
-    <row r="37" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A37" s="43"/>
       <c r="B37" s="43"/>
       <c r="C37" s="43"/>
@@ -4530,7 +4591,7 @@
       <c r="V37" s="48"/>
       <c r="W37" s="62"/>
     </row>
-    <row r="38" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A38" s="43"/>
       <c r="B38" s="43"/>
       <c r="C38" s="43"/>
@@ -4555,7 +4616,7 @@
       <c r="V38" s="58"/>
       <c r="W38" s="62"/>
     </row>
-    <row r="39" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A39" s="43"/>
       <c r="B39" s="43"/>
       <c r="C39" s="43"/>
@@ -4580,7 +4641,7 @@
       <c r="V39" s="58"/>
       <c r="W39" s="62"/>
     </row>
-    <row r="40" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A40" s="43"/>
       <c r="B40" s="43"/>
       <c r="C40" s="43"/>
@@ -4605,7 +4666,7 @@
       <c r="V40" s="48"/>
       <c r="W40" s="49"/>
     </row>
-    <row r="41" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A41" s="43"/>
       <c r="B41" s="43"/>
       <c r="C41" s="43"/>
@@ -4630,7 +4691,7 @@
       <c r="V41" s="48"/>
       <c r="W41" s="49"/>
     </row>
-    <row r="42" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A42" s="43"/>
       <c r="B42" s="43"/>
       <c r="C42" s="43"/>
@@ -4655,7 +4716,7 @@
       <c r="V42" s="48"/>
       <c r="W42" s="49"/>
     </row>
-    <row r="43" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A43" s="43"/>
       <c r="B43" s="43"/>
       <c r="C43" s="43"/>
@@ -4680,7 +4741,7 @@
       <c r="V43" s="48"/>
       <c r="W43" s="49"/>
     </row>
-    <row r="44" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A44" s="43"/>
       <c r="B44" s="43"/>
       <c r="C44" s="43"/>
@@ -4705,7 +4766,7 @@
       <c r="V44" s="48"/>
       <c r="W44" s="49"/>
     </row>
-    <row r="45" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A45" s="43"/>
       <c r="B45" s="43"/>
       <c r="C45" s="43"/>
@@ -4730,7 +4791,7 @@
       <c r="V45" s="48"/>
       <c r="W45" s="49"/>
     </row>
-    <row r="46" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A46" s="43"/>
       <c r="B46" s="43"/>
       <c r="C46" s="43"/>
@@ -4755,7 +4816,7 @@
       <c r="V46" s="48"/>
       <c r="W46" s="49"/>
     </row>
-    <row r="47" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A47" s="48"/>
       <c r="B47" s="48"/>
       <c r="C47" s="48"/>
@@ -4780,7 +4841,7 @@
       <c r="V47" s="48"/>
       <c r="W47" s="49"/>
     </row>
-    <row r="48" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A48" s="48"/>
       <c r="B48" s="48"/>
       <c r="C48" s="48"/>
@@ -4805,7 +4866,7 @@
       <c r="V48" s="48"/>
       <c r="W48" s="49"/>
     </row>
-    <row r="49" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A49" s="48"/>
       <c r="B49" s="48"/>
       <c r="C49" s="48"/>
@@ -4830,7 +4891,7 @@
       <c r="V49" s="48"/>
       <c r="W49" s="49"/>
     </row>
-    <row r="50" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A50" s="48"/>
       <c r="B50" s="48"/>
       <c r="C50" s="48"/>
@@ -4855,7 +4916,7 @@
       <c r="V50" s="48"/>
       <c r="W50" s="49"/>
     </row>
-    <row r="51" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A51" s="48"/>
       <c r="B51" s="48"/>
       <c r="C51" s="48"/>
@@ -4880,7 +4941,7 @@
       <c r="V51" s="48"/>
       <c r="W51" s="49"/>
     </row>
-    <row r="52" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A52" s="48"/>
       <c r="B52" s="48"/>
       <c r="C52" s="48"/>
@@ -4905,7 +4966,7 @@
       <c r="V52" s="48"/>
       <c r="W52" s="49"/>
     </row>
-    <row r="53" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A53" s="48"/>
       <c r="B53" s="48"/>
       <c r="C53" s="48"/>
@@ -4930,7 +4991,7 @@
       <c r="V53" s="48"/>
       <c r="W53" s="49"/>
     </row>
-    <row r="54" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A54" s="48"/>
       <c r="B54" s="48"/>
       <c r="C54" s="48"/>
@@ -4955,7 +5016,7 @@
       <c r="V54" s="48"/>
       <c r="W54" s="49"/>
     </row>
-    <row r="55" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A55" s="48"/>
       <c r="B55" s="48"/>
       <c r="C55" s="48"/>
@@ -4980,7 +5041,7 @@
       <c r="V55" s="48"/>
       <c r="W55" s="49"/>
     </row>
-    <row r="56" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A56" s="48"/>
       <c r="B56" s="48"/>
       <c r="C56" s="48"/>
@@ -5005,7 +5066,7 @@
       <c r="V56" s="48"/>
       <c r="W56" s="49"/>
     </row>
-    <row r="57" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A57" s="48"/>
       <c r="B57" s="48"/>
       <c r="C57" s="48"/>
@@ -5030,7 +5091,7 @@
       <c r="V57" s="48"/>
       <c r="W57" s="49"/>
     </row>
-    <row r="58" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A58" s="48"/>
       <c r="B58" s="48"/>
       <c r="C58" s="48"/>
@@ -5055,7 +5116,7 @@
       <c r="V58" s="48"/>
       <c r="W58" s="49"/>
     </row>
-    <row r="59" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A59" s="48"/>
       <c r="B59" s="48"/>
       <c r="C59" s="48"/>
@@ -5080,7 +5141,7 @@
       <c r="V59" s="48"/>
       <c r="W59" s="49"/>
     </row>
-    <row r="60" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A60" s="48"/>
       <c r="B60" s="48"/>
       <c r="C60" s="48"/>
@@ -5105,7 +5166,7 @@
       <c r="V60" s="48"/>
       <c r="W60" s="49"/>
     </row>
-    <row r="61" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A61" s="48"/>
       <c r="B61" s="48"/>
       <c r="C61" s="48"/>
@@ -5130,7 +5191,7 @@
       <c r="V61" s="48"/>
       <c r="W61" s="49"/>
     </row>
-    <row r="62" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A62" s="48"/>
       <c r="B62" s="48"/>
       <c r="C62" s="48"/>
@@ -5155,7 +5216,7 @@
       <c r="V62" s="48"/>
       <c r="W62" s="49"/>
     </row>
-    <row r="63" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A63" s="48"/>
       <c r="B63" s="48"/>
       <c r="C63" s="48"/>
@@ -5180,7 +5241,7 @@
       <c r="V63" s="48"/>
       <c r="W63" s="49"/>
     </row>
-    <row r="64" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A64" s="48"/>
       <c r="B64" s="48"/>
       <c r="C64" s="48"/>
@@ -5205,7 +5266,7 @@
       <c r="V64" s="48"/>
       <c r="W64" s="49"/>
     </row>
-    <row r="65" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A65" s="48"/>
       <c r="B65" s="48"/>
       <c r="C65" s="48"/>
@@ -5230,7 +5291,7 @@
       <c r="V65" s="48"/>
       <c r="W65" s="49"/>
     </row>
-    <row r="66" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A66" s="48"/>
       <c r="B66" s="48"/>
       <c r="C66" s="48"/>
@@ -5255,7 +5316,7 @@
       <c r="V66" s="48"/>
       <c r="W66" s="49"/>
     </row>
-    <row r="67" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A67" s="48"/>
       <c r="B67" s="48"/>
       <c r="C67" s="48"/>
@@ -5280,7 +5341,7 @@
       <c r="V67" s="48"/>
       <c r="W67" s="49"/>
     </row>
-    <row r="68" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A68" s="48"/>
       <c r="B68" s="48"/>
       <c r="C68" s="48"/>
@@ -5305,7 +5366,7 @@
       <c r="V68" s="48"/>
       <c r="W68" s="49"/>
     </row>
-    <row r="69" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A69" s="48"/>
       <c r="B69" s="48"/>
       <c r="C69" s="48"/>
@@ -5330,7 +5391,7 @@
       <c r="V69" s="48"/>
       <c r="W69" s="49"/>
     </row>
-    <row r="70" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A70" s="48"/>
       <c r="B70" s="48"/>
       <c r="C70" s="48"/>
@@ -5355,7 +5416,7 @@
       <c r="V70" s="48"/>
       <c r="W70" s="49"/>
     </row>
-    <row r="71" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A71" s="48"/>
       <c r="B71" s="48"/>
       <c r="C71" s="48"/>
@@ -5380,7 +5441,7 @@
       <c r="V71" s="48"/>
       <c r="W71" s="49"/>
     </row>
-    <row r="72" spans="1:23" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:23" ht="16" x14ac:dyDescent="0.15">
       <c r="A72" s="48"/>
       <c r="B72" s="48"/>
       <c r="C72" s="48"/>
@@ -7600,24 +7661,24 @@
       <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="26.125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="26.1640625" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="2" width="8" customWidth="1"/>
-    <col min="3" max="3" width="21.625" customWidth="1"/>
-    <col min="4" max="4" width="6.375" customWidth="1"/>
-    <col min="5" max="5" width="18.625" customWidth="1"/>
-    <col min="6" max="7" width="7.125" customWidth="1"/>
+    <col min="3" max="3" width="21.6640625" customWidth="1"/>
+    <col min="4" max="4" width="6.33203125" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" customWidth="1"/>
+    <col min="6" max="7" width="7.1640625" customWidth="1"/>
     <col min="8" max="8" width="8" customWidth="1"/>
-    <col min="9" max="9" width="7.125" customWidth="1"/>
-    <col min="10" max="10" width="44.375" customWidth="1"/>
+    <col min="9" max="9" width="7.1640625" customWidth="1"/>
+    <col min="10" max="10" width="44.33203125" customWidth="1"/>
     <col min="11" max="11" width="25.5" customWidth="1"/>
     <col min="12" max="12" width="23.5" customWidth="1"/>
-    <col min="13" max="13" width="54.875" customWidth="1"/>
+    <col min="13" max="13" width="54.83203125" customWidth="1"/>
     <col min="14" max="14" width="8" customWidth="1"/>
-    <col min="15" max="15" width="15.125" customWidth="1"/>
-    <col min="16" max="16" width="14.375" customWidth="1"/>
-    <col min="17" max="17" width="31.125" customWidth="1"/>
-    <col min="18" max="18" width="4.625" customWidth="1"/>
+    <col min="15" max="15" width="15.1640625" customWidth="1"/>
+    <col min="16" max="16" width="14.33203125" customWidth="1"/>
+    <col min="17" max="17" width="31.1640625" customWidth="1"/>
+    <col min="18" max="18" width="4.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="36" customHeight="1" x14ac:dyDescent="0.15">
@@ -7902,19 +7963,19 @@
       <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="12.125" customWidth="1"/>
-    <col min="3" max="3" width="15.125" customWidth="1"/>
-    <col min="4" max="4" width="23.125" customWidth="1"/>
-    <col min="5" max="5" width="25.625" customWidth="1"/>
-    <col min="6" max="6" width="19.625" customWidth="1"/>
-    <col min="7" max="7" width="11.375" customWidth="1"/>
-    <col min="8" max="8" width="12.375" customWidth="1"/>
-    <col min="9" max="9" width="10.375" customWidth="1"/>
+    <col min="2" max="2" width="12.1640625" customWidth="1"/>
+    <col min="3" max="3" width="15.1640625" customWidth="1"/>
+    <col min="4" max="4" width="23.1640625" customWidth="1"/>
+    <col min="5" max="5" width="25.6640625" customWidth="1"/>
+    <col min="6" max="6" width="19.6640625" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" customWidth="1"/>
+    <col min="8" max="8" width="12.33203125" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="20.25" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" ht="17" x14ac:dyDescent="0.15">
       <c r="A1" s="140" t="s">
         <v>264</v>
       </c>
@@ -7929,7 +7990,7 @@
       <c r="J1" s="141"/>
       <c r="K1" s="141"/>
     </row>
-    <row r="2" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11" ht="15" x14ac:dyDescent="0.15">
       <c r="A2" s="15" t="s">
         <v>39</v>
       </c>
@@ -7964,7 +8025,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="17"/>
       <c r="B3" s="17"/>
       <c r="C3" s="126" t="s">
@@ -7991,7 +8052,7 @@
       <c r="J3" s="27"/>
       <c r="K3" s="28"/>
     </row>
-    <row r="4" spans="1:11" ht="34.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11" ht="30" x14ac:dyDescent="0.15">
       <c r="A4" s="20"/>
       <c r="B4" s="21"/>
       <c r="C4" s="126" t="s">
@@ -8045,7 +8106,7 @@
       <c r="J5" s="27"/>
       <c r="K5" s="28"/>
     </row>
-    <row r="6" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11" ht="15" x14ac:dyDescent="0.15">
       <c r="A6" s="143"/>
       <c r="B6" s="143"/>
       <c r="C6" s="18"/>
@@ -8058,7 +8119,7 @@
       <c r="J6" s="27"/>
       <c r="K6" s="28"/>
     </row>
-    <row r="7" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11" ht="15" x14ac:dyDescent="0.15">
       <c r="A7" s="143"/>
       <c r="B7" s="143"/>
       <c r="C7" s="18"/>
@@ -8071,7 +8132,7 @@
       <c r="J7" s="27"/>
       <c r="K7" s="28"/>
     </row>
-    <row r="8" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11" ht="15" x14ac:dyDescent="0.15">
       <c r="A8" s="143"/>
       <c r="B8" s="143"/>
       <c r="C8" s="18"/>
@@ -8084,7 +8145,7 @@
       <c r="J8" s="27"/>
       <c r="K8" s="28"/>
     </row>
-    <row r="9" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:11" ht="15" x14ac:dyDescent="0.15">
       <c r="A9" s="143"/>
       <c r="B9" s="143"/>
       <c r="C9" s="18"/>
@@ -8097,7 +8158,7 @@
       <c r="J9" s="27"/>
       <c r="K9" s="28"/>
     </row>
-    <row r="10" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:11" ht="15" x14ac:dyDescent="0.15">
       <c r="A10" s="144"/>
       <c r="B10" s="144"/>
       <c r="C10" s="18"/>
@@ -8110,7 +8171,7 @@
       <c r="J10" s="27"/>
       <c r="K10" s="28"/>
     </row>
-    <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A11" s="22"/>
       <c r="B11" s="22"/>
       <c r="C11" s="18"/>
@@ -8138,23 +8199,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:XFD16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="39.5" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="4.875" customWidth="1"/>
-    <col min="2" max="3" width="6.375" customWidth="1"/>
+    <col min="1" max="1" width="4.83203125" customWidth="1"/>
+    <col min="2" max="3" width="6.33203125" customWidth="1"/>
     <col min="4" max="4" width="11.5" customWidth="1"/>
-    <col min="5" max="5" width="32.875" customWidth="1"/>
-    <col min="6" max="6" width="4.875" customWidth="1"/>
-    <col min="7" max="7" width="57.125" customWidth="1"/>
-    <col min="8" max="8" width="16.875" customWidth="1"/>
+    <col min="5" max="5" width="32.83203125" customWidth="1"/>
+    <col min="6" max="6" width="4.83203125" customWidth="1"/>
+    <col min="7" max="7" width="57.1640625" customWidth="1"/>
+    <col min="8" max="8" width="16.83203125" customWidth="1"/>
     <col min="9" max="9" width="8" customWidth="1"/>
-    <col min="10" max="11" width="6.375" customWidth="1"/>
+    <col min="10" max="11" width="6.33203125" customWidth="1"/>
     <col min="12" max="12" width="8" customWidth="1"/>
-    <col min="13" max="13" width="32.875" customWidth="1"/>
+    <col min="13" max="13" width="32.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
@@ -8189,7 +8250,7 @@
       <c r="L2" s="147"/>
       <c r="M2" s="148"/>
     </row>
-    <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
         <v>50</v>
       </c>
@@ -8230,7 +8291,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A4" s="113">
         <v>1</v>
       </c>
@@ -8267,7 +8328,7 @@
       </c>
       <c r="M4" s="113"/>
     </row>
-    <row r="5" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A5" s="113">
         <v>2</v>
       </c>
@@ -8304,7 +8365,7 @@
       </c>
       <c r="M5" s="113"/>
     </row>
-    <row r="6" spans="1:13" ht="82.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13" ht="80" x14ac:dyDescent="0.15">
       <c r="A6" s="113">
         <v>3</v>
       </c>
@@ -8343,7 +8404,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A7" s="113">
         <v>4</v>
       </c>
@@ -8380,7 +8441,7 @@
       <c r="L7" s="117"/>
       <c r="M7" s="118"/>
     </row>
-    <row r="8" spans="1:13" ht="342" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13" ht="360" x14ac:dyDescent="0.15">
       <c r="A8" s="113">
         <v>5</v>
       </c>
@@ -8417,7 +8478,7 @@
       <c r="L8" s="117"/>
       <c r="M8" s="117"/>
     </row>
-    <row r="9" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A9" s="113">
         <v>6</v>
       </c>
@@ -8454,7 +8515,7 @@
       <c r="L9" s="117"/>
       <c r="M9" s="117"/>
     </row>
-    <row r="10" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A10" s="113">
         <v>7</v>
       </c>
@@ -8491,7 +8552,7 @@
       <c r="L10" s="117"/>
       <c r="M10" s="117"/>
     </row>
-    <row r="11" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A11" s="113">
         <v>8</v>
       </c>
@@ -8528,7 +8589,7 @@
       <c r="L11" s="117"/>
       <c r="M11" s="117"/>
     </row>
-    <row r="12" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A12" s="113">
         <v>9</v>
       </c>
@@ -8565,7 +8626,7 @@
       <c r="L12" s="117"/>
       <c r="M12" s="117"/>
     </row>
-    <row r="13" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A13" s="113">
         <v>10</v>
       </c>
@@ -8602,7 +8663,7 @@
       <c r="L13" s="117"/>
       <c r="M13" s="117"/>
     </row>
-    <row r="14" spans="1:13" ht="409.5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:13" ht="409" x14ac:dyDescent="0.15">
       <c r="A14" s="113">
         <v>11</v>
       </c>
@@ -8631,7 +8692,7 @@
       <c r="L14" s="9"/>
       <c r="M14" s="12"/>
     </row>
-    <row r="15" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A15" s="113">
         <v>12</v>
       </c>
@@ -8701,19 +8762,19 @@
       <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="39.5" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="4.875" customWidth="1"/>
-    <col min="2" max="3" width="6.375" customWidth="1"/>
+    <col min="1" max="1" width="4.83203125" customWidth="1"/>
+    <col min="2" max="3" width="6.33203125" customWidth="1"/>
     <col min="4" max="4" width="11.5" customWidth="1"/>
-    <col min="5" max="5" width="32.875" customWidth="1"/>
-    <col min="6" max="6" width="4.875" customWidth="1"/>
-    <col min="7" max="7" width="57.125" customWidth="1"/>
-    <col min="8" max="8" width="16.875" customWidth="1"/>
+    <col min="5" max="5" width="32.83203125" customWidth="1"/>
+    <col min="6" max="6" width="4.83203125" customWidth="1"/>
+    <col min="7" max="7" width="57.1640625" customWidth="1"/>
+    <col min="8" max="8" width="16.83203125" customWidth="1"/>
     <col min="9" max="9" width="8" customWidth="1"/>
-    <col min="10" max="11" width="6.375" customWidth="1"/>
+    <col min="10" max="11" width="6.33203125" customWidth="1"/>
     <col min="12" max="12" width="8" customWidth="1"/>
-    <col min="13" max="13" width="32.875" customWidth="1"/>
+    <col min="13" max="13" width="32.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
@@ -8748,7 +8809,7 @@
       <c r="L2" s="147"/>
       <c r="M2" s="148"/>
     </row>
-    <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
         <v>50</v>
       </c>
@@ -8789,7 +8850,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A4" s="113">
         <v>2</v>
       </c>
@@ -8828,7 +8889,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A5" s="113">
         <v>3</v>
       </c>
@@ -8865,7 +8926,7 @@
       </c>
       <c r="M5" s="113"/>
     </row>
-    <row r="6" spans="1:13" ht="82.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13" ht="80" x14ac:dyDescent="0.15">
       <c r="A6" s="113">
         <v>4</v>
       </c>
@@ -8904,7 +8965,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A7" s="113">
         <v>5</v>
       </c>
@@ -8941,7 +9002,7 @@
       <c r="L7" s="10"/>
       <c r="M7" s="14"/>
     </row>
-    <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A8" s="113">
         <v>6</v>
       </c>
@@ -8978,7 +9039,7 @@
       <c r="L8" s="117"/>
       <c r="M8" s="118"/>
     </row>
-    <row r="9" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A9" s="113">
         <v>7</v>
       </c>
@@ -9015,7 +9076,7 @@
       <c r="L9" s="117"/>
       <c r="M9" s="117"/>
     </row>
-    <row r="10" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A10" s="113">
         <v>8</v>
       </c>
@@ -9052,7 +9113,7 @@
       <c r="L10" s="117"/>
       <c r="M10" s="117"/>
     </row>
-    <row r="11" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A11" s="113">
         <v>9</v>
       </c>
@@ -9089,7 +9150,7 @@
       <c r="L11" s="117"/>
       <c r="M11" s="117"/>
     </row>
-    <row r="12" spans="1:13" ht="270.75" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13" ht="255" x14ac:dyDescent="0.15">
       <c r="A12" s="113">
         <v>10</v>
       </c>
@@ -9126,7 +9187,7 @@
       <c r="L12" s="117"/>
       <c r="M12" s="117"/>
     </row>
-    <row r="13" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A13" s="113">
         <v>11</v>
       </c>
@@ -9163,7 +9224,7 @@
       <c r="L13" s="117"/>
       <c r="M13" s="117"/>
     </row>
-    <row r="14" spans="1:13" ht="409.5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:13" ht="409" x14ac:dyDescent="0.15">
       <c r="A14" s="113">
         <v>12</v>
       </c>
@@ -9214,25 +9275,25 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M14"/>
+  <dimension ref="A1:M15"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="39.5" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="4.875" customWidth="1"/>
-    <col min="2" max="3" width="6.375" customWidth="1"/>
+    <col min="1" max="1" width="4.83203125" customWidth="1"/>
+    <col min="2" max="3" width="6.33203125" customWidth="1"/>
     <col min="4" max="4" width="11.5" customWidth="1"/>
-    <col min="5" max="5" width="32.875" customWidth="1"/>
-    <col min="6" max="6" width="4.875" customWidth="1"/>
-    <col min="7" max="7" width="57.125" customWidth="1"/>
-    <col min="8" max="8" width="16.875" customWidth="1"/>
+    <col min="5" max="5" width="32.83203125" customWidth="1"/>
+    <col min="6" max="6" width="4.83203125" customWidth="1"/>
+    <col min="7" max="7" width="57.1640625" customWidth="1"/>
+    <col min="8" max="8" width="16.83203125" customWidth="1"/>
     <col min="9" max="9" width="8" customWidth="1"/>
-    <col min="10" max="11" width="6.375" customWidth="1"/>
+    <col min="10" max="11" width="6.33203125" customWidth="1"/>
     <col min="12" max="12" width="8" customWidth="1"/>
-    <col min="13" max="13" width="32.875" customWidth="1"/>
+    <col min="13" max="13" width="32.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
@@ -9267,7 +9328,7 @@
       <c r="L2" s="147"/>
       <c r="M2" s="148"/>
     </row>
-    <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
         <v>50</v>
       </c>
@@ -9308,7 +9369,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A4" s="113">
         <v>2</v>
       </c>
@@ -9347,7 +9408,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A5" s="113">
         <v>3</v>
       </c>
@@ -9384,7 +9445,7 @@
       </c>
       <c r="M5" s="113"/>
     </row>
-    <row r="6" spans="1:13" ht="82.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13" ht="80" x14ac:dyDescent="0.15">
       <c r="A6" s="113">
         <v>4</v>
       </c>
@@ -9423,7 +9484,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A7" s="113">
         <v>5</v>
       </c>
@@ -9460,7 +9521,7 @@
       <c r="L7" s="10"/>
       <c r="M7" s="14"/>
     </row>
-    <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A8" s="113">
         <v>6</v>
       </c>
@@ -9497,7 +9558,7 @@
       <c r="L8" s="117"/>
       <c r="M8" s="118"/>
     </row>
-    <row r="9" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A9" s="113">
         <v>7</v>
       </c>
@@ -9534,7 +9595,7 @@
       <c r="L9" s="117"/>
       <c r="M9" s="117"/>
     </row>
-    <row r="10" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A10" s="113">
         <v>8</v>
       </c>
@@ -9571,7 +9632,7 @@
       <c r="L10" s="117"/>
       <c r="M10" s="117"/>
     </row>
-    <row r="11" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A11" s="113">
         <v>9</v>
       </c>
@@ -9608,7 +9669,7 @@
       <c r="L11" s="117"/>
       <c r="M11" s="117"/>
     </row>
-    <row r="12" spans="1:13" ht="256.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13" ht="240" x14ac:dyDescent="0.15">
       <c r="A12" s="113">
         <v>10</v>
       </c>
@@ -9645,7 +9706,7 @@
       <c r="L12" s="117"/>
       <c r="M12" s="117"/>
     </row>
-    <row r="13" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A13" s="113">
         <v>11</v>
       </c>
@@ -9682,7 +9743,7 @@
       <c r="L13" s="117"/>
       <c r="M13" s="117"/>
     </row>
-    <row r="14" spans="1:13" ht="409.5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:13" ht="409" x14ac:dyDescent="0.15">
       <c r="A14" s="113">
         <v>12</v>
       </c>
@@ -9711,16 +9772,55 @@
       <c r="L14" s="9"/>
       <c r="M14" s="12"/>
     </row>
+    <row r="15" spans="1:13" ht="16" x14ac:dyDescent="0.15">
+      <c r="A15" s="113">
+        <v>13</v>
+      </c>
+      <c r="B15" s="113" t="s">
+        <v>280</v>
+      </c>
+      <c r="C15" s="113" t="s">
+        <v>156</v>
+      </c>
+      <c r="D15" s="113" t="s">
+        <v>281</v>
+      </c>
+      <c r="E15" s="149" t="s">
+        <v>282</v>
+      </c>
+      <c r="F15" s="113" t="s">
+        <v>273</v>
+      </c>
+      <c r="G15" s="115" t="s">
+        <v>283</v>
+      </c>
+      <c r="H15" s="113" t="s">
+        <v>284</v>
+      </c>
+      <c r="I15" s="113" t="s">
+        <v>212</v>
+      </c>
+      <c r="J15" s="113" t="s">
+        <v>285</v>
+      </c>
+      <c r="K15" s="113" t="s">
+        <v>285</v>
+      </c>
+      <c r="L15" s="113" t="s">
+        <v>286</v>
+      </c>
+      <c r="M15" s="115"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:M2"/>
   </mergeCells>
   <phoneticPr fontId="23" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4 I14">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4 I14:I15">
       <formula1>"生产环境,测试环境,开发环境"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F6 F14">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F6 F14:F15">
       <formula1>"新增,修改,删除"</formula1>
     </dataValidation>
     <dataValidation type="list" imeMode="on" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I5:I6">
@@ -9739,21 +9839,21 @@
       <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="39.5" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="4.875" customWidth="1"/>
-    <col min="2" max="2" width="10.125" customWidth="1"/>
-    <col min="3" max="3" width="10.625" customWidth="1"/>
-    <col min="4" max="4" width="19.625" customWidth="1"/>
-    <col min="5" max="5" width="19.375" customWidth="1"/>
-    <col min="6" max="6" width="7.875" customWidth="1"/>
-    <col min="7" max="7" width="57.125" customWidth="1"/>
-    <col min="8" max="8" width="16.875" customWidth="1"/>
+    <col min="1" max="1" width="4.83203125" customWidth="1"/>
+    <col min="2" max="2" width="10.1640625" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" customWidth="1"/>
+    <col min="4" max="4" width="19.6640625" customWidth="1"/>
+    <col min="5" max="5" width="19.33203125" customWidth="1"/>
+    <col min="6" max="6" width="7.83203125" customWidth="1"/>
+    <col min="7" max="7" width="57.1640625" customWidth="1"/>
+    <col min="8" max="8" width="16.83203125" customWidth="1"/>
     <col min="9" max="9" width="8" customWidth="1"/>
-    <col min="10" max="10" width="7.875" customWidth="1"/>
+    <col min="10" max="10" width="7.83203125" customWidth="1"/>
     <col min="11" max="11" width="7.5" customWidth="1"/>
     <col min="12" max="12" width="8" customWidth="1"/>
-    <col min="13" max="13" width="32.875" customWidth="1"/>
+    <col min="13" max="13" width="32.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
@@ -9788,7 +9888,7 @@
       <c r="L2" s="147"/>
       <c r="M2" s="148"/>
     </row>
-    <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
         <v>50</v>
       </c>
@@ -9829,7 +9929,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A4" s="113">
         <v>1</v>
       </c>
@@ -9868,12 +9968,12 @@
         <v>218</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A5" s="113">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A6" s="113">
         <v>3</v>
       </c>
@@ -9910,7 +10010,7 @@
       </c>
       <c r="M6" s="113"/>
     </row>
-    <row r="7" spans="1:13" ht="82.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" ht="80" x14ac:dyDescent="0.15">
       <c r="A7" s="113">
         <v>4</v>
       </c>
@@ -9949,7 +10049,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A8" s="113">
         <v>5</v>
       </c>
@@ -9986,7 +10086,7 @@
       <c r="L8" s="117"/>
       <c r="M8" s="118"/>
     </row>
-    <row r="9" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A9" s="113">
         <v>6</v>
       </c>
@@ -10023,7 +10123,7 @@
       <c r="L9" s="117"/>
       <c r="M9" s="117"/>
     </row>
-    <row r="10" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A10" s="113">
         <v>7</v>
       </c>
@@ -10060,7 +10160,7 @@
       <c r="L10" s="117"/>
       <c r="M10" s="117"/>
     </row>
-    <row r="11" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A11" s="113">
         <v>8</v>
       </c>
@@ -10097,7 +10197,7 @@
       <c r="L11" s="117"/>
       <c r="M11" s="117"/>
     </row>
-    <row r="12" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A12" s="113">
         <v>9</v>
       </c>
@@ -10134,7 +10234,7 @@
       <c r="L12" s="117"/>
       <c r="M12" s="117"/>
     </row>
-    <row r="13" spans="1:13" ht="256.5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:13" ht="240" x14ac:dyDescent="0.15">
       <c r="A13" s="113">
         <v>10</v>
       </c>
@@ -10171,7 +10271,7 @@
       <c r="L13" s="117"/>
       <c r="M13" s="117"/>
     </row>
-    <row r="14" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:13" ht="16" x14ac:dyDescent="0.15">
       <c r="A14" s="113">
         <v>11</v>
       </c>
@@ -10233,15 +10333,15 @@
       <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="43.125" customWidth="1"/>
+    <col min="2" max="2" width="43.1640625" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
-    <col min="6" max="6" width="20.625" customWidth="1"/>
-    <col min="7" max="7" width="42.125" customWidth="1"/>
-    <col min="8" max="8" width="15.125" customWidth="1"/>
+    <col min="6" max="6" width="20.6640625" customWidth="1"/>
+    <col min="7" max="7" width="42.1640625" customWidth="1"/>
+    <col min="8" max="8" width="15.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
